--- a/ZBP_04_socialni_aktivity.xlsx
+++ b/ZBP_04_socialni_aktivity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>trideni</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>28. 12.–3. 1. 2021</t>
+  </si>
+  <si>
+    <t>18.–24. 1. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -212,10 +215,10 @@
     <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
   </si>
   <si>
-    <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 12. 1. 2021</t>
+    <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 2. 2. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 12. 1. 2021</t>
+    <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 2. 2021</t>
   </si>
 </sst>
 </file>
@@ -590,7 +593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W302"/>
+  <dimension ref="A1:X302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,7 +601,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,16 +671,19 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
         <v>0.74</v>
@@ -739,16 +745,19 @@
       <c r="W2" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
         <v>0.28</v>
@@ -810,16 +819,19 @@
       <c r="W3" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
         <v>0.2</v>
@@ -881,16 +893,19 @@
       <c r="W4" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
         <v>0.09</v>
@@ -952,16 +967,19 @@
       <c r="W5" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
         <v>0.02</v>
@@ -1023,16 +1041,19 @@
       <c r="W6" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="n">
         <v>0.19</v>
@@ -1094,16 +1115,19 @@
       <c r="W7" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
         <v>0.06</v>
@@ -1165,16 +1189,19 @@
       <c r="W8" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9" t="n">
         <v>0.05</v>
@@ -1224,16 +1251,19 @@
       <c r="W9" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" t="n">
         <v>0.02</v>
@@ -1295,16 +1325,19 @@
       <c r="W10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" t="n">
         <v>0.015</v>
@@ -1366,16 +1399,19 @@
       <c r="W11" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="n">
         <v>0.47</v>
@@ -1437,16 +1473,19 @@
       <c r="W12" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" t="n">
         <v>0.12</v>
@@ -1505,16 +1544,19 @@
       <c r="W13" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E14" t="n">
         <v>0.04</v>
@@ -1573,16 +1615,19 @@
       <c r="W14" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" t="n">
         <v>0.05</v>
@@ -1644,16 +1689,19 @@
       <c r="W15" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H16" t="n">
         <v>0.01</v>
@@ -1703,16 +1751,19 @@
       <c r="W16" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="n">
         <v>0.72</v>
@@ -1774,16 +1825,19 @@
       <c r="W17" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="n">
         <v>0.78</v>
@@ -1845,16 +1899,19 @@
       <c r="W18" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="n">
         <v>0.71</v>
@@ -1916,16 +1973,19 @@
       <c r="W19" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="n">
         <v>0.72</v>
@@ -1987,16 +2047,19 @@
       <c r="W20" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="n">
         <v>0.75</v>
@@ -2058,16 +2121,19 @@
       <c r="W21" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="n">
         <v>0.74</v>
@@ -2129,22 +2195,25 @@
       <c r="W22" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="F23" t="n">
         <v>0.67</v>
@@ -2156,19 +2225,19 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="I23" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L23" t="n">
         <v>0.88</v>
       </c>
-      <c r="J23" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.87</v>
-      </c>
       <c r="M23" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="N23" t="n">
         <v>0.8100000000000001</v>
@@ -2180,10 +2249,10 @@
         <v>0.77</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="R23" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S23" t="n">
         <v>0.7</v>
@@ -2200,16 +2269,19 @@
       <c r="W23" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="n">
         <v>0.79</v>
@@ -2218,7 +2290,7 @@
         <v>0.71</v>
       </c>
       <c r="F24" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="G24" t="n">
         <v>0.77</v>
@@ -2242,7 +2314,7 @@
         <v>0.82</v>
       </c>
       <c r="N24" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="O24" t="n">
         <v>0.84</v>
@@ -2257,7 +2329,7 @@
         <v>0.78</v>
       </c>
       <c r="S24" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="T24" t="n">
         <v>0.78</v>
@@ -2269,18 +2341,21 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="W24" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+        <v>0.66</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D25" t="n">
         <v>0.73</v>
@@ -2337,21 +2412,24 @@
         <v>0.72</v>
       </c>
       <c r="V25" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="W25" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D26" t="n">
         <v>0.72</v>
@@ -2413,16 +2491,19 @@
       <c r="W26" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27" t="n">
         <v>0.75</v>
@@ -2484,16 +2565,19 @@
       <c r="W27" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D28" t="n">
         <v>0.71</v>
@@ -2555,16 +2639,19 @@
       <c r="W28" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D29" t="n">
         <v>0.75</v>
@@ -2626,16 +2713,19 @@
       <c r="W29" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D30" t="n">
         <v>0.79</v>
@@ -2697,16 +2787,19 @@
       <c r="W30" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D31" t="n">
         <v>0.78</v>
@@ -2768,16 +2861,19 @@
       <c r="W31" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E32" t="n">
         <v>0.8100000000000001</v>
@@ -2836,16 +2932,19 @@
       <c r="W32" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E33" t="n">
         <v>0.8</v>
@@ -2904,16 +3003,19 @@
       <c r="W33" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E34" t="n">
         <v>0.7</v>
@@ -2972,16 +3074,19 @@
       <c r="W34" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E35" t="n">
         <v>0.73</v>
@@ -3040,16 +3145,19 @@
       <c r="W35" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D36" t="n">
         <v>0.32</v>
@@ -3111,16 +3219,19 @@
       <c r="W36" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D37" t="n">
         <v>0.27</v>
@@ -3182,16 +3293,19 @@
       <c r="W37" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D38" t="n">
         <v>0.25</v>
@@ -3253,16 +3367,19 @@
       <c r="W38" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D39" t="n">
         <v>0.31</v>
@@ -3324,16 +3441,19 @@
       <c r="W39" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D40" t="n">
         <v>0.28</v>
@@ -3395,16 +3515,19 @@
       <c r="W40" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D41" t="n">
         <v>0.26</v>
@@ -3466,28 +3589,31 @@
       <c r="W41" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D42" t="n">
         <v>0.59</v>
       </c>
       <c r="E42" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F42" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="G42" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="H42" t="n">
         <v>0.24</v>
@@ -3499,19 +3625,19 @@
         <v>0.47</v>
       </c>
       <c r="K42" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="L42" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="M42" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="N42" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="O42" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="P42" t="n">
         <v>0.43</v>
@@ -3523,7 +3649,7 @@
         <v>0.19</v>
       </c>
       <c r="S42" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="T42" t="n">
         <v>0.24</v>
@@ -3537,16 +3663,19 @@
       <c r="W42" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43" t="n">
         <v>0.38</v>
@@ -3594,7 +3723,7 @@
         <v>0.23</v>
       </c>
       <c r="S43" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="T43" t="n">
         <v>0.23</v>
@@ -3608,16 +3737,19 @@
       <c r="W43" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" t="n">
         <v>0.27</v>
@@ -3665,7 +3797,7 @@
         <v>0.23</v>
       </c>
       <c r="S44" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="T44" t="n">
         <v>0.26</v>
@@ -3679,16 +3811,19 @@
       <c r="W44" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" t="n">
         <v>0.26</v>
@@ -3750,16 +3885,19 @@
       <c r="W45" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D46" t="n">
         <v>0.29</v>
@@ -3821,16 +3959,19 @@
       <c r="W46" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="X46" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D47" t="n">
         <v>0.2</v>
@@ -3892,16 +4033,19 @@
       <c r="W47" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="X47" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D48" t="n">
         <v>0.27</v>
@@ -3963,16 +4107,19 @@
       <c r="W48" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="X48" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D49" t="n">
         <v>0.42</v>
@@ -4034,16 +4181,19 @@
       <c r="W49" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D50" t="n">
         <v>0.51</v>
@@ -4105,16 +4255,19 @@
       <c r="W50" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="X50" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E51" t="n">
         <v>0.16</v>
@@ -4173,16 +4326,19 @@
       <c r="W51" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="X51" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E52" t="n">
         <v>0.16</v>
@@ -4241,16 +4397,19 @@
       <c r="W52" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="X52" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E53" t="n">
         <v>0.04</v>
@@ -4309,16 +4468,19 @@
       <c r="W53" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="X53" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E54" t="n">
         <v>0.1</v>
@@ -4377,16 +4539,19 @@
       <c r="W54" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="X54" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D55" t="n">
         <v>0.18</v>
@@ -4448,16 +4613,19 @@
       <c r="W55" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="X55" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D56" t="n">
         <v>0.21</v>
@@ -4519,16 +4687,19 @@
       <c r="W56" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="X56" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D57" t="n">
         <v>0.2</v>
@@ -4590,16 +4761,19 @@
       <c r="W57" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="X57" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D58" t="n">
         <v>0.15</v>
@@ -4661,16 +4835,19 @@
       <c r="W58" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="X58" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D59" t="n">
         <v>0.19</v>
@@ -4732,16 +4909,19 @@
       <c r="W59" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="X59" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D60" t="n">
         <v>0.22</v>
@@ -4803,46 +4983,49 @@
       <c r="W60" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="X60" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D61" t="n">
         <v>0.11</v>
       </c>
       <c r="E61" t="n">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="F61" t="n">
         <v>0.19</v>
       </c>
       <c r="G61" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="H61" t="n">
         <v>0.28</v>
       </c>
       <c r="I61" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="J61" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="K61" t="n">
         <v>0.32</v>
       </c>
       <c r="L61" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="M61" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="N61" t="n">
         <v>0.38</v>
@@ -4851,10 +5034,10 @@
         <v>0.26</v>
       </c>
       <c r="P61" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="R61" t="n">
         <v>0.19</v>
@@ -4869,21 +5052,24 @@
         <v>0.24</v>
       </c>
       <c r="V61" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="W61" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="62" spans="1:23">
+      <c r="X61" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D62" t="n">
         <v>0.2</v>
@@ -4907,13 +5093,13 @@
         <v>0.24</v>
       </c>
       <c r="K62" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="L62" t="n">
         <v>0.31</v>
       </c>
       <c r="M62" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="N62" t="n">
         <v>0.23</v>
@@ -4928,7 +5114,7 @@
         <v>0.28</v>
       </c>
       <c r="R62" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="S62" t="n">
         <v>0.21</v>
@@ -4937,7 +5123,7 @@
         <v>0.2</v>
       </c>
       <c r="U62" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="V62" t="n">
         <v>0.2</v>
@@ -4945,16 +5131,19 @@
       <c r="W62" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="63" spans="1:23">
+      <c r="X62" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D63" t="n">
         <v>0.2</v>
@@ -5016,16 +5205,19 @@
       <c r="W63" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="X63" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D64" t="n">
         <v>0.18</v>
@@ -5087,16 +5279,19 @@
       <c r="W64" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="X64" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D65" t="n">
         <v>0.22</v>
@@ -5158,16 +5353,19 @@
       <c r="W65" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="66" spans="1:23">
+      <c r="X65" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D66" t="n">
         <v>0.22</v>
@@ -5229,16 +5427,19 @@
       <c r="W66" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="X66" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D67" t="n">
         <v>0.17</v>
@@ -5300,16 +5501,19 @@
       <c r="W67" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="X67" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D68" t="n">
         <v>0.2</v>
@@ -5371,16 +5575,19 @@
       <c r="W68" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:23">
+      <c r="X68" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D69" t="n">
         <v>0.17</v>
@@ -5442,16 +5649,19 @@
       <c r="W69" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="X69" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E70" t="n">
         <v>0.1</v>
@@ -5510,16 +5720,19 @@
       <c r="W70" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="71" spans="1:23">
+      <c r="X70" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E71" t="n">
         <v>0.08</v>
@@ -5578,16 +5791,19 @@
       <c r="W71" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="72" spans="1:23">
+      <c r="X71" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E72" t="n">
         <v>0.08</v>
@@ -5646,16 +5862,19 @@
       <c r="W72" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:23">
+      <c r="X72" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E73" t="n">
         <v>0.14</v>
@@ -5714,16 +5933,19 @@
       <c r="W73" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:23">
+      <c r="X73" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D74" t="n">
         <v>0.09</v>
@@ -5785,16 +6007,19 @@
       <c r="W74" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:23">
+      <c r="X74" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D75" t="n">
         <v>0.09</v>
@@ -5856,16 +6081,19 @@
       <c r="W75" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="76" spans="1:23">
+      <c r="X75" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D76" t="n">
         <v>0.08</v>
@@ -5927,16 +6155,19 @@
       <c r="W76" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="77" spans="1:23">
+      <c r="X76" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D77" t="n">
         <v>0.1</v>
@@ -5998,16 +6229,19 @@
       <c r="W77" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="78" spans="1:23">
+      <c r="X77" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D78" t="n">
         <v>0.07000000000000001</v>
@@ -6069,16 +6303,19 @@
       <c r="W78" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="79" spans="1:23">
+      <c r="X78" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D79" t="n">
         <v>0.09</v>
@@ -6140,16 +6377,19 @@
       <c r="W79" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="80" spans="1:23">
+      <c r="X79" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D80" t="n">
         <v>0.06</v>
@@ -6161,31 +6401,31 @@
         <v>0.06</v>
       </c>
       <c r="G80" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="H80" t="n">
         <v>0.1</v>
       </c>
       <c r="I80" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="J80" t="n">
         <v>0.16</v>
       </c>
       <c r="K80" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="L80" t="n">
         <v>0.37</v>
       </c>
       <c r="M80" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="N80" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="O80" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="P80" t="n">
         <v>0.31</v>
@@ -6211,16 +6451,19 @@
       <c r="W80" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="81" spans="1:23">
+      <c r="X80" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B81" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D81" t="n">
         <v>0.13</v>
@@ -6250,7 +6493,7 @@
         <v>0.18</v>
       </c>
       <c r="M81" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="N81" t="n">
         <v>0.27</v>
@@ -6268,7 +6511,7 @@
         <v>0.09</v>
       </c>
       <c r="S81" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="T81" t="n">
         <v>0.07000000000000001</v>
@@ -6282,16 +6525,19 @@
       <c r="W81" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="82" spans="1:23">
+      <c r="X81" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B82" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D82" t="n">
         <v>0.09</v>
@@ -6353,16 +6599,19 @@
       <c r="W82" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:23">
+      <c r="X82" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D83" t="n">
         <v>0.09</v>
@@ -6424,16 +6673,19 @@
       <c r="W83" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="84" spans="1:23">
+      <c r="X83" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D84" t="n">
         <v>0.08</v>
@@ -6495,16 +6747,19 @@
       <c r="W84" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="85" spans="1:23">
+      <c r="X84" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D85" t="n">
         <v>0.07000000000000001</v>
@@ -6566,16 +6821,19 @@
       <c r="W85" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="86" spans="1:23">
+      <c r="X85" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D86" t="n">
         <v>0.09</v>
@@ -6637,16 +6895,19 @@
       <c r="W86" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="87" spans="1:23">
+      <c r="X86" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D87" t="n">
         <v>0.11</v>
@@ -6708,16 +6969,19 @@
       <c r="W87" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="88" spans="1:23">
+      <c r="X87" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D88" t="n">
         <v>0.13</v>
@@ -6779,16 +7043,19 @@
       <c r="W88" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="89" spans="1:23">
+      <c r="X88" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B89" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E89" t="n">
         <v>0.03</v>
@@ -6847,16 +7114,19 @@
       <c r="W89" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="90" spans="1:23">
+      <c r="X89" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B90" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E90" t="n">
         <v>0.04</v>
@@ -6915,16 +7185,19 @@
       <c r="W90" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="91" spans="1:23">
+      <c r="X90" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B91" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E91" t="n">
         <v>0.02</v>
@@ -6983,16 +7256,19 @@
       <c r="W91" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="92" spans="1:23">
+      <c r="X91" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B92" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E92" t="n">
         <v>0.01</v>
@@ -7051,16 +7327,19 @@
       <c r="W92" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="93" spans="1:23">
+      <c r="X92" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D93" t="n">
         <v>0.04</v>
@@ -7122,16 +7401,19 @@
       <c r="W93" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="94" spans="1:23">
+      <c r="X93" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D94" t="n">
         <v>0.03</v>
@@ -7193,16 +7475,19 @@
       <c r="W94" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="95" spans="1:23">
+      <c r="X94" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D95" t="n">
         <v>0.01</v>
@@ -7264,16 +7549,19 @@
       <c r="W95" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="96" spans="1:23">
+      <c r="X95" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D96" t="n">
         <v>0.03</v>
@@ -7335,16 +7623,19 @@
       <c r="W96" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="97" spans="1:23">
+      <c r="X96" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D97" t="n">
         <v>0.03</v>
@@ -7406,16 +7697,19 @@
       <c r="W97" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="98" spans="1:23">
+      <c r="X97" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D98" t="n">
         <v>0.02</v>
@@ -7477,16 +7771,19 @@
       <c r="W98" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="99" spans="1:23">
+      <c r="X98" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B99" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D99" t="n">
         <v>0.28</v>
@@ -7495,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G99" t="n">
         <v>0.05</v>
@@ -7510,13 +7807,13 @@
         <v>0.06</v>
       </c>
       <c r="K99" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="L99" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M99" t="n">
         <v>0.09</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.08</v>
       </c>
       <c r="N99" t="n">
         <v>0.09</v>
@@ -7531,7 +7828,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="R99" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="S99" t="n">
         <v>0.03</v>
@@ -7548,16 +7845,19 @@
       <c r="W99" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="100" spans="1:23">
+      <c r="X99" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B100" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D100" t="n">
         <v>0.04</v>
@@ -7599,7 +7899,7 @@
         <v>0.02</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="R100" t="n">
         <v>0.015</v>
@@ -7619,16 +7919,19 @@
       <c r="W100" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="101" spans="1:23">
+      <c r="X100" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B101" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D101" t="n">
         <v>0.02</v>
@@ -7690,16 +7993,19 @@
       <c r="W101" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="102" spans="1:23">
+      <c r="X101" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D102" t="n">
         <v>0.03</v>
@@ -7761,16 +8067,19 @@
       <c r="W102" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="103" spans="1:23">
+      <c r="X102" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D103" t="n">
         <v>0.02</v>
@@ -7832,16 +8141,19 @@
       <c r="W103" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="104" spans="1:23">
+      <c r="X103" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D104" t="n">
         <v>0.02</v>
@@ -7903,16 +8215,19 @@
       <c r="W104" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="105" spans="1:23">
+      <c r="X104" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D105" t="n">
         <v>0.02</v>
@@ -7974,16 +8289,19 @@
       <c r="W105" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="106" spans="1:23">
+      <c r="X105" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D106" t="n">
         <v>0.03</v>
@@ -8045,16 +8363,19 @@
       <c r="W106" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="107" spans="1:23">
+      <c r="X106" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B107" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D107" t="n">
         <v>0.05</v>
@@ -8116,16 +8437,19 @@
       <c r="W107" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="108" spans="1:23">
+      <c r="X107" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B108" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E108" t="n">
         <v>0.02</v>
@@ -8184,16 +8508,19 @@
       <c r="W108" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="109" spans="1:23">
+      <c r="X108" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B109" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E109" t="n">
         <v>0.005</v>
@@ -8252,16 +8579,19 @@
       <c r="W109" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="110" spans="1:23">
+      <c r="X109" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B110" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -8320,16 +8650,19 @@
       <c r="W110" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="111" spans="1:23">
+      <c r="X110" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B111" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -8388,16 +8721,19 @@
       <c r="W111" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="112" spans="1:23">
+      <c r="X111" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D112" t="n">
         <v>0.25</v>
@@ -8459,16 +8795,19 @@
       <c r="W112" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="113" spans="1:23">
+      <c r="X112" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C113" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D113" t="n">
         <v>0.21</v>
@@ -8530,16 +8869,19 @@
       <c r="W113" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="114" spans="1:23">
+      <c r="X113" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D114" t="n">
         <v>0.14</v>
@@ -8601,16 +8943,19 @@
       <c r="W114" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="115" spans="1:23">
+      <c r="X114" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D115" t="n">
         <v>0.25</v>
@@ -8672,16 +9017,19 @@
       <c r="W115" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="116" spans="1:23">
+      <c r="X115" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D116" t="n">
         <v>0.2</v>
@@ -8743,16 +9091,19 @@
       <c r="W116" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="117" spans="1:23">
+      <c r="X116" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D117" t="n">
         <v>0.16</v>
@@ -8814,16 +9165,19 @@
       <c r="W117" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="118" spans="1:23">
+      <c r="X117" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B118" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D118" t="n">
         <v>0.37</v>
@@ -8835,7 +9189,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G118" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H118" t="n">
         <v>0.12</v>
@@ -8847,19 +9201,19 @@
         <v>0.47</v>
       </c>
       <c r="K118" t="n">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="L118" t="n">
         <v>0.68</v>
       </c>
       <c r="M118" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="N118" t="n">
         <v>0.6</v>
       </c>
       <c r="O118" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="P118" t="n">
         <v>0.48</v>
@@ -8885,16 +9239,19 @@
       <c r="W118" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="119" spans="1:23">
+      <c r="X118" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B119" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D119" t="n">
         <v>0.2</v>
@@ -8936,7 +9293,7 @@
         <v>0.37</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="R119" t="n">
         <v>0.03</v>
@@ -8951,21 +9308,24 @@
         <v>0.17</v>
       </c>
       <c r="V119" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="W119" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="120" spans="1:23">
+      <c r="X119" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B120" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C120" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D120" t="n">
         <v>0.19</v>
@@ -9027,16 +9387,19 @@
       <c r="W120" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="121" spans="1:23">
+      <c r="X120" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B121" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C121" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D121" t="n">
         <v>0.25</v>
@@ -9098,16 +9461,19 @@
       <c r="W121" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="122" spans="1:23">
+      <c r="X121" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D122" t="n">
         <v>0.13</v>
@@ -9169,16 +9535,19 @@
       <c r="W122" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="123" spans="1:23">
+      <c r="X122" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D123" t="n">
         <v>0.17</v>
@@ -9240,16 +9609,19 @@
       <c r="W123" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="124" spans="1:23">
+      <c r="X123" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C124" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D124" t="n">
         <v>0.19</v>
@@ -9311,16 +9683,19 @@
       <c r="W124" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="125" spans="1:23">
+      <c r="X124" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D125" t="n">
         <v>0.25</v>
@@ -9382,16 +9757,19 @@
       <c r="W125" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="126" spans="1:23">
+      <c r="X125" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B126" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D126" t="n">
         <v>0.26</v>
@@ -9453,16 +9831,19 @@
       <c r="W126" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="127" spans="1:23">
+      <c r="X126" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C127" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E127" t="n">
         <v>0.02</v>
@@ -9521,16 +9902,19 @@
       <c r="W127" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="128" spans="1:23">
+      <c r="X127" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B128" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C128" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E128" t="n">
         <v>0.01</v>
@@ -9589,16 +9973,19 @@
       <c r="W128" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="129" spans="1:23">
+      <c r="X128" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B129" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E129" t="n">
         <v>0.005</v>
@@ -9657,16 +10044,19 @@
       <c r="W129" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="130" spans="1:23">
+      <c r="X129" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B130" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C130" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -9725,16 +10115,19 @@
       <c r="W130" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="131" spans="1:23">
+      <c r="X130" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C131" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D131" t="n">
         <v>0.09</v>
@@ -9796,16 +10189,19 @@
       <c r="W131" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="132" spans="1:23">
+      <c r="X131" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C132" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D132" t="n">
         <v>0.08</v>
@@ -9867,16 +10263,19 @@
       <c r="W132" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="133" spans="1:23">
+      <c r="X132" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D133" t="n">
         <v>0.04</v>
@@ -9938,16 +10337,19 @@
       <c r="W133" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="134" spans="1:23">
+      <c r="X133" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D134" t="n">
         <v>0.07000000000000001</v>
@@ -10009,16 +10411,19 @@
       <c r="W134" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="135" spans="1:23">
+      <c r="X134" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D135" t="n">
         <v>0.07000000000000001</v>
@@ -10080,16 +10485,19 @@
       <c r="W135" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="136" spans="1:23">
+      <c r="X135" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C136" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D136" t="n">
         <v>0.06</v>
@@ -10151,16 +10559,19 @@
       <c r="W136" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="137" spans="1:23">
+      <c r="X136" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D137" t="n">
         <v>0.2</v>
@@ -10187,19 +10598,19 @@
         <v>0.17</v>
       </c>
       <c r="L137" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="M137" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="N137" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="O137" t="n">
         <v>0.1</v>
       </c>
       <c r="P137" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Q137" t="n">
         <v>0.15</v>
@@ -10222,16 +10633,19 @@
       <c r="W137" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="138" spans="1:23">
+      <c r="X137" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B138" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C138" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D138" t="n">
         <v>0.13</v>
@@ -10293,16 +10707,19 @@
       <c r="W138" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="139" spans="1:23">
+      <c r="X138" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B139" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D139" t="n">
         <v>0.06</v>
@@ -10364,16 +10781,19 @@
       <c r="W139" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="140" spans="1:23">
+      <c r="X139" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B140" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C140" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D140" t="n">
         <v>0.07000000000000001</v>
@@ -10435,16 +10855,19 @@
       <c r="W140" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="141" spans="1:23">
+      <c r="X140" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B141" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D141" t="n">
         <v>0.05</v>
@@ -10506,16 +10929,19 @@
       <c r="W141" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="142" spans="1:23">
+      <c r="X141" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B142" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C142" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D142" t="n">
         <v>0.05</v>
@@ -10577,16 +11003,19 @@
       <c r="W142" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="143" spans="1:23">
+      <c r="X142" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B143" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C143" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D143" t="n">
         <v>0.07000000000000001</v>
@@ -10648,16 +11077,19 @@
       <c r="W143" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="144" spans="1:23">
+      <c r="X143" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B144" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C144" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D144" t="n">
         <v>0.08</v>
@@ -10719,16 +11151,19 @@
       <c r="W144" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="145" spans="1:23">
+      <c r="X144" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B145" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C145" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D145" t="n">
         <v>0.1</v>
@@ -10790,16 +11225,19 @@
       <c r="W145" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="146" spans="1:23">
+      <c r="X145" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B146" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E146" t="n">
         <v>0.01</v>
@@ -10858,16 +11296,19 @@
       <c r="W146" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="147" spans="1:23">
+      <c r="X146" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B147" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C147" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
@@ -10926,16 +11367,19 @@
       <c r="W147" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="148" spans="1:23">
+      <c r="X147" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B148" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C148" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
@@ -10994,16 +11438,19 @@
       <c r="W148" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="149" spans="1:23">
+      <c r="X148" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B149" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E149" t="n">
         <v>0.01</v>
@@ -11062,16 +11509,19 @@
       <c r="W149" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="150" spans="1:23">
+      <c r="X149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B150" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C150" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H150" t="n">
         <v>0.04</v>
@@ -11121,16 +11571,19 @@
       <c r="W150" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="151" spans="1:23">
+      <c r="X150" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C151" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H151" t="n">
         <v>0.05</v>
@@ -11180,16 +11633,19 @@
       <c r="W151" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="152" spans="1:23">
+      <c r="X151" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B152" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C152" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H152" t="n">
         <v>0.04</v>
@@ -11239,16 +11695,19 @@
       <c r="W152" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="153" spans="1:23">
+      <c r="X152" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B153" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C153" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H153" t="n">
         <v>0.05</v>
@@ -11298,16 +11757,19 @@
       <c r="W153" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="154" spans="1:23">
+      <c r="X153" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B154" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C154" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H154" t="n">
         <v>0.04</v>
@@ -11357,16 +11819,19 @@
       <c r="W154" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="155" spans="1:23">
+      <c r="X154" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B155" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C155" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H155" t="n">
         <v>0.06</v>
@@ -11416,19 +11881,22 @@
       <c r="W155" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="156" spans="1:23">
+      <c r="X155" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B156" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H156" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I156" t="n">
         <v>0.06</v>
@@ -11437,16 +11905,16 @@
         <v>0.14</v>
       </c>
       <c r="K156" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="L156" t="n">
         <v>0.21</v>
       </c>
       <c r="M156" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="N156" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="O156" t="n">
         <v>0.15</v>
@@ -11455,10 +11923,10 @@
         <v>0.16</v>
       </c>
       <c r="Q156" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="R156" t="n">
-        <v>0.01</v>
+        <v>0.015</v>
       </c>
       <c r="S156" t="n">
         <v>0.015</v>
@@ -11475,16 +11943,19 @@
       <c r="W156" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="157" spans="1:23">
+      <c r="X156" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B157" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C157" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H157" t="n">
         <v>0.05</v>
@@ -11511,7 +11982,7 @@
         <v>0.13</v>
       </c>
       <c r="P157" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="Q157" t="n">
         <v>0.06</v>
@@ -11523,7 +11994,7 @@
         <v>0.02</v>
       </c>
       <c r="T157" t="n">
-        <v>0.02</v>
+        <v>0.015</v>
       </c>
       <c r="U157" t="n">
         <v>0.02</v>
@@ -11534,16 +12005,19 @@
       <c r="W157" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="158" spans="1:23">
+      <c r="X157" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B158" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H158" t="n">
         <v>0.05</v>
@@ -11567,10 +12041,10 @@
         <v>0.11</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="P158" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="Q158" t="n">
         <v>0.05</v>
@@ -11593,16 +12067,19 @@
       <c r="W158" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="159" spans="1:23">
+      <c r="X158" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B159" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C159" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H159" t="n">
         <v>0.04</v>
@@ -11652,16 +12129,19 @@
       <c r="W159" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="160" spans="1:23">
+      <c r="X159" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B160" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C160" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H160" t="n">
         <v>0.05</v>
@@ -11711,16 +12191,19 @@
       <c r="W160" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="161" spans="1:23">
+      <c r="X160" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B161" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C161" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H161" t="n">
         <v>0.05</v>
@@ -11770,16 +12253,19 @@
       <c r="W161" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="162" spans="1:23">
+      <c r="X161" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B162" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C162" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H162" t="n">
         <v>0.05</v>
@@ -11829,16 +12315,19 @@
       <c r="W162" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="163" spans="1:23">
+      <c r="X162" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B163" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C163" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H163" t="n">
         <v>0.03</v>
@@ -11888,16 +12377,19 @@
       <c r="W163" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="164" spans="1:23">
+      <c r="X163" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B164" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C164" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H164" t="n">
         <v>0.04</v>
@@ -11947,16 +12439,19 @@
       <c r="W164" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="165" spans="1:23">
+      <c r="X164" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B165" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H165" t="n">
         <v>0.03</v>
@@ -12006,16 +12501,19 @@
       <c r="W165" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="166" spans="1:23">
+      <c r="X165" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B166" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C166" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H166" t="n">
         <v>0.05</v>
@@ -12065,16 +12563,19 @@
       <c r="W166" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="167" spans="1:23">
+      <c r="X166" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B167" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C167" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H167" t="n">
         <v>0.05</v>
@@ -12124,16 +12625,19 @@
       <c r="W167" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="168" spans="1:23">
+      <c r="X167" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B168" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C168" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H168" t="n">
         <v>0.06</v>
@@ -12183,16 +12687,19 @@
       <c r="W168" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="169" spans="1:23">
+      <c r="X168" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B169" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C169" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D169" t="n">
         <v>0.03</v>
@@ -12254,16 +12761,19 @@
       <c r="W169" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:23">
+      <c r="X169" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B170" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C170" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D170" t="n">
         <v>0.03</v>
@@ -12325,16 +12835,19 @@
       <c r="W170" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:23">
+      <c r="X170" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C171" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D171" t="n">
         <v>0.015</v>
@@ -12396,16 +12909,19 @@
       <c r="W171" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:23">
+      <c r="X171" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B172" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C172" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D172" t="n">
         <v>0.02</v>
@@ -12467,16 +12983,19 @@
       <c r="W172" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:23">
+      <c r="X172" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B173" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C173" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D173" t="n">
         <v>0.02</v>
@@ -12538,16 +13057,19 @@
       <c r="W173" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:23">
+      <c r="X173" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B174" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C174" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D174" t="n">
         <v>0.02</v>
@@ -12609,16 +13131,19 @@
       <c r="W174" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:23">
+      <c r="X174" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B175" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C175" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D175" t="n">
         <v>0.09</v>
@@ -12633,7 +13158,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="I175" t="n">
         <v>0.08</v>
@@ -12642,16 +13167,16 @@
         <v>0.11</v>
       </c>
       <c r="K175" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="L175" t="n">
         <v>0.2</v>
       </c>
       <c r="M175" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="N175" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="O175" t="n">
         <v>0.22</v>
@@ -12680,16 +13205,19 @@
       <c r="W175" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:23">
+      <c r="X175" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B176" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C176" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D176" t="n">
         <v>0.08</v>
@@ -12713,7 +13241,7 @@
         <v>0.08</v>
       </c>
       <c r="K176" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="L176" t="n">
         <v>0.11</v>
@@ -12751,16 +13279,19 @@
       <c r="W176" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:23">
+      <c r="X176" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B177" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C177" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D177" t="n">
         <v>0.02</v>
@@ -12822,16 +13353,19 @@
       <c r="W177" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:23">
+      <c r="X177" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B178" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C178" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D178" t="n">
         <v>0.02</v>
@@ -12893,16 +13427,19 @@
       <c r="W178" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:23">
+      <c r="X178" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B179" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C179" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D179" t="n">
         <v>0.02</v>
@@ -12964,16 +13501,19 @@
       <c r="W179" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:23">
+      <c r="X179" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B180" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C180" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D180" t="n">
         <v>0.02</v>
@@ -13035,16 +13575,19 @@
       <c r="W180" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:23">
+      <c r="X180" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C181" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D181" t="n">
         <v>0.04</v>
@@ -13106,16 +13649,19 @@
       <c r="W181" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:23">
+      <c r="X181" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B182" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C182" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D182" t="n">
         <v>0.02</v>
@@ -13177,16 +13723,19 @@
       <c r="W182" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:23">
+      <c r="X182" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B183" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C183" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D183" t="n">
         <v>0.03</v>
@@ -13248,16 +13797,19 @@
       <c r="W183" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:23">
+      <c r="X183" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B184" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C184" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
@@ -13316,16 +13868,19 @@
       <c r="W184" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:23">
+      <c r="X184" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B185" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C185" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -13384,16 +13939,19 @@
       <c r="W185" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:23">
+      <c r="X185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B186" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C186" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -13452,16 +14010,19 @@
       <c r="W186" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:23">
+      <c r="X186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B187" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C187" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -13520,16 +14081,19 @@
       <c r="W187" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:23">
+      <c r="X187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B188" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C188" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D188" t="n">
         <v>0.02</v>
@@ -13591,16 +14155,19 @@
       <c r="W188" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:23">
+      <c r="X188" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B189" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C189" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D189" t="n">
         <v>0.015</v>
@@ -13662,16 +14229,19 @@
       <c r="W189" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:23">
+      <c r="X189" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B190" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C190" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D190" t="n">
         <v>0.005</v>
@@ -13733,16 +14303,19 @@
       <c r="W190" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:23">
+      <c r="X190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B191" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C191" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D191" t="n">
         <v>0.005</v>
@@ -13804,16 +14377,19 @@
       <c r="W191" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:23">
+      <c r="X191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B192" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C192" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D192" t="n">
         <v>0.015</v>
@@ -13875,16 +14451,19 @@
       <c r="W192" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:23">
+      <c r="X192" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B193" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C193" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D193" t="n">
         <v>0.015</v>
@@ -13946,16 +14525,19 @@
       <c r="W193" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:23">
+      <c r="X193" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B194" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C194" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D194" t="n">
         <v>0.06</v>
@@ -13988,13 +14570,13 @@
         <v>0.1</v>
       </c>
       <c r="N194" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="O194" t="n">
         <v>0.08</v>
       </c>
       <c r="P194" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q194" t="n">
         <v>0.02</v>
@@ -14017,16 +14599,19 @@
       <c r="W194" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:23">
+      <c r="X194" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B195" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C195" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D195" t="n">
         <v>0.07000000000000001</v>
@@ -14088,16 +14673,19 @@
       <c r="W195" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:23">
+      <c r="X195" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B196" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C196" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D196" t="n">
         <v>0.01</v>
@@ -14159,16 +14747,19 @@
       <c r="W196" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:23">
+      <c r="X196" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B197" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C197" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D197" t="n">
         <v>0.015</v>
@@ -14230,16 +14821,19 @@
       <c r="W197" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:23">
+      <c r="X197" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B198" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C198" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D198" t="n">
         <v>0.01</v>
@@ -14301,16 +14895,19 @@
       <c r="W198" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:23">
+      <c r="X198" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B199" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C199" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D199" t="n">
         <v>0.015</v>
@@ -14372,16 +14969,19 @@
       <c r="W199" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:23">
+      <c r="X199" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B200" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C200" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D200" t="n">
         <v>0.01</v>
@@ -14443,16 +15043,19 @@
       <c r="W200" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:23">
+      <c r="X200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B201" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C201" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D201" t="n">
         <v>0.02</v>
@@ -14514,16 +15117,19 @@
       <c r="W201" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:23">
+      <c r="X201" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B202" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C202" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D202" t="n">
         <v>0.01</v>
@@ -14585,84 +15191,90 @@
       <c r="W202" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:23">
+      <c r="X202" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B203" t="s">
+        <v>62</v>
+      </c>
+      <c r="C203" t="s">
+        <v>35</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O203" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P203" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R203" t="n">
+        <v>0</v>
+      </c>
+      <c r="S203" t="n">
+        <v>0</v>
+      </c>
+      <c r="T203" t="n">
+        <v>0</v>
+      </c>
+      <c r="U203" t="n">
+        <v>0</v>
+      </c>
+      <c r="V203" t="n">
+        <v>0</v>
+      </c>
+      <c r="W203" t="n">
+        <v>0</v>
+      </c>
+      <c r="X203" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="204" spans="1:24">
+      <c r="A204" t="s">
         <v>61</v>
       </c>
-      <c r="C203" t="s">
-        <v>34</v>
-      </c>
-      <c r="E203" t="n">
-        <v>0</v>
-      </c>
-      <c r="F203" t="n">
-        <v>0</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="n">
-        <v>0</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L203" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M203" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N203" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O203" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P203" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q203" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R203" t="n">
-        <v>0</v>
-      </c>
-      <c r="S203" t="n">
-        <v>0</v>
-      </c>
-      <c r="T203" t="n">
-        <v>0</v>
-      </c>
-      <c r="U203" t="n">
-        <v>0</v>
-      </c>
-      <c r="V203" t="n">
-        <v>0</v>
-      </c>
-      <c r="W203" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:23">
-      <c r="A204" t="s">
-        <v>60</v>
-      </c>
       <c r="B204" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E204" t="n">
         <v>0</v>
@@ -14721,16 +15333,19 @@
       <c r="W204" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:23">
+      <c r="X204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B205" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
@@ -14789,16 +15404,19 @@
       <c r="W205" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:23">
+      <c r="X205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B206" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
@@ -14857,16 +15475,19 @@
       <c r="W206" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:23">
+      <c r="X206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B207" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D207" t="n">
         <v>0.5600000000000001</v>
@@ -14928,16 +15549,19 @@
       <c r="W207" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="208" spans="1:23">
+      <c r="X207" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B208" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C208" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D208" t="n">
         <v>0.47</v>
@@ -14999,16 +15623,19 @@
       <c r="W208" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="209" spans="1:23">
+      <c r="X208" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B209" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C209" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D209" t="n">
         <v>0.4</v>
@@ -15070,16 +15697,19 @@
       <c r="W209" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="210" spans="1:23">
+      <c r="X209" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B210" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C210" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D210" t="n">
         <v>0.47</v>
@@ -15141,16 +15771,19 @@
       <c r="W210" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="211" spans="1:23">
+      <c r="X210" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B211" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C211" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D211" t="n">
         <v>0.46</v>
@@ -15212,16 +15845,19 @@
       <c r="W211" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="212" spans="1:23">
+      <c r="X211" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C212" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D212" t="n">
         <v>0.47</v>
@@ -15283,49 +15919,52 @@
       <c r="W212" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="213" spans="1:23">
+      <c r="X212" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B213" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C213" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D213" t="n">
         <v>0.63</v>
       </c>
       <c r="E213" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="F213" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="G213" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="H213" t="n">
         <v>0.62</v>
       </c>
       <c r="I213" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="J213" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="K213" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="L213" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="M213" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="N213" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="O213" t="n">
         <v>0.61</v>
@@ -15334,7 +15973,7 @@
         <v>0.66</v>
       </c>
       <c r="Q213" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="R213" t="n">
         <v>0.47</v>
@@ -15354,16 +15993,19 @@
       <c r="W213" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="214" spans="1:23">
+      <c r="X213" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B214" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C214" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D214" t="n">
         <v>0.61</v>
@@ -15425,16 +16067,19 @@
       <c r="W214" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="215" spans="1:23">
+      <c r="X214" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B215" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C215" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D215" t="n">
         <v>0.46</v>
@@ -15488,24 +16133,27 @@
         <v>0.46</v>
       </c>
       <c r="U215" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="V215" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="W215" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="216" spans="1:23">
+      <c r="X215" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B216" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C216" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D216" t="n">
         <v>0.48</v>
@@ -15567,16 +16215,19 @@
       <c r="W216" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="217" spans="1:23">
+      <c r="X216" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B217" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C217" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D217" t="n">
         <v>0.45</v>
@@ -15638,16 +16289,19 @@
       <c r="W217" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="218" spans="1:23">
+      <c r="X217" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B218" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C218" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D218" t="n">
         <v>0.46</v>
@@ -15709,16 +16363,19 @@
       <c r="W218" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="219" spans="1:23">
+      <c r="X218" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B219" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C219" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D219" t="n">
         <v>0.49</v>
@@ -15780,16 +16437,19 @@
       <c r="W219" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="220" spans="1:23">
+      <c r="X219" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B220" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C220" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D220" t="n">
         <v>0.49</v>
@@ -15851,16 +16511,19 @@
       <c r="W220" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="221" spans="1:23">
+      <c r="X220" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B221" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C221" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D221" t="n">
         <v>0.4</v>
@@ -15922,16 +16585,19 @@
       <c r="W221" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="222" spans="1:23">
+      <c r="X221" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B222" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C222" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E222" t="n">
         <v>0.38</v>
@@ -15990,16 +16656,19 @@
       <c r="W222" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="223" spans="1:23">
+      <c r="X222" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B223" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C223" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E223" t="n">
         <v>0.41</v>
@@ -16058,16 +16727,19 @@
       <c r="W223" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="224" spans="1:23">
+      <c r="X223" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B224" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C224" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E224" t="n">
         <v>0.34</v>
@@ -16126,16 +16798,19 @@
       <c r="W224" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="225" spans="1:23">
+      <c r="X224" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B225" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C225" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E225" t="n">
         <v>0.32</v>
@@ -16194,16 +16869,19 @@
       <c r="W225" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="226" spans="1:23">
+      <c r="X225" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B226" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C226" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E226" t="n">
         <v>0.17</v>
@@ -16262,16 +16940,19 @@
       <c r="W226" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="227" spans="1:23">
+      <c r="X226" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B227" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C227" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E227" t="n">
         <v>0.14</v>
@@ -16330,16 +17011,19 @@
       <c r="W227" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="228" spans="1:23">
+      <c r="X227" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B228" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C228" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E228" t="n">
         <v>0.08</v>
@@ -16398,16 +17082,19 @@
       <c r="W228" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="229" spans="1:23">
+      <c r="X228" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B229" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C229" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E229" t="n">
         <v>0.16</v>
@@ -16466,16 +17153,19 @@
       <c r="W229" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="230" spans="1:23">
+      <c r="X229" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B230" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C230" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E230" t="n">
         <v>0.13</v>
@@ -16534,16 +17224,19 @@
       <c r="W230" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="231" spans="1:23">
+      <c r="X230" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B231" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C231" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E231" t="n">
         <v>0.11</v>
@@ -16602,43 +17295,46 @@
       <c r="W231" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="232" spans="1:23">
+      <c r="X231" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B232" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C232" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E232" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F232" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
       <c r="G232" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="H232" t="n">
         <v>0.38</v>
       </c>
       <c r="I232" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="J232" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="K232" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="L232" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="M232" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="N232" t="n">
         <v>0.39</v>
@@ -16647,13 +17343,13 @@
         <v>0.37</v>
       </c>
       <c r="P232" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="Q232" t="n">
         <v>0.26</v>
       </c>
       <c r="R232" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="S232" t="n">
         <v>0.17</v>
@@ -16665,21 +17361,24 @@
         <v>0.23</v>
       </c>
       <c r="V232" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="W232" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="233" spans="1:23">
+      <c r="X232" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24">
       <c r="A233" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B233" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C233" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E233" t="n">
         <v>0.18</v>
@@ -16700,13 +17399,13 @@
         <v>0.42</v>
       </c>
       <c r="K233" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="L233" t="n">
         <v>0.44</v>
       </c>
       <c r="M233" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="N233" t="n">
         <v>0.39</v>
@@ -16738,16 +17437,19 @@
       <c r="W233" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="234" spans="1:23">
+      <c r="X233" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="234" spans="1:24">
       <c r="A234" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B234" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C234" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E234" t="n">
         <v>0.12</v>
@@ -16783,7 +17485,7 @@
         <v>0.27</v>
       </c>
       <c r="P234" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="Q234" t="n">
         <v>0.23</v>
@@ -16792,7 +17494,7 @@
         <v>0.18</v>
       </c>
       <c r="S234" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="T234" t="n">
         <v>0.2</v>
@@ -16806,16 +17508,19 @@
       <c r="W234" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="235" spans="1:23">
+      <c r="X234" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24">
       <c r="A235" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B235" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C235" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E235" t="n">
         <v>0.14</v>
@@ -16874,16 +17579,19 @@
       <c r="W235" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="236" spans="1:23">
+      <c r="X235" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="236" spans="1:24">
       <c r="A236" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B236" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C236" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E236" t="n">
         <v>0.11</v>
@@ -16942,16 +17650,19 @@
       <c r="W236" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="237" spans="1:23">
+      <c r="X236" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="237" spans="1:24">
       <c r="A237" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B237" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C237" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E237" t="n">
         <v>0.11</v>
@@ -17010,16 +17721,19 @@
       <c r="W237" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="238" spans="1:23">
+      <c r="X237" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:24">
       <c r="A238" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B238" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C238" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E238" t="n">
         <v>0.12</v>
@@ -17078,16 +17792,19 @@
       <c r="W238" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="239" spans="1:23">
+      <c r="X238" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="239" spans="1:24">
       <c r="A239" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B239" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C239" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E239" t="n">
         <v>0.16</v>
@@ -17146,16 +17863,19 @@
       <c r="W239" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="240" spans="1:23">
+      <c r="X239" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="240" spans="1:24">
       <c r="A240" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B240" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C240" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E240" t="n">
         <v>0.15</v>
@@ -17214,16 +17934,19 @@
       <c r="W240" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="241" spans="1:23">
+      <c r="X240" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B241" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C241" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E241" t="n">
         <v>0.15</v>
@@ -17282,16 +18005,19 @@
       <c r="W241" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="242" spans="1:23">
+      <c r="X241" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B242" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C242" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E242" t="n">
         <v>0.18</v>
@@ -17350,16 +18076,19 @@
       <c r="W242" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="243" spans="1:23">
+      <c r="X242" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B243" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C243" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E243" t="n">
         <v>0.12</v>
@@ -17418,16 +18147,19 @@
       <c r="W243" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="244" spans="1:23">
+      <c r="X243" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B244" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C244" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E244" t="n">
         <v>0.14</v>
@@ -17486,16 +18218,19 @@
       <c r="W244" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="245" spans="1:23">
+      <c r="X244" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="245" spans="1:24">
       <c r="A245" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B245" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C245" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E245" t="n">
         <v>0.04</v>
@@ -17554,16 +18289,19 @@
       <c r="W245" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="246" spans="1:23">
+      <c r="X245" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24">
       <c r="A246" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B246" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C246" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E246" t="n">
         <v>0.04</v>
@@ -17622,16 +18360,19 @@
       <c r="W246" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="247" spans="1:23">
+      <c r="X246" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="247" spans="1:24">
       <c r="A247" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B247" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C247" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E247" t="n">
         <v>0.03</v>
@@ -17690,16 +18431,19 @@
       <c r="W247" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="248" spans="1:23">
+      <c r="X247" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="248" spans="1:24">
       <c r="A248" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B248" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C248" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E248" t="n">
         <v>0.04</v>
@@ -17758,16 +18502,19 @@
       <c r="W248" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="249" spans="1:23">
+      <c r="X248" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:24">
       <c r="A249" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B249" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C249" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E249" t="n">
         <v>0.04</v>
@@ -17826,16 +18573,19 @@
       <c r="W249" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="250" spans="1:23">
+      <c r="X249" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="250" spans="1:24">
       <c r="A250" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B250" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C250" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E250" t="n">
         <v>0.03</v>
@@ -17894,25 +18644,28 @@
       <c r="W250" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="251" spans="1:23">
+      <c r="X250" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="251" spans="1:24">
       <c r="A251" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B251" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C251" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E251" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F251" t="n">
         <v>0.03</v>
       </c>
       <c r="G251" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="H251" t="n">
         <v>0.19</v>
@@ -17927,19 +18680,19 @@
         <v>0.2</v>
       </c>
       <c r="L251" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="M251" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="N251" t="n">
         <v>0.28</v>
       </c>
       <c r="O251" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="P251" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="Q251" t="n">
         <v>0.13</v>
@@ -17962,16 +18715,19 @@
       <c r="W251" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="252" spans="1:23">
+      <c r="X251" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:24">
       <c r="A252" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B252" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C252" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E252" t="n">
         <v>0.05</v>
@@ -17980,7 +18736,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G252" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H252" t="n">
         <v>0.14</v>
@@ -18010,7 +18766,7 @@
         <v>0.09</v>
       </c>
       <c r="Q252" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="R252" t="n">
         <v>0.1</v>
@@ -18030,16 +18786,19 @@
       <c r="W252" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="253" spans="1:23">
+      <c r="X252" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="253" spans="1:24">
       <c r="A253" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B253" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C253" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E253" t="n">
         <v>0.03</v>
@@ -18098,16 +18857,19 @@
       <c r="W253" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="254" spans="1:23">
+      <c r="X253" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="254" spans="1:24">
       <c r="A254" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B254" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C254" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E254" t="n">
         <v>0.04</v>
@@ -18166,16 +18928,19 @@
       <c r="W254" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="255" spans="1:23">
+      <c r="X254" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="255" spans="1:24">
       <c r="A255" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B255" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C255" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E255" t="n">
         <v>0.03</v>
@@ -18234,16 +18999,19 @@
       <c r="W255" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="256" spans="1:23">
+      <c r="X255" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="256" spans="1:24">
       <c r="A256" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B256" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C256" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E256" t="n">
         <v>0.03</v>
@@ -18302,16 +19070,19 @@
       <c r="W256" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="257" spans="1:23">
+      <c r="X256" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="257" spans="1:24">
       <c r="A257" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B257" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C257" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E257" t="n">
         <v>0.04</v>
@@ -18370,16 +19141,19 @@
       <c r="W257" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="258" spans="1:23">
+      <c r="X257" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="258" spans="1:24">
       <c r="A258" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B258" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C258" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E258" t="n">
         <v>0.03</v>
@@ -18438,16 +19212,19 @@
       <c r="W258" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="259" spans="1:23">
+      <c r="X258" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="259" spans="1:24">
       <c r="A259" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B259" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C259" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E259" t="n">
         <v>0.06</v>
@@ -18506,16 +19283,19 @@
       <c r="W259" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="260" spans="1:23">
+      <c r="X259" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="260" spans="1:24">
       <c r="A260" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B260" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C260" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E260" t="n">
         <v>0.05</v>
@@ -18574,16 +19354,19 @@
       <c r="W260" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="261" spans="1:23">
+      <c r="X260" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="261" spans="1:24">
       <c r="A261" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B261" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C261" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E261" t="n">
         <v>0.02</v>
@@ -18642,16 +19425,19 @@
       <c r="W261" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="262" spans="1:23">
+      <c r="X261" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="262" spans="1:24">
       <c r="A262" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B262" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C262" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E262" t="n">
         <v>0.03</v>
@@ -18710,16 +19496,19 @@
       <c r="W262" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="263" spans="1:23">
+      <c r="X262" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="263" spans="1:24">
       <c r="A263" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B263" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C263" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E263" t="n">
         <v>0.05</v>
@@ -18778,16 +19567,19 @@
       <c r="W263" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="264" spans="1:23">
+      <c r="X263" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="264" spans="1:24">
       <c r="A264" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B264" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C264" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D264" t="n">
         <v>0.08</v>
@@ -18849,16 +19641,19 @@
       <c r="W264" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="265" spans="1:23">
+      <c r="X264" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="265" spans="1:24">
       <c r="A265" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B265" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C265" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D265" t="n">
         <v>0.05</v>
@@ -18920,16 +19715,19 @@
       <c r="W265" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="266" spans="1:23">
+      <c r="X265" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="266" spans="1:24">
       <c r="A266" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B266" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C266" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D266" t="n">
         <v>0.03</v>
@@ -18991,16 +19789,19 @@
       <c r="W266" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="267" spans="1:23">
+      <c r="X266" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="267" spans="1:24">
       <c r="A267" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B267" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C267" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D267" t="n">
         <v>0.04</v>
@@ -19062,16 +19863,19 @@
       <c r="W267" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="268" spans="1:23">
+      <c r="X267" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="268" spans="1:24">
       <c r="A268" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B268" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C268" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D268" t="n">
         <v>0.05</v>
@@ -19133,16 +19937,19 @@
       <c r="W268" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="269" spans="1:23">
+      <c r="X268" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="269" spans="1:24">
       <c r="A269" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B269" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C269" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D269" t="n">
         <v>0.05</v>
@@ -19204,22 +20011,25 @@
       <c r="W269" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="270" spans="1:23">
+      <c r="X269" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="270" spans="1:24">
       <c r="A270" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B270" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C270" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D270" t="n">
         <v>0.32</v>
       </c>
       <c r="E270" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F270" t="n">
         <v>0.07000000000000001</v>
@@ -19240,16 +20050,16 @@
         <v>0.21</v>
       </c>
       <c r="L270" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="M270" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="N270" t="n">
         <v>0.36</v>
       </c>
       <c r="O270" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="P270" t="n">
         <v>0.15</v>
@@ -19258,7 +20068,7 @@
         <v>0.12</v>
       </c>
       <c r="R270" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S270" t="n">
         <v>0.06</v>
@@ -19273,18 +20083,21 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="W270" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="271" spans="1:23">
+        <v>0.12</v>
+      </c>
+      <c r="X270" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="271" spans="1:24">
       <c r="A271" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B271" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C271" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D271" t="n">
         <v>0.1</v>
@@ -19299,13 +20112,13 @@
         <v>0.1</v>
       </c>
       <c r="H271" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I271" t="n">
         <v>0.14</v>
       </c>
       <c r="J271" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="K271" t="n">
         <v>0.21</v>
@@ -19346,16 +20159,19 @@
       <c r="W271" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="272" spans="1:23">
+      <c r="X271" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="272" spans="1:24">
       <c r="A272" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B272" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C272" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D272" t="n">
         <v>0.04</v>
@@ -19417,16 +20233,19 @@
       <c r="W272" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="273" spans="1:23">
+      <c r="X272" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="273" spans="1:24">
       <c r="A273" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B273" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C273" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D273" t="n">
         <v>0.05</v>
@@ -19488,16 +20307,19 @@
       <c r="W273" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="274" spans="1:23">
+      <c r="X273" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="274" spans="1:24">
       <c r="A274" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B274" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C274" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D274" t="n">
         <v>0.05</v>
@@ -19559,16 +20381,19 @@
       <c r="W274" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="275" spans="1:23">
+      <c r="X274" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="275" spans="1:24">
       <c r="A275" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B275" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C275" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D275" t="n">
         <v>0.04</v>
@@ -19630,16 +20455,19 @@
       <c r="W275" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="276" spans="1:23">
+      <c r="X275" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="276" spans="1:24">
       <c r="A276" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B276" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C276" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D276" t="n">
         <v>0.06</v>
@@ -19701,16 +20529,19 @@
       <c r="W276" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="277" spans="1:23">
+      <c r="X276" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="277" spans="1:24">
       <c r="A277" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C277" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D277" t="n">
         <v>0.06</v>
@@ -19772,16 +20603,19 @@
       <c r="W277" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="278" spans="1:23">
+      <c r="X277" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="278" spans="1:24">
       <c r="A278" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B278" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C278" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D278" t="n">
         <v>0.06</v>
@@ -19843,16 +20677,19 @@
       <c r="W278" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="279" spans="1:23">
+      <c r="X278" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="279" spans="1:24">
       <c r="A279" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B279" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C279" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E279" t="n">
         <v>0.03</v>
@@ -19911,16 +20748,19 @@
       <c r="W279" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="280" spans="1:23">
+      <c r="X279" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:24">
       <c r="A280" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B280" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C280" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E280" t="n">
         <v>0.04</v>
@@ -19979,16 +20819,19 @@
       <c r="W280" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="281" spans="1:23">
+      <c r="X280" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="281" spans="1:24">
       <c r="A281" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B281" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C281" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E281" t="n">
         <v>0.015</v>
@@ -20047,16 +20890,19 @@
       <c r="W281" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="282" spans="1:23">
+      <c r="X281" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="282" spans="1:24">
       <c r="A282" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B282" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C282" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E282" t="n">
         <v>0.005</v>
@@ -20115,16 +20961,19 @@
       <c r="W282" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="283" spans="1:23">
+      <c r="X282" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="283" spans="1:24">
       <c r="A283" t="s">
+        <v>41</v>
+      </c>
+      <c r="B283" t="s">
+        <v>42</v>
+      </c>
+      <c r="C283" t="s">
         <v>40</v>
-      </c>
-      <c r="B283" t="s">
-        <v>41</v>
-      </c>
-      <c r="C283" t="s">
-        <v>39</v>
       </c>
       <c r="H283" t="n">
         <v>0.02</v>
@@ -20174,16 +21023,19 @@
       <c r="W283" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="284" spans="1:23">
+      <c r="X283" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="284" spans="1:24">
       <c r="A284" t="s">
+        <v>41</v>
+      </c>
+      <c r="B284" t="s">
+        <v>43</v>
+      </c>
+      <c r="C284" t="s">
         <v>40</v>
-      </c>
-      <c r="B284" t="s">
-        <v>42</v>
-      </c>
-      <c r="C284" t="s">
-        <v>39</v>
       </c>
       <c r="H284" t="n">
         <v>0.015</v>
@@ -20233,16 +21085,19 @@
       <c r="W284" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="285" spans="1:23">
+      <c r="X284" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="285" spans="1:24">
       <c r="A285" t="s">
+        <v>41</v>
+      </c>
+      <c r="B285" t="s">
+        <v>44</v>
+      </c>
+      <c r="C285" t="s">
         <v>40</v>
-      </c>
-      <c r="B285" t="s">
-        <v>43</v>
-      </c>
-      <c r="C285" t="s">
-        <v>39</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -20292,16 +21147,19 @@
       <c r="W285" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:23">
+      <c r="X285" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="286" spans="1:24">
       <c r="A286" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B286" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C286" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -20351,16 +21209,19 @@
       <c r="W286" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="287" spans="1:23">
+      <c r="X286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:24">
       <c r="A287" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B287" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C287" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H287" t="n">
         <v>0.005</v>
@@ -20410,16 +21271,19 @@
       <c r="W287" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="288" spans="1:23">
+      <c r="X287" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="288" spans="1:24">
       <c r="A288" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B288" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C288" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H288" t="n">
         <v>0.03</v>
@@ -20469,16 +21333,19 @@
       <c r="W288" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="289" spans="1:23">
+      <c r="X288" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="289" spans="1:24">
       <c r="A289" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B289" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C289" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H289" t="n">
         <v>0.05</v>
@@ -20496,10 +21363,10 @@
         <v>0.11</v>
       </c>
       <c r="M289" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="N289" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="O289" t="n">
         <v>0.06</v>
@@ -20528,16 +21395,19 @@
       <c r="W289" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="290" spans="1:23">
+      <c r="X289" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="290" spans="1:24">
       <c r="A290" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B290" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C290" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H290" t="n">
         <v>0.005</v>
@@ -20587,16 +21457,19 @@
       <c r="W290" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="291" spans="1:23">
+      <c r="X290" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="291" spans="1:24">
       <c r="A291" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B291" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C291" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H291" t="n">
         <v>0.01</v>
@@ -20644,18 +21517,21 @@
         <v>0.015</v>
       </c>
       <c r="W291" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="292" spans="1:23">
+        <v>0.015</v>
+      </c>
+      <c r="X291" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="292" spans="1:24">
       <c r="A292" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B292" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C292" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H292" t="n">
         <v>0.01</v>
@@ -20705,16 +21581,19 @@
       <c r="W292" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="293" spans="1:23">
+      <c r="X292" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="293" spans="1:24">
       <c r="A293" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B293" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C293" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H293" t="n">
         <v>0.01</v>
@@ -20764,16 +21643,19 @@
       <c r="W293" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="294" spans="1:23">
+      <c r="X293" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="294" spans="1:24">
       <c r="A294" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B294" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C294" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H294" t="n">
         <v>0.015</v>
@@ -20823,16 +21705,19 @@
       <c r="W294" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="295" spans="1:23">
+      <c r="X294" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="295" spans="1:24">
       <c r="A295" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B295" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C295" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H295" t="n">
         <v>0.005</v>
@@ -20882,16 +21767,19 @@
       <c r="W295" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="296" spans="1:23">
+      <c r="X295" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="296" spans="1:24">
       <c r="A296" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B296" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C296" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H296" t="n">
         <v>0.005</v>
@@ -20941,16 +21829,19 @@
       <c r="W296" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="297" spans="1:23">
+      <c r="X296" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="297" spans="1:24">
       <c r="A297" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B297" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C297" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H297" t="n">
         <v>0.005</v>
@@ -21000,16 +21891,19 @@
       <c r="W297" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="298" spans="1:23">
+      <c r="X297" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="298" spans="1:24">
       <c r="A298" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B298" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C298" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H298" t="n">
         <v>0.01</v>
@@ -21059,16 +21953,19 @@
       <c r="W298" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="299" spans="1:23">
+      <c r="X298" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="299" spans="1:24">
       <c r="A299" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B299" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C299" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H299" t="n">
         <v>0.02</v>
@@ -21118,16 +22015,19 @@
       <c r="W299" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="300" spans="1:23">
+      <c r="X299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:24">
       <c r="A300" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B300" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C300" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H300" t="n">
         <v>0.02</v>
@@ -21177,16 +22077,19 @@
       <c r="W300" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="301" spans="1:23">
+      <c r="X300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:24">
       <c r="A301" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B301" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C301" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H301" t="n">
         <v>0.02</v>
@@ -21236,10 +22139,13 @@
       <c r="W301" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="302" spans="1:23">
+      <c r="X301" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="302" spans="1:24">
       <c r="A302" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -21253,7 +22159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21261,7 +22167,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -21328,13 +22234,16 @@
       <c r="V1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -21396,13 +22305,16 @@
       <c r="V2" t="n">
         <v>2186</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2" t="n">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -21464,13 +22376,16 @@
       <c r="V3" t="n">
         <v>522</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -21532,13 +22447,16 @@
       <c r="V4" t="n">
         <v>804</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4" t="n">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -21600,13 +22518,16 @@
       <c r="V5" t="n">
         <v>860</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5" t="n">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" t="n">
         <v>665</v>
@@ -21668,13 +22589,16 @@
       <c r="V6" t="n">
         <v>405</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6" t="n">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
         <v>885</v>
@@ -21736,13 +22660,16 @@
       <c r="V7" t="n">
         <v>797</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7" t="n">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" t="n">
         <v>1551</v>
@@ -21804,81 +22731,87 @@
       <c r="V8" t="n">
         <v>984</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8" t="n">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" t="n">
         <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E9" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F9" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G9" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H9" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I9" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J9" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K9" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L9" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="M9" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="N9" t="n">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O9" t="n">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="P9" t="n">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="Q9" t="n">
+        <v>566</v>
+      </c>
+      <c r="R9" t="n">
+        <v>669</v>
+      </c>
+      <c r="S9" t="n">
+        <v>689</v>
+      </c>
+      <c r="T9" t="n">
+        <v>643</v>
+      </c>
+      <c r="U9" t="n">
         <v>595</v>
       </c>
-      <c r="R9" t="n">
-        <v>689</v>
-      </c>
-      <c r="S9" t="n">
-        <v>706</v>
-      </c>
-      <c r="T9" t="n">
-        <v>656</v>
-      </c>
-      <c r="U9" t="n">
-        <v>608</v>
-      </c>
       <c r="V9" t="n">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>640</v>
+      </c>
+      <c r="W9" t="n">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" t="n">
         <v>102</v>
@@ -21890,131 +22823,137 @@
         <v>246</v>
       </c>
       <c r="F10" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G10" t="n">
         <v>265</v>
       </c>
       <c r="H10" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I10" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J10" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K10" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L10" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M10" t="n">
         <v>281</v>
       </c>
       <c r="N10" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="O10" t="n">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="P10" t="n">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="Q10" t="n">
+        <v>777</v>
+      </c>
+      <c r="R10" t="n">
+        <v>790</v>
+      </c>
+      <c r="S10" t="n">
         <v>753</v>
       </c>
-      <c r="R10" t="n">
-        <v>774</v>
-      </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
+        <v>656</v>
+      </c>
+      <c r="U10" t="n">
+        <v>645</v>
+      </c>
+      <c r="V10" t="n">
         <v>740</v>
       </c>
-      <c r="T10" t="n">
-        <v>646</v>
-      </c>
-      <c r="U10" t="n">
-        <v>635</v>
-      </c>
-      <c r="V10" t="n">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10" t="n">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" t="n">
         <v>2988</v>
       </c>
       <c r="D11" t="n">
-        <v>2369</v>
+        <v>2374</v>
       </c>
       <c r="E11" t="n">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="F11" t="n">
-        <v>2221</v>
+        <v>2224</v>
       </c>
       <c r="G11" t="n">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="H11" t="n">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="I11" t="n">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="J11" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="K11" t="n">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="L11" t="n">
-        <v>1871</v>
+        <v>1874</v>
       </c>
       <c r="M11" t="n">
-        <v>1826</v>
+        <v>1831</v>
       </c>
       <c r="N11" t="n">
-        <v>1614</v>
+        <v>1618</v>
       </c>
       <c r="O11" t="n">
-        <v>1462</v>
+        <v>1474</v>
       </c>
       <c r="P11" t="n">
-        <v>1238</v>
+        <v>1247</v>
       </c>
       <c r="Q11" t="n">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="R11" t="n">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="S11" t="n">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="T11" t="n">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="U11" t="n">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="V11" t="n">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>806</v>
+      </c>
+      <c r="W11" t="n">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" t="n">
         <v>1514</v>
@@ -22076,13 +23015,16 @@
       <c r="V12" t="n">
         <v>1056</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12" t="n">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" t="n">
         <v>1587</v>
@@ -22144,13 +23086,16 @@
       <c r="V13" t="n">
         <v>1130</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13" t="n">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" t="n">
         <v>1726</v>
@@ -22212,13 +23157,16 @@
       <c r="V14" t="n">
         <v>1138</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14" t="n">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" t="n">
         <v>667</v>
@@ -22280,13 +23228,16 @@
       <c r="V15" t="n">
         <v>501</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15" t="n">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C16" t="n">
         <v>333</v>
@@ -22348,13 +23299,16 @@
       <c r="V16" t="n">
         <v>258</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" t="n">
         <v>375</v>
@@ -22416,13 +23370,16 @@
       <c r="V17" t="n">
         <v>289</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s"/>
       <c r="D18" t="n">
@@ -22482,13 +23439,16 @@
       <c r="V18" t="n">
         <v>383</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18" t="n">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s"/>
       <c r="D19" t="n">
@@ -22548,13 +23508,16 @@
       <c r="V19" t="n">
         <v>53</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s"/>
       <c r="D20" t="n">
@@ -22614,13 +23577,16 @@
       <c r="V20" t="n">
         <v>104</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s"/>
       <c r="D21" t="n">
@@ -22680,10 +23646,13 @@
       <c r="V21" t="n">
         <v>659</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s"/>
       <c r="C22" t="s"/>
@@ -22706,6 +23675,7 @@
       <c r="T22" t="s"/>
       <c r="U22" t="s"/>
       <c r="V22" t="s"/>
+      <c r="W22" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_04_socialni_aktivity.xlsx
+++ b/ZBP_04_socialni_aktivity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>trideni</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>18.–24. 1. 2021</t>
+  </si>
+  <si>
+    <t>8.–14. 2. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -215,10 +218,10 @@
     <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
   </si>
   <si>
-    <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 2. 2. 2021</t>
+    <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 23. 2. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 2. 2021</t>
+    <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 2. 2021</t>
   </si>
 </sst>
 </file>
@@ -593,7 +596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X302"/>
+  <dimension ref="A1:Y302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,7 +604,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,16 +677,19 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
         <v>0.74</v>
@@ -748,16 +754,19 @@
       <c r="X2" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
         <v>0.28</v>
@@ -822,16 +831,19 @@
       <c r="X3" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
         <v>0.2</v>
@@ -896,16 +908,19 @@
       <c r="X4" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
         <v>0.09</v>
@@ -970,16 +985,19 @@
       <c r="X5" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="n">
         <v>0.02</v>
@@ -1044,16 +1062,19 @@
       <c r="X6" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
         <v>0.19</v>
@@ -1118,16 +1139,19 @@
       <c r="X7" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
         <v>0.06</v>
@@ -1192,16 +1216,19 @@
       <c r="X8" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" t="n">
         <v>0.05</v>
@@ -1254,16 +1281,19 @@
       <c r="X9" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" t="n">
         <v>0.02</v>
@@ -1328,16 +1358,19 @@
       <c r="X10" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="n">
         <v>0.015</v>
@@ -1402,16 +1435,19 @@
       <c r="X11" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" t="n">
         <v>0.47</v>
@@ -1476,16 +1512,19 @@
       <c r="X12" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" t="n">
         <v>0.12</v>
@@ -1547,16 +1586,19 @@
       <c r="X13" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" t="n">
         <v>0.04</v>
@@ -1618,16 +1660,19 @@
       <c r="X14" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" t="n">
         <v>0.05</v>
@@ -1692,16 +1737,19 @@
       <c r="X15" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H16" t="n">
         <v>0.01</v>
@@ -1754,16 +1802,19 @@
       <c r="X16" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
         <v>0.72</v>
@@ -1828,16 +1879,19 @@
       <c r="X17" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
         <v>0.78</v>
@@ -1902,16 +1956,19 @@
       <c r="X18" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
         <v>0.71</v>
@@ -1976,16 +2033,19 @@
       <c r="X19" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
         <v>0.72</v>
@@ -2050,16 +2110,19 @@
       <c r="X20" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="n">
         <v>0.75</v>
@@ -2124,16 +2187,19 @@
       <c r="X21" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="n">
         <v>0.74</v>
@@ -2198,16 +2264,19 @@
       <c r="X22" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -2272,16 +2341,19 @@
       <c r="X23" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="n">
         <v>0.79</v>
@@ -2346,16 +2418,19 @@
       <c r="X24" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="Y24" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" t="n">
         <v>0.73</v>
@@ -2420,16 +2495,19 @@
       <c r="X25" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="Y25" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="n">
         <v>0.72</v>
@@ -2494,16 +2572,19 @@
       <c r="X26" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="Y26" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="n">
         <v>0.75</v>
@@ -2568,16 +2649,19 @@
       <c r="X27" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="Y27" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="n">
         <v>0.71</v>
@@ -2642,16 +2726,19 @@
       <c r="X28" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="Y28" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="n">
         <v>0.75</v>
@@ -2716,16 +2803,19 @@
       <c r="X29" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:24">
+      <c r="Y29" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="n">
         <v>0.79</v>
@@ -2790,16 +2880,19 @@
       <c r="X30" t="n">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="Y30" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" t="n">
         <v>0.78</v>
@@ -2864,16 +2957,19 @@
       <c r="X31" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="32" spans="1:24">
+      <c r="Y31" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E32" t="n">
         <v>0.8100000000000001</v>
@@ -2935,16 +3031,19 @@
       <c r="X32" t="n">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="33" spans="1:24">
+      <c r="Y32" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E33" t="n">
         <v>0.8</v>
@@ -3006,16 +3105,19 @@
       <c r="X33" t="n">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="34" spans="1:24">
+      <c r="Y33" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E34" t="n">
         <v>0.7</v>
@@ -3077,16 +3179,19 @@
       <c r="X34" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:24">
+      <c r="Y34" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E35" t="n">
         <v>0.73</v>
@@ -3148,16 +3253,19 @@
       <c r="X35" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="36" spans="1:24">
+      <c r="Y35" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D36" t="n">
         <v>0.32</v>
@@ -3222,16 +3330,19 @@
       <c r="X36" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="37" spans="1:24">
+      <c r="Y36" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D37" t="n">
         <v>0.27</v>
@@ -3296,16 +3407,19 @@
       <c r="X37" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="38" spans="1:24">
+      <c r="Y37" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D38" t="n">
         <v>0.25</v>
@@ -3370,16 +3484,19 @@
       <c r="X38" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="39" spans="1:24">
+      <c r="Y38" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D39" t="n">
         <v>0.31</v>
@@ -3444,16 +3561,19 @@
       <c r="X39" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="40" spans="1:24">
+      <c r="Y39" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D40" t="n">
         <v>0.28</v>
@@ -3518,16 +3638,19 @@
       <c r="X40" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="41" spans="1:24">
+      <c r="Y40" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41" t="n">
         <v>0.26</v>
@@ -3592,16 +3715,19 @@
       <c r="X41" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="42" spans="1:24">
+      <c r="Y41" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D42" t="n">
         <v>0.59</v>
@@ -3666,16 +3792,19 @@
       <c r="X42" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="43" spans="1:24">
+      <c r="Y42" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D43" t="n">
         <v>0.38</v>
@@ -3740,16 +3869,19 @@
       <c r="X43" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="44" spans="1:24">
+      <c r="Y43" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D44" t="n">
         <v>0.27</v>
@@ -3814,16 +3946,19 @@
       <c r="X44" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="45" spans="1:24">
+      <c r="Y44" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45" t="n">
         <v>0.26</v>
@@ -3888,16 +4023,19 @@
       <c r="X45" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="46" spans="1:24">
+      <c r="Y45" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D46" t="n">
         <v>0.29</v>
@@ -3962,16 +4100,19 @@
       <c r="X46" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="47" spans="1:24">
+      <c r="Y46" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D47" t="n">
         <v>0.2</v>
@@ -4036,16 +4177,19 @@
       <c r="X47" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="48" spans="1:24">
+      <c r="Y47" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D48" t="n">
         <v>0.27</v>
@@ -4110,16 +4254,19 @@
       <c r="X48" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="49" spans="1:24">
+      <c r="Y48" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D49" t="n">
         <v>0.42</v>
@@ -4184,16 +4331,19 @@
       <c r="X49" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="50" spans="1:24">
+      <c r="Y49" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D50" t="n">
         <v>0.51</v>
@@ -4258,16 +4408,19 @@
       <c r="X50" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="51" spans="1:24">
+      <c r="Y50" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E51" t="n">
         <v>0.16</v>
@@ -4329,16 +4482,19 @@
       <c r="X51" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="52" spans="1:24">
+      <c r="Y51" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E52" t="n">
         <v>0.16</v>
@@ -4400,16 +4556,19 @@
       <c r="X52" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="53" spans="1:24">
+      <c r="Y52" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E53" t="n">
         <v>0.04</v>
@@ -4471,16 +4630,19 @@
       <c r="X53" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="54" spans="1:24">
+      <c r="Y53" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E54" t="n">
         <v>0.1</v>
@@ -4542,16 +4704,19 @@
       <c r="X54" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="55" spans="1:24">
+      <c r="Y54" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D55" t="n">
         <v>0.18</v>
@@ -4616,16 +4781,19 @@
       <c r="X55" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="56" spans="1:24">
+      <c r="Y55" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D56" t="n">
         <v>0.21</v>
@@ -4690,16 +4858,19 @@
       <c r="X56" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:24">
+      <c r="Y56" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D57" t="n">
         <v>0.2</v>
@@ -4764,16 +4935,19 @@
       <c r="X57" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="58" spans="1:24">
+      <c r="Y57" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D58" t="n">
         <v>0.15</v>
@@ -4838,16 +5012,19 @@
       <c r="X58" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:24">
+      <c r="Y58" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D59" t="n">
         <v>0.19</v>
@@ -4912,16 +5089,19 @@
       <c r="X59" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="60" spans="1:24">
+      <c r="Y59" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D60" t="n">
         <v>0.22</v>
@@ -4986,16 +5166,19 @@
       <c r="X60" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="61" spans="1:24">
+      <c r="Y60" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D61" t="n">
         <v>0.11</v>
@@ -5060,16 +5243,19 @@
       <c r="X61" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="62" spans="1:24">
+      <c r="Y61" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D62" t="n">
         <v>0.2</v>
@@ -5134,16 +5320,19 @@
       <c r="X62" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="63" spans="1:24">
+      <c r="Y62" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D63" t="n">
         <v>0.2</v>
@@ -5208,16 +5397,19 @@
       <c r="X63" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="64" spans="1:24">
+      <c r="Y63" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D64" t="n">
         <v>0.18</v>
@@ -5282,16 +5474,19 @@
       <c r="X64" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="65" spans="1:24">
+      <c r="Y64" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D65" t="n">
         <v>0.22</v>
@@ -5356,16 +5551,19 @@
       <c r="X65" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="66" spans="1:24">
+      <c r="Y65" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D66" t="n">
         <v>0.22</v>
@@ -5430,16 +5628,19 @@
       <c r="X66" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="67" spans="1:24">
+      <c r="Y66" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D67" t="n">
         <v>0.17</v>
@@ -5504,16 +5705,19 @@
       <c r="X67" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="68" spans="1:24">
+      <c r="Y67" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D68" t="n">
         <v>0.2</v>
@@ -5578,16 +5782,19 @@
       <c r="X68" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="69" spans="1:24">
+      <c r="Y68" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D69" t="n">
         <v>0.17</v>
@@ -5652,16 +5859,19 @@
       <c r="X69" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="70" spans="1:24">
+      <c r="Y69" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E70" t="n">
         <v>0.1</v>
@@ -5723,16 +5933,19 @@
       <c r="X70" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="71" spans="1:24">
+      <c r="Y70" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E71" t="n">
         <v>0.08</v>
@@ -5794,16 +6007,19 @@
       <c r="X71" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="72" spans="1:24">
+      <c r="Y71" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E72" t="n">
         <v>0.08</v>
@@ -5865,16 +6081,19 @@
       <c r="X72" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="73" spans="1:24">
+      <c r="Y72" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E73" t="n">
         <v>0.14</v>
@@ -5936,16 +6155,19 @@
       <c r="X73" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="74" spans="1:24">
+      <c r="Y73" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D74" t="n">
         <v>0.09</v>
@@ -6010,16 +6232,19 @@
       <c r="X74" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="75" spans="1:24">
+      <c r="Y74" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D75" t="n">
         <v>0.09</v>
@@ -6084,16 +6309,19 @@
       <c r="X75" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="76" spans="1:24">
+      <c r="Y75" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D76" t="n">
         <v>0.08</v>
@@ -6158,16 +6386,19 @@
       <c r="X76" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="77" spans="1:24">
+      <c r="Y76" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D77" t="n">
         <v>0.1</v>
@@ -6232,16 +6463,19 @@
       <c r="X77" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="78" spans="1:24">
+      <c r="Y77" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D78" t="n">
         <v>0.07000000000000001</v>
@@ -6306,16 +6540,19 @@
       <c r="X78" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="79" spans="1:24">
+      <c r="Y78" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D79" t="n">
         <v>0.09</v>
@@ -6380,16 +6617,19 @@
       <c r="X79" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="80" spans="1:24">
+      <c r="Y79" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D80" t="n">
         <v>0.06</v>
@@ -6454,16 +6694,19 @@
       <c r="X80" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="81" spans="1:24">
+      <c r="Y80" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D81" t="n">
         <v>0.13</v>
@@ -6528,16 +6771,19 @@
       <c r="X81" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="82" spans="1:24">
+      <c r="Y81" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D82" t="n">
         <v>0.09</v>
@@ -6602,16 +6848,19 @@
       <c r="X82" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="83" spans="1:24">
+      <c r="Y82" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D83" t="n">
         <v>0.09</v>
@@ -6676,16 +6925,19 @@
       <c r="X83" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="84" spans="1:24">
+      <c r="Y83" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25">
       <c r="A84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D84" t="n">
         <v>0.08</v>
@@ -6750,16 +7002,19 @@
       <c r="X84" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="85" spans="1:24">
+      <c r="Y84" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25">
       <c r="A85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D85" t="n">
         <v>0.07000000000000001</v>
@@ -6824,16 +7079,19 @@
       <c r="X85" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="86" spans="1:24">
+      <c r="Y85" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25">
       <c r="A86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D86" t="n">
         <v>0.09</v>
@@ -6898,16 +7156,19 @@
       <c r="X86" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:24">
+      <c r="Y86" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25">
       <c r="A87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D87" t="n">
         <v>0.11</v>
@@ -6972,16 +7233,19 @@
       <c r="X87" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="88" spans="1:24">
+      <c r="Y87" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25">
       <c r="A88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D88" t="n">
         <v>0.13</v>
@@ -7046,16 +7310,19 @@
       <c r="X88" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="89" spans="1:24">
+      <c r="Y88" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25">
       <c r="A89" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B89" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E89" t="n">
         <v>0.03</v>
@@ -7117,16 +7384,19 @@
       <c r="X89" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="90" spans="1:24">
+      <c r="Y89" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B90" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E90" t="n">
         <v>0.04</v>
@@ -7188,16 +7458,19 @@
       <c r="X90" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:24">
+      <c r="Y90" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25">
       <c r="A91" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B91" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E91" t="n">
         <v>0.02</v>
@@ -7259,16 +7532,19 @@
       <c r="X91" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="92" spans="1:24">
+      <c r="Y91" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25">
       <c r="A92" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B92" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E92" t="n">
         <v>0.01</v>
@@ -7330,16 +7606,19 @@
       <c r="X92" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="93" spans="1:24">
+      <c r="Y92" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25">
       <c r="A93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D93" t="n">
         <v>0.04</v>
@@ -7404,16 +7683,19 @@
       <c r="X93" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="94" spans="1:24">
+      <c r="Y93" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25">
       <c r="A94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C94" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D94" t="n">
         <v>0.03</v>
@@ -7478,16 +7760,19 @@
       <c r="X94" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="95" spans="1:24">
+      <c r="Y94" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25">
       <c r="A95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D95" t="n">
         <v>0.01</v>
@@ -7552,16 +7837,19 @@
       <c r="X95" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="96" spans="1:24">
+      <c r="Y95" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25">
       <c r="A96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D96" t="n">
         <v>0.03</v>
@@ -7626,16 +7914,19 @@
       <c r="X96" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="97" spans="1:24">
+      <c r="Y96" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25">
       <c r="A97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D97" t="n">
         <v>0.03</v>
@@ -7700,16 +7991,19 @@
       <c r="X97" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="98" spans="1:24">
+      <c r="Y97" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D98" t="n">
         <v>0.02</v>
@@ -7774,16 +8068,19 @@
       <c r="X98" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="99" spans="1:24">
+      <c r="Y98" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25">
       <c r="A99" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B99" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D99" t="n">
         <v>0.28</v>
@@ -7848,16 +8145,19 @@
       <c r="X99" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="100" spans="1:24">
+      <c r="Y99" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25">
       <c r="A100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B100" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D100" t="n">
         <v>0.04</v>
@@ -7922,16 +8222,19 @@
       <c r="X100" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="101" spans="1:24">
+      <c r="Y100" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25">
       <c r="A101" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B101" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D101" t="n">
         <v>0.02</v>
@@ -7996,16 +8299,19 @@
       <c r="X101" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="102" spans="1:24">
+      <c r="Y101" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25">
       <c r="A102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D102" t="n">
         <v>0.03</v>
@@ -8070,16 +8376,19 @@
       <c r="X102" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="103" spans="1:24">
+      <c r="Y102" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25">
       <c r="A103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D103" t="n">
         <v>0.02</v>
@@ -8144,16 +8453,19 @@
       <c r="X103" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="104" spans="1:24">
+      <c r="Y103" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25">
       <c r="A104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D104" t="n">
         <v>0.02</v>
@@ -8218,16 +8530,19 @@
       <c r="X104" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="105" spans="1:24">
+      <c r="Y104" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25">
       <c r="A105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C105" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D105" t="n">
         <v>0.02</v>
@@ -8292,16 +8607,19 @@
       <c r="X105" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="106" spans="1:24">
+      <c r="Y105" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25">
       <c r="A106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B106" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D106" t="n">
         <v>0.03</v>
@@ -8366,16 +8684,19 @@
       <c r="X106" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="107" spans="1:24">
+      <c r="Y106" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25">
       <c r="A107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C107" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D107" t="n">
         <v>0.05</v>
@@ -8440,16 +8761,19 @@
       <c r="X107" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:24">
+      <c r="Y107" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25">
       <c r="A108" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B108" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E108" t="n">
         <v>0.02</v>
@@ -8511,16 +8835,19 @@
       <c r="X108" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="109" spans="1:24">
+      <c r="Y108" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25">
       <c r="A109" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B109" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E109" t="n">
         <v>0.005</v>
@@ -8582,16 +8909,19 @@
       <c r="X109" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="110" spans="1:24">
+      <c r="Y109" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25">
       <c r="A110" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B110" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -8653,16 +8983,19 @@
       <c r="X110" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="111" spans="1:24">
+      <c r="Y110" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25">
       <c r="A111" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B111" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -8724,16 +9057,19 @@
       <c r="X111" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="112" spans="1:24">
+      <c r="Y111" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25">
       <c r="A112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D112" t="n">
         <v>0.25</v>
@@ -8798,16 +9134,19 @@
       <c r="X112" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="113" spans="1:24">
+      <c r="Y112" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="113" spans="1:25">
       <c r="A113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D113" t="n">
         <v>0.21</v>
@@ -8872,16 +9211,19 @@
       <c r="X113" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="114" spans="1:24">
+      <c r="Y113" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="114" spans="1:25">
       <c r="A114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D114" t="n">
         <v>0.14</v>
@@ -8946,16 +9288,19 @@
       <c r="X114" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="115" spans="1:24">
+      <c r="Y114" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="115" spans="1:25">
       <c r="A115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C115" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D115" t="n">
         <v>0.25</v>
@@ -9020,16 +9365,19 @@
       <c r="X115" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="116" spans="1:24">
+      <c r="Y115" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="116" spans="1:25">
       <c r="A116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D116" t="n">
         <v>0.2</v>
@@ -9094,16 +9442,19 @@
       <c r="X116" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="117" spans="1:24">
+      <c r="Y116" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="117" spans="1:25">
       <c r="A117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D117" t="n">
         <v>0.16</v>
@@ -9168,16 +9519,19 @@
       <c r="X117" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="118" spans="1:24">
+      <c r="Y117" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25">
       <c r="A118" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B118" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D118" t="n">
         <v>0.37</v>
@@ -9242,16 +9596,19 @@
       <c r="X118" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="119" spans="1:24">
+      <c r="Y118" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="119" spans="1:25">
       <c r="A119" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B119" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C119" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D119" t="n">
         <v>0.2</v>
@@ -9316,16 +9673,19 @@
       <c r="X119" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="120" spans="1:24">
+      <c r="Y119" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="120" spans="1:25">
       <c r="A120" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B120" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D120" t="n">
         <v>0.19</v>
@@ -9390,16 +9750,19 @@
       <c r="X120" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="121" spans="1:24">
+      <c r="Y120" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="121" spans="1:25">
       <c r="A121" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D121" t="n">
         <v>0.25</v>
@@ -9464,16 +9827,19 @@
       <c r="X121" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="122" spans="1:24">
+      <c r="Y121" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="122" spans="1:25">
       <c r="A122" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C122" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D122" t="n">
         <v>0.13</v>
@@ -9538,16 +9904,19 @@
       <c r="X122" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="123" spans="1:24">
+      <c r="Y122" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="123" spans="1:25">
       <c r="A123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D123" t="n">
         <v>0.17</v>
@@ -9612,16 +9981,19 @@
       <c r="X123" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="124" spans="1:24">
+      <c r="Y123" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="124" spans="1:25">
       <c r="A124" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D124" t="n">
         <v>0.19</v>
@@ -9686,16 +10058,19 @@
       <c r="X124" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="125" spans="1:24">
+      <c r="Y124" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="125" spans="1:25">
       <c r="A125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B125" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D125" t="n">
         <v>0.25</v>
@@ -9760,16 +10135,19 @@
       <c r="X125" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="126" spans="1:24">
+      <c r="Y125" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="126" spans="1:25">
       <c r="A126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B126" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D126" t="n">
         <v>0.26</v>
@@ -9834,16 +10212,19 @@
       <c r="X126" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="127" spans="1:24">
+      <c r="Y126" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="127" spans="1:25">
       <c r="A127" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B127" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E127" t="n">
         <v>0.02</v>
@@ -9905,16 +10286,19 @@
       <c r="X127" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="128" spans="1:24">
+      <c r="Y127" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="128" spans="1:25">
       <c r="A128" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C128" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E128" t="n">
         <v>0.01</v>
@@ -9976,16 +10360,19 @@
       <c r="X128" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="129" spans="1:24">
+      <c r="Y128" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="129" spans="1:25">
       <c r="A129" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B129" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C129" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E129" t="n">
         <v>0.005</v>
@@ -10047,16 +10434,19 @@
       <c r="X129" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="130" spans="1:24">
+      <c r="Y129" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="130" spans="1:25">
       <c r="A130" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B130" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -10118,16 +10508,19 @@
       <c r="X130" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="131" spans="1:24">
+      <c r="Y130" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="131" spans="1:25">
       <c r="A131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C131" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D131" t="n">
         <v>0.09</v>
@@ -10192,16 +10585,19 @@
       <c r="X131" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="132" spans="1:24">
+      <c r="Y131" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="132" spans="1:25">
       <c r="A132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D132" t="n">
         <v>0.08</v>
@@ -10266,16 +10662,19 @@
       <c r="X132" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="133" spans="1:24">
+      <c r="Y132" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="133" spans="1:25">
       <c r="A133" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B133" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D133" t="n">
         <v>0.04</v>
@@ -10340,16 +10739,19 @@
       <c r="X133" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="134" spans="1:24">
+      <c r="Y133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:25">
       <c r="A134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C134" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D134" t="n">
         <v>0.07000000000000001</v>
@@ -10414,16 +10816,19 @@
       <c r="X134" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="135" spans="1:24">
+      <c r="Y134" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="135" spans="1:25">
       <c r="A135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D135" t="n">
         <v>0.07000000000000001</v>
@@ -10488,16 +10893,19 @@
       <c r="X135" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="136" spans="1:24">
+      <c r="Y135" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="136" spans="1:25">
       <c r="A136" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B136" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D136" t="n">
         <v>0.06</v>
@@ -10562,16 +10970,19 @@
       <c r="X136" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="137" spans="1:24">
+      <c r="Y136" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="137" spans="1:25">
       <c r="A137" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B137" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D137" t="n">
         <v>0.2</v>
@@ -10636,16 +11047,19 @@
       <c r="X137" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="138" spans="1:24">
+      <c r="Y137" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="138" spans="1:25">
       <c r="A138" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B138" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C138" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D138" t="n">
         <v>0.13</v>
@@ -10710,16 +11124,19 @@
       <c r="X138" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="139" spans="1:24">
+      <c r="Y138" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="139" spans="1:25">
       <c r="A139" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B139" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D139" t="n">
         <v>0.06</v>
@@ -10784,16 +11201,19 @@
       <c r="X139" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="140" spans="1:24">
+      <c r="Y139" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="140" spans="1:25">
       <c r="A140" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B140" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C140" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D140" t="n">
         <v>0.07000000000000001</v>
@@ -10858,16 +11278,19 @@
       <c r="X140" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="141" spans="1:24">
+      <c r="Y140" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="141" spans="1:25">
       <c r="A141" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B141" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C141" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D141" t="n">
         <v>0.05</v>
@@ -10932,16 +11355,19 @@
       <c r="X141" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="142" spans="1:24">
+      <c r="Y141" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25">
       <c r="A142" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D142" t="n">
         <v>0.05</v>
@@ -11006,16 +11432,19 @@
       <c r="X142" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="143" spans="1:24">
+      <c r="Y142" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25">
       <c r="A143" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D143" t="n">
         <v>0.07000000000000001</v>
@@ -11080,16 +11509,19 @@
       <c r="X143" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="144" spans="1:24">
+      <c r="Y143" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25">
       <c r="A144" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B144" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C144" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D144" t="n">
         <v>0.08</v>
@@ -11154,16 +11586,19 @@
       <c r="X144" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="145" spans="1:24">
+      <c r="Y144" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25">
       <c r="A145" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B145" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D145" t="n">
         <v>0.1</v>
@@ -11228,16 +11663,19 @@
       <c r="X145" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="146" spans="1:24">
+      <c r="Y145" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25">
       <c r="A146" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B146" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C146" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E146" t="n">
         <v>0.01</v>
@@ -11299,16 +11737,19 @@
       <c r="X146" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="147" spans="1:24">
+      <c r="Y146" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25">
       <c r="A147" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B147" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
@@ -11370,16 +11811,19 @@
       <c r="X147" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="148" spans="1:24">
+      <c r="Y147" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25">
       <c r="A148" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B148" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C148" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
@@ -11441,16 +11885,19 @@
       <c r="X148" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="149" spans="1:24">
+      <c r="Y148" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25">
       <c r="A149" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B149" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E149" t="n">
         <v>0.01</v>
@@ -11512,16 +11959,19 @@
       <c r="X149" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:24">
+      <c r="Y149" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25">
       <c r="A150" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H150" t="n">
         <v>0.04</v>
@@ -11574,16 +12024,19 @@
       <c r="X150" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="151" spans="1:24">
+      <c r="Y150" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25">
       <c r="A151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B151" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C151" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H151" t="n">
         <v>0.05</v>
@@ -11636,16 +12089,19 @@
       <c r="X151" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="152" spans="1:24">
+      <c r="Y151" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25">
       <c r="A152" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B152" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H152" t="n">
         <v>0.04</v>
@@ -11698,16 +12154,19 @@
       <c r="X152" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="153" spans="1:24">
+      <c r="Y152" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25">
       <c r="A153" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B153" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H153" t="n">
         <v>0.05</v>
@@ -11760,16 +12219,19 @@
       <c r="X153" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="154" spans="1:24">
+      <c r="Y153" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25">
       <c r="A154" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B154" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H154" t="n">
         <v>0.04</v>
@@ -11822,16 +12284,19 @@
       <c r="X154" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="155" spans="1:24">
+      <c r="Y154" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25">
       <c r="A155" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B155" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C155" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H155" t="n">
         <v>0.06</v>
@@ -11884,16 +12349,19 @@
       <c r="X155" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="156" spans="1:24">
+      <c r="Y155" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25">
       <c r="A156" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B156" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H156" t="n">
         <v>0.06</v>
@@ -11946,16 +12414,19 @@
       <c r="X156" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="157" spans="1:24">
+      <c r="Y156" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25">
       <c r="A157" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B157" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C157" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H157" t="n">
         <v>0.05</v>
@@ -12008,16 +12479,19 @@
       <c r="X157" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="158" spans="1:24">
+      <c r="Y157" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25">
       <c r="A158" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B158" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C158" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H158" t="n">
         <v>0.05</v>
@@ -12070,16 +12544,19 @@
       <c r="X158" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="159" spans="1:24">
+      <c r="Y158" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25">
       <c r="A159" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B159" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C159" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H159" t="n">
         <v>0.04</v>
@@ -12132,16 +12609,19 @@
       <c r="X159" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="160" spans="1:24">
+      <c r="Y159" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25">
       <c r="A160" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B160" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H160" t="n">
         <v>0.05</v>
@@ -12194,16 +12674,19 @@
       <c r="X160" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="161" spans="1:24">
+      <c r="Y160" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25">
       <c r="A161" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B161" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C161" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H161" t="n">
         <v>0.05</v>
@@ -12256,16 +12739,19 @@
       <c r="X161" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="162" spans="1:24">
+      <c r="Y161" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25">
       <c r="A162" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B162" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C162" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H162" t="n">
         <v>0.05</v>
@@ -12318,16 +12804,19 @@
       <c r="X162" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="163" spans="1:24">
+      <c r="Y162" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25">
       <c r="A163" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B163" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C163" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H163" t="n">
         <v>0.03</v>
@@ -12380,16 +12869,19 @@
       <c r="X163" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="164" spans="1:24">
+      <c r="Y163" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25">
       <c r="A164" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B164" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C164" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H164" t="n">
         <v>0.04</v>
@@ -12442,16 +12934,19 @@
       <c r="X164" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="165" spans="1:24">
+      <c r="Y164" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25">
       <c r="A165" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B165" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C165" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H165" t="n">
         <v>0.03</v>
@@ -12504,16 +12999,19 @@
       <c r="X165" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="166" spans="1:24">
+      <c r="Y165" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25">
       <c r="A166" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B166" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C166" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H166" t="n">
         <v>0.05</v>
@@ -12566,16 +13064,19 @@
       <c r="X166" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="167" spans="1:24">
+      <c r="Y166" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25">
       <c r="A167" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B167" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C167" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H167" t="n">
         <v>0.05</v>
@@ -12628,16 +13129,19 @@
       <c r="X167" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="168" spans="1:24">
+      <c r="Y167" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25">
       <c r="A168" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B168" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C168" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H168" t="n">
         <v>0.06</v>
@@ -12690,16 +13194,19 @@
       <c r="X168" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="169" spans="1:24">
+      <c r="Y168" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="169" spans="1:25">
       <c r="A169" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B169" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C169" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D169" t="n">
         <v>0.03</v>
@@ -12764,16 +13271,19 @@
       <c r="X169" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="170" spans="1:24">
+      <c r="Y169" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="170" spans="1:25">
       <c r="A170" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B170" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C170" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D170" t="n">
         <v>0.03</v>
@@ -12838,16 +13348,19 @@
       <c r="X170" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="171" spans="1:24">
+      <c r="Y170" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="171" spans="1:25">
       <c r="A171" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B171" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D171" t="n">
         <v>0.015</v>
@@ -12912,16 +13425,19 @@
       <c r="X171" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="172" spans="1:24">
+      <c r="Y171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:25">
       <c r="A172" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B172" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C172" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D172" t="n">
         <v>0.02</v>
@@ -12986,16 +13502,19 @@
       <c r="X172" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="173" spans="1:24">
+      <c r="Y172" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="173" spans="1:25">
       <c r="A173" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C173" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D173" t="n">
         <v>0.02</v>
@@ -13060,16 +13579,19 @@
       <c r="X173" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="174" spans="1:24">
+      <c r="Y173" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="174" spans="1:25">
       <c r="A174" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D174" t="n">
         <v>0.02</v>
@@ -13134,16 +13656,19 @@
       <c r="X174" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="175" spans="1:24">
+      <c r="Y174" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="175" spans="1:25">
       <c r="A175" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B175" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C175" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D175" t="n">
         <v>0.09</v>
@@ -13208,16 +13733,19 @@
       <c r="X175" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="176" spans="1:24">
+      <c r="Y175" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="176" spans="1:25">
       <c r="A176" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B176" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C176" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D176" t="n">
         <v>0.08</v>
@@ -13282,16 +13810,19 @@
       <c r="X176" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="177" spans="1:24">
+      <c r="Y176" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="177" spans="1:25">
       <c r="A177" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B177" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C177" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D177" t="n">
         <v>0.02</v>
@@ -13356,16 +13887,19 @@
       <c r="X177" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="178" spans="1:24">
+      <c r="Y177" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="178" spans="1:25">
       <c r="A178" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B178" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C178" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D178" t="n">
         <v>0.02</v>
@@ -13430,16 +13964,19 @@
       <c r="X178" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="179" spans="1:24">
+      <c r="Y178" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="179" spans="1:25">
       <c r="A179" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B179" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C179" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D179" t="n">
         <v>0.02</v>
@@ -13504,16 +14041,19 @@
       <c r="X179" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="180" spans="1:24">
+      <c r="Y179" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="180" spans="1:25">
       <c r="A180" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B180" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C180" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D180" t="n">
         <v>0.02</v>
@@ -13578,16 +14118,19 @@
       <c r="X180" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="181" spans="1:24">
+      <c r="Y180" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="181" spans="1:25">
       <c r="A181" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C181" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D181" t="n">
         <v>0.04</v>
@@ -13652,16 +14195,19 @@
       <c r="X181" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="182" spans="1:24">
+      <c r="Y181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:25">
       <c r="A182" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B182" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C182" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D182" t="n">
         <v>0.02</v>
@@ -13726,16 +14272,19 @@
       <c r="X182" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="183" spans="1:24">
+      <c r="Y182" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="183" spans="1:25">
       <c r="A183" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B183" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C183" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D183" t="n">
         <v>0.03</v>
@@ -13800,16 +14349,19 @@
       <c r="X183" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="184" spans="1:24">
+      <c r="Y183" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="184" spans="1:25">
       <c r="A184" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B184" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C184" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
@@ -13871,16 +14423,19 @@
       <c r="X184" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="185" spans="1:24">
+      <c r="Y184" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="185" spans="1:25">
       <c r="A185" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B185" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C185" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -13942,16 +14497,19 @@
       <c r="X185" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:24">
+      <c r="Y185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:25">
       <c r="A186" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B186" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C186" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -14013,16 +14571,19 @@
       <c r="X186" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:24">
+      <c r="Y186" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="187" spans="1:25">
       <c r="A187" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B187" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C187" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -14084,16 +14645,19 @@
       <c r="X187" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:24">
+      <c r="Y187" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="188" spans="1:25">
       <c r="A188" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B188" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C188" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D188" t="n">
         <v>0.02</v>
@@ -14158,16 +14722,19 @@
       <c r="X188" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="189" spans="1:24">
+      <c r="Y188" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="189" spans="1:25">
       <c r="A189" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B189" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C189" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D189" t="n">
         <v>0.015</v>
@@ -14232,16 +14799,19 @@
       <c r="X189" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="190" spans="1:24">
+      <c r="Y189" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="190" spans="1:25">
       <c r="A190" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B190" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C190" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D190" t="n">
         <v>0.005</v>
@@ -14306,16 +14876,19 @@
       <c r="X190" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:24">
+      <c r="Y190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:25">
       <c r="A191" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B191" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C191" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D191" t="n">
         <v>0.005</v>
@@ -14380,16 +14953,19 @@
       <c r="X191" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:24">
+      <c r="Y191" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="192" spans="1:25">
       <c r="A192" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B192" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C192" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D192" t="n">
         <v>0.015</v>
@@ -14454,16 +15030,19 @@
       <c r="X192" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="193" spans="1:24">
+      <c r="Y192" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="193" spans="1:25">
       <c r="A193" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B193" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C193" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D193" t="n">
         <v>0.015</v>
@@ -14528,16 +15107,19 @@
       <c r="X193" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="194" spans="1:24">
+      <c r="Y193" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="194" spans="1:25">
       <c r="A194" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B194" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C194" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D194" t="n">
         <v>0.06</v>
@@ -14602,16 +15184,19 @@
       <c r="X194" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="195" spans="1:24">
+      <c r="Y194" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="195" spans="1:25">
       <c r="A195" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B195" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C195" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D195" t="n">
         <v>0.07000000000000001</v>
@@ -14676,16 +15261,19 @@
       <c r="X195" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="196" spans="1:24">
+      <c r="Y195" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="196" spans="1:25">
       <c r="A196" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B196" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C196" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D196" t="n">
         <v>0.01</v>
@@ -14750,16 +15338,19 @@
       <c r="X196" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="197" spans="1:24">
+      <c r="Y196" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="197" spans="1:25">
       <c r="A197" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B197" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C197" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D197" t="n">
         <v>0.015</v>
@@ -14824,16 +15415,19 @@
       <c r="X197" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="198" spans="1:24">
+      <c r="Y197" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="198" spans="1:25">
       <c r="A198" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B198" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C198" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D198" t="n">
         <v>0.01</v>
@@ -14898,16 +15492,19 @@
       <c r="X198" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="199" spans="1:24">
+      <c r="Y198" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="199" spans="1:25">
       <c r="A199" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B199" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C199" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D199" t="n">
         <v>0.015</v>
@@ -14972,16 +15569,19 @@
       <c r="X199" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="200" spans="1:24">
+      <c r="Y199" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="200" spans="1:25">
       <c r="A200" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B200" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C200" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D200" t="n">
         <v>0.01</v>
@@ -15046,16 +15646,19 @@
       <c r="X200" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:24">
+      <c r="Y200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:25">
       <c r="A201" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B201" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C201" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D201" t="n">
         <v>0.02</v>
@@ -15120,16 +15723,19 @@
       <c r="X201" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="202" spans="1:24">
+      <c r="Y201" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="202" spans="1:25">
       <c r="A202" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B202" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C202" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D202" t="n">
         <v>0.01</v>
@@ -15194,16 +15800,19 @@
       <c r="X202" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="203" spans="1:24">
+      <c r="Y202" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="203" spans="1:25">
       <c r="A203" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B203" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C203" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E203" t="n">
         <v>0</v>
@@ -15265,16 +15874,19 @@
       <c r="X203" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="204" spans="1:24">
+      <c r="Y203" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="204" spans="1:25">
       <c r="A204" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B204" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C204" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E204" t="n">
         <v>0</v>
@@ -15336,16 +15948,19 @@
       <c r="X204" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:24">
+      <c r="Y204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:25">
       <c r="A205" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B205" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C205" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
@@ -15407,16 +16022,19 @@
       <c r="X205" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:24">
+      <c r="Y205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:25">
       <c r="A206" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B206" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C206" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
@@ -15478,16 +16096,19 @@
       <c r="X206" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:24">
+      <c r="Y206" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="207" spans="1:25">
       <c r="A207" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B207" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C207" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D207" t="n">
         <v>0.5600000000000001</v>
@@ -15552,16 +16173,19 @@
       <c r="X207" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="208" spans="1:24">
+      <c r="Y207" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="208" spans="1:25">
       <c r="A208" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B208" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C208" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D208" t="n">
         <v>0.47</v>
@@ -15626,16 +16250,19 @@
       <c r="X208" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="209" spans="1:24">
+      <c r="Y208" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="209" spans="1:25">
       <c r="A209" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B209" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C209" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D209" t="n">
         <v>0.4</v>
@@ -15700,16 +16327,19 @@
       <c r="X209" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="210" spans="1:24">
+      <c r="Y209" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="210" spans="1:25">
       <c r="A210" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B210" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C210" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D210" t="n">
         <v>0.47</v>
@@ -15774,16 +16404,19 @@
       <c r="X210" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="211" spans="1:24">
+      <c r="Y210" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="211" spans="1:25">
       <c r="A211" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B211" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C211" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D211" t="n">
         <v>0.46</v>
@@ -15848,16 +16481,19 @@
       <c r="X211" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="212" spans="1:24">
+      <c r="Y211" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="212" spans="1:25">
       <c r="A212" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B212" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C212" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D212" t="n">
         <v>0.47</v>
@@ -15922,16 +16558,19 @@
       <c r="X212" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="213" spans="1:24">
+      <c r="Y212" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="213" spans="1:25">
       <c r="A213" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B213" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C213" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D213" t="n">
         <v>0.63</v>
@@ -15996,16 +16635,19 @@
       <c r="X213" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="214" spans="1:24">
+      <c r="Y213" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:25">
       <c r="A214" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B214" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C214" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D214" t="n">
         <v>0.61</v>
@@ -16070,16 +16712,19 @@
       <c r="X214" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="215" spans="1:24">
+      <c r="Y214" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="215" spans="1:25">
       <c r="A215" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B215" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C215" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D215" t="n">
         <v>0.46</v>
@@ -16144,16 +16789,19 @@
       <c r="X215" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="216" spans="1:24">
+      <c r="Y215" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="216" spans="1:25">
       <c r="A216" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B216" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C216" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D216" t="n">
         <v>0.48</v>
@@ -16218,16 +16866,19 @@
       <c r="X216" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="217" spans="1:24">
+      <c r="Y216" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="217" spans="1:25">
       <c r="A217" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B217" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C217" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D217" t="n">
         <v>0.45</v>
@@ -16292,16 +16943,19 @@
       <c r="X217" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="218" spans="1:24">
+      <c r="Y217" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:25">
       <c r="A218" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B218" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C218" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D218" t="n">
         <v>0.46</v>
@@ -16366,16 +17020,19 @@
       <c r="X218" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="219" spans="1:24">
+      <c r="Y218" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="219" spans="1:25">
       <c r="A219" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B219" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C219" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D219" t="n">
         <v>0.49</v>
@@ -16440,16 +17097,19 @@
       <c r="X219" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="220" spans="1:24">
+      <c r="Y219" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="220" spans="1:25">
       <c r="A220" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B220" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C220" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D220" t="n">
         <v>0.49</v>
@@ -16514,16 +17174,19 @@
       <c r="X220" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="221" spans="1:24">
+      <c r="Y220" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="1:25">
       <c r="A221" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B221" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C221" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D221" t="n">
         <v>0.4</v>
@@ -16588,16 +17251,19 @@
       <c r="X221" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="222" spans="1:24">
+      <c r="Y221" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="222" spans="1:25">
       <c r="A222" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B222" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C222" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E222" t="n">
         <v>0.38</v>
@@ -16659,16 +17325,19 @@
       <c r="X222" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="223" spans="1:24">
+      <c r="Y222" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="223" spans="1:25">
       <c r="A223" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B223" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C223" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E223" t="n">
         <v>0.41</v>
@@ -16730,16 +17399,19 @@
       <c r="X223" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="224" spans="1:24">
+      <c r="Y223" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="224" spans="1:25">
       <c r="A224" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B224" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C224" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E224" t="n">
         <v>0.34</v>
@@ -16801,16 +17473,19 @@
       <c r="X224" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="225" spans="1:24">
+      <c r="Y224" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="225" spans="1:25">
       <c r="A225" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B225" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C225" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E225" t="n">
         <v>0.32</v>
@@ -16872,16 +17547,19 @@
       <c r="X225" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="226" spans="1:24">
+      <c r="Y225" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="226" spans="1:25">
       <c r="A226" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B226" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C226" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E226" t="n">
         <v>0.17</v>
@@ -16943,16 +17621,19 @@
       <c r="X226" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="227" spans="1:24">
+      <c r="Y226" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="227" spans="1:25">
       <c r="A227" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B227" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C227" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E227" t="n">
         <v>0.14</v>
@@ -17014,16 +17695,19 @@
       <c r="X227" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="228" spans="1:24">
+      <c r="Y227" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="228" spans="1:25">
       <c r="A228" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B228" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C228" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E228" t="n">
         <v>0.08</v>
@@ -17085,16 +17769,19 @@
       <c r="X228" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="229" spans="1:24">
+      <c r="Y228" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:25">
       <c r="A229" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B229" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C229" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E229" t="n">
         <v>0.16</v>
@@ -17156,16 +17843,19 @@
       <c r="X229" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="230" spans="1:24">
+      <c r="Y229" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:25">
       <c r="A230" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B230" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C230" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E230" t="n">
         <v>0.13</v>
@@ -17227,16 +17917,19 @@
       <c r="X230" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="231" spans="1:24">
+      <c r="Y230" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="231" spans="1:25">
       <c r="A231" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B231" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C231" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E231" t="n">
         <v>0.11</v>
@@ -17298,16 +17991,19 @@
       <c r="X231" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="232" spans="1:24">
+      <c r="Y231" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="232" spans="1:25">
       <c r="A232" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B232" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C232" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E232" t="n">
         <v>0.06</v>
@@ -17369,16 +18065,19 @@
       <c r="X232" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="233" spans="1:24">
+      <c r="Y232" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="233" spans="1:25">
       <c r="A233" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B233" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C233" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E233" t="n">
         <v>0.18</v>
@@ -17440,16 +18139,19 @@
       <c r="X233" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="234" spans="1:24">
+      <c r="Y233" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="234" spans="1:25">
       <c r="A234" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B234" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C234" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E234" t="n">
         <v>0.12</v>
@@ -17511,16 +18213,19 @@
       <c r="X234" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="235" spans="1:24">
+      <c r="Y234" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:25">
       <c r="A235" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B235" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C235" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E235" t="n">
         <v>0.14</v>
@@ -17582,16 +18287,19 @@
       <c r="X235" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="236" spans="1:24">
+      <c r="Y235" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="236" spans="1:25">
       <c r="A236" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B236" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C236" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E236" t="n">
         <v>0.11</v>
@@ -17653,16 +18361,19 @@
       <c r="X236" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="237" spans="1:24">
+      <c r="Y236" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="237" spans="1:25">
       <c r="A237" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B237" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C237" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E237" t="n">
         <v>0.11</v>
@@ -17724,16 +18435,19 @@
       <c r="X237" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="238" spans="1:24">
+      <c r="Y237" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="238" spans="1:25">
       <c r="A238" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B238" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C238" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E238" t="n">
         <v>0.12</v>
@@ -17795,16 +18509,19 @@
       <c r="X238" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="239" spans="1:24">
+      <c r="Y238" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:25">
       <c r="A239" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B239" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C239" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E239" t="n">
         <v>0.16</v>
@@ -17866,16 +18583,19 @@
       <c r="X239" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="240" spans="1:24">
+      <c r="Y239" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="240" spans="1:25">
       <c r="A240" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B240" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C240" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E240" t="n">
         <v>0.15</v>
@@ -17937,16 +18657,19 @@
       <c r="X240" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="241" spans="1:24">
+      <c r="Y240" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="241" spans="1:25">
       <c r="A241" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B241" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C241" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E241" t="n">
         <v>0.15</v>
@@ -18008,16 +18731,19 @@
       <c r="X241" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="242" spans="1:24">
+      <c r="Y241" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="242" spans="1:25">
       <c r="A242" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B242" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C242" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E242" t="n">
         <v>0.18</v>
@@ -18079,16 +18805,19 @@
       <c r="X242" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="243" spans="1:24">
+      <c r="Y242" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="243" spans="1:25">
       <c r="A243" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B243" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C243" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E243" t="n">
         <v>0.12</v>
@@ -18150,16 +18879,19 @@
       <c r="X243" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="244" spans="1:24">
+      <c r="Y243" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="244" spans="1:25">
       <c r="A244" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B244" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C244" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E244" t="n">
         <v>0.14</v>
@@ -18221,16 +18953,19 @@
       <c r="X244" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="245" spans="1:24">
+      <c r="Y244" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:25">
       <c r="A245" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B245" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C245" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E245" t="n">
         <v>0.04</v>
@@ -18292,16 +19027,19 @@
       <c r="X245" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="246" spans="1:24">
+      <c r="Y245" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:25">
       <c r="A246" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B246" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C246" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E246" t="n">
         <v>0.04</v>
@@ -18363,16 +19101,19 @@
       <c r="X246" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="247" spans="1:24">
+      <c r="Y246" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="247" spans="1:25">
       <c r="A247" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B247" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C247" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E247" t="n">
         <v>0.03</v>
@@ -18434,16 +19175,19 @@
       <c r="X247" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="248" spans="1:24">
+      <c r="Y247" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="248" spans="1:25">
       <c r="A248" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B248" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C248" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E248" t="n">
         <v>0.04</v>
@@ -18505,16 +19249,19 @@
       <c r="X248" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="249" spans="1:24">
+      <c r="Y248" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="249" spans="1:25">
       <c r="A249" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B249" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C249" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E249" t="n">
         <v>0.04</v>
@@ -18576,16 +19323,19 @@
       <c r="X249" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="250" spans="1:24">
+      <c r="Y249" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="250" spans="1:25">
       <c r="A250" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B250" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C250" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E250" t="n">
         <v>0.03</v>
@@ -18647,16 +19397,19 @@
       <c r="X250" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="251" spans="1:24">
+      <c r="Y250" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="251" spans="1:25">
       <c r="A251" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B251" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C251" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
@@ -18718,16 +19471,19 @@
       <c r="X251" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="252" spans="1:24">
+      <c r="Y251" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="252" spans="1:25">
       <c r="A252" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B252" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C252" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E252" t="n">
         <v>0.05</v>
@@ -18789,16 +19545,19 @@
       <c r="X252" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="253" spans="1:24">
+      <c r="Y252" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="253" spans="1:25">
       <c r="A253" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B253" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C253" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E253" t="n">
         <v>0.03</v>
@@ -18860,16 +19619,19 @@
       <c r="X253" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="254" spans="1:24">
+      <c r="Y253" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="254" spans="1:25">
       <c r="A254" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B254" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C254" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E254" t="n">
         <v>0.04</v>
@@ -18931,16 +19693,19 @@
       <c r="X254" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="255" spans="1:24">
+      <c r="Y254" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="255" spans="1:25">
       <c r="A255" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B255" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C255" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E255" t="n">
         <v>0.03</v>
@@ -19002,16 +19767,19 @@
       <c r="X255" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="256" spans="1:24">
+      <c r="Y255" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="256" spans="1:25">
       <c r="A256" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B256" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C256" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E256" t="n">
         <v>0.03</v>
@@ -19073,16 +19841,19 @@
       <c r="X256" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="257" spans="1:24">
+      <c r="Y256" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="257" spans="1:25">
       <c r="A257" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B257" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C257" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E257" t="n">
         <v>0.04</v>
@@ -19144,16 +19915,19 @@
       <c r="X257" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="258" spans="1:24">
+      <c r="Y257" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="258" spans="1:25">
       <c r="A258" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B258" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C258" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E258" t="n">
         <v>0.03</v>
@@ -19215,16 +19989,19 @@
       <c r="X258" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="259" spans="1:24">
+      <c r="Y258" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="259" spans="1:25">
       <c r="A259" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B259" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C259" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E259" t="n">
         <v>0.06</v>
@@ -19286,16 +20063,19 @@
       <c r="X259" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="260" spans="1:24">
+      <c r="Y259" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="260" spans="1:25">
       <c r="A260" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B260" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C260" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E260" t="n">
         <v>0.05</v>
@@ -19357,16 +20137,19 @@
       <c r="X260" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="261" spans="1:24">
+      <c r="Y260" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="261" spans="1:25">
       <c r="A261" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B261" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C261" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E261" t="n">
         <v>0.02</v>
@@ -19428,16 +20211,19 @@
       <c r="X261" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="262" spans="1:24">
+      <c r="Y261" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="262" spans="1:25">
       <c r="A262" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B262" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C262" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E262" t="n">
         <v>0.03</v>
@@ -19499,16 +20285,19 @@
       <c r="X262" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="263" spans="1:24">
+      <c r="Y262" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="263" spans="1:25">
       <c r="A263" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B263" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C263" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E263" t="n">
         <v>0.05</v>
@@ -19570,16 +20359,19 @@
       <c r="X263" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="264" spans="1:24">
+      <c r="Y263" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="264" spans="1:25">
       <c r="A264" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B264" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C264" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D264" t="n">
         <v>0.08</v>
@@ -19644,16 +20436,19 @@
       <c r="X264" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="265" spans="1:24">
+      <c r="Y264" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="265" spans="1:25">
       <c r="A265" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B265" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C265" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D265" t="n">
         <v>0.05</v>
@@ -19718,16 +20513,19 @@
       <c r="X265" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="266" spans="1:24">
+      <c r="Y265" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="266" spans="1:25">
       <c r="A266" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B266" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C266" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D266" t="n">
         <v>0.03</v>
@@ -19792,16 +20590,19 @@
       <c r="X266" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="267" spans="1:24">
+      <c r="Y266" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="267" spans="1:25">
       <c r="A267" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B267" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C267" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D267" t="n">
         <v>0.04</v>
@@ -19866,16 +20667,19 @@
       <c r="X267" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="268" spans="1:24">
+      <c r="Y267" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="268" spans="1:25">
       <c r="A268" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B268" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C268" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D268" t="n">
         <v>0.05</v>
@@ -19940,16 +20744,19 @@
       <c r="X268" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="269" spans="1:24">
+      <c r="Y268" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:25">
       <c r="A269" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B269" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C269" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D269" t="n">
         <v>0.05</v>
@@ -20014,16 +20821,19 @@
       <c r="X269" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="270" spans="1:24">
+      <c r="Y269" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="270" spans="1:25">
       <c r="A270" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B270" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C270" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D270" t="n">
         <v>0.32</v>
@@ -20088,16 +20898,19 @@
       <c r="X270" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="271" spans="1:24">
+      <c r="Y270" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="271" spans="1:25">
       <c r="A271" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B271" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C271" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D271" t="n">
         <v>0.1</v>
@@ -20162,16 +20975,19 @@
       <c r="X271" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="272" spans="1:24">
+      <c r="Y271" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="272" spans="1:25">
       <c r="A272" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B272" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C272" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D272" t="n">
         <v>0.04</v>
@@ -20236,16 +21052,19 @@
       <c r="X272" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="273" spans="1:24">
+      <c r="Y272" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="273" spans="1:25">
       <c r="A273" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B273" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C273" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D273" t="n">
         <v>0.05</v>
@@ -20310,16 +21129,19 @@
       <c r="X273" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="274" spans="1:24">
+      <c r="Y273" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="274" spans="1:25">
       <c r="A274" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B274" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C274" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D274" t="n">
         <v>0.05</v>
@@ -20384,16 +21206,19 @@
       <c r="X274" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="275" spans="1:24">
+      <c r="Y274" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="275" spans="1:25">
       <c r="A275" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B275" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C275" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D275" t="n">
         <v>0.04</v>
@@ -20458,16 +21283,19 @@
       <c r="X275" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="276" spans="1:24">
+      <c r="Y275" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="276" spans="1:25">
       <c r="A276" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B276" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C276" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D276" t="n">
         <v>0.06</v>
@@ -20532,16 +21360,19 @@
       <c r="X276" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="277" spans="1:24">
+      <c r="Y276" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="277" spans="1:25">
       <c r="A277" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B277" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C277" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D277" t="n">
         <v>0.06</v>
@@ -20606,16 +21437,19 @@
       <c r="X277" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="278" spans="1:24">
+      <c r="Y277" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="278" spans="1:25">
       <c r="A278" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B278" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C278" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D278" t="n">
         <v>0.06</v>
@@ -20680,16 +21514,19 @@
       <c r="X278" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="279" spans="1:24">
+      <c r="Y278" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="279" spans="1:25">
       <c r="A279" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B279" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C279" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E279" t="n">
         <v>0.03</v>
@@ -20751,16 +21588,19 @@
       <c r="X279" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="280" spans="1:24">
+      <c r="Y279" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:25">
       <c r="A280" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B280" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C280" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E280" t="n">
         <v>0.04</v>
@@ -20822,16 +21662,19 @@
       <c r="X280" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="281" spans="1:24">
+      <c r="Y280" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="281" spans="1:25">
       <c r="A281" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B281" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C281" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E281" t="n">
         <v>0.015</v>
@@ -20893,16 +21736,19 @@
       <c r="X281" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="282" spans="1:24">
+      <c r="Y281" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="282" spans="1:25">
       <c r="A282" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B282" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C282" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E282" t="n">
         <v>0.005</v>
@@ -20964,16 +21810,19 @@
       <c r="X282" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="283" spans="1:24">
+      <c r="Y282" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="283" spans="1:25">
       <c r="A283" t="s">
+        <v>42</v>
+      </c>
+      <c r="B283" t="s">
+        <v>43</v>
+      </c>
+      <c r="C283" t="s">
         <v>41</v>
-      </c>
-      <c r="B283" t="s">
-        <v>42</v>
-      </c>
-      <c r="C283" t="s">
-        <v>40</v>
       </c>
       <c r="H283" t="n">
         <v>0.02</v>
@@ -21026,16 +21875,19 @@
       <c r="X283" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="284" spans="1:24">
+      <c r="Y283" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="284" spans="1:25">
       <c r="A284" t="s">
+        <v>42</v>
+      </c>
+      <c r="B284" t="s">
+        <v>44</v>
+      </c>
+      <c r="C284" t="s">
         <v>41</v>
-      </c>
-      <c r="B284" t="s">
-        <v>43</v>
-      </c>
-      <c r="C284" t="s">
-        <v>40</v>
       </c>
       <c r="H284" t="n">
         <v>0.015</v>
@@ -21088,16 +21940,19 @@
       <c r="X284" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="285" spans="1:24">
+      <c r="Y284" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="285" spans="1:25">
       <c r="A285" t="s">
+        <v>42</v>
+      </c>
+      <c r="B285" t="s">
+        <v>45</v>
+      </c>
+      <c r="C285" t="s">
         <v>41</v>
-      </c>
-      <c r="B285" t="s">
-        <v>44</v>
-      </c>
-      <c r="C285" t="s">
-        <v>40</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -21150,16 +22005,19 @@
       <c r="X285" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="286" spans="1:24">
+      <c r="Y285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:25">
       <c r="A286" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B286" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C286" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -21212,16 +22070,19 @@
       <c r="X286" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:24">
+      <c r="Y286" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="287" spans="1:25">
       <c r="A287" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B287" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C287" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H287" t="n">
         <v>0.005</v>
@@ -21274,16 +22135,19 @@
       <c r="X287" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="288" spans="1:24">
+      <c r="Y287" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="288" spans="1:25">
       <c r="A288" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B288" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C288" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H288" t="n">
         <v>0.03</v>
@@ -21336,16 +22200,19 @@
       <c r="X288" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="289" spans="1:24">
+      <c r="Y288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:25">
       <c r="A289" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B289" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C289" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H289" t="n">
         <v>0.05</v>
@@ -21398,16 +22265,19 @@
       <c r="X289" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="290" spans="1:24">
+      <c r="Y289" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="290" spans="1:25">
       <c r="A290" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B290" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C290" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H290" t="n">
         <v>0.005</v>
@@ -21460,16 +22330,19 @@
       <c r="X290" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="291" spans="1:24">
+      <c r="Y290" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="291" spans="1:25">
       <c r="A291" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B291" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C291" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H291" t="n">
         <v>0.01</v>
@@ -21522,16 +22395,19 @@
       <c r="X291" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="292" spans="1:24">
+      <c r="Y291" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="292" spans="1:25">
       <c r="A292" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B292" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C292" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H292" t="n">
         <v>0.01</v>
@@ -21584,16 +22460,19 @@
       <c r="X292" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="293" spans="1:24">
+      <c r="Y292" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="293" spans="1:25">
       <c r="A293" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B293" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C293" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H293" t="n">
         <v>0.01</v>
@@ -21646,16 +22525,19 @@
       <c r="X293" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="294" spans="1:24">
+      <c r="Y293" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="294" spans="1:25">
       <c r="A294" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B294" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C294" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H294" t="n">
         <v>0.015</v>
@@ -21708,16 +22590,19 @@
       <c r="X294" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="295" spans="1:24">
+      <c r="Y294" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="295" spans="1:25">
       <c r="A295" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B295" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C295" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H295" t="n">
         <v>0.005</v>
@@ -21770,16 +22655,19 @@
       <c r="X295" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="296" spans="1:24">
+      <c r="Y295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:25">
       <c r="A296" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B296" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C296" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H296" t="n">
         <v>0.005</v>
@@ -21832,16 +22720,19 @@
       <c r="X296" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="297" spans="1:24">
+      <c r="Y296" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="297" spans="1:25">
       <c r="A297" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B297" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C297" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H297" t="n">
         <v>0.005</v>
@@ -21894,16 +22785,19 @@
       <c r="X297" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="298" spans="1:24">
+      <c r="Y297" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="298" spans="1:25">
       <c r="A298" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B298" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C298" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H298" t="n">
         <v>0.01</v>
@@ -21956,16 +22850,19 @@
       <c r="X298" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="299" spans="1:24">
+      <c r="Y298" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="299" spans="1:25">
       <c r="A299" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B299" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C299" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H299" t="n">
         <v>0.02</v>
@@ -22018,16 +22915,19 @@
       <c r="X299" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:24">
+      <c r="Y299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:25">
       <c r="A300" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B300" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C300" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H300" t="n">
         <v>0.02</v>
@@ -22080,16 +22980,19 @@
       <c r="X300" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:24">
+      <c r="Y300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:25">
       <c r="A301" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B301" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C301" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H301" t="n">
         <v>0.02</v>
@@ -22142,10 +23045,13 @@
       <c r="X301" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="302" spans="1:24">
+      <c r="Y301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:25">
       <c r="A302" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -22159,7 +23065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22167,7 +23073,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -22237,13 +23143,16 @@
       <c r="W1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -22308,13 +23217,16 @@
       <c r="W2" t="n">
         <v>2131</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="n">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -22379,13 +23291,16 @@
       <c r="W3" t="n">
         <v>501</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="n">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -22450,13 +23365,16 @@
       <c r="W4" t="n">
         <v>781</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="n">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -22521,13 +23439,16 @@
       <c r="W5" t="n">
         <v>849</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="n">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="n">
         <v>665</v>
@@ -22592,13 +23513,16 @@
       <c r="W6" t="n">
         <v>388</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" t="n">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" t="n">
         <v>885</v>
@@ -22663,13 +23587,16 @@
       <c r="W7" t="n">
         <v>774</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" t="n">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" t="n">
         <v>1551</v>
@@ -22734,13 +23661,16 @@
       <c r="W8" t="n">
         <v>969</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="n">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" t="n">
         <v>11</v>
@@ -22805,13 +23735,16 @@
       <c r="W9" t="n">
         <v>648</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="n">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" t="n">
         <v>102</v>
@@ -22876,13 +23809,16 @@
       <c r="W10" t="n">
         <v>711</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" t="n">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" t="n">
         <v>2988</v>
@@ -22947,13 +23883,16 @@
       <c r="W11" t="n">
         <v>772</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" t="n">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" t="n">
         <v>1514</v>
@@ -23018,13 +23957,16 @@
       <c r="W12" t="n">
         <v>1040</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" t="n">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" t="n">
         <v>1587</v>
@@ -23089,13 +24031,16 @@
       <c r="W13" t="n">
         <v>1091</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" t="n">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" t="n">
         <v>1726</v>
@@ -23160,13 +24105,16 @@
       <c r="W14" t="n">
         <v>1106</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" t="n">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" t="n">
         <v>667</v>
@@ -23231,13 +24179,16 @@
       <c r="W15" t="n">
         <v>493</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" t="n">
         <v>333</v>
@@ -23302,13 +24253,16 @@
       <c r="W16" t="n">
         <v>250</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" t="n">
         <v>375</v>
@@ -23373,13 +24327,16 @@
       <c r="W17" t="n">
         <v>282</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s"/>
       <c r="D18" t="n">
@@ -23442,13 +24399,16 @@
       <c r="W18" t="n">
         <v>769</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" t="n">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s"/>
       <c r="D19" t="n">
@@ -23511,13 +24471,16 @@
       <c r="W19" t="n">
         <v>96</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s"/>
       <c r="D20" t="n">
@@ -23580,13 +24543,16 @@
       <c r="W20" t="n">
         <v>154</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s"/>
       <c r="D21" t="n">
@@ -23649,10 +24615,13 @@
       <c r="W21" t="n">
         <v>134</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s"/>
       <c r="C22" t="s"/>
@@ -23676,6 +24645,7 @@
       <c r="U22" t="s"/>
       <c r="V22" t="s"/>
       <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_04_socialni_aktivity.xlsx
+++ b/ZBP_04_socialni_aktivity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>trideni</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>8.–14. 2. 2021</t>
+  </si>
+  <si>
+    <t>22.–28. 2. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -218,10 +221,10 @@
     <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
   </si>
   <si>
-    <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+    <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 9. 3. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 2. 2021</t>
+    <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -596,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y302"/>
+  <dimension ref="A1:Z302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +607,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,16 +683,19 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
         <v>0.74</v>
@@ -757,16 +763,19 @@
       <c r="Y2" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
         <v>0.28</v>
@@ -834,16 +843,19 @@
       <c r="Y3" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
         <v>0.2</v>
@@ -911,16 +923,19 @@
       <c r="Y4" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" t="n">
         <v>0.09</v>
@@ -988,16 +1003,19 @@
       <c r="Y5" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
         <v>0.02</v>
@@ -1065,16 +1083,19 @@
       <c r="Y6" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
         <v>0.19</v>
@@ -1142,16 +1163,19 @@
       <c r="Y7" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
         <v>0.06</v>
@@ -1219,16 +1243,19 @@
       <c r="Y8" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" t="n">
         <v>0.05</v>
@@ -1284,16 +1311,19 @@
       <c r="Y9" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" t="n">
         <v>0.02</v>
@@ -1361,16 +1391,19 @@
       <c r="Y10" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" t="n">
         <v>0.015</v>
@@ -1438,16 +1471,19 @@
       <c r="Y11" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" t="n">
         <v>0.47</v>
@@ -1515,16 +1551,19 @@
       <c r="Y12" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" t="n">
         <v>0.12</v>
@@ -1589,16 +1628,19 @@
       <c r="Y13" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E14" t="n">
         <v>0.04</v>
@@ -1663,16 +1705,19 @@
       <c r="Y14" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" t="n">
         <v>0.05</v>
@@ -1740,16 +1785,19 @@
       <c r="Y15" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H16" t="n">
         <v>0.01</v>
@@ -1805,16 +1853,19 @@
       <c r="Y16" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
         <v>0.72</v>
@@ -1882,16 +1933,19 @@
       <c r="Y17" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
         <v>0.78</v>
@@ -1959,16 +2013,19 @@
       <c r="Y18" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="n">
         <v>0.71</v>
@@ -2036,16 +2093,19 @@
       <c r="Y19" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
         <v>0.72</v>
@@ -2113,16 +2173,19 @@
       <c r="Y20" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
         <v>0.75</v>
@@ -2190,16 +2253,19 @@
       <c r="Y21" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
         <v>0.74</v>
@@ -2267,16 +2333,19 @@
       <c r="Y22" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -2344,16 +2413,19 @@
       <c r="Y23" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" t="n">
         <v>0.79</v>
@@ -2421,16 +2493,19 @@
       <c r="Y24" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Z24" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" t="n">
         <v>0.73</v>
@@ -2498,16 +2573,19 @@
       <c r="Y25" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Z25" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D26" t="n">
         <v>0.72</v>
@@ -2575,16 +2653,19 @@
       <c r="Y26" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="Z26" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D27" t="n">
         <v>0.75</v>
@@ -2652,16 +2733,19 @@
       <c r="Y27" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="Z27" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" t="n">
         <v>0.71</v>
@@ -2729,16 +2813,19 @@
       <c r="Y28" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Z28" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D29" t="n">
         <v>0.75</v>
@@ -2806,16 +2893,19 @@
       <c r="Y29" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="Z29" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" t="n">
         <v>0.79</v>
@@ -2883,16 +2973,19 @@
       <c r="Y30" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="Z30" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D31" t="n">
         <v>0.78</v>
@@ -2960,16 +3053,19 @@
       <c r="Y31" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="Z31" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E32" t="n">
         <v>0.8100000000000001</v>
@@ -3034,16 +3130,19 @@
       <c r="Y32" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="Z32" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E33" t="n">
         <v>0.8</v>
@@ -3108,16 +3207,19 @@
       <c r="Y33" t="n">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="Z33" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E34" t="n">
         <v>0.7</v>
@@ -3182,16 +3284,19 @@
       <c r="Y34" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="Z34" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E35" t="n">
         <v>0.73</v>
@@ -3256,16 +3361,19 @@
       <c r="Y35" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="Z35" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D36" t="n">
         <v>0.32</v>
@@ -3333,16 +3441,19 @@
       <c r="Y36" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="Z36" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D37" t="n">
         <v>0.27</v>
@@ -3410,16 +3521,19 @@
       <c r="Y37" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="38" spans="1:25">
+      <c r="Z37" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D38" t="n">
         <v>0.25</v>
@@ -3487,16 +3601,19 @@
       <c r="Y38" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="Z38" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D39" t="n">
         <v>0.31</v>
@@ -3564,16 +3681,19 @@
       <c r="Y39" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="40" spans="1:25">
+      <c r="Z39" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" t="n">
         <v>0.28</v>
@@ -3641,16 +3761,19 @@
       <c r="Y40" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="41" spans="1:25">
+      <c r="Z40" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D41" t="n">
         <v>0.26</v>
@@ -3718,16 +3841,19 @@
       <c r="Y41" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="Z41" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D42" t="n">
         <v>0.59</v>
@@ -3795,16 +3921,19 @@
       <c r="Y42" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="43" spans="1:25">
+      <c r="Z42" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D43" t="n">
         <v>0.38</v>
@@ -3872,16 +4001,19 @@
       <c r="Y43" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="44" spans="1:25">
+      <c r="Z43" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D44" t="n">
         <v>0.27</v>
@@ -3949,16 +4081,19 @@
       <c r="Y44" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="45" spans="1:25">
+      <c r="Z44" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D45" t="n">
         <v>0.26</v>
@@ -4026,16 +4161,19 @@
       <c r="Y45" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="46" spans="1:25">
+      <c r="Z45" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D46" t="n">
         <v>0.29</v>
@@ -4103,16 +4241,19 @@
       <c r="Y46" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="47" spans="1:25">
+      <c r="Z46" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D47" t="n">
         <v>0.2</v>
@@ -4180,16 +4321,19 @@
       <c r="Y47" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="48" spans="1:25">
+      <c r="Z47" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D48" t="n">
         <v>0.27</v>
@@ -4257,16 +4401,19 @@
       <c r="Y48" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="49" spans="1:25">
+      <c r="Z48" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D49" t="n">
         <v>0.42</v>
@@ -4334,16 +4481,19 @@
       <c r="Y49" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="50" spans="1:25">
+      <c r="Z49" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D50" t="n">
         <v>0.51</v>
@@ -4411,16 +4561,19 @@
       <c r="Y50" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="51" spans="1:25">
+      <c r="Z50" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E51" t="n">
         <v>0.16</v>
@@ -4485,16 +4638,19 @@
       <c r="Y51" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="52" spans="1:25">
+      <c r="Z51" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E52" t="n">
         <v>0.16</v>
@@ -4559,16 +4715,19 @@
       <c r="Y52" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="53" spans="1:25">
+      <c r="Z52" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E53" t="n">
         <v>0.04</v>
@@ -4633,16 +4792,19 @@
       <c r="Y53" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="54" spans="1:25">
+      <c r="Z53" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E54" t="n">
         <v>0.1</v>
@@ -4707,16 +4869,19 @@
       <c r="Y54" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="55" spans="1:25">
+      <c r="Z54" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D55" t="n">
         <v>0.18</v>
@@ -4784,16 +4949,19 @@
       <c r="Y55" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="56" spans="1:25">
+      <c r="Z55" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D56" t="n">
         <v>0.21</v>
@@ -4861,16 +5029,19 @@
       <c r="Y56" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="57" spans="1:25">
+      <c r="Z56" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D57" t="n">
         <v>0.2</v>
@@ -4938,16 +5109,19 @@
       <c r="Y57" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="58" spans="1:25">
+      <c r="Z57" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D58" t="n">
         <v>0.15</v>
@@ -5015,16 +5189,19 @@
       <c r="Y58" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="59" spans="1:25">
+      <c r="Z58" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D59" t="n">
         <v>0.19</v>
@@ -5092,16 +5269,19 @@
       <c r="Y59" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="60" spans="1:25">
+      <c r="Z59" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D60" t="n">
         <v>0.22</v>
@@ -5169,16 +5349,19 @@
       <c r="Y60" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="61" spans="1:25">
+      <c r="Z60" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D61" t="n">
         <v>0.11</v>
@@ -5246,16 +5429,19 @@
       <c r="Y61" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="62" spans="1:25">
+      <c r="Z61" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
         <v>0.2</v>
@@ -5323,16 +5509,19 @@
       <c r="Y62" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="63" spans="1:25">
+      <c r="Z62" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
       <c r="A63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D63" t="n">
         <v>0.2</v>
@@ -5400,16 +5589,19 @@
       <c r="Y63" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="64" spans="1:25">
+      <c r="Z63" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D64" t="n">
         <v>0.18</v>
@@ -5477,16 +5669,19 @@
       <c r="Y64" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="65" spans="1:25">
+      <c r="Z64" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D65" t="n">
         <v>0.22</v>
@@ -5554,16 +5749,19 @@
       <c r="Y65" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="66" spans="1:25">
+      <c r="Z65" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D66" t="n">
         <v>0.22</v>
@@ -5631,16 +5829,19 @@
       <c r="Y66" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="67" spans="1:25">
+      <c r="Z66" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D67" t="n">
         <v>0.17</v>
@@ -5708,16 +5909,19 @@
       <c r="Y67" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="68" spans="1:25">
+      <c r="Z67" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D68" t="n">
         <v>0.2</v>
@@ -5785,16 +5989,19 @@
       <c r="Y68" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="69" spans="1:25">
+      <c r="Z68" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D69" t="n">
         <v>0.17</v>
@@ -5862,16 +6069,19 @@
       <c r="Y69" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="70" spans="1:25">
+      <c r="Z69" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E70" t="n">
         <v>0.1</v>
@@ -5936,16 +6146,19 @@
       <c r="Y70" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="71" spans="1:25">
+      <c r="Z70" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E71" t="n">
         <v>0.08</v>
@@ -6010,16 +6223,19 @@
       <c r="Y71" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="72" spans="1:25">
+      <c r="Z71" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
       <c r="A72" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E72" t="n">
         <v>0.08</v>
@@ -6084,16 +6300,19 @@
       <c r="Y72" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="73" spans="1:25">
+      <c r="Z72" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
       <c r="A73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E73" t="n">
         <v>0.14</v>
@@ -6158,16 +6377,19 @@
       <c r="Y73" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="74" spans="1:25">
+      <c r="Z73" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D74" t="n">
         <v>0.09</v>
@@ -6235,16 +6457,19 @@
       <c r="Y74" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="75" spans="1:25">
+      <c r="Z74" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
       <c r="A75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D75" t="n">
         <v>0.09</v>
@@ -6312,16 +6537,19 @@
       <c r="Y75" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="76" spans="1:25">
+      <c r="Z75" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D76" t="n">
         <v>0.08</v>
@@ -6389,16 +6617,19 @@
       <c r="Y76" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="77" spans="1:25">
+      <c r="Z76" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
       <c r="A77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D77" t="n">
         <v>0.1</v>
@@ -6466,16 +6697,19 @@
       <c r="Y77" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="78" spans="1:25">
+      <c r="Z77" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D78" t="n">
         <v>0.07000000000000001</v>
@@ -6543,16 +6777,19 @@
       <c r="Y78" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="79" spans="1:25">
+      <c r="Z78" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D79" t="n">
         <v>0.09</v>
@@ -6620,16 +6857,19 @@
       <c r="Y79" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="80" spans="1:25">
+      <c r="Z79" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
       <c r="A80" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D80" t="n">
         <v>0.06</v>
@@ -6697,16 +6937,19 @@
       <c r="Y80" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="81" spans="1:25">
+      <c r="Z80" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
       <c r="A81" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D81" t="n">
         <v>0.13</v>
@@ -6774,16 +7017,19 @@
       <c r="Y81" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="82" spans="1:25">
+      <c r="Z81" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26">
       <c r="A82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D82" t="n">
         <v>0.09</v>
@@ -6851,16 +7097,19 @@
       <c r="Y82" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="83" spans="1:25">
+      <c r="Z82" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26">
       <c r="A83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D83" t="n">
         <v>0.09</v>
@@ -6928,16 +7177,19 @@
       <c r="Y83" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="84" spans="1:25">
+      <c r="Z83" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
       <c r="A84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D84" t="n">
         <v>0.08</v>
@@ -7005,16 +7257,19 @@
       <c r="Y84" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="85" spans="1:25">
+      <c r="Z84" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
       <c r="A85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D85" t="n">
         <v>0.07000000000000001</v>
@@ -7082,16 +7337,19 @@
       <c r="Y85" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="86" spans="1:25">
+      <c r="Z85" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26">
       <c r="A86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D86" t="n">
         <v>0.09</v>
@@ -7159,16 +7417,19 @@
       <c r="Y86" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="87" spans="1:25">
+      <c r="Z86" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
       <c r="A87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B87" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D87" t="n">
         <v>0.11</v>
@@ -7236,16 +7497,19 @@
       <c r="Y87" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="88" spans="1:25">
+      <c r="Z87" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26">
       <c r="A88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D88" t="n">
         <v>0.13</v>
@@ -7313,16 +7577,19 @@
       <c r="Y88" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="89" spans="1:25">
+      <c r="Z88" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26">
       <c r="A89" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B89" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E89" t="n">
         <v>0.03</v>
@@ -7387,16 +7654,19 @@
       <c r="Y89" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="90" spans="1:25">
+      <c r="Z89" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26">
       <c r="A90" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B90" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E90" t="n">
         <v>0.04</v>
@@ -7461,16 +7731,19 @@
       <c r="Y90" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="91" spans="1:25">
+      <c r="Z90" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
       <c r="A91" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B91" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E91" t="n">
         <v>0.02</v>
@@ -7535,16 +7808,19 @@
       <c r="Y91" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="92" spans="1:25">
+      <c r="Z91" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
       <c r="A92" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B92" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E92" t="n">
         <v>0.01</v>
@@ -7609,16 +7885,19 @@
       <c r="Y92" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:25">
+      <c r="Z92" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
       <c r="A93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D93" t="n">
         <v>0.04</v>
@@ -7686,16 +7965,19 @@
       <c r="Y93" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="94" spans="1:25">
+      <c r="Z93" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26">
       <c r="A94" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D94" t="n">
         <v>0.03</v>
@@ -7763,16 +8045,19 @@
       <c r="Y94" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="95" spans="1:25">
+      <c r="Z94" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26">
       <c r="A95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D95" t="n">
         <v>0.01</v>
@@ -7840,16 +8125,19 @@
       <c r="Y95" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="96" spans="1:25">
+      <c r="Z95" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
       <c r="A96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D96" t="n">
         <v>0.03</v>
@@ -7917,16 +8205,19 @@
       <c r="Y96" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="97" spans="1:25">
+      <c r="Z96" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
       <c r="A97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B97" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D97" t="n">
         <v>0.03</v>
@@ -7994,16 +8285,19 @@
       <c r="Y97" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="98" spans="1:25">
+      <c r="Z97" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
       <c r="A98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D98" t="n">
         <v>0.02</v>
@@ -8071,16 +8365,19 @@
       <c r="Y98" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="99" spans="1:25">
+      <c r="Z98" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26">
       <c r="A99" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B99" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D99" t="n">
         <v>0.28</v>
@@ -8148,16 +8445,19 @@
       <c r="Y99" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="100" spans="1:25">
+      <c r="Z99" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26">
       <c r="A100" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D100" t="n">
         <v>0.04</v>
@@ -8225,16 +8525,19 @@
       <c r="Y100" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="101" spans="1:25">
+      <c r="Z100" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26">
       <c r="A101" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D101" t="n">
         <v>0.02</v>
@@ -8302,16 +8605,19 @@
       <c r="Y101" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="102" spans="1:25">
+      <c r="Z101" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26">
       <c r="A102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D102" t="n">
         <v>0.03</v>
@@ -8379,16 +8685,19 @@
       <c r="Y102" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="103" spans="1:25">
+      <c r="Z102" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26">
       <c r="A103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D103" t="n">
         <v>0.02</v>
@@ -8456,16 +8765,19 @@
       <c r="Y103" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="104" spans="1:25">
+      <c r="Z103" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26">
       <c r="A104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D104" t="n">
         <v>0.02</v>
@@ -8533,16 +8845,19 @@
       <c r="Y104" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="105" spans="1:25">
+      <c r="Z104" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26">
       <c r="A105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B105" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D105" t="n">
         <v>0.02</v>
@@ -8610,16 +8925,19 @@
       <c r="Y105" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="106" spans="1:25">
+      <c r="Z105" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26">
       <c r="A106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B106" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D106" t="n">
         <v>0.03</v>
@@ -8687,16 +9005,19 @@
       <c r="Y106" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="107" spans="1:25">
+      <c r="Z106" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26">
       <c r="A107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B107" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D107" t="n">
         <v>0.05</v>
@@ -8764,16 +9085,19 @@
       <c r="Y107" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="108" spans="1:25">
+      <c r="Z107" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26">
       <c r="A108" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B108" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E108" t="n">
         <v>0.02</v>
@@ -8838,16 +9162,19 @@
       <c r="Y108" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="109" spans="1:25">
+      <c r="Z108" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26">
       <c r="A109" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E109" t="n">
         <v>0.005</v>
@@ -8912,16 +9239,19 @@
       <c r="Y109" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="110" spans="1:25">
+      <c r="Z109" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26">
       <c r="A110" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B110" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -8986,16 +9316,19 @@
       <c r="Y110" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="111" spans="1:25">
+      <c r="Z110" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26">
       <c r="A111" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B111" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -9060,16 +9393,19 @@
       <c r="Y111" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="112" spans="1:25">
+      <c r="Z111" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26">
       <c r="A112" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D112" t="n">
         <v>0.25</v>
@@ -9137,16 +9473,19 @@
       <c r="Y112" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="113" spans="1:25">
+      <c r="Z112" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26">
       <c r="A113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D113" t="n">
         <v>0.21</v>
@@ -9214,16 +9553,19 @@
       <c r="Y113" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="114" spans="1:25">
+      <c r="Z113" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26">
       <c r="A114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D114" t="n">
         <v>0.14</v>
@@ -9291,16 +9633,19 @@
       <c r="Y114" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="115" spans="1:25">
+      <c r="Z114" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26">
       <c r="A115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D115" t="n">
         <v>0.25</v>
@@ -9368,16 +9713,19 @@
       <c r="Y115" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="116" spans="1:25">
+      <c r="Z115" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26">
       <c r="A116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D116" t="n">
         <v>0.2</v>
@@ -9445,16 +9793,19 @@
       <c r="Y116" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="117" spans="1:25">
+      <c r="Z116" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26">
       <c r="A117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B117" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D117" t="n">
         <v>0.16</v>
@@ -9522,16 +9873,19 @@
       <c r="Y117" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="118" spans="1:25">
+      <c r="Z117" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26">
       <c r="A118" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B118" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D118" t="n">
         <v>0.37</v>
@@ -9599,16 +9953,19 @@
       <c r="Y118" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="119" spans="1:25">
+      <c r="Z118" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26">
       <c r="A119" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B119" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D119" t="n">
         <v>0.2</v>
@@ -9676,16 +10033,19 @@
       <c r="Y119" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="120" spans="1:25">
+      <c r="Z119" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26">
       <c r="A120" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B120" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D120" t="n">
         <v>0.19</v>
@@ -9753,16 +10113,19 @@
       <c r="Y120" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="121" spans="1:25">
+      <c r="Z120" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26">
       <c r="A121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D121" t="n">
         <v>0.25</v>
@@ -9830,16 +10193,19 @@
       <c r="Y121" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="122" spans="1:25">
+      <c r="Z121" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26">
       <c r="A122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D122" t="n">
         <v>0.13</v>
@@ -9907,16 +10273,19 @@
       <c r="Y122" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="123" spans="1:25">
+      <c r="Z122" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26">
       <c r="A123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B123" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D123" t="n">
         <v>0.17</v>
@@ -9984,16 +10353,19 @@
       <c r="Y123" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="124" spans="1:25">
+      <c r="Z123" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26">
       <c r="A124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D124" t="n">
         <v>0.19</v>
@@ -10061,16 +10433,19 @@
       <c r="Y124" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="125" spans="1:25">
+      <c r="Z124" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26">
       <c r="A125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B125" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D125" t="n">
         <v>0.25</v>
@@ -10138,16 +10513,19 @@
       <c r="Y125" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="126" spans="1:25">
+      <c r="Z125" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26">
       <c r="A126" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B126" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D126" t="n">
         <v>0.26</v>
@@ -10215,16 +10593,19 @@
       <c r="Y126" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="127" spans="1:25">
+      <c r="Z126" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26">
       <c r="A127" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B127" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E127" t="n">
         <v>0.02</v>
@@ -10289,16 +10670,19 @@
       <c r="Y127" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="128" spans="1:25">
+      <c r="Z127" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26">
       <c r="A128" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B128" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E128" t="n">
         <v>0.01</v>
@@ -10363,16 +10747,19 @@
       <c r="Y128" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="129" spans="1:25">
+      <c r="Z128" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26">
       <c r="A129" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E129" t="n">
         <v>0.005</v>
@@ -10437,16 +10824,19 @@
       <c r="Y129" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="130" spans="1:25">
+      <c r="Z129" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26">
       <c r="A130" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B130" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C130" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -10511,16 +10901,19 @@
       <c r="Y130" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="131" spans="1:25">
+      <c r="Z130" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26">
       <c r="A131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D131" t="n">
         <v>0.09</v>
@@ -10588,16 +10981,19 @@
       <c r="Y131" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="132" spans="1:25">
+      <c r="Z131" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26">
       <c r="A132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C132" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D132" t="n">
         <v>0.08</v>
@@ -10665,16 +11061,19 @@
       <c r="Y132" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="133" spans="1:25">
+      <c r="Z132" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26">
       <c r="A133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D133" t="n">
         <v>0.04</v>
@@ -10742,16 +11141,19 @@
       <c r="Y133" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:25">
+      <c r="Z133" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26">
       <c r="A134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C134" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D134" t="n">
         <v>0.07000000000000001</v>
@@ -10819,16 +11221,19 @@
       <c r="Y134" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="135" spans="1:25">
+      <c r="Z134" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26">
       <c r="A135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C135" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D135" t="n">
         <v>0.07000000000000001</v>
@@ -10896,16 +11301,19 @@
       <c r="Y135" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="136" spans="1:25">
+      <c r="Z135" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26">
       <c r="A136" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B136" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C136" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D136" t="n">
         <v>0.06</v>
@@ -10973,16 +11381,19 @@
       <c r="Y136" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="137" spans="1:25">
+      <c r="Z136" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26">
       <c r="A137" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B137" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D137" t="n">
         <v>0.2</v>
@@ -11050,16 +11461,19 @@
       <c r="Y137" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="138" spans="1:25">
+      <c r="Z137" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26">
       <c r="A138" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B138" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C138" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D138" t="n">
         <v>0.13</v>
@@ -11127,16 +11541,19 @@
       <c r="Y138" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="139" spans="1:25">
+      <c r="Z138" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26">
       <c r="A139" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B139" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D139" t="n">
         <v>0.06</v>
@@ -11204,16 +11621,19 @@
       <c r="Y139" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="140" spans="1:25">
+      <c r="Z139" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26">
       <c r="A140" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B140" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D140" t="n">
         <v>0.07000000000000001</v>
@@ -11281,16 +11701,19 @@
       <c r="Y140" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="141" spans="1:25">
+      <c r="Z140" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26">
       <c r="A141" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B141" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D141" t="n">
         <v>0.05</v>
@@ -11358,16 +11781,19 @@
       <c r="Y141" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="142" spans="1:25">
+      <c r="Z141" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26">
       <c r="A142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D142" t="n">
         <v>0.05</v>
@@ -11435,16 +11861,19 @@
       <c r="Y142" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="143" spans="1:25">
+      <c r="Z142" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26">
       <c r="A143" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B143" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D143" t="n">
         <v>0.07000000000000001</v>
@@ -11512,16 +11941,19 @@
       <c r="Y143" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="144" spans="1:25">
+      <c r="Z143" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26">
       <c r="A144" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B144" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D144" t="n">
         <v>0.08</v>
@@ -11589,16 +12021,19 @@
       <c r="Y144" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="145" spans="1:25">
+      <c r="Z144" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26">
       <c r="A145" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B145" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D145" t="n">
         <v>0.1</v>
@@ -11666,16 +12101,19 @@
       <c r="Y145" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="146" spans="1:25">
+      <c r="Z145" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26">
       <c r="A146" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B146" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C146" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E146" t="n">
         <v>0.01</v>
@@ -11740,16 +12178,19 @@
       <c r="Y146" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="147" spans="1:25">
+      <c r="Z146" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26">
       <c r="A147" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B147" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
@@ -11814,16 +12255,19 @@
       <c r="Y147" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="148" spans="1:25">
+      <c r="Z147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26">
       <c r="A148" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B148" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C148" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
@@ -11888,16 +12332,19 @@
       <c r="Y148" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="149" spans="1:25">
+      <c r="Z148" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26">
       <c r="A149" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B149" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E149" t="n">
         <v>0.01</v>
@@ -11962,16 +12409,19 @@
       <c r="Y149" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="150" spans="1:25">
+      <c r="Z149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26">
       <c r="A150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B150" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C150" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H150" t="n">
         <v>0.04</v>
@@ -12027,16 +12477,19 @@
       <c r="Y150" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="151" spans="1:25">
+      <c r="Z150" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26">
       <c r="A151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B151" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C151" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H151" t="n">
         <v>0.05</v>
@@ -12092,16 +12545,19 @@
       <c r="Y151" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="152" spans="1:25">
+      <c r="Z151" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26">
       <c r="A152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H152" t="n">
         <v>0.04</v>
@@ -12157,16 +12613,19 @@
       <c r="Y152" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="153" spans="1:25">
+      <c r="Z152" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26">
       <c r="A153" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B153" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C153" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H153" t="n">
         <v>0.05</v>
@@ -12222,16 +12681,19 @@
       <c r="Y153" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="154" spans="1:25">
+      <c r="Z153" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26">
       <c r="A154" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B154" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C154" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H154" t="n">
         <v>0.04</v>
@@ -12287,16 +12749,19 @@
       <c r="Y154" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="155" spans="1:25">
+      <c r="Z154" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26">
       <c r="A155" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B155" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C155" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H155" t="n">
         <v>0.06</v>
@@ -12352,16 +12817,19 @@
       <c r="Y155" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="156" spans="1:25">
+      <c r="Z155" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26">
       <c r="A156" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B156" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C156" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H156" t="n">
         <v>0.06</v>
@@ -12417,16 +12885,19 @@
       <c r="Y156" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="157" spans="1:25">
+      <c r="Z156" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26">
       <c r="A157" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B157" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C157" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H157" t="n">
         <v>0.05</v>
@@ -12482,16 +12953,19 @@
       <c r="Y157" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="158" spans="1:25">
+      <c r="Z157" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26">
       <c r="A158" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B158" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H158" t="n">
         <v>0.05</v>
@@ -12547,16 +13021,19 @@
       <c r="Y158" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="159" spans="1:25">
+      <c r="Z158" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="159" spans="1:26">
       <c r="A159" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B159" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C159" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H159" t="n">
         <v>0.04</v>
@@ -12612,16 +13089,19 @@
       <c r="Y159" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="160" spans="1:25">
+      <c r="Z159" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26">
       <c r="A160" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B160" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C160" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H160" t="n">
         <v>0.05</v>
@@ -12677,16 +13157,19 @@
       <c r="Y160" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="161" spans="1:25">
+      <c r="Z160" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="161" spans="1:26">
       <c r="A161" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B161" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H161" t="n">
         <v>0.05</v>
@@ -12742,16 +13225,19 @@
       <c r="Y161" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="162" spans="1:25">
+      <c r="Z161" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="162" spans="1:26">
       <c r="A162" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B162" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C162" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H162" t="n">
         <v>0.05</v>
@@ -12807,16 +13293,19 @@
       <c r="Y162" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="163" spans="1:25">
+      <c r="Z162" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="163" spans="1:26">
       <c r="A163" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B163" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C163" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H163" t="n">
         <v>0.03</v>
@@ -12872,16 +13361,19 @@
       <c r="Y163" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="164" spans="1:25">
+      <c r="Z163" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="164" spans="1:26">
       <c r="A164" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B164" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C164" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H164" t="n">
         <v>0.04</v>
@@ -12937,16 +13429,19 @@
       <c r="Y164" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="165" spans="1:25">
+      <c r="Z164" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="165" spans="1:26">
       <c r="A165" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B165" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C165" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H165" t="n">
         <v>0.03</v>
@@ -13002,16 +13497,19 @@
       <c r="Y165" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="166" spans="1:25">
+      <c r="Z165" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="166" spans="1:26">
       <c r="A166" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B166" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C166" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H166" t="n">
         <v>0.05</v>
@@ -13067,16 +13565,19 @@
       <c r="Y166" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="167" spans="1:25">
+      <c r="Z166" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="167" spans="1:26">
       <c r="A167" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B167" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C167" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H167" t="n">
         <v>0.05</v>
@@ -13132,16 +13633,19 @@
       <c r="Y167" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="168" spans="1:25">
+      <c r="Z167" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="168" spans="1:26">
       <c r="A168" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B168" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C168" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H168" t="n">
         <v>0.06</v>
@@ -13197,16 +13701,19 @@
       <c r="Y168" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="169" spans="1:25">
+      <c r="Z168" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="169" spans="1:26">
       <c r="A169" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B169" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D169" t="n">
         <v>0.03</v>
@@ -13274,16 +13781,19 @@
       <c r="Y169" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="170" spans="1:25">
+      <c r="Z169" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="170" spans="1:26">
       <c r="A170" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B170" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C170" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D170" t="n">
         <v>0.03</v>
@@ -13351,16 +13861,19 @@
       <c r="Y170" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="171" spans="1:25">
+      <c r="Z170" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="171" spans="1:26">
       <c r="A171" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B171" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C171" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D171" t="n">
         <v>0.015</v>
@@ -13428,16 +13941,19 @@
       <c r="Y171" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:25">
+      <c r="Z171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:26">
       <c r="A172" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B172" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C172" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D172" t="n">
         <v>0.02</v>
@@ -13505,16 +14021,19 @@
       <c r="Y172" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="173" spans="1:25">
+      <c r="Z172" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="173" spans="1:26">
       <c r="A173" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B173" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C173" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D173" t="n">
         <v>0.02</v>
@@ -13582,16 +14101,19 @@
       <c r="Y173" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="174" spans="1:25">
+      <c r="Z173" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="174" spans="1:26">
       <c r="A174" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B174" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C174" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D174" t="n">
         <v>0.02</v>
@@ -13659,16 +14181,19 @@
       <c r="Y174" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="175" spans="1:25">
+      <c r="Z174" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="175" spans="1:26">
       <c r="A175" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B175" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C175" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D175" t="n">
         <v>0.09</v>
@@ -13736,16 +14261,19 @@
       <c r="Y175" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="176" spans="1:25">
+      <c r="Z175" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="176" spans="1:26">
       <c r="A176" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B176" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C176" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D176" t="n">
         <v>0.08</v>
@@ -13813,16 +14341,19 @@
       <c r="Y176" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="177" spans="1:25">
+      <c r="Z176" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="177" spans="1:26">
       <c r="A177" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B177" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C177" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D177" t="n">
         <v>0.02</v>
@@ -13890,16 +14421,19 @@
       <c r="Y177" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="178" spans="1:25">
+      <c r="Z177" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="178" spans="1:26">
       <c r="A178" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B178" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C178" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D178" t="n">
         <v>0.02</v>
@@ -13967,16 +14501,19 @@
       <c r="Y178" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="179" spans="1:25">
+      <c r="Z178" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="179" spans="1:26">
       <c r="A179" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B179" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C179" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D179" t="n">
         <v>0.02</v>
@@ -14044,16 +14581,19 @@
       <c r="Y179" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="180" spans="1:25">
+      <c r="Z179" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="180" spans="1:26">
       <c r="A180" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C180" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D180" t="n">
         <v>0.02</v>
@@ -14121,16 +14661,19 @@
       <c r="Y180" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="181" spans="1:25">
+      <c r="Z180" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="181" spans="1:26">
       <c r="A181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B181" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C181" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D181" t="n">
         <v>0.04</v>
@@ -14198,16 +14741,19 @@
       <c r="Y181" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:25">
+      <c r="Z181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:26">
       <c r="A182" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B182" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C182" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D182" t="n">
         <v>0.02</v>
@@ -14275,16 +14821,19 @@
       <c r="Y182" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="183" spans="1:25">
+      <c r="Z182" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="183" spans="1:26">
       <c r="A183" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B183" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C183" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D183" t="n">
         <v>0.03</v>
@@ -14352,16 +14901,19 @@
       <c r="Y183" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="184" spans="1:25">
+      <c r="Z183" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="184" spans="1:26">
       <c r="A184" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B184" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C184" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
@@ -14426,16 +14978,19 @@
       <c r="Y184" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="185" spans="1:25">
+      <c r="Z184" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="185" spans="1:26">
       <c r="A185" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B185" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C185" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -14500,16 +15055,19 @@
       <c r="Y185" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:25">
+      <c r="Z185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:26">
       <c r="A186" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B186" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -14574,16 +15132,19 @@
       <c r="Y186" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="187" spans="1:25">
+      <c r="Z186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:26">
       <c r="A187" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B187" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C187" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -14648,16 +15209,19 @@
       <c r="Y187" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="188" spans="1:25">
+      <c r="Z187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:26">
       <c r="A188" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B188" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C188" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D188" t="n">
         <v>0.02</v>
@@ -14725,16 +15289,19 @@
       <c r="Y188" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="189" spans="1:25">
+      <c r="Z188" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="189" spans="1:26">
       <c r="A189" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B189" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C189" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D189" t="n">
         <v>0.015</v>
@@ -14802,16 +15369,19 @@
       <c r="Y189" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="190" spans="1:25">
+      <c r="Z189" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="190" spans="1:26">
       <c r="A190" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B190" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C190" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D190" t="n">
         <v>0.005</v>
@@ -14879,16 +15449,19 @@
       <c r="Y190" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:25">
+      <c r="Z190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:26">
       <c r="A191" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B191" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C191" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D191" t="n">
         <v>0.005</v>
@@ -14956,16 +15529,19 @@
       <c r="Y191" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="192" spans="1:25">
+      <c r="Z191" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="192" spans="1:26">
       <c r="A192" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B192" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C192" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D192" t="n">
         <v>0.015</v>
@@ -15033,16 +15609,19 @@
       <c r="Y192" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="193" spans="1:25">
+      <c r="Z192" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="193" spans="1:26">
       <c r="A193" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B193" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C193" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D193" t="n">
         <v>0.015</v>
@@ -15110,16 +15689,19 @@
       <c r="Y193" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="194" spans="1:25">
+      <c r="Z193" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="194" spans="1:26">
       <c r="A194" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B194" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C194" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D194" t="n">
         <v>0.06</v>
@@ -15187,16 +15769,19 @@
       <c r="Y194" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="195" spans="1:25">
+      <c r="Z194" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="195" spans="1:26">
       <c r="A195" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B195" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C195" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D195" t="n">
         <v>0.07000000000000001</v>
@@ -15264,16 +15849,19 @@
       <c r="Y195" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="196" spans="1:25">
+      <c r="Z195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:26">
       <c r="A196" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B196" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C196" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D196" t="n">
         <v>0.01</v>
@@ -15341,16 +15929,19 @@
       <c r="Y196" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="197" spans="1:25">
+      <c r="Z196" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="197" spans="1:26">
       <c r="A197" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B197" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C197" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D197" t="n">
         <v>0.015</v>
@@ -15418,16 +16009,19 @@
       <c r="Y197" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="198" spans="1:25">
+      <c r="Z197" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="198" spans="1:26">
       <c r="A198" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B198" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C198" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D198" t="n">
         <v>0.01</v>
@@ -15495,16 +16089,19 @@
       <c r="Y198" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="199" spans="1:25">
+      <c r="Z198" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="199" spans="1:26">
       <c r="A199" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B199" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C199" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D199" t="n">
         <v>0.015</v>
@@ -15572,16 +16169,19 @@
       <c r="Y199" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="200" spans="1:25">
+      <c r="Z199" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="200" spans="1:26">
       <c r="A200" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B200" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C200" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D200" t="n">
         <v>0.01</v>
@@ -15649,16 +16249,19 @@
       <c r="Y200" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:25">
+      <c r="Z200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:26">
       <c r="A201" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B201" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C201" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D201" t="n">
         <v>0.02</v>
@@ -15726,16 +16329,19 @@
       <c r="Y201" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="202" spans="1:25">
+      <c r="Z201" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="202" spans="1:26">
       <c r="A202" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B202" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C202" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D202" t="n">
         <v>0.01</v>
@@ -15803,16 +16409,19 @@
       <c r="Y202" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="203" spans="1:25">
+      <c r="Z202" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="203" spans="1:26">
       <c r="A203" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B203" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C203" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E203" t="n">
         <v>0</v>
@@ -15877,16 +16486,19 @@
       <c r="Y203" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="204" spans="1:25">
+      <c r="Z203" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="204" spans="1:26">
       <c r="A204" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B204" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C204" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E204" t="n">
         <v>0</v>
@@ -15951,16 +16563,19 @@
       <c r="Y204" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:25">
+      <c r="Z204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:26">
       <c r="A205" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B205" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C205" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
@@ -16025,16 +16640,19 @@
       <c r="Y205" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:25">
+      <c r="Z205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:26">
       <c r="A206" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B206" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C206" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
@@ -16099,16 +16717,19 @@
       <c r="Y206" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="207" spans="1:25">
+      <c r="Z206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:26">
       <c r="A207" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B207" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C207" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D207" t="n">
         <v>0.5600000000000001</v>
@@ -16176,16 +16797,19 @@
       <c r="Y207" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="208" spans="1:25">
+      <c r="Z207" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:26">
       <c r="A208" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B208" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C208" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D208" t="n">
         <v>0.47</v>
@@ -16253,16 +16877,19 @@
       <c r="Y208" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="209" spans="1:25">
+      <c r="Z208" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="209" spans="1:26">
       <c r="A209" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B209" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C209" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D209" t="n">
         <v>0.4</v>
@@ -16330,16 +16957,19 @@
       <c r="Y209" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="210" spans="1:25">
+      <c r="Z209" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="210" spans="1:26">
       <c r="A210" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B210" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C210" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D210" t="n">
         <v>0.47</v>
@@ -16407,16 +17037,19 @@
       <c r="Y210" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="211" spans="1:25">
+      <c r="Z210" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="211" spans="1:26">
       <c r="A211" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B211" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C211" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D211" t="n">
         <v>0.46</v>
@@ -16484,16 +17117,19 @@
       <c r="Y211" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="212" spans="1:25">
+      <c r="Z211" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="212" spans="1:26">
       <c r="A212" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B212" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C212" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D212" t="n">
         <v>0.47</v>
@@ -16561,16 +17197,19 @@
       <c r="Y212" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="213" spans="1:25">
+      <c r="Z212" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="213" spans="1:26">
       <c r="A213" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B213" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C213" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D213" t="n">
         <v>0.63</v>
@@ -16638,16 +17277,19 @@
       <c r="Y213" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="214" spans="1:25">
+      <c r="Z213" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="214" spans="1:26">
       <c r="A214" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B214" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C214" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D214" t="n">
         <v>0.61</v>
@@ -16715,16 +17357,19 @@
       <c r="Y214" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="215" spans="1:25">
+      <c r="Z214" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="215" spans="1:26">
       <c r="A215" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B215" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C215" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D215" t="n">
         <v>0.46</v>
@@ -16792,16 +17437,19 @@
       <c r="Y215" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="216" spans="1:25">
+      <c r="Z215" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:26">
       <c r="A216" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B216" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C216" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D216" t="n">
         <v>0.48</v>
@@ -16869,16 +17517,19 @@
       <c r="Y216" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="217" spans="1:25">
+      <c r="Z216" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:26">
       <c r="A217" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B217" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C217" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D217" t="n">
         <v>0.45</v>
@@ -16946,16 +17597,19 @@
       <c r="Y217" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="218" spans="1:25">
+      <c r="Z217" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="218" spans="1:26">
       <c r="A218" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B218" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C218" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D218" t="n">
         <v>0.46</v>
@@ -17023,16 +17677,19 @@
       <c r="Y218" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="219" spans="1:25">
+      <c r="Z218" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="219" spans="1:26">
       <c r="A219" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B219" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C219" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D219" t="n">
         <v>0.49</v>
@@ -17100,16 +17757,19 @@
       <c r="Y219" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="220" spans="1:25">
+      <c r="Z219" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="220" spans="1:26">
       <c r="A220" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B220" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C220" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D220" t="n">
         <v>0.49</v>
@@ -17177,16 +17837,19 @@
       <c r="Y220" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="221" spans="1:25">
+      <c r="Z220" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:26">
       <c r="A221" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B221" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C221" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D221" t="n">
         <v>0.4</v>
@@ -17254,16 +17917,19 @@
       <c r="Y221" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="222" spans="1:25">
+      <c r="Z221" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="222" spans="1:26">
       <c r="A222" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B222" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C222" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E222" t="n">
         <v>0.38</v>
@@ -17328,16 +17994,19 @@
       <c r="Y222" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="223" spans="1:25">
+      <c r="Z222" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:26">
       <c r="A223" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B223" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C223" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E223" t="n">
         <v>0.41</v>
@@ -17402,16 +18071,19 @@
       <c r="Y223" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="224" spans="1:25">
+      <c r="Z223" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="224" spans="1:26">
       <c r="A224" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B224" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C224" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E224" t="n">
         <v>0.34</v>
@@ -17476,16 +18148,19 @@
       <c r="Y224" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="225" spans="1:25">
+      <c r="Z224" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="225" spans="1:26">
       <c r="A225" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B225" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C225" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E225" t="n">
         <v>0.32</v>
@@ -17550,16 +18225,19 @@
       <c r="Y225" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="226" spans="1:25">
+      <c r="Z225" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="226" spans="1:26">
       <c r="A226" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B226" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C226" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E226" t="n">
         <v>0.17</v>
@@ -17624,16 +18302,19 @@
       <c r="Y226" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="227" spans="1:25">
+      <c r="Z226" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="227" spans="1:26">
       <c r="A227" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B227" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C227" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E227" t="n">
         <v>0.14</v>
@@ -17698,16 +18379,19 @@
       <c r="Y227" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="228" spans="1:25">
+      <c r="Z227" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="228" spans="1:26">
       <c r="A228" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B228" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C228" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E228" t="n">
         <v>0.08</v>
@@ -17772,16 +18456,19 @@
       <c r="Y228" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="229" spans="1:25">
+      <c r="Z228" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="229" spans="1:26">
       <c r="A229" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B229" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C229" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E229" t="n">
         <v>0.16</v>
@@ -17846,16 +18533,19 @@
       <c r="Y229" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="230" spans="1:25">
+      <c r="Z229" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="230" spans="1:26">
       <c r="A230" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B230" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C230" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E230" t="n">
         <v>0.13</v>
@@ -17920,16 +18610,19 @@
       <c r="Y230" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="231" spans="1:25">
+      <c r="Z230" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="231" spans="1:26">
       <c r="A231" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B231" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C231" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E231" t="n">
         <v>0.11</v>
@@ -17994,16 +18687,19 @@
       <c r="Y231" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="232" spans="1:25">
+      <c r="Z231" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="232" spans="1:26">
       <c r="A232" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B232" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C232" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E232" t="n">
         <v>0.06</v>
@@ -18068,16 +18764,19 @@
       <c r="Y232" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="233" spans="1:25">
+      <c r="Z232" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:26">
       <c r="A233" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B233" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C233" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E233" t="n">
         <v>0.18</v>
@@ -18142,16 +18841,19 @@
       <c r="Y233" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="234" spans="1:25">
+      <c r="Z233" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="234" spans="1:26">
       <c r="A234" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B234" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C234" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E234" t="n">
         <v>0.12</v>
@@ -18216,16 +18918,19 @@
       <c r="Y234" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="235" spans="1:25">
+      <c r="Z234" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="235" spans="1:26">
       <c r="A235" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B235" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C235" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E235" t="n">
         <v>0.14</v>
@@ -18290,16 +18995,19 @@
       <c r="Y235" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="236" spans="1:25">
+      <c r="Z235" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:26">
       <c r="A236" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B236" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C236" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E236" t="n">
         <v>0.11</v>
@@ -18364,16 +19072,19 @@
       <c r="Y236" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="237" spans="1:25">
+      <c r="Z236" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="237" spans="1:26">
       <c r="A237" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B237" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C237" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E237" t="n">
         <v>0.11</v>
@@ -18438,16 +19149,19 @@
       <c r="Y237" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="238" spans="1:25">
+      <c r="Z237" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="238" spans="1:26">
       <c r="A238" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B238" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C238" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E238" t="n">
         <v>0.12</v>
@@ -18512,16 +19226,19 @@
       <c r="Y238" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="239" spans="1:25">
+      <c r="Z238" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="239" spans="1:26">
       <c r="A239" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B239" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C239" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E239" t="n">
         <v>0.16</v>
@@ -18586,16 +19303,19 @@
       <c r="Y239" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="240" spans="1:25">
+      <c r="Z239" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="240" spans="1:26">
       <c r="A240" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B240" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C240" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E240" t="n">
         <v>0.15</v>
@@ -18660,16 +19380,19 @@
       <c r="Y240" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="241" spans="1:25">
+      <c r="Z240" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="241" spans="1:26">
       <c r="A241" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B241" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C241" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E241" t="n">
         <v>0.15</v>
@@ -18734,16 +19457,19 @@
       <c r="Y241" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="242" spans="1:25">
+      <c r="Z241" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="242" spans="1:26">
       <c r="A242" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B242" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C242" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E242" t="n">
         <v>0.18</v>
@@ -18808,16 +19534,19 @@
       <c r="Y242" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="243" spans="1:25">
+      <c r="Z242" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:26">
       <c r="A243" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B243" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C243" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E243" t="n">
         <v>0.12</v>
@@ -18882,16 +19611,19 @@
       <c r="Y243" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="244" spans="1:25">
+      <c r="Z243" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:26">
       <c r="A244" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B244" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C244" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E244" t="n">
         <v>0.14</v>
@@ -18956,16 +19688,19 @@
       <c r="Y244" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="245" spans="1:25">
+      <c r="Z244" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:26">
       <c r="A245" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B245" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C245" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E245" t="n">
         <v>0.04</v>
@@ -19030,16 +19765,19 @@
       <c r="Y245" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="246" spans="1:25">
+      <c r="Z245" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="246" spans="1:26">
       <c r="A246" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B246" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C246" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E246" t="n">
         <v>0.04</v>
@@ -19104,16 +19842,19 @@
       <c r="Y246" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="247" spans="1:25">
+      <c r="Z246" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="247" spans="1:26">
       <c r="A247" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B247" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C247" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E247" t="n">
         <v>0.03</v>
@@ -19178,16 +19919,19 @@
       <c r="Y247" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="248" spans="1:25">
+      <c r="Z247" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="248" spans="1:26">
       <c r="A248" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B248" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C248" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E248" t="n">
         <v>0.04</v>
@@ -19252,16 +19996,19 @@
       <c r="Y248" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="249" spans="1:25">
+      <c r="Z248" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="249" spans="1:26">
       <c r="A249" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B249" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C249" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E249" t="n">
         <v>0.04</v>
@@ -19326,16 +20073,19 @@
       <c r="Y249" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="250" spans="1:25">
+      <c r="Z249" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="250" spans="1:26">
       <c r="A250" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B250" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C250" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E250" t="n">
         <v>0.03</v>
@@ -19400,16 +20150,19 @@
       <c r="Y250" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="251" spans="1:25">
+      <c r="Z250" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="251" spans="1:26">
       <c r="A251" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B251" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C251" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
@@ -19474,16 +20227,19 @@
       <c r="Y251" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="252" spans="1:25">
+      <c r="Z251" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="252" spans="1:26">
       <c r="A252" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B252" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C252" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E252" t="n">
         <v>0.05</v>
@@ -19548,16 +20304,19 @@
       <c r="Y252" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="253" spans="1:25">
+      <c r="Z252" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="253" spans="1:26">
       <c r="A253" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B253" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C253" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E253" t="n">
         <v>0.03</v>
@@ -19622,16 +20381,19 @@
       <c r="Y253" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="254" spans="1:25">
+      <c r="Z253" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="254" spans="1:26">
       <c r="A254" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B254" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C254" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E254" t="n">
         <v>0.04</v>
@@ -19696,16 +20458,19 @@
       <c r="Y254" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="255" spans="1:25">
+      <c r="Z254" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="255" spans="1:26">
       <c r="A255" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B255" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C255" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E255" t="n">
         <v>0.03</v>
@@ -19770,16 +20535,19 @@
       <c r="Y255" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="256" spans="1:25">
+      <c r="Z255" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="256" spans="1:26">
       <c r="A256" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B256" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C256" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E256" t="n">
         <v>0.03</v>
@@ -19844,16 +20612,19 @@
       <c r="Y256" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="257" spans="1:25">
+      <c r="Z256" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="257" spans="1:26">
       <c r="A257" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B257" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C257" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E257" t="n">
         <v>0.04</v>
@@ -19918,16 +20689,19 @@
       <c r="Y257" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="258" spans="1:25">
+      <c r="Z257" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="258" spans="1:26">
       <c r="A258" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B258" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C258" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E258" t="n">
         <v>0.03</v>
@@ -19992,16 +20766,19 @@
       <c r="Y258" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="259" spans="1:25">
+      <c r="Z258" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="259" spans="1:26">
       <c r="A259" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B259" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C259" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E259" t="n">
         <v>0.06</v>
@@ -20066,16 +20843,19 @@
       <c r="Y259" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="260" spans="1:25">
+      <c r="Z259" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:26">
       <c r="A260" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B260" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C260" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E260" t="n">
         <v>0.05</v>
@@ -20140,16 +20920,19 @@
       <c r="Y260" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="261" spans="1:25">
+      <c r="Z260" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="261" spans="1:26">
       <c r="A261" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B261" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C261" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E261" t="n">
         <v>0.02</v>
@@ -20214,16 +20997,19 @@
       <c r="Y261" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="262" spans="1:25">
+      <c r="Z261" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="262" spans="1:26">
       <c r="A262" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B262" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C262" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E262" t="n">
         <v>0.03</v>
@@ -20288,16 +21074,19 @@
       <c r="Y262" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="263" spans="1:25">
+      <c r="Z262" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="263" spans="1:26">
       <c r="A263" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B263" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C263" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E263" t="n">
         <v>0.05</v>
@@ -20362,16 +21151,19 @@
       <c r="Y263" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="264" spans="1:25">
+      <c r="Z263" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="264" spans="1:26">
       <c r="A264" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B264" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C264" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D264" t="n">
         <v>0.08</v>
@@ -20439,16 +21231,19 @@
       <c r="Y264" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="265" spans="1:25">
+      <c r="Z264" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="265" spans="1:26">
       <c r="A265" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B265" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C265" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D265" t="n">
         <v>0.05</v>
@@ -20516,16 +21311,19 @@
       <c r="Y265" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="266" spans="1:25">
+      <c r="Z265" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="266" spans="1:26">
       <c r="A266" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B266" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C266" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D266" t="n">
         <v>0.03</v>
@@ -20593,16 +21391,19 @@
       <c r="Y266" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="267" spans="1:25">
+      <c r="Z266" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="267" spans="1:26">
       <c r="A267" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B267" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C267" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D267" t="n">
         <v>0.04</v>
@@ -20670,16 +21471,19 @@
       <c r="Y267" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="268" spans="1:25">
+      <c r="Z267" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="268" spans="1:26">
       <c r="A268" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B268" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C268" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D268" t="n">
         <v>0.05</v>
@@ -20747,16 +21551,19 @@
       <c r="Y268" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="269" spans="1:25">
+      <c r="Z268" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="269" spans="1:26">
       <c r="A269" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B269" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C269" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D269" t="n">
         <v>0.05</v>
@@ -20824,16 +21631,19 @@
       <c r="Y269" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="270" spans="1:25">
+      <c r="Z269" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="270" spans="1:26">
       <c r="A270" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B270" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C270" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D270" t="n">
         <v>0.32</v>
@@ -20901,16 +21711,19 @@
       <c r="Y270" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="271" spans="1:25">
+      <c r="Z270" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="271" spans="1:26">
       <c r="A271" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B271" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C271" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D271" t="n">
         <v>0.1</v>
@@ -20978,16 +21791,19 @@
       <c r="Y271" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="272" spans="1:25">
+      <c r="Z271" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="272" spans="1:26">
       <c r="A272" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B272" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C272" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D272" t="n">
         <v>0.04</v>
@@ -21055,16 +21871,19 @@
       <c r="Y272" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="273" spans="1:25">
+      <c r="Z272" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="273" spans="1:26">
       <c r="A273" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B273" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C273" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D273" t="n">
         <v>0.05</v>
@@ -21132,16 +21951,19 @@
       <c r="Y273" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="274" spans="1:25">
+      <c r="Z273" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="274" spans="1:26">
       <c r="A274" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B274" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C274" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D274" t="n">
         <v>0.05</v>
@@ -21209,16 +22031,19 @@
       <c r="Y274" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="275" spans="1:25">
+      <c r="Z274" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="275" spans="1:26">
       <c r="A275" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B275" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C275" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D275" t="n">
         <v>0.04</v>
@@ -21286,16 +22111,19 @@
       <c r="Y275" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="276" spans="1:25">
+      <c r="Z275" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="276" spans="1:26">
       <c r="A276" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B276" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C276" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D276" t="n">
         <v>0.06</v>
@@ -21363,16 +22191,19 @@
       <c r="Y276" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="277" spans="1:25">
+      <c r="Z276" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="277" spans="1:26">
       <c r="A277" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B277" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C277" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D277" t="n">
         <v>0.06</v>
@@ -21440,16 +22271,19 @@
       <c r="Y277" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="278" spans="1:25">
+      <c r="Z277" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:26">
       <c r="A278" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B278" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C278" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D278" t="n">
         <v>0.06</v>
@@ -21517,16 +22351,19 @@
       <c r="Y278" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="279" spans="1:25">
+      <c r="Z278" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="279" spans="1:26">
       <c r="A279" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B279" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C279" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E279" t="n">
         <v>0.03</v>
@@ -21591,16 +22428,19 @@
       <c r="Y279" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="280" spans="1:25">
+      <c r="Z279" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="280" spans="1:26">
       <c r="A280" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B280" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C280" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E280" t="n">
         <v>0.04</v>
@@ -21665,16 +22505,19 @@
       <c r="Y280" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="281" spans="1:25">
+      <c r="Z280" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="281" spans="1:26">
       <c r="A281" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B281" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C281" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E281" t="n">
         <v>0.015</v>
@@ -21739,16 +22582,19 @@
       <c r="Y281" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="282" spans="1:25">
+      <c r="Z281" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="282" spans="1:26">
       <c r="A282" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B282" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C282" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E282" t="n">
         <v>0.005</v>
@@ -21813,16 +22659,19 @@
       <c r="Y282" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="283" spans="1:25">
+      <c r="Z282" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="283" spans="1:26">
       <c r="A283" t="s">
+        <v>43</v>
+      </c>
+      <c r="B283" t="s">
+        <v>44</v>
+      </c>
+      <c r="C283" t="s">
         <v>42</v>
-      </c>
-      <c r="B283" t="s">
-        <v>43</v>
-      </c>
-      <c r="C283" t="s">
-        <v>41</v>
       </c>
       <c r="H283" t="n">
         <v>0.02</v>
@@ -21878,16 +22727,19 @@
       <c r="Y283" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="284" spans="1:25">
+      <c r="Z283" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="284" spans="1:26">
       <c r="A284" t="s">
+        <v>43</v>
+      </c>
+      <c r="B284" t="s">
+        <v>45</v>
+      </c>
+      <c r="C284" t="s">
         <v>42</v>
-      </c>
-      <c r="B284" t="s">
-        <v>44</v>
-      </c>
-      <c r="C284" t="s">
-        <v>41</v>
       </c>
       <c r="H284" t="n">
         <v>0.015</v>
@@ -21943,16 +22795,19 @@
       <c r="Y284" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="285" spans="1:25">
+      <c r="Z284" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="285" spans="1:26">
       <c r="A285" t="s">
+        <v>43</v>
+      </c>
+      <c r="B285" t="s">
+        <v>46</v>
+      </c>
+      <c r="C285" t="s">
         <v>42</v>
-      </c>
-      <c r="B285" t="s">
-        <v>45</v>
-      </c>
-      <c r="C285" t="s">
-        <v>41</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -22008,16 +22863,19 @@
       <c r="Y285" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:25">
+      <c r="Z285" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="286" spans="1:26">
       <c r="A286" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B286" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C286" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -22073,16 +22931,19 @@
       <c r="Y286" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="287" spans="1:25">
+      <c r="Z286" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="287" spans="1:26">
       <c r="A287" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B287" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C287" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H287" t="n">
         <v>0.005</v>
@@ -22138,16 +22999,19 @@
       <c r="Y287" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="288" spans="1:25">
+      <c r="Z287" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="288" spans="1:26">
       <c r="A288" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B288" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C288" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H288" t="n">
         <v>0.03</v>
@@ -22203,16 +23067,19 @@
       <c r="Y288" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:25">
+      <c r="Z288" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="289" spans="1:26">
       <c r="A289" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B289" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C289" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H289" t="n">
         <v>0.05</v>
@@ -22268,16 +23135,19 @@
       <c r="Y289" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="290" spans="1:25">
+      <c r="Z289" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="290" spans="1:26">
       <c r="A290" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B290" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C290" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H290" t="n">
         <v>0.005</v>
@@ -22333,16 +23203,19 @@
       <c r="Y290" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="291" spans="1:25">
+      <c r="Z290" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="291" spans="1:26">
       <c r="A291" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B291" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C291" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H291" t="n">
         <v>0.01</v>
@@ -22398,16 +23271,19 @@
       <c r="Y291" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="292" spans="1:25">
+      <c r="Z291" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="292" spans="1:26">
       <c r="A292" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B292" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C292" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H292" t="n">
         <v>0.01</v>
@@ -22463,16 +23339,19 @@
       <c r="Y292" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="293" spans="1:25">
+      <c r="Z292" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="293" spans="1:26">
       <c r="A293" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B293" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C293" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H293" t="n">
         <v>0.01</v>
@@ -22528,16 +23407,19 @@
       <c r="Y293" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="294" spans="1:25">
+      <c r="Z293" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="294" spans="1:26">
       <c r="A294" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B294" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C294" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H294" t="n">
         <v>0.015</v>
@@ -22593,16 +23475,19 @@
       <c r="Y294" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="295" spans="1:25">
+      <c r="Z294" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="295" spans="1:26">
       <c r="A295" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B295" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C295" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H295" t="n">
         <v>0.005</v>
@@ -22658,16 +23543,19 @@
       <c r="Y295" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:25">
+      <c r="Z295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:26">
       <c r="A296" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B296" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C296" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H296" t="n">
         <v>0.005</v>
@@ -22723,16 +23611,19 @@
       <c r="Y296" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="297" spans="1:25">
+      <c r="Z296" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="297" spans="1:26">
       <c r="A297" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B297" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C297" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H297" t="n">
         <v>0.005</v>
@@ -22788,16 +23679,19 @@
       <c r="Y297" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="298" spans="1:25">
+      <c r="Z297" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="298" spans="1:26">
       <c r="A298" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B298" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C298" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H298" t="n">
         <v>0.01</v>
@@ -22853,16 +23747,19 @@
       <c r="Y298" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="299" spans="1:25">
+      <c r="Z298" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="299" spans="1:26">
       <c r="A299" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B299" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C299" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H299" t="n">
         <v>0.02</v>
@@ -22918,16 +23815,19 @@
       <c r="Y299" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:25">
+      <c r="Z299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:26">
       <c r="A300" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B300" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C300" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H300" t="n">
         <v>0.02</v>
@@ -22983,16 +23883,19 @@
       <c r="Y300" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:25">
+      <c r="Z300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:26">
       <c r="A301" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B301" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C301" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H301" t="n">
         <v>0.02</v>
@@ -23048,10 +23951,13 @@
       <c r="Y301" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:25">
+      <c r="Z301" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="302" spans="1:26">
       <c r="A302" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -23065,7 +23971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23073,7 +23979,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -23146,13 +24052,16 @@
       <c r="X1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -23220,13 +24129,16 @@
       <c r="X2" t="n">
         <v>2120</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2" t="n">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -23294,13 +24206,16 @@
       <c r="X3" t="n">
         <v>511</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="Y3" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -23368,13 +24283,16 @@
       <c r="X4" t="n">
         <v>774</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4" t="n">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -23442,13 +24360,16 @@
       <c r="X5" t="n">
         <v>835</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5" t="n">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" t="n">
         <v>665</v>
@@ -23516,13 +24437,16 @@
       <c r="X6" t="n">
         <v>398</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6" t="n">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" t="n">
         <v>885</v>
@@ -23590,13 +24514,16 @@
       <c r="X7" t="n">
         <v>744</v>
       </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7" t="n">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="n">
         <v>1551</v>
@@ -23664,13 +24591,16 @@
       <c r="X8" t="n">
         <v>978</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Y8" t="n">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="n">
         <v>11</v>
@@ -23738,13 +24668,16 @@
       <c r="X9" t="n">
         <v>694</v>
       </c>
-    </row>
-    <row r="10" spans="1:24">
+      <c r="Y9" t="n">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10" t="n">
         <v>102</v>
@@ -23812,13 +24745,16 @@
       <c r="X10" t="n">
         <v>668</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10" t="n">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" t="n">
         <v>2988</v>
@@ -23886,13 +24822,16 @@
       <c r="X11" t="n">
         <v>758</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" t="n">
         <v>1514</v>
@@ -23960,13 +24899,16 @@
       <c r="X12" t="n">
         <v>1025</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Y12" t="n">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" t="n">
         <v>1587</v>
@@ -24034,13 +24976,16 @@
       <c r="X13" t="n">
         <v>1095</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13" t="n">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" t="n">
         <v>1726</v>
@@ -24108,13 +25053,16 @@
       <c r="X14" t="n">
         <v>1102</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14" t="n">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" t="n">
         <v>667</v>
@@ -24182,13 +25130,16 @@
       <c r="X15" t="n">
         <v>490</v>
       </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" t="n">
         <v>333</v>
@@ -24256,13 +25207,16 @@
       <c r="X16" t="n">
         <v>248</v>
       </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Y16" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" t="n">
         <v>375</v>
@@ -24330,13 +25284,16 @@
       <c r="X17" t="n">
         <v>280</v>
       </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="Y17" t="n">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s"/>
       <c r="D18" t="n">
@@ -24402,13 +25359,16 @@
       <c r="X18" t="n">
         <v>737</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18" t="n">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s"/>
       <c r="D19" t="n">
@@ -24474,13 +25434,16 @@
       <c r="X19" t="n">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s"/>
       <c r="D20" t="n">
@@ -24546,13 +25509,16 @@
       <c r="X20" t="n">
         <v>170</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s"/>
       <c r="D21" t="n">
@@ -24618,10 +25584,13 @@
       <c r="X21" t="n">
         <v>152</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s"/>
       <c r="C22" t="s"/>
@@ -24646,6 +25615,7 @@
       <c r="V22" t="s"/>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
+      <c r="Y22" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_04_socialni_aktivity.xlsx
+++ b/ZBP_04_socialni_aktivity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>trideni</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>22.–28. 2. 2021</t>
+  </si>
+  <si>
+    <t>8.–14. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -221,10 +224,10 @@
     <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
   </si>
   <si>
-    <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 9. 3. 2021</t>
+    <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
   </si>
 </sst>
 </file>
@@ -599,7 +602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z302"/>
+  <dimension ref="A1:AA302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,7 +610,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,16 +689,19 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
         <v>0.74</v>
@@ -766,16 +772,19 @@
       <c r="Z2" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
         <v>0.28</v>
@@ -846,16 +855,19 @@
       <c r="Z3" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
         <v>0.2</v>
@@ -926,16 +938,19 @@
       <c r="Z4" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
         <v>0.09</v>
@@ -1006,16 +1021,19 @@
       <c r="Z5" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
         <v>0.02</v>
@@ -1086,16 +1104,19 @@
       <c r="Z6" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n">
         <v>0.19</v>
@@ -1166,16 +1187,19 @@
       <c r="Z7" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="n">
         <v>0.06</v>
@@ -1246,16 +1270,19 @@
       <c r="Z8" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H9" t="n">
         <v>0.05</v>
@@ -1314,16 +1341,19 @@
       <c r="Z9" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" t="n">
         <v>0.02</v>
@@ -1394,16 +1424,19 @@
       <c r="Z10" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" t="n">
         <v>0.015</v>
@@ -1474,16 +1507,19 @@
       <c r="Z11" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" t="n">
         <v>0.47</v>
@@ -1554,16 +1590,19 @@
       <c r="Z12" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" t="n">
         <v>0.12</v>
@@ -1631,16 +1670,19 @@
       <c r="Z13" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" t="n">
         <v>0.04</v>
@@ -1708,16 +1750,19 @@
       <c r="Z14" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" t="n">
         <v>0.05</v>
@@ -1788,16 +1833,19 @@
       <c r="Z15" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H16" t="n">
         <v>0.01</v>
@@ -1856,16 +1904,19 @@
       <c r="Z16" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
         <v>0.72</v>
@@ -1936,16 +1987,19 @@
       <c r="Z17" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
         <v>0.78</v>
@@ -2016,16 +2070,19 @@
       <c r="Z18" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19" t="n">
         <v>0.71</v>
@@ -2096,16 +2153,19 @@
       <c r="Z19" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
         <v>0.72</v>
@@ -2176,16 +2236,19 @@
       <c r="Z20" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" t="n">
         <v>0.75</v>
@@ -2256,16 +2319,19 @@
       <c r="Z21" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" t="n">
         <v>0.74</v>
@@ -2336,16 +2402,19 @@
       <c r="Z22" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -2416,16 +2485,19 @@
       <c r="Z23" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
         <v>0.79</v>
@@ -2496,16 +2568,19 @@
       <c r="Z24" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AA24" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" t="n">
         <v>0.73</v>
@@ -2576,16 +2651,19 @@
       <c r="Z25" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="AA25" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" t="n">
         <v>0.72</v>
@@ -2656,16 +2734,19 @@
       <c r="Z26" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AA26" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D27" t="n">
         <v>0.75</v>
@@ -2736,16 +2817,19 @@
       <c r="Z27" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="AA27" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" t="n">
         <v>0.71</v>
@@ -2816,16 +2900,19 @@
       <c r="Z28" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AA28" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" t="n">
         <v>0.75</v>
@@ -2896,16 +2983,19 @@
       <c r="Z29" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="AA29" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D30" t="n">
         <v>0.79</v>
@@ -2976,16 +3066,19 @@
       <c r="Z30" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="AA30" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D31" t="n">
         <v>0.78</v>
@@ -3056,16 +3149,19 @@
       <c r="Z31" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AA31" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E32" t="n">
         <v>0.8100000000000001</v>
@@ -3133,16 +3229,19 @@
       <c r="Z32" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="AA32" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E33" t="n">
         <v>0.8</v>
@@ -3210,16 +3309,19 @@
       <c r="Z33" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="AA33" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E34" t="n">
         <v>0.7</v>
@@ -3287,16 +3389,19 @@
       <c r="Z34" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="AA34" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E35" t="n">
         <v>0.73</v>
@@ -3364,16 +3469,19 @@
       <c r="Z35" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="AA35" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D36" t="n">
         <v>0.32</v>
@@ -3444,16 +3552,19 @@
       <c r="Z36" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="AA36" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" t="n">
         <v>0.27</v>
@@ -3524,16 +3635,19 @@
       <c r="Z37" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="AA37" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
         <v>0.25</v>
@@ -3604,16 +3718,19 @@
       <c r="Z38" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="AA38" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
         <v>0.31</v>
@@ -3684,16 +3801,19 @@
       <c r="Z39" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="40" spans="1:26">
+      <c r="AA39" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
         <v>0.28</v>
@@ -3764,16 +3884,19 @@
       <c r="Z40" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="AA40" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D41" t="n">
         <v>0.26</v>
@@ -3844,16 +3967,19 @@
       <c r="Z41" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="42" spans="1:26">
+      <c r="AA41" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D42" t="n">
         <v>0.59</v>
@@ -3924,16 +4050,19 @@
       <c r="Z42" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="AA42" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D43" t="n">
         <v>0.38</v>
@@ -4004,16 +4133,19 @@
       <c r="Z43" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="AA43" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
         <v>0.27</v>
@@ -4084,16 +4216,19 @@
       <c r="Z44" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="AA44" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D45" t="n">
         <v>0.26</v>
@@ -4164,16 +4299,19 @@
       <c r="Z45" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="46" spans="1:26">
+      <c r="AA45" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
         <v>0.29</v>
@@ -4244,16 +4382,19 @@
       <c r="Z46" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="47" spans="1:26">
+      <c r="AA46" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D47" t="n">
         <v>0.2</v>
@@ -4324,16 +4465,19 @@
       <c r="Z47" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="48" spans="1:26">
+      <c r="AA47" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D48" t="n">
         <v>0.27</v>
@@ -4404,16 +4548,19 @@
       <c r="Z48" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="49" spans="1:26">
+      <c r="AA48" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D49" t="n">
         <v>0.42</v>
@@ -4484,16 +4631,19 @@
       <c r="Z49" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="50" spans="1:26">
+      <c r="AA49" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" t="n">
         <v>0.51</v>
@@ -4564,16 +4714,19 @@
       <c r="Z50" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="51" spans="1:26">
+      <c r="AA50" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E51" t="n">
         <v>0.16</v>
@@ -4641,16 +4794,19 @@
       <c r="Z51" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="52" spans="1:26">
+      <c r="AA51" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E52" t="n">
         <v>0.16</v>
@@ -4718,16 +4874,19 @@
       <c r="Z52" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="53" spans="1:26">
+      <c r="AA52" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E53" t="n">
         <v>0.04</v>
@@ -4795,16 +4954,19 @@
       <c r="Z53" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="54" spans="1:26">
+      <c r="AA53" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E54" t="n">
         <v>0.1</v>
@@ -4872,16 +5034,19 @@
       <c r="Z54" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="55" spans="1:26">
+      <c r="AA54" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D55" t="n">
         <v>0.18</v>
@@ -4952,16 +5117,19 @@
       <c r="Z55" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="56" spans="1:26">
+      <c r="AA55" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D56" t="n">
         <v>0.21</v>
@@ -5032,16 +5200,19 @@
       <c r="Z56" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="57" spans="1:26">
+      <c r="AA56" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D57" t="n">
         <v>0.2</v>
@@ -5112,16 +5283,19 @@
       <c r="Z57" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="58" spans="1:26">
+      <c r="AA57" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D58" t="n">
         <v>0.15</v>
@@ -5192,16 +5366,19 @@
       <c r="Z58" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="59" spans="1:26">
+      <c r="AA58" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D59" t="n">
         <v>0.19</v>
@@ -5272,16 +5449,19 @@
       <c r="Z59" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="60" spans="1:26">
+      <c r="AA59" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D60" t="n">
         <v>0.22</v>
@@ -5352,16 +5532,19 @@
       <c r="Z60" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="61" spans="1:26">
+      <c r="AA60" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D61" t="n">
         <v>0.11</v>
@@ -5432,16 +5615,19 @@
       <c r="Z61" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="62" spans="1:26">
+      <c r="AA61" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D62" t="n">
         <v>0.2</v>
@@ -5512,16 +5698,19 @@
       <c r="Z62" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="63" spans="1:26">
+      <c r="AA62" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
       <c r="A63" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D63" t="n">
         <v>0.2</v>
@@ -5592,16 +5781,19 @@
       <c r="Z63" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="64" spans="1:26">
+      <c r="AA63" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D64" t="n">
         <v>0.18</v>
@@ -5672,16 +5864,19 @@
       <c r="Z64" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="65" spans="1:26">
+      <c r="AA64" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27">
       <c r="A65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D65" t="n">
         <v>0.22</v>
@@ -5752,16 +5947,19 @@
       <c r="Z65" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="66" spans="1:26">
+      <c r="AA65" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C66" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D66" t="n">
         <v>0.22</v>
@@ -5832,16 +6030,19 @@
       <c r="Z66" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="67" spans="1:26">
+      <c r="AA66" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D67" t="n">
         <v>0.17</v>
@@ -5912,16 +6113,19 @@
       <c r="Z67" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="68" spans="1:26">
+      <c r="AA67" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C68" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D68" t="n">
         <v>0.2</v>
@@ -5992,16 +6196,19 @@
       <c r="Z68" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="69" spans="1:26">
+      <c r="AA68" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D69" t="n">
         <v>0.17</v>
@@ -6072,16 +6279,19 @@
       <c r="Z69" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="70" spans="1:26">
+      <c r="AA69" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E70" t="n">
         <v>0.1</v>
@@ -6149,16 +6359,19 @@
       <c r="Z70" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="71" spans="1:26">
+      <c r="AA70" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27">
       <c r="A71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E71" t="n">
         <v>0.08</v>
@@ -6226,16 +6439,19 @@
       <c r="Z71" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="72" spans="1:26">
+      <c r="AA71" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E72" t="n">
         <v>0.08</v>
@@ -6303,16 +6519,19 @@
       <c r="Z72" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="73" spans="1:26">
+      <c r="AA72" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E73" t="n">
         <v>0.14</v>
@@ -6380,16 +6599,19 @@
       <c r="Z73" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="74" spans="1:26">
+      <c r="AA73" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D74" t="n">
         <v>0.09</v>
@@ -6460,16 +6682,19 @@
       <c r="Z74" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="75" spans="1:26">
+      <c r="AA74" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D75" t="n">
         <v>0.09</v>
@@ -6540,16 +6765,19 @@
       <c r="Z75" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="76" spans="1:26">
+      <c r="AA75" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27">
       <c r="A76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D76" t="n">
         <v>0.08</v>
@@ -6620,16 +6848,19 @@
       <c r="Z76" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="77" spans="1:26">
+      <c r="AA76" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27">
       <c r="A77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D77" t="n">
         <v>0.1</v>
@@ -6700,16 +6931,19 @@
       <c r="Z77" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="78" spans="1:26">
+      <c r="AA77" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B78" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D78" t="n">
         <v>0.07000000000000001</v>
@@ -6780,16 +7014,19 @@
       <c r="Z78" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="79" spans="1:26">
+      <c r="AA78" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B79" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D79" t="n">
         <v>0.09</v>
@@ -6860,16 +7097,19 @@
       <c r="Z79" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="80" spans="1:26">
+      <c r="AA79" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27">
       <c r="A80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D80" t="n">
         <v>0.06</v>
@@ -6940,16 +7180,19 @@
       <c r="Z80" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="81" spans="1:26">
+      <c r="AA80" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27">
       <c r="A81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D81" t="n">
         <v>0.13</v>
@@ -7020,16 +7263,19 @@
       <c r="Z81" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:26">
+      <c r="AA81" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27">
       <c r="A82" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D82" t="n">
         <v>0.09</v>
@@ -7100,16 +7346,19 @@
       <c r="Z82" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="83" spans="1:26">
+      <c r="AA82" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27">
       <c r="A83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D83" t="n">
         <v>0.09</v>
@@ -7180,16 +7429,19 @@
       <c r="Z83" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="84" spans="1:26">
+      <c r="AA83" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D84" t="n">
         <v>0.08</v>
@@ -7260,16 +7512,19 @@
       <c r="Z84" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="85" spans="1:26">
+      <c r="AA84" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D85" t="n">
         <v>0.07000000000000001</v>
@@ -7340,16 +7595,19 @@
       <c r="Z85" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="86" spans="1:26">
+      <c r="AA85" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27">
       <c r="A86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B86" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D86" t="n">
         <v>0.09</v>
@@ -7420,16 +7678,19 @@
       <c r="Z86" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="87" spans="1:26">
+      <c r="AA86" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27">
       <c r="A87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D87" t="n">
         <v>0.11</v>
@@ -7500,16 +7761,19 @@
       <c r="Z87" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="88" spans="1:26">
+      <c r="AA87" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27">
       <c r="A88" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B88" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D88" t="n">
         <v>0.13</v>
@@ -7580,16 +7844,19 @@
       <c r="Z88" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="89" spans="1:26">
+      <c r="AA88" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27">
       <c r="A89" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B89" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E89" t="n">
         <v>0.03</v>
@@ -7657,16 +7924,19 @@
       <c r="Z89" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="90" spans="1:26">
+      <c r="AA89" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27">
       <c r="A90" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B90" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E90" t="n">
         <v>0.04</v>
@@ -7734,16 +8004,19 @@
       <c r="Z90" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="91" spans="1:26">
+      <c r="AA90" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27">
       <c r="A91" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B91" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E91" t="n">
         <v>0.02</v>
@@ -7811,16 +8084,19 @@
       <c r="Z91" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:26">
+      <c r="AA91" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27">
       <c r="A92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E92" t="n">
         <v>0.01</v>
@@ -7888,16 +8164,19 @@
       <c r="Z92" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:26">
+      <c r="AA92" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27">
       <c r="A93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D93" t="n">
         <v>0.04</v>
@@ -7968,16 +8247,19 @@
       <c r="Z93" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="94" spans="1:26">
+      <c r="AA93" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27">
       <c r="A94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D94" t="n">
         <v>0.03</v>
@@ -8048,16 +8330,19 @@
       <c r="Z94" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="95" spans="1:26">
+      <c r="AA94" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27">
       <c r="A95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D95" t="n">
         <v>0.01</v>
@@ -8128,16 +8413,19 @@
       <c r="Z95" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="96" spans="1:26">
+      <c r="AA95" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27">
       <c r="A96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D96" t="n">
         <v>0.03</v>
@@ -8208,16 +8496,19 @@
       <c r="Z96" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="97" spans="1:26">
+      <c r="AA96" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27">
       <c r="A97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B97" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D97" t="n">
         <v>0.03</v>
@@ -8288,16 +8579,19 @@
       <c r="Z97" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="98" spans="1:26">
+      <c r="AA97" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27">
       <c r="A98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B98" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C98" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D98" t="n">
         <v>0.02</v>
@@ -8368,16 +8662,19 @@
       <c r="Z98" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="99" spans="1:26">
+      <c r="AA98" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27">
       <c r="A99" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B99" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D99" t="n">
         <v>0.28</v>
@@ -8448,16 +8745,19 @@
       <c r="Z99" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="100" spans="1:26">
+      <c r="AA99" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27">
       <c r="A100" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D100" t="n">
         <v>0.04</v>
@@ -8528,16 +8828,19 @@
       <c r="Z100" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="101" spans="1:26">
+      <c r="AA100" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27">
       <c r="A101" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D101" t="n">
         <v>0.02</v>
@@ -8608,16 +8911,19 @@
       <c r="Z101" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="102" spans="1:26">
+      <c r="AA101" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27">
       <c r="A102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D102" t="n">
         <v>0.03</v>
@@ -8688,16 +8994,19 @@
       <c r="Z102" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="103" spans="1:26">
+      <c r="AA102" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27">
       <c r="A103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D103" t="n">
         <v>0.02</v>
@@ -8768,16 +9077,19 @@
       <c r="Z103" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="104" spans="1:26">
+      <c r="AA103" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27">
       <c r="A104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B104" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D104" t="n">
         <v>0.02</v>
@@ -8848,16 +9160,19 @@
       <c r="Z104" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="105" spans="1:26">
+      <c r="AA104" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27">
       <c r="A105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B105" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D105" t="n">
         <v>0.02</v>
@@ -8928,16 +9243,19 @@
       <c r="Z105" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="106" spans="1:26">
+      <c r="AA105" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27">
       <c r="A106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B106" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D106" t="n">
         <v>0.03</v>
@@ -9008,16 +9326,19 @@
       <c r="Z106" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="107" spans="1:26">
+      <c r="AA106" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27">
       <c r="A107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B107" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D107" t="n">
         <v>0.05</v>
@@ -9088,16 +9409,19 @@
       <c r="Z107" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="108" spans="1:26">
+      <c r="AA107" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27">
       <c r="A108" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B108" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E108" t="n">
         <v>0.02</v>
@@ -9165,16 +9489,19 @@
       <c r="Z108" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="109" spans="1:26">
+      <c r="AA108" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27">
       <c r="A109" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B109" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E109" t="n">
         <v>0.005</v>
@@ -9242,16 +9569,19 @@
       <c r="Z109" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="110" spans="1:26">
+      <c r="AA109" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27">
       <c r="A110" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B110" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -9319,16 +9649,19 @@
       <c r="Z110" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="111" spans="1:26">
+      <c r="AA110" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27">
       <c r="A111" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B111" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -9396,16 +9729,19 @@
       <c r="Z111" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="112" spans="1:26">
+      <c r="AA111" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27">
       <c r="A112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D112" t="n">
         <v>0.25</v>
@@ -9476,16 +9812,19 @@
       <c r="Z112" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="113" spans="1:26">
+      <c r="AA112" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27">
       <c r="A113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D113" t="n">
         <v>0.21</v>
@@ -9556,16 +9895,19 @@
       <c r="Z113" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="114" spans="1:26">
+      <c r="AA113" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27">
       <c r="A114" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D114" t="n">
         <v>0.14</v>
@@ -9636,16 +9978,19 @@
       <c r="Z114" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="115" spans="1:26">
+      <c r="AA114" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27">
       <c r="A115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D115" t="n">
         <v>0.25</v>
@@ -9716,16 +10061,19 @@
       <c r="Z115" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="116" spans="1:26">
+      <c r="AA115" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27">
       <c r="A116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B116" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D116" t="n">
         <v>0.2</v>
@@ -9796,16 +10144,19 @@
       <c r="Z116" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="117" spans="1:26">
+      <c r="AA116" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27">
       <c r="A117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B117" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D117" t="n">
         <v>0.16</v>
@@ -9876,16 +10227,19 @@
       <c r="Z117" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="118" spans="1:26">
+      <c r="AA117" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27">
       <c r="A118" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D118" t="n">
         <v>0.37</v>
@@ -9956,16 +10310,19 @@
       <c r="Z118" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="119" spans="1:26">
+      <c r="AA118" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27">
       <c r="A119" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B119" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D119" t="n">
         <v>0.2</v>
@@ -10036,16 +10393,19 @@
       <c r="Z119" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="120" spans="1:26">
+      <c r="AA119" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27">
       <c r="A120" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D120" t="n">
         <v>0.19</v>
@@ -10116,16 +10476,19 @@
       <c r="Z120" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="121" spans="1:26">
+      <c r="AA120" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27">
       <c r="A121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D121" t="n">
         <v>0.25</v>
@@ -10196,16 +10559,19 @@
       <c r="Z121" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="122" spans="1:26">
+      <c r="AA121" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27">
       <c r="A122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D122" t="n">
         <v>0.13</v>
@@ -10276,16 +10642,19 @@
       <c r="Z122" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="123" spans="1:26">
+      <c r="AA122" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27">
       <c r="A123" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B123" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D123" t="n">
         <v>0.17</v>
@@ -10356,16 +10725,19 @@
       <c r="Z123" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="124" spans="1:26">
+      <c r="AA123" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27">
       <c r="A124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B124" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D124" t="n">
         <v>0.19</v>
@@ -10436,16 +10808,19 @@
       <c r="Z124" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="125" spans="1:26">
+      <c r="AA124" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27">
       <c r="A125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D125" t="n">
         <v>0.25</v>
@@ -10516,16 +10891,19 @@
       <c r="Z125" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:26">
+      <c r="AA125" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27">
       <c r="A126" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B126" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D126" t="n">
         <v>0.26</v>
@@ -10596,16 +10974,19 @@
       <c r="Z126" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="127" spans="1:26">
+      <c r="AA126" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27">
       <c r="A127" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B127" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C127" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E127" t="n">
         <v>0.02</v>
@@ -10673,16 +11054,19 @@
       <c r="Z127" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="128" spans="1:26">
+      <c r="AA127" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27">
       <c r="A128" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B128" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E128" t="n">
         <v>0.01</v>
@@ -10750,16 +11134,19 @@
       <c r="Z128" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="129" spans="1:26">
+      <c r="AA128" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
       <c r="A129" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B129" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E129" t="n">
         <v>0.005</v>
@@ -10827,16 +11214,19 @@
       <c r="Z129" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="130" spans="1:26">
+      <c r="AA129" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27">
       <c r="A130" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B130" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -10904,16 +11294,19 @@
       <c r="Z130" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="131" spans="1:26">
+      <c r="AA130" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27">
       <c r="A131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D131" t="n">
         <v>0.09</v>
@@ -10984,16 +11377,19 @@
       <c r="Z131" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="132" spans="1:26">
+      <c r="AA131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27">
       <c r="A132" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C132" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D132" t="n">
         <v>0.08</v>
@@ -11064,16 +11460,19 @@
       <c r="Z132" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="133" spans="1:26">
+      <c r="AA132" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27">
       <c r="A133" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B133" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D133" t="n">
         <v>0.04</v>
@@ -11144,16 +11543,19 @@
       <c r="Z133" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="134" spans="1:26">
+      <c r="AA133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27">
       <c r="A134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D134" t="n">
         <v>0.07000000000000001</v>
@@ -11224,16 +11626,19 @@
       <c r="Z134" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="135" spans="1:26">
+      <c r="AA134" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27">
       <c r="A135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B135" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D135" t="n">
         <v>0.07000000000000001</v>
@@ -11304,16 +11709,19 @@
       <c r="Z135" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="136" spans="1:26">
+      <c r="AA135" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27">
       <c r="A136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B136" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D136" t="n">
         <v>0.06</v>
@@ -11384,16 +11792,19 @@
       <c r="Z136" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="137" spans="1:26">
+      <c r="AA136" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27">
       <c r="A137" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B137" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D137" t="n">
         <v>0.2</v>
@@ -11464,16 +11875,19 @@
       <c r="Z137" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="138" spans="1:26">
+      <c r="AA137" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27">
       <c r="A138" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B138" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D138" t="n">
         <v>0.13</v>
@@ -11544,16 +11958,19 @@
       <c r="Z138" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="139" spans="1:26">
+      <c r="AA138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27">
       <c r="A139" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B139" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C139" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D139" t="n">
         <v>0.06</v>
@@ -11624,16 +12041,19 @@
       <c r="Z139" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="140" spans="1:26">
+      <c r="AA139" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27">
       <c r="A140" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B140" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C140" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D140" t="n">
         <v>0.07000000000000001</v>
@@ -11704,16 +12124,19 @@
       <c r="Z140" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="141" spans="1:26">
+      <c r="AA140" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27">
       <c r="A141" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D141" t="n">
         <v>0.05</v>
@@ -11784,16 +12207,19 @@
       <c r="Z141" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="142" spans="1:26">
+      <c r="AA141" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27">
       <c r="A142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B142" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C142" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D142" t="n">
         <v>0.05</v>
@@ -11864,16 +12290,19 @@
       <c r="Z142" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="143" spans="1:26">
+      <c r="AA142" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27">
       <c r="A143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B143" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D143" t="n">
         <v>0.07000000000000001</v>
@@ -11944,16 +12373,19 @@
       <c r="Z143" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="144" spans="1:26">
+      <c r="AA143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27">
       <c r="A144" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B144" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D144" t="n">
         <v>0.08</v>
@@ -12024,16 +12456,19 @@
       <c r="Z144" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="145" spans="1:26">
+      <c r="AA144" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27">
       <c r="A145" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B145" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C145" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D145" t="n">
         <v>0.1</v>
@@ -12104,16 +12539,19 @@
       <c r="Z145" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="146" spans="1:26">
+      <c r="AA145" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27">
       <c r="A146" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B146" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C146" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E146" t="n">
         <v>0.01</v>
@@ -12181,16 +12619,19 @@
       <c r="Z146" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="147" spans="1:26">
+      <c r="AA146" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27">
       <c r="A147" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B147" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C147" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
@@ -12258,16 +12699,19 @@
       <c r="Z147" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:26">
+      <c r="AA147" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27">
       <c r="A148" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B148" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
@@ -12335,16 +12779,19 @@
       <c r="Z148" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="149" spans="1:26">
+      <c r="AA148" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27">
       <c r="A149" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B149" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C149" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E149" t="n">
         <v>0.01</v>
@@ -12412,16 +12859,19 @@
       <c r="Z149" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:26">
+      <c r="AA149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27">
       <c r="A150" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B150" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H150" t="n">
         <v>0.04</v>
@@ -12480,16 +12930,19 @@
       <c r="Z150" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="151" spans="1:26">
+      <c r="AA150" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27">
       <c r="A151" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B151" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C151" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H151" t="n">
         <v>0.05</v>
@@ -12548,16 +13001,19 @@
       <c r="Z151" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="152" spans="1:26">
+      <c r="AA151" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27">
       <c r="A152" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B152" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H152" t="n">
         <v>0.04</v>
@@ -12616,16 +13072,19 @@
       <c r="Z152" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="153" spans="1:26">
+      <c r="AA152" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27">
       <c r="A153" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B153" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C153" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H153" t="n">
         <v>0.05</v>
@@ -12684,16 +13143,19 @@
       <c r="Z153" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="154" spans="1:26">
+      <c r="AA153" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27">
       <c r="A154" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B154" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H154" t="n">
         <v>0.04</v>
@@ -12752,16 +13214,19 @@
       <c r="Z154" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="155" spans="1:26">
+      <c r="AA154" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27">
       <c r="A155" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B155" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C155" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H155" t="n">
         <v>0.06</v>
@@ -12820,16 +13285,19 @@
       <c r="Z155" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="156" spans="1:26">
+      <c r="AA155" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27">
       <c r="A156" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B156" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H156" t="n">
         <v>0.06</v>
@@ -12888,16 +13356,19 @@
       <c r="Z156" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="157" spans="1:26">
+      <c r="AA156" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27">
       <c r="A157" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B157" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C157" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H157" t="n">
         <v>0.05</v>
@@ -12956,16 +13427,19 @@
       <c r="Z157" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="158" spans="1:26">
+      <c r="AA157" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27">
       <c r="A158" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B158" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H158" t="n">
         <v>0.05</v>
@@ -13024,16 +13498,19 @@
       <c r="Z158" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="159" spans="1:26">
+      <c r="AA158" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27">
       <c r="A159" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B159" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C159" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H159" t="n">
         <v>0.04</v>
@@ -13092,16 +13569,19 @@
       <c r="Z159" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="160" spans="1:26">
+      <c r="AA159" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27">
       <c r="A160" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B160" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C160" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H160" t="n">
         <v>0.05</v>
@@ -13160,16 +13640,19 @@
       <c r="Z160" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="161" spans="1:26">
+      <c r="AA160" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27">
       <c r="A161" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B161" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C161" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H161" t="n">
         <v>0.05</v>
@@ -13228,16 +13711,19 @@
       <c r="Z161" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="162" spans="1:26">
+      <c r="AA161" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27">
       <c r="A162" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B162" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C162" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H162" t="n">
         <v>0.05</v>
@@ -13296,16 +13782,19 @@
       <c r="Z162" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="163" spans="1:26">
+      <c r="AA162" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
       <c r="A163" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B163" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C163" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H163" t="n">
         <v>0.03</v>
@@ -13364,16 +13853,19 @@
       <c r="Z163" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="164" spans="1:26">
+      <c r="AA163" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27">
       <c r="A164" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B164" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C164" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H164" t="n">
         <v>0.04</v>
@@ -13432,16 +13924,19 @@
       <c r="Z164" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="165" spans="1:26">
+      <c r="AA164" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27">
       <c r="A165" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B165" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H165" t="n">
         <v>0.03</v>
@@ -13500,16 +13995,19 @@
       <c r="Z165" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="166" spans="1:26">
+      <c r="AA165" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27">
       <c r="A166" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B166" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C166" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H166" t="n">
         <v>0.05</v>
@@ -13568,16 +14066,19 @@
       <c r="Z166" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="167" spans="1:26">
+      <c r="AA166" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27">
       <c r="A167" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B167" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C167" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H167" t="n">
         <v>0.05</v>
@@ -13636,16 +14137,19 @@
       <c r="Z167" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="168" spans="1:26">
+      <c r="AA167" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27">
       <c r="A168" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B168" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C168" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H168" t="n">
         <v>0.06</v>
@@ -13704,16 +14208,19 @@
       <c r="Z168" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="169" spans="1:26">
+      <c r="AA168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27">
       <c r="A169" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B169" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C169" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D169" t="n">
         <v>0.03</v>
@@ -13784,16 +14291,19 @@
       <c r="Z169" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="170" spans="1:26">
+      <c r="AA169" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27">
       <c r="A170" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B170" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C170" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D170" t="n">
         <v>0.03</v>
@@ -13864,16 +14374,19 @@
       <c r="Z170" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="171" spans="1:26">
+      <c r="AA170" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27">
       <c r="A171" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B171" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C171" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D171" t="n">
         <v>0.015</v>
@@ -13944,16 +14457,19 @@
       <c r="Z171" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:26">
+      <c r="AA171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27">
       <c r="A172" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B172" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C172" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D172" t="n">
         <v>0.02</v>
@@ -14024,16 +14540,19 @@
       <c r="Z172" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="173" spans="1:26">
+      <c r="AA172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27">
       <c r="A173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B173" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C173" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D173" t="n">
         <v>0.02</v>
@@ -14104,16 +14623,19 @@
       <c r="Z173" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="174" spans="1:26">
+      <c r="AA173" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="174" spans="1:27">
       <c r="A174" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B174" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C174" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D174" t="n">
         <v>0.02</v>
@@ -14184,16 +14706,19 @@
       <c r="Z174" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="175" spans="1:26">
+      <c r="AA174" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="175" spans="1:27">
       <c r="A175" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B175" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C175" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D175" t="n">
         <v>0.09</v>
@@ -14264,16 +14789,19 @@
       <c r="Z175" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="176" spans="1:26">
+      <c r="AA175" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27">
       <c r="A176" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B176" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C176" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D176" t="n">
         <v>0.08</v>
@@ -14344,16 +14872,19 @@
       <c r="Z176" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="177" spans="1:26">
+      <c r="AA176" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27">
       <c r="A177" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B177" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C177" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D177" t="n">
         <v>0.02</v>
@@ -14424,16 +14955,19 @@
       <c r="Z177" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="178" spans="1:26">
+      <c r="AA177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27">
       <c r="A178" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B178" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C178" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D178" t="n">
         <v>0.02</v>
@@ -14504,16 +15038,19 @@
       <c r="Z178" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="179" spans="1:26">
+      <c r="AA178" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27">
       <c r="A179" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B179" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C179" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D179" t="n">
         <v>0.02</v>
@@ -14584,16 +15121,19 @@
       <c r="Z179" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="180" spans="1:26">
+      <c r="AA179" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27">
       <c r="A180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B180" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C180" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D180" t="n">
         <v>0.02</v>
@@ -14664,16 +15204,19 @@
       <c r="Z180" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="181" spans="1:26">
+      <c r="AA180" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="181" spans="1:27">
       <c r="A181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B181" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C181" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D181" t="n">
         <v>0.04</v>
@@ -14744,16 +15287,19 @@
       <c r="Z181" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:26">
+      <c r="AA181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:27">
       <c r="A182" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B182" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C182" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D182" t="n">
         <v>0.02</v>
@@ -14824,16 +15370,19 @@
       <c r="Z182" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="183" spans="1:26">
+      <c r="AA182" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27">
       <c r="A183" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B183" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C183" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D183" t="n">
         <v>0.03</v>
@@ -14904,16 +15453,19 @@
       <c r="Z183" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="184" spans="1:26">
+      <c r="AA183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:27">
       <c r="A184" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B184" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C184" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
@@ -14981,16 +15533,19 @@
       <c r="Z184" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="185" spans="1:26">
+      <c r="AA184" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="185" spans="1:27">
       <c r="A185" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B185" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C185" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -15058,16 +15613,19 @@
       <c r="Z185" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:26">
+      <c r="AA185" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="186" spans="1:27">
       <c r="A186" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B186" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C186" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -15135,16 +15693,19 @@
       <c r="Z186" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:26">
+      <c r="AA186" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="187" spans="1:27">
       <c r="A187" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B187" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C187" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -15212,16 +15773,19 @@
       <c r="Z187" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:26">
+      <c r="AA187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:27">
       <c r="A188" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B188" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C188" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D188" t="n">
         <v>0.02</v>
@@ -15292,16 +15856,19 @@
       <c r="Z188" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="189" spans="1:26">
+      <c r="AA188" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="189" spans="1:27">
       <c r="A189" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B189" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C189" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D189" t="n">
         <v>0.015</v>
@@ -15372,16 +15939,19 @@
       <c r="Z189" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="190" spans="1:26">
+      <c r="AA189" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="190" spans="1:27">
       <c r="A190" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B190" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C190" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D190" t="n">
         <v>0.005</v>
@@ -15452,16 +16022,19 @@
       <c r="Z190" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:26">
+      <c r="AA190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:27">
       <c r="A191" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B191" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C191" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D191" t="n">
         <v>0.005</v>
@@ -15532,16 +16105,19 @@
       <c r="Z191" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="192" spans="1:26">
+      <c r="AA191" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="192" spans="1:27">
       <c r="A192" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B192" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C192" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D192" t="n">
         <v>0.015</v>
@@ -15612,16 +16188,19 @@
       <c r="Z192" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="193" spans="1:26">
+      <c r="AA192" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27">
       <c r="A193" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B193" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C193" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D193" t="n">
         <v>0.015</v>
@@ -15692,16 +16271,19 @@
       <c r="Z193" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="194" spans="1:26">
+      <c r="AA193" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27">
       <c r="A194" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B194" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C194" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D194" t="n">
         <v>0.06</v>
@@ -15772,16 +16354,19 @@
       <c r="Z194" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="195" spans="1:26">
+      <c r="AA194" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27">
       <c r="A195" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B195" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C195" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D195" t="n">
         <v>0.07000000000000001</v>
@@ -15852,16 +16437,19 @@
       <c r="Z195" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:26">
+      <c r="AA195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27">
       <c r="A196" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B196" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C196" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D196" t="n">
         <v>0.01</v>
@@ -15932,16 +16520,19 @@
       <c r="Z196" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="197" spans="1:26">
+      <c r="AA196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:27">
       <c r="A197" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B197" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C197" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D197" t="n">
         <v>0.015</v>
@@ -16012,16 +16603,19 @@
       <c r="Z197" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="198" spans="1:26">
+      <c r="AA197" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="198" spans="1:27">
       <c r="A198" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B198" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C198" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D198" t="n">
         <v>0.01</v>
@@ -16092,16 +16686,19 @@
       <c r="Z198" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="199" spans="1:26">
+      <c r="AA198" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="199" spans="1:27">
       <c r="A199" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B199" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C199" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D199" t="n">
         <v>0.015</v>
@@ -16172,16 +16769,19 @@
       <c r="Z199" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="200" spans="1:26">
+      <c r="AA199" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="200" spans="1:27">
       <c r="A200" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C200" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D200" t="n">
         <v>0.01</v>
@@ -16252,16 +16852,19 @@
       <c r="Z200" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:26">
+      <c r="AA200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:27">
       <c r="A201" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B201" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C201" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D201" t="n">
         <v>0.02</v>
@@ -16332,16 +16935,19 @@
       <c r="Z201" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="202" spans="1:26">
+      <c r="AA201" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="202" spans="1:27">
       <c r="A202" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B202" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C202" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D202" t="n">
         <v>0.01</v>
@@ -16412,16 +17018,19 @@
       <c r="Z202" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="203" spans="1:26">
+      <c r="AA202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:27">
       <c r="A203" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B203" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C203" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E203" t="n">
         <v>0</v>
@@ -16489,16 +17098,19 @@
       <c r="Z203" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="204" spans="1:26">
+      <c r="AA203" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="204" spans="1:27">
       <c r="A204" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B204" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C204" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E204" t="n">
         <v>0</v>
@@ -16566,16 +17178,19 @@
       <c r="Z204" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:26">
+      <c r="AA204" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="205" spans="1:27">
       <c r="A205" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B205" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C205" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
@@ -16643,16 +17258,19 @@
       <c r="Z205" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:26">
+      <c r="AA205" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="206" spans="1:27">
       <c r="A206" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B206" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C206" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
@@ -16720,16 +17338,19 @@
       <c r="Z206" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:26">
+      <c r="AA206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:27">
       <c r="A207" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B207" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C207" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D207" t="n">
         <v>0.5600000000000001</v>
@@ -16800,16 +17421,19 @@
       <c r="Z207" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="208" spans="1:26">
+      <c r="AA207" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="208" spans="1:27">
       <c r="A208" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B208" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C208" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D208" t="n">
         <v>0.47</v>
@@ -16880,16 +17504,19 @@
       <c r="Z208" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="209" spans="1:26">
+      <c r="AA208" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27">
       <c r="A209" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B209" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C209" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D209" t="n">
         <v>0.4</v>
@@ -16960,16 +17587,19 @@
       <c r="Z209" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="210" spans="1:26">
+      <c r="AA209" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27">
       <c r="A210" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B210" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C210" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D210" t="n">
         <v>0.47</v>
@@ -17040,16 +17670,19 @@
       <c r="Z210" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="211" spans="1:26">
+      <c r="AA210" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27">
       <c r="A211" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B211" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C211" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D211" t="n">
         <v>0.46</v>
@@ -17120,16 +17753,19 @@
       <c r="Z211" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="212" spans="1:26">
+      <c r="AA211" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="212" spans="1:27">
       <c r="A212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B212" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C212" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D212" t="n">
         <v>0.47</v>
@@ -17200,16 +17836,19 @@
       <c r="Z212" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="213" spans="1:26">
+      <c r="AA212" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="213" spans="1:27">
       <c r="A213" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B213" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C213" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D213" t="n">
         <v>0.63</v>
@@ -17280,16 +17919,19 @@
       <c r="Z213" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="214" spans="1:26">
+      <c r="AA213" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="214" spans="1:27">
       <c r="A214" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B214" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C214" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D214" t="n">
         <v>0.61</v>
@@ -17360,16 +18002,19 @@
       <c r="Z214" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="215" spans="1:26">
+      <c r="AA214" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="215" spans="1:27">
       <c r="A215" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B215" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C215" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D215" t="n">
         <v>0.46</v>
@@ -17440,16 +18085,19 @@
       <c r="Z215" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="216" spans="1:26">
+      <c r="AA215" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="216" spans="1:27">
       <c r="A216" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B216" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C216" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D216" t="n">
         <v>0.48</v>
@@ -17520,16 +18168,19 @@
       <c r="Z216" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="217" spans="1:26">
+      <c r="AA216" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:27">
       <c r="A217" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B217" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C217" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D217" t="n">
         <v>0.45</v>
@@ -17600,16 +18251,19 @@
       <c r="Z217" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="218" spans="1:26">
+      <c r="AA217" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="218" spans="1:27">
       <c r="A218" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B218" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C218" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D218" t="n">
         <v>0.46</v>
@@ -17680,16 +18334,19 @@
       <c r="Z218" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="219" spans="1:26">
+      <c r="AA218" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="219" spans="1:27">
       <c r="A219" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B219" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C219" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D219" t="n">
         <v>0.49</v>
@@ -17760,16 +18417,19 @@
       <c r="Z219" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="220" spans="1:26">
+      <c r="AA219" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="220" spans="1:27">
       <c r="A220" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B220" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C220" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D220" t="n">
         <v>0.49</v>
@@ -17840,16 +18500,19 @@
       <c r="Z220" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="221" spans="1:26">
+      <c r="AA220" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="221" spans="1:27">
       <c r="A221" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B221" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C221" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D221" t="n">
         <v>0.4</v>
@@ -17920,16 +18583,19 @@
       <c r="Z221" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="222" spans="1:26">
+      <c r="AA221" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="222" spans="1:27">
       <c r="A222" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B222" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C222" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E222" t="n">
         <v>0.38</v>
@@ -17997,16 +18663,19 @@
       <c r="Z222" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="223" spans="1:26">
+      <c r="AA222" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="223" spans="1:27">
       <c r="A223" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B223" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C223" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E223" t="n">
         <v>0.41</v>
@@ -18074,16 +18743,19 @@
       <c r="Z223" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="224" spans="1:26">
+      <c r="AA223" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="224" spans="1:27">
       <c r="A224" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B224" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C224" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E224" t="n">
         <v>0.34</v>
@@ -18151,16 +18823,19 @@
       <c r="Z224" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="225" spans="1:26">
+      <c r="AA224" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27">
       <c r="A225" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B225" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C225" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E225" t="n">
         <v>0.32</v>
@@ -18228,16 +18903,19 @@
       <c r="Z225" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="226" spans="1:26">
+      <c r="AA225" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27">
       <c r="A226" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B226" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C226" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E226" t="n">
         <v>0.17</v>
@@ -18305,16 +18983,19 @@
       <c r="Z226" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="227" spans="1:26">
+      <c r="AA226" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27">
       <c r="A227" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B227" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C227" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E227" t="n">
         <v>0.14</v>
@@ -18382,16 +19063,19 @@
       <c r="Z227" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="228" spans="1:26">
+      <c r="AA227" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27">
       <c r="A228" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B228" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C228" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E228" t="n">
         <v>0.08</v>
@@ -18459,16 +19143,19 @@
       <c r="Z228" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="229" spans="1:26">
+      <c r="AA228" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27">
       <c r="A229" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B229" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C229" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E229" t="n">
         <v>0.16</v>
@@ -18536,16 +19223,19 @@
       <c r="Z229" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="230" spans="1:26">
+      <c r="AA229" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:27">
       <c r="A230" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B230" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C230" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E230" t="n">
         <v>0.13</v>
@@ -18613,16 +19303,19 @@
       <c r="Z230" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="231" spans="1:26">
+      <c r="AA230" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="231" spans="1:27">
       <c r="A231" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B231" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C231" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E231" t="n">
         <v>0.11</v>
@@ -18690,16 +19383,19 @@
       <c r="Z231" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="232" spans="1:26">
+      <c r="AA231" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:27">
       <c r="A232" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B232" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C232" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E232" t="n">
         <v>0.06</v>
@@ -18767,16 +19463,19 @@
       <c r="Z232" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="233" spans="1:26">
+      <c r="AA232" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="233" spans="1:27">
       <c r="A233" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B233" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C233" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E233" t="n">
         <v>0.18</v>
@@ -18844,16 +19543,19 @@
       <c r="Z233" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="234" spans="1:26">
+      <c r="AA233" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="234" spans="1:27">
       <c r="A234" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B234" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C234" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E234" t="n">
         <v>0.12</v>
@@ -18921,16 +19623,19 @@
       <c r="Z234" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="235" spans="1:26">
+      <c r="AA234" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="235" spans="1:27">
       <c r="A235" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B235" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C235" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E235" t="n">
         <v>0.14</v>
@@ -18998,16 +19703,19 @@
       <c r="Z235" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="236" spans="1:26">
+      <c r="AA235" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="236" spans="1:27">
       <c r="A236" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B236" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C236" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E236" t="n">
         <v>0.11</v>
@@ -19075,16 +19783,19 @@
       <c r="Z236" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="237" spans="1:26">
+      <c r="AA236" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="237" spans="1:27">
       <c r="A237" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B237" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E237" t="n">
         <v>0.11</v>
@@ -19152,16 +19863,19 @@
       <c r="Z237" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="238" spans="1:26">
+      <c r="AA237" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:27">
       <c r="A238" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B238" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C238" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E238" t="n">
         <v>0.12</v>
@@ -19229,16 +19943,19 @@
       <c r="Z238" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="239" spans="1:26">
+      <c r="AA238" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:27">
       <c r="A239" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B239" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C239" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E239" t="n">
         <v>0.16</v>
@@ -19306,16 +20023,19 @@
       <c r="Z239" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="240" spans="1:26">
+      <c r="AA239" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="240" spans="1:27">
       <c r="A240" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B240" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C240" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E240" t="n">
         <v>0.15</v>
@@ -19383,16 +20103,19 @@
       <c r="Z240" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="241" spans="1:26">
+      <c r="AA240" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27">
       <c r="A241" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B241" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C241" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E241" t="n">
         <v>0.15</v>
@@ -19460,16 +20183,19 @@
       <c r="Z241" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="242" spans="1:26">
+      <c r="AA241" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27">
       <c r="A242" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B242" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C242" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E242" t="n">
         <v>0.18</v>
@@ -19537,16 +20263,19 @@
       <c r="Z242" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="243" spans="1:26">
+      <c r="AA242" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27">
       <c r="A243" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B243" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C243" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E243" t="n">
         <v>0.12</v>
@@ -19614,16 +20343,19 @@
       <c r="Z243" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="244" spans="1:26">
+      <c r="AA243" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:27">
       <c r="A244" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B244" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C244" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E244" t="n">
         <v>0.14</v>
@@ -19691,16 +20423,19 @@
       <c r="Z244" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="245" spans="1:26">
+      <c r="AA244" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:27">
       <c r="A245" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B245" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C245" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E245" t="n">
         <v>0.04</v>
@@ -19768,16 +20503,19 @@
       <c r="Z245" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="246" spans="1:26">
+      <c r="AA245" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="246" spans="1:27">
       <c r="A246" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B246" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C246" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E246" t="n">
         <v>0.04</v>
@@ -19845,16 +20583,19 @@
       <c r="Z246" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="247" spans="1:26">
+      <c r="AA246" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="247" spans="1:27">
       <c r="A247" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B247" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C247" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E247" t="n">
         <v>0.03</v>
@@ -19922,16 +20663,19 @@
       <c r="Z247" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="248" spans="1:26">
+      <c r="AA247" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="248" spans="1:27">
       <c r="A248" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B248" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C248" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E248" t="n">
         <v>0.04</v>
@@ -19999,16 +20743,19 @@
       <c r="Z248" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="249" spans="1:26">
+      <c r="AA248" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:27">
       <c r="A249" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B249" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C249" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E249" t="n">
         <v>0.04</v>
@@ -20076,16 +20823,19 @@
       <c r="Z249" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="250" spans="1:26">
+      <c r="AA249" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="250" spans="1:27">
       <c r="A250" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B250" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C250" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E250" t="n">
         <v>0.03</v>
@@ -20153,16 +20903,19 @@
       <c r="Z250" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="251" spans="1:26">
+      <c r="AA250" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="251" spans="1:27">
       <c r="A251" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B251" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C251" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
@@ -20230,16 +20983,19 @@
       <c r="Z251" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="252" spans="1:26">
+      <c r="AA251" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="252" spans="1:27">
       <c r="A252" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B252" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C252" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E252" t="n">
         <v>0.05</v>
@@ -20307,16 +21063,19 @@
       <c r="Z252" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="253" spans="1:26">
+      <c r="AA252" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="253" spans="1:27">
       <c r="A253" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B253" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C253" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E253" t="n">
         <v>0.03</v>
@@ -20384,16 +21143,19 @@
       <c r="Z253" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="254" spans="1:26">
+      <c r="AA253" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="254" spans="1:27">
       <c r="A254" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B254" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C254" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E254" t="n">
         <v>0.04</v>
@@ -20461,16 +21223,19 @@
       <c r="Z254" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="255" spans="1:26">
+      <c r="AA254" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="255" spans="1:27">
       <c r="A255" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B255" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C255" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E255" t="n">
         <v>0.03</v>
@@ -20538,16 +21303,19 @@
       <c r="Z255" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="256" spans="1:26">
+      <c r="AA255" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="256" spans="1:27">
       <c r="A256" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B256" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C256" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E256" t="n">
         <v>0.03</v>
@@ -20615,16 +21383,19 @@
       <c r="Z256" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="257" spans="1:26">
+      <c r="AA256" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="257" spans="1:27">
       <c r="A257" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B257" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C257" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E257" t="n">
         <v>0.04</v>
@@ -20692,16 +21463,19 @@
       <c r="Z257" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="258" spans="1:26">
+      <c r="AA257" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="258" spans="1:27">
       <c r="A258" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B258" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C258" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E258" t="n">
         <v>0.03</v>
@@ -20769,16 +21543,19 @@
       <c r="Z258" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="259" spans="1:26">
+      <c r="AA258" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="259" spans="1:27">
       <c r="A259" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B259" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C259" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E259" t="n">
         <v>0.06</v>
@@ -20846,16 +21623,19 @@
       <c r="Z259" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="260" spans="1:26">
+      <c r="AA259" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="260" spans="1:27">
       <c r="A260" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B260" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C260" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E260" t="n">
         <v>0.05</v>
@@ -20923,16 +21703,19 @@
       <c r="Z260" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="261" spans="1:26">
+      <c r="AA260" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="261" spans="1:27">
       <c r="A261" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B261" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C261" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E261" t="n">
         <v>0.02</v>
@@ -21000,16 +21783,19 @@
       <c r="Z261" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="262" spans="1:26">
+      <c r="AA261" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="262" spans="1:27">
       <c r="A262" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B262" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C262" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E262" t="n">
         <v>0.03</v>
@@ -21077,16 +21863,19 @@
       <c r="Z262" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="263" spans="1:26">
+      <c r="AA262" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="263" spans="1:27">
       <c r="A263" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B263" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C263" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E263" t="n">
         <v>0.05</v>
@@ -21154,16 +21943,19 @@
       <c r="Z263" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="264" spans="1:26">
+      <c r="AA263" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="264" spans="1:27">
       <c r="A264" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B264" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C264" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D264" t="n">
         <v>0.08</v>
@@ -21234,16 +22026,19 @@
       <c r="Z264" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="265" spans="1:26">
+      <c r="AA264" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="265" spans="1:27">
       <c r="A265" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B265" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C265" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D265" t="n">
         <v>0.05</v>
@@ -21314,16 +22109,19 @@
       <c r="Z265" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="266" spans="1:26">
+      <c r="AA265" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="266" spans="1:27">
       <c r="A266" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B266" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C266" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D266" t="n">
         <v>0.03</v>
@@ -21394,16 +22192,19 @@
       <c r="Z266" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="267" spans="1:26">
+      <c r="AA266" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="267" spans="1:27">
       <c r="A267" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B267" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C267" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D267" t="n">
         <v>0.04</v>
@@ -21474,16 +22275,19 @@
       <c r="Z267" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="268" spans="1:26">
+      <c r="AA267" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="268" spans="1:27">
       <c r="A268" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B268" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C268" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D268" t="n">
         <v>0.05</v>
@@ -21554,16 +22358,19 @@
       <c r="Z268" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="269" spans="1:26">
+      <c r="AA268" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="269" spans="1:27">
       <c r="A269" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B269" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C269" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D269" t="n">
         <v>0.05</v>
@@ -21634,16 +22441,19 @@
       <c r="Z269" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="270" spans="1:26">
+      <c r="AA269" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="270" spans="1:27">
       <c r="A270" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B270" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C270" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D270" t="n">
         <v>0.32</v>
@@ -21714,16 +22524,19 @@
       <c r="Z270" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="271" spans="1:26">
+      <c r="AA270" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="271" spans="1:27">
       <c r="A271" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B271" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C271" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D271" t="n">
         <v>0.1</v>
@@ -21794,16 +22607,19 @@
       <c r="Z271" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="272" spans="1:26">
+      <c r="AA271" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="272" spans="1:27">
       <c r="A272" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B272" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C272" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D272" t="n">
         <v>0.04</v>
@@ -21874,16 +22690,19 @@
       <c r="Z272" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="273" spans="1:26">
+      <c r="AA272" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="273" spans="1:27">
       <c r="A273" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B273" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C273" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D273" t="n">
         <v>0.05</v>
@@ -21954,16 +22773,19 @@
       <c r="Z273" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="274" spans="1:26">
+      <c r="AA273" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="274" spans="1:27">
       <c r="A274" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B274" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C274" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D274" t="n">
         <v>0.05</v>
@@ -22034,16 +22856,19 @@
       <c r="Z274" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="275" spans="1:26">
+      <c r="AA274" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="275" spans="1:27">
       <c r="A275" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B275" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C275" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D275" t="n">
         <v>0.04</v>
@@ -22114,16 +22939,19 @@
       <c r="Z275" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="276" spans="1:26">
+      <c r="AA275" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="276" spans="1:27">
       <c r="A276" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B276" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C276" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D276" t="n">
         <v>0.06</v>
@@ -22194,16 +23022,19 @@
       <c r="Z276" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="277" spans="1:26">
+      <c r="AA276" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="277" spans="1:27">
       <c r="A277" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B277" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C277" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D277" t="n">
         <v>0.06</v>
@@ -22274,16 +23105,19 @@
       <c r="Z277" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="278" spans="1:26">
+      <c r="AA277" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="278" spans="1:27">
       <c r="A278" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B278" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C278" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D278" t="n">
         <v>0.06</v>
@@ -22354,16 +23188,19 @@
       <c r="Z278" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="279" spans="1:26">
+      <c r="AA278" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="279" spans="1:27">
       <c r="A279" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B279" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C279" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E279" t="n">
         <v>0.03</v>
@@ -22431,16 +23268,19 @@
       <c r="Z279" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="280" spans="1:26">
+      <c r="AA279" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="280" spans="1:27">
       <c r="A280" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B280" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C280" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E280" t="n">
         <v>0.04</v>
@@ -22508,16 +23348,19 @@
       <c r="Z280" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="281" spans="1:26">
+      <c r="AA280" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="281" spans="1:27">
       <c r="A281" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B281" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C281" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E281" t="n">
         <v>0.015</v>
@@ -22585,16 +23428,19 @@
       <c r="Z281" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="282" spans="1:26">
+      <c r="AA281" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="282" spans="1:27">
       <c r="A282" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B282" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C282" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E282" t="n">
         <v>0.005</v>
@@ -22662,16 +23508,19 @@
       <c r="Z282" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="283" spans="1:26">
+      <c r="AA282" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="283" spans="1:27">
       <c r="A283" t="s">
+        <v>44</v>
+      </c>
+      <c r="B283" t="s">
+        <v>45</v>
+      </c>
+      <c r="C283" t="s">
         <v>43</v>
-      </c>
-      <c r="B283" t="s">
-        <v>44</v>
-      </c>
-      <c r="C283" t="s">
-        <v>42</v>
       </c>
       <c r="H283" t="n">
         <v>0.02</v>
@@ -22730,16 +23579,19 @@
       <c r="Z283" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="284" spans="1:26">
+      <c r="AA283" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="284" spans="1:27">
       <c r="A284" t="s">
+        <v>44</v>
+      </c>
+      <c r="B284" t="s">
+        <v>46</v>
+      </c>
+      <c r="C284" t="s">
         <v>43</v>
-      </c>
-      <c r="B284" t="s">
-        <v>45</v>
-      </c>
-      <c r="C284" t="s">
-        <v>42</v>
       </c>
       <c r="H284" t="n">
         <v>0.015</v>
@@ -22798,16 +23650,19 @@
       <c r="Z284" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="285" spans="1:26">
+      <c r="AA284" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="285" spans="1:27">
       <c r="A285" t="s">
+        <v>44</v>
+      </c>
+      <c r="B285" t="s">
+        <v>47</v>
+      </c>
+      <c r="C285" t="s">
         <v>43</v>
-      </c>
-      <c r="B285" t="s">
-        <v>46</v>
-      </c>
-      <c r="C285" t="s">
-        <v>42</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -22866,16 +23721,19 @@
       <c r="Z285" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="286" spans="1:26">
+      <c r="AA285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:27">
       <c r="A286" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B286" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C286" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -22934,16 +23792,19 @@
       <c r="Z286" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="287" spans="1:26">
+      <c r="AA286" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="287" spans="1:27">
       <c r="A287" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B287" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C287" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H287" t="n">
         <v>0.005</v>
@@ -23002,16 +23863,19 @@
       <c r="Z287" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="288" spans="1:26">
+      <c r="AA287" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="288" spans="1:27">
       <c r="A288" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B288" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C288" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H288" t="n">
         <v>0.03</v>
@@ -23070,16 +23934,19 @@
       <c r="Z288" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="289" spans="1:26">
+      <c r="AA288" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="289" spans="1:27">
       <c r="A289" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B289" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C289" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H289" t="n">
         <v>0.05</v>
@@ -23138,16 +24005,19 @@
       <c r="Z289" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="290" spans="1:26">
+      <c r="AA289" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="290" spans="1:27">
       <c r="A290" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B290" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C290" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H290" t="n">
         <v>0.005</v>
@@ -23206,16 +24076,19 @@
       <c r="Z290" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="291" spans="1:26">
+      <c r="AA290" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="291" spans="1:27">
       <c r="A291" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B291" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C291" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H291" t="n">
         <v>0.01</v>
@@ -23274,16 +24147,19 @@
       <c r="Z291" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="292" spans="1:26">
+      <c r="AA291" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="292" spans="1:27">
       <c r="A292" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B292" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C292" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H292" t="n">
         <v>0.01</v>
@@ -23342,16 +24218,19 @@
       <c r="Z292" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="293" spans="1:26">
+      <c r="AA292" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="293" spans="1:27">
       <c r="A293" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B293" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C293" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H293" t="n">
         <v>0.01</v>
@@ -23410,16 +24289,19 @@
       <c r="Z293" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="294" spans="1:26">
+      <c r="AA293" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="294" spans="1:27">
       <c r="A294" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B294" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C294" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H294" t="n">
         <v>0.015</v>
@@ -23478,16 +24360,19 @@
       <c r="Z294" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="295" spans="1:26">
+      <c r="AA294" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="295" spans="1:27">
       <c r="A295" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B295" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C295" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H295" t="n">
         <v>0.005</v>
@@ -23546,16 +24431,19 @@
       <c r="Z295" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:26">
+      <c r="AA295" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="296" spans="1:27">
       <c r="A296" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B296" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C296" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H296" t="n">
         <v>0.005</v>
@@ -23614,16 +24502,19 @@
       <c r="Z296" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="297" spans="1:26">
+      <c r="AA296" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="297" spans="1:27">
       <c r="A297" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B297" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C297" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H297" t="n">
         <v>0.005</v>
@@ -23682,16 +24573,19 @@
       <c r="Z297" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="298" spans="1:26">
+      <c r="AA297" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="298" spans="1:27">
       <c r="A298" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B298" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C298" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H298" t="n">
         <v>0.01</v>
@@ -23750,16 +24644,19 @@
       <c r="Z298" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="299" spans="1:26">
+      <c r="AA298" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="299" spans="1:27">
       <c r="A299" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B299" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C299" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H299" t="n">
         <v>0.02</v>
@@ -23818,16 +24715,19 @@
       <c r="Z299" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:26">
+      <c r="AA299" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="300" spans="1:27">
       <c r="A300" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B300" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C300" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H300" t="n">
         <v>0.02</v>
@@ -23886,16 +24786,19 @@
       <c r="Z300" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:26">
+      <c r="AA300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:27">
       <c r="A301" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B301" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C301" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H301" t="n">
         <v>0.02</v>
@@ -23954,10 +24857,13 @@
       <c r="Z301" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="302" spans="1:26">
+      <c r="AA301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:27">
       <c r="A302" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -23971,7 +24877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23979,7 +24885,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -24055,13 +24961,16 @@
       <c r="Y1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -24132,13 +25041,16 @@
       <c r="Y2" t="n">
         <v>2130</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2" t="n">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -24209,13 +25121,16 @@
       <c r="Y3" t="n">
         <v>512</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -24286,13 +25201,16 @@
       <c r="Y4" t="n">
         <v>776</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4" t="n">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -24363,13 +25281,16 @@
       <c r="Y5" t="n">
         <v>842</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5" t="n">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" t="n">
         <v>665</v>
@@ -24440,13 +25361,16 @@
       <c r="Y6" t="n">
         <v>370</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6" t="n">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" t="n">
         <v>885</v>
@@ -24517,13 +25441,16 @@
       <c r="Y7" t="n">
         <v>702</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7" t="n">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" t="n">
         <v>1551</v>
@@ -24594,13 +25521,16 @@
       <c r="Y8" t="n">
         <v>1058</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8" t="n">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" t="n">
         <v>11</v>
@@ -24671,13 +25601,16 @@
       <c r="Y9" t="n">
         <v>691</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" t="n">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" t="n">
         <v>102</v>
@@ -24748,13 +25681,16 @@
       <c r="Y10" t="n">
         <v>727</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10" t="n">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" t="n">
         <v>2988</v>
@@ -24825,13 +25761,16 @@
       <c r="Y11" t="n">
         <v>712</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" t="n">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" t="n">
         <v>1514</v>
@@ -24902,13 +25841,16 @@
       <c r="Y12" t="n">
         <v>1042</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12" t="n">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" t="n">
         <v>1587</v>
@@ -24979,13 +25921,16 @@
       <c r="Y13" t="n">
         <v>1088</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" t="n">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C14" t="n">
         <v>1726</v>
@@ -25056,13 +26001,16 @@
       <c r="Y14" t="n">
         <v>1107</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14" t="n">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" t="n">
         <v>667</v>
@@ -25133,13 +26081,16 @@
       <c r="Y15" t="n">
         <v>490</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15" t="n">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" t="n">
         <v>333</v>
@@ -25210,13 +26161,16 @@
       <c r="Y16" t="n">
         <v>252</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" t="n">
         <v>375</v>
@@ -25287,13 +26241,16 @@
       <c r="Y17" t="n">
         <v>281</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s"/>
       <c r="D18" t="n">
@@ -25362,13 +26319,16 @@
       <c r="Y18" t="n">
         <v>763</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18" t="n">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s"/>
       <c r="D19" t="n">
@@ -25437,13 +26397,16 @@
       <c r="Y19" t="n">
         <v>94</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s"/>
       <c r="D20" t="n">
@@ -25512,13 +26475,16 @@
       <c r="Y20" t="n">
         <v>161</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s"/>
       <c r="D21" t="n">
@@ -25587,10 +26553,13 @@
       <c r="Y21" t="n">
         <v>138</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s"/>
       <c r="C22" t="s"/>
@@ -25616,6 +26585,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s"/>
+      <c r="Z22" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_04_socialni_aktivity.xlsx
+++ b/ZBP_04_socialni_aktivity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>trideni</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>8.–14. 3. 2021</t>
+  </si>
+  <si>
+    <t>22.–28. 3. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -224,10 +227,10 @@
     <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
   </si>
   <si>
-    <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 23. 3. 2021</t>
+    <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 7. 4. 2021</t>
   </si>
 </sst>
 </file>
@@ -602,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA302"/>
+  <dimension ref="A1:AB302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +613,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,16 +695,19 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
         <v>0.74</v>
@@ -775,16 +781,19 @@
       <c r="AA2" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
         <v>0.28</v>
@@ -858,16 +867,19 @@
       <c r="AA3" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="n">
         <v>0.2</v>
@@ -941,16 +953,19 @@
       <c r="AA4" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
         <v>0.09</v>
@@ -1024,16 +1039,19 @@
       <c r="AA5" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="n">
         <v>0.02</v>
@@ -1107,16 +1125,19 @@
       <c r="AA6" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
         <v>0.19</v>
@@ -1190,16 +1211,19 @@
       <c r="AA7" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="n">
         <v>0.06</v>
@@ -1273,16 +1297,19 @@
       <c r="AA8" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H9" t="n">
         <v>0.05</v>
@@ -1344,16 +1371,19 @@
       <c r="AA9" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" t="n">
         <v>0.02</v>
@@ -1427,16 +1457,19 @@
       <c r="AA10" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" t="n">
         <v>0.015</v>
@@ -1510,16 +1543,19 @@
       <c r="AA11" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" t="n">
         <v>0.47</v>
@@ -1593,16 +1629,19 @@
       <c r="AA12" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" t="n">
         <v>0.12</v>
@@ -1673,16 +1712,19 @@
       <c r="AA13" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" t="n">
         <v>0.04</v>
@@ -1753,16 +1795,19 @@
       <c r="AA14" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" t="n">
         <v>0.05</v>
@@ -1836,16 +1881,19 @@
       <c r="AA15" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H16" t="n">
         <v>0.01</v>
@@ -1907,16 +1955,19 @@
       <c r="AA16" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
         <v>0.72</v>
@@ -1990,16 +2041,19 @@
       <c r="AA17" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
         <v>0.78</v>
@@ -2073,16 +2127,19 @@
       <c r="AA18" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
         <v>0.71</v>
@@ -2156,16 +2213,19 @@
       <c r="AA19" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
         <v>0.72</v>
@@ -2239,16 +2299,19 @@
       <c r="AA20" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
         <v>0.75</v>
@@ -2322,16 +2385,19 @@
       <c r="AA21" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
         <v>0.74</v>
@@ -2405,16 +2471,19 @@
       <c r="AA22" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AB22" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -2488,16 +2557,19 @@
       <c r="AA23" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AB23" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
         <v>0.79</v>
@@ -2571,16 +2643,19 @@
       <c r="AA24" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AB24" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
         <v>0.73</v>
@@ -2654,16 +2729,19 @@
       <c r="AA25" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AB25" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
         <v>0.72</v>
@@ -2737,16 +2815,19 @@
       <c r="AA26" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AB26" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
         <v>0.75</v>
@@ -2820,16 +2901,19 @@
       <c r="AA27" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AB27" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
         <v>0.71</v>
@@ -2903,16 +2987,19 @@
       <c r="AA28" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AB28" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
         <v>0.75</v>
@@ -2986,16 +3073,19 @@
       <c r="AA29" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AB29" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
         <v>0.79</v>
@@ -3069,16 +3159,19 @@
       <c r="AA30" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AB30" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" t="n">
         <v>0.78</v>
@@ -3152,16 +3245,19 @@
       <c r="AA31" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AB31" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E32" t="n">
         <v>0.8100000000000001</v>
@@ -3232,16 +3328,19 @@
       <c r="AA32" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AB32" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E33" t="n">
         <v>0.8</v>
@@ -3312,16 +3411,19 @@
       <c r="AA33" t="n">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AB33" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E34" t="n">
         <v>0.7</v>
@@ -3392,16 +3494,19 @@
       <c r="AA34" t="n">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AB34" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E35" t="n">
         <v>0.73</v>
@@ -3472,16 +3577,19 @@
       <c r="AA35" t="n">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AB35" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D36" t="n">
         <v>0.32</v>
@@ -3555,16 +3663,19 @@
       <c r="AA36" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AB36" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D37" t="n">
         <v>0.27</v>
@@ -3638,16 +3749,19 @@
       <c r="AA37" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AB37" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D38" t="n">
         <v>0.25</v>
@@ -3721,16 +3835,19 @@
       <c r="AA38" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AB38" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D39" t="n">
         <v>0.31</v>
@@ -3804,16 +3921,19 @@
       <c r="AA39" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AB39" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D40" t="n">
         <v>0.28</v>
@@ -3887,16 +4007,19 @@
       <c r="AA40" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AB40" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D41" t="n">
         <v>0.26</v>
@@ -3970,16 +4093,19 @@
       <c r="AA41" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AB41" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D42" t="n">
         <v>0.59</v>
@@ -4053,16 +4179,19 @@
       <c r="AA42" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AB42" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D43" t="n">
         <v>0.38</v>
@@ -4136,16 +4265,19 @@
       <c r="AA43" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AB43" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D44" t="n">
         <v>0.27</v>
@@ -4219,16 +4351,19 @@
       <c r="AA44" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AB44" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D45" t="n">
         <v>0.26</v>
@@ -4302,16 +4437,19 @@
       <c r="AA45" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AB45" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D46" t="n">
         <v>0.29</v>
@@ -4385,16 +4523,19 @@
       <c r="AA46" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AB46" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D47" t="n">
         <v>0.2</v>
@@ -4468,16 +4609,19 @@
       <c r="AA47" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AB47" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D48" t="n">
         <v>0.27</v>
@@ -4551,16 +4695,19 @@
       <c r="AA48" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AB48" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D49" t="n">
         <v>0.42</v>
@@ -4634,16 +4781,19 @@
       <c r="AA49" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AB49" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D50" t="n">
         <v>0.51</v>
@@ -4717,16 +4867,19 @@
       <c r="AA50" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AB50" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E51" t="n">
         <v>0.16</v>
@@ -4797,16 +4950,19 @@
       <c r="AA51" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AB51" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E52" t="n">
         <v>0.16</v>
@@ -4877,16 +5033,19 @@
       <c r="AA52" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="53" spans="1:27">
+      <c r="AB52" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E53" t="n">
         <v>0.04</v>
@@ -4957,16 +5116,19 @@
       <c r="AA53" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="54" spans="1:27">
+      <c r="AB53" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E54" t="n">
         <v>0.1</v>
@@ -5037,16 +5199,19 @@
       <c r="AA54" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="55" spans="1:27">
+      <c r="AB54" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D55" t="n">
         <v>0.18</v>
@@ -5120,16 +5285,19 @@
       <c r="AA55" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="56" spans="1:27">
+      <c r="AB55" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D56" t="n">
         <v>0.21</v>
@@ -5203,16 +5371,19 @@
       <c r="AA56" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="57" spans="1:27">
+      <c r="AB56" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D57" t="n">
         <v>0.2</v>
@@ -5286,16 +5457,19 @@
       <c r="AA57" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="58" spans="1:27">
+      <c r="AB57" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D58" t="n">
         <v>0.15</v>
@@ -5369,16 +5543,19 @@
       <c r="AA58" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="59" spans="1:27">
+      <c r="AB58" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D59" t="n">
         <v>0.19</v>
@@ -5452,16 +5629,19 @@
       <c r="AA59" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="60" spans="1:27">
+      <c r="AB59" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D60" t="n">
         <v>0.22</v>
@@ -5535,16 +5715,19 @@
       <c r="AA60" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="61" spans="1:27">
+      <c r="AB60" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D61" t="n">
         <v>0.11</v>
@@ -5618,16 +5801,19 @@
       <c r="AA61" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="62" spans="1:27">
+      <c r="AB61" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D62" t="n">
         <v>0.2</v>
@@ -5701,16 +5887,19 @@
       <c r="AA62" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="63" spans="1:27">
+      <c r="AB62" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D63" t="n">
         <v>0.2</v>
@@ -5784,16 +5973,19 @@
       <c r="AA63" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="64" spans="1:27">
+      <c r="AB63" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D64" t="n">
         <v>0.18</v>
@@ -5867,16 +6059,19 @@
       <c r="AA64" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="65" spans="1:27">
+      <c r="AB64" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D65" t="n">
         <v>0.22</v>
@@ -5950,16 +6145,19 @@
       <c r="AA65" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="66" spans="1:27">
+      <c r="AB65" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D66" t="n">
         <v>0.22</v>
@@ -6033,16 +6231,19 @@
       <c r="AA66" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="67" spans="1:27">
+      <c r="AB66" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D67" t="n">
         <v>0.17</v>
@@ -6116,16 +6317,19 @@
       <c r="AA67" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="68" spans="1:27">
+      <c r="AB67" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D68" t="n">
         <v>0.2</v>
@@ -6199,16 +6403,19 @@
       <c r="AA68" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="69" spans="1:27">
+      <c r="AB68" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D69" t="n">
         <v>0.17</v>
@@ -6282,16 +6489,19 @@
       <c r="AA69" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="70" spans="1:27">
+      <c r="AB69" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E70" t="n">
         <v>0.1</v>
@@ -6362,16 +6572,19 @@
       <c r="AA70" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="71" spans="1:27">
+      <c r="AB70" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E71" t="n">
         <v>0.08</v>
@@ -6442,16 +6655,19 @@
       <c r="AA71" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="72" spans="1:27">
+      <c r="AB71" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E72" t="n">
         <v>0.08</v>
@@ -6522,16 +6738,19 @@
       <c r="AA72" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="73" spans="1:27">
+      <c r="AB72" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E73" t="n">
         <v>0.14</v>
@@ -6602,16 +6821,19 @@
       <c r="AA73" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="74" spans="1:27">
+      <c r="AB73" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D74" t="n">
         <v>0.09</v>
@@ -6685,16 +6907,19 @@
       <c r="AA74" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="75" spans="1:27">
+      <c r="AB74" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
       <c r="A75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D75" t="n">
         <v>0.09</v>
@@ -6768,16 +6993,19 @@
       <c r="AA75" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:27">
+      <c r="AB75" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D76" t="n">
         <v>0.08</v>
@@ -6851,16 +7079,19 @@
       <c r="AA76" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="77" spans="1:27">
+      <c r="AB76" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
       <c r="A77" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D77" t="n">
         <v>0.1</v>
@@ -6934,16 +7165,19 @@
       <c r="AA77" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="78" spans="1:27">
+      <c r="AB77" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28">
       <c r="A78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D78" t="n">
         <v>0.07000000000000001</v>
@@ -7017,16 +7251,19 @@
       <c r="AA78" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="79" spans="1:27">
+      <c r="AB78" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D79" t="n">
         <v>0.09</v>
@@ -7100,16 +7337,19 @@
       <c r="AA79" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="80" spans="1:27">
+      <c r="AB79" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D80" t="n">
         <v>0.06</v>
@@ -7183,16 +7423,19 @@
       <c r="AA80" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="81" spans="1:27">
+      <c r="AB80" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D81" t="n">
         <v>0.13</v>
@@ -7266,16 +7509,19 @@
       <c r="AA81" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:27">
+      <c r="AB81" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D82" t="n">
         <v>0.09</v>
@@ -7349,16 +7595,19 @@
       <c r="AA82" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="83" spans="1:27">
+      <c r="AB82" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D83" t="n">
         <v>0.09</v>
@@ -7432,16 +7681,19 @@
       <c r="AA83" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="84" spans="1:27">
+      <c r="AB83" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D84" t="n">
         <v>0.08</v>
@@ -7515,16 +7767,19 @@
       <c r="AA84" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:27">
+      <c r="AB84" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B85" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D85" t="n">
         <v>0.07000000000000001</v>
@@ -7598,16 +7853,19 @@
       <c r="AA85" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:27">
+      <c r="AB85" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B86" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D86" t="n">
         <v>0.09</v>
@@ -7681,16 +7939,19 @@
       <c r="AA86" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="87" spans="1:27">
+      <c r="AB86" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B87" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D87" t="n">
         <v>0.11</v>
@@ -7764,16 +8025,19 @@
       <c r="AA87" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:27">
+      <c r="AB87" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
       <c r="A88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B88" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D88" t="n">
         <v>0.13</v>
@@ -7847,16 +8111,19 @@
       <c r="AA88" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="89" spans="1:27">
+      <c r="AB88" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
       <c r="A89" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B89" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E89" t="n">
         <v>0.03</v>
@@ -7927,16 +8194,19 @@
       <c r="AA89" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="90" spans="1:27">
+      <c r="AB89" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
       <c r="A90" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B90" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E90" t="n">
         <v>0.04</v>
@@ -8007,16 +8277,19 @@
       <c r="AA90" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="91" spans="1:27">
+      <c r="AB90" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
       <c r="A91" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B91" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E91" t="n">
         <v>0.02</v>
@@ -8087,16 +8360,19 @@
       <c r="AA91" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="92" spans="1:27">
+      <c r="AB91" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E92" t="n">
         <v>0.01</v>
@@ -8167,16 +8443,19 @@
       <c r="AA92" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="93" spans="1:27">
+      <c r="AB92" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
       <c r="A93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D93" t="n">
         <v>0.04</v>
@@ -8250,16 +8529,19 @@
       <c r="AA93" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="94" spans="1:27">
+      <c r="AB93" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
       <c r="A94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D94" t="n">
         <v>0.03</v>
@@ -8333,16 +8615,19 @@
       <c r="AA94" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="95" spans="1:27">
+      <c r="AB94" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28">
       <c r="A95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D95" t="n">
         <v>0.01</v>
@@ -8416,16 +8701,19 @@
       <c r="AA95" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="96" spans="1:27">
+      <c r="AB95" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
       <c r="A96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B96" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D96" t="n">
         <v>0.03</v>
@@ -8499,16 +8787,19 @@
       <c r="AA96" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="97" spans="1:27">
+      <c r="AB96" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28">
       <c r="A97" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B97" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D97" t="n">
         <v>0.03</v>
@@ -8582,16 +8873,19 @@
       <c r="AA97" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="98" spans="1:27">
+      <c r="AB97" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28">
       <c r="A98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B98" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D98" t="n">
         <v>0.02</v>
@@ -8665,16 +8959,19 @@
       <c r="AA98" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="99" spans="1:27">
+      <c r="AB98" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28">
       <c r="A99" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D99" t="n">
         <v>0.28</v>
@@ -8748,16 +9045,19 @@
       <c r="AA99" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="100" spans="1:27">
+      <c r="AB99" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28">
       <c r="A100" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D100" t="n">
         <v>0.04</v>
@@ -8831,16 +9131,19 @@
       <c r="AA100" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="101" spans="1:27">
+      <c r="AB100" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28">
       <c r="A101" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D101" t="n">
         <v>0.02</v>
@@ -8914,99 +9217,105 @@
       <c r="AA101" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="102" spans="1:27">
+      <c r="AB101" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28">
       <c r="A102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B102" t="s">
+        <v>58</v>
+      </c>
+      <c r="C102" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28">
+      <c r="A103" t="s">
         <v>57</v>
       </c>
-      <c r="C102" t="s">
-        <v>33</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O102" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P102" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="R102" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S102" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="T102" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="U102" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="V102" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="W102" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="X102" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y102" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z102" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AA102" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="103" spans="1:27">
-      <c r="A103" t="s">
-        <v>56</v>
-      </c>
       <c r="B103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D103" t="n">
         <v>0.02</v>
@@ -9080,16 +9389,19 @@
       <c r="AA103" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="104" spans="1:27">
+      <c r="AB103" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28">
       <c r="A104" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B104" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D104" t="n">
         <v>0.02</v>
@@ -9163,16 +9475,19 @@
       <c r="AA104" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="105" spans="1:27">
+      <c r="AB104" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28">
       <c r="A105" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B105" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D105" t="n">
         <v>0.02</v>
@@ -9246,16 +9561,19 @@
       <c r="AA105" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="106" spans="1:27">
+      <c r="AB105" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28">
       <c r="A106" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B106" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D106" t="n">
         <v>0.03</v>
@@ -9329,16 +9647,19 @@
       <c r="AA106" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="107" spans="1:27">
+      <c r="AB106" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28">
       <c r="A107" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B107" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D107" t="n">
         <v>0.05</v>
@@ -9412,16 +9733,19 @@
       <c r="AA107" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="108" spans="1:27">
+      <c r="AB107" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28">
       <c r="A108" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B108" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E108" t="n">
         <v>0.02</v>
@@ -9492,16 +9816,19 @@
       <c r="AA108" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="109" spans="1:27">
+      <c r="AB108" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28">
       <c r="A109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B109" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E109" t="n">
         <v>0.005</v>
@@ -9572,16 +9899,19 @@
       <c r="AA109" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="110" spans="1:27">
+      <c r="AB109" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28">
       <c r="A110" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B110" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -9652,16 +9982,19 @@
       <c r="AA110" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="111" spans="1:27">
+      <c r="AB110" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28">
       <c r="A111" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B111" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -9732,16 +10065,19 @@
       <c r="AA111" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="112" spans="1:27">
+      <c r="AB111" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28">
       <c r="A112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D112" t="n">
         <v>0.25</v>
@@ -9815,16 +10151,19 @@
       <c r="AA112" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="113" spans="1:27">
+      <c r="AB112" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28">
       <c r="A113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D113" t="n">
         <v>0.21</v>
@@ -9898,16 +10237,19 @@
       <c r="AA113" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="114" spans="1:27">
+      <c r="AB113" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28">
       <c r="A114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C114" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D114" t="n">
         <v>0.14</v>
@@ -9981,16 +10323,19 @@
       <c r="AA114" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="115" spans="1:27">
+      <c r="AB114" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28">
       <c r="A115" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D115" t="n">
         <v>0.25</v>
@@ -10064,16 +10409,19 @@
       <c r="AA115" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="116" spans="1:27">
+      <c r="AB115" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28">
       <c r="A116" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B116" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D116" t="n">
         <v>0.2</v>
@@ -10147,16 +10495,19 @@
       <c r="AA116" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="117" spans="1:27">
+      <c r="AB116" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28">
       <c r="A117" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B117" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D117" t="n">
         <v>0.16</v>
@@ -10230,16 +10581,19 @@
       <c r="AA117" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="118" spans="1:27">
+      <c r="AB117" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28">
       <c r="A118" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C118" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D118" t="n">
         <v>0.37</v>
@@ -10313,16 +10667,19 @@
       <c r="AA118" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="119" spans="1:27">
+      <c r="AB118" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28">
       <c r="A119" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D119" t="n">
         <v>0.2</v>
@@ -10396,16 +10753,19 @@
       <c r="AA119" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="120" spans="1:27">
+      <c r="AB119" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28">
       <c r="A120" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C120" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D120" t="n">
         <v>0.19</v>
@@ -10479,16 +10839,19 @@
       <c r="AA120" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="121" spans="1:27">
+      <c r="AB120" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28">
       <c r="A121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C121" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D121" t="n">
         <v>0.25</v>
@@ -10562,16 +10925,19 @@
       <c r="AA121" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="122" spans="1:27">
+      <c r="AB121" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28">
       <c r="A122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D122" t="n">
         <v>0.13</v>
@@ -10645,16 +11011,19 @@
       <c r="AA122" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="123" spans="1:27">
+      <c r="AB122" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28">
       <c r="A123" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B123" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C123" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D123" t="n">
         <v>0.17</v>
@@ -10728,16 +11097,19 @@
       <c r="AA123" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="124" spans="1:27">
+      <c r="AB123" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28">
       <c r="A124" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B124" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C124" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D124" t="n">
         <v>0.19</v>
@@ -10811,16 +11183,19 @@
       <c r="AA124" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="125" spans="1:27">
+      <c r="AB124" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28">
       <c r="A125" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B125" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D125" t="n">
         <v>0.25</v>
@@ -10894,16 +11269,19 @@
       <c r="AA125" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="126" spans="1:27">
+      <c r="AB125" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="126" spans="1:28">
       <c r="A126" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D126" t="n">
         <v>0.26</v>
@@ -10977,16 +11355,19 @@
       <c r="AA126" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="127" spans="1:27">
+      <c r="AB126" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28">
       <c r="A127" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B127" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E127" t="n">
         <v>0.02</v>
@@ -11057,16 +11438,19 @@
       <c r="AA127" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="128" spans="1:27">
+      <c r="AB127" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28">
       <c r="A128" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B128" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E128" t="n">
         <v>0.01</v>
@@ -11137,16 +11521,19 @@
       <c r="AA128" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="129" spans="1:27">
+      <c r="AB128" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28">
       <c r="A129" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B129" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E129" t="n">
         <v>0.005</v>
@@ -11217,16 +11604,19 @@
       <c r="AA129" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="130" spans="1:27">
+      <c r="AB129" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28">
       <c r="A130" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B130" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -11297,16 +11687,19 @@
       <c r="AA130" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="131" spans="1:27">
+      <c r="AB130" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28">
       <c r="A131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D131" t="n">
         <v>0.09</v>
@@ -11380,16 +11773,19 @@
       <c r="AA131" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:27">
+      <c r="AB131" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28">
       <c r="A132" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C132" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D132" t="n">
         <v>0.08</v>
@@ -11463,16 +11859,19 @@
       <c r="AA132" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="133" spans="1:27">
+      <c r="AB132" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28">
       <c r="A133" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D133" t="n">
         <v>0.04</v>
@@ -11546,16 +11945,19 @@
       <c r="AA133" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:27">
+      <c r="AB133" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28">
       <c r="A134" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D134" t="n">
         <v>0.07000000000000001</v>
@@ -11629,16 +12031,19 @@
       <c r="AA134" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="135" spans="1:27">
+      <c r="AB134" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="135" spans="1:28">
       <c r="A135" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B135" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D135" t="n">
         <v>0.07000000000000001</v>
@@ -11712,16 +12117,19 @@
       <c r="AA135" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="136" spans="1:27">
+      <c r="AB135" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="136" spans="1:28">
       <c r="A136" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B136" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D136" t="n">
         <v>0.06</v>
@@ -11795,16 +12203,19 @@
       <c r="AA136" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="137" spans="1:27">
+      <c r="AB136" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28">
       <c r="A137" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B137" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D137" t="n">
         <v>0.2</v>
@@ -11878,16 +12289,19 @@
       <c r="AA137" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="138" spans="1:27">
+      <c r="AB137" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28">
       <c r="A138" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B138" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D138" t="n">
         <v>0.13</v>
@@ -11961,16 +12375,19 @@
       <c r="AA138" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:27">
+      <c r="AB138" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="139" spans="1:28">
       <c r="A139" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B139" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D139" t="n">
         <v>0.06</v>
@@ -12044,16 +12461,19 @@
       <c r="AA139" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="140" spans="1:27">
+      <c r="AB139" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="140" spans="1:28">
       <c r="A140" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B140" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C140" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D140" t="n">
         <v>0.07000000000000001</v>
@@ -12127,16 +12547,19 @@
       <c r="AA140" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="141" spans="1:27">
+      <c r="AB140" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="141" spans="1:28">
       <c r="A141" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C141" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D141" t="n">
         <v>0.05</v>
@@ -12210,16 +12633,19 @@
       <c r="AA141" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="142" spans="1:27">
+      <c r="AB141" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="142" spans="1:28">
       <c r="A142" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B142" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D142" t="n">
         <v>0.05</v>
@@ -12293,16 +12719,19 @@
       <c r="AA142" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="143" spans="1:27">
+      <c r="AB142" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28">
       <c r="A143" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B143" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D143" t="n">
         <v>0.07000000000000001</v>
@@ -12376,16 +12805,19 @@
       <c r="AA143" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:27">
+      <c r="AB143" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="144" spans="1:28">
       <c r="A144" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B144" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C144" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D144" t="n">
         <v>0.08</v>
@@ -12459,16 +12891,19 @@
       <c r="AA144" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="145" spans="1:27">
+      <c r="AB144" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="145" spans="1:28">
       <c r="A145" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B145" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C145" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D145" t="n">
         <v>0.1</v>
@@ -12542,16 +12977,19 @@
       <c r="AA145" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="146" spans="1:27">
+      <c r="AB145" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="146" spans="1:28">
       <c r="A146" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B146" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E146" t="n">
         <v>0.01</v>
@@ -12622,16 +13060,19 @@
       <c r="AA146" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="147" spans="1:27">
+      <c r="AB146" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="147" spans="1:28">
       <c r="A147" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B147" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
@@ -12702,16 +13143,19 @@
       <c r="AA147" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="148" spans="1:27">
+      <c r="AB147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:28">
       <c r="A148" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B148" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C148" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
@@ -12782,16 +13226,19 @@
       <c r="AA148" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="149" spans="1:27">
+      <c r="AB148" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="149" spans="1:28">
       <c r="A149" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B149" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C149" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E149" t="n">
         <v>0.01</v>
@@ -12862,16 +13309,19 @@
       <c r="AA149" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:27">
+      <c r="AB149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:28">
       <c r="A150" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C150" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H150" t="n">
         <v>0.04</v>
@@ -12933,16 +13383,19 @@
       <c r="AA150" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="151" spans="1:27">
+      <c r="AB150" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="151" spans="1:28">
       <c r="A151" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B151" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C151" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H151" t="n">
         <v>0.05</v>
@@ -13004,16 +13457,19 @@
       <c r="AA151" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="152" spans="1:27">
+      <c r="AB151" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="152" spans="1:28">
       <c r="A152" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C152" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H152" t="n">
         <v>0.04</v>
@@ -13075,16 +13531,19 @@
       <c r="AA152" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="153" spans="1:27">
+      <c r="AB152" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28">
       <c r="A153" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B153" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C153" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H153" t="n">
         <v>0.05</v>
@@ -13146,16 +13605,19 @@
       <c r="AA153" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="154" spans="1:27">
+      <c r="AB153" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28">
       <c r="A154" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B154" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C154" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H154" t="n">
         <v>0.04</v>
@@ -13217,16 +13679,19 @@
       <c r="AA154" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="155" spans="1:27">
+      <c r="AB154" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="155" spans="1:28">
       <c r="A155" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B155" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C155" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H155" t="n">
         <v>0.06</v>
@@ -13288,16 +13753,19 @@
       <c r="AA155" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="156" spans="1:27">
+      <c r="AB155" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="156" spans="1:28">
       <c r="A156" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B156" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C156" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H156" t="n">
         <v>0.06</v>
@@ -13359,16 +13827,19 @@
       <c r="AA156" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="157" spans="1:27">
+      <c r="AB156" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="157" spans="1:28">
       <c r="A157" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B157" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C157" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H157" t="n">
         <v>0.05</v>
@@ -13430,16 +13901,19 @@
       <c r="AA157" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="158" spans="1:27">
+      <c r="AB157" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="158" spans="1:28">
       <c r="A158" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B158" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C158" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H158" t="n">
         <v>0.05</v>
@@ -13501,16 +13975,19 @@
       <c r="AA158" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="159" spans="1:27">
+      <c r="AB158" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28">
       <c r="A159" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B159" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C159" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H159" t="n">
         <v>0.04</v>
@@ -13572,16 +14049,19 @@
       <c r="AA159" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="160" spans="1:27">
+      <c r="AB159" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28">
       <c r="A160" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B160" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C160" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H160" t="n">
         <v>0.05</v>
@@ -13643,16 +14123,19 @@
       <c r="AA160" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="161" spans="1:27">
+      <c r="AB160" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="161" spans="1:28">
       <c r="A161" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B161" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C161" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H161" t="n">
         <v>0.05</v>
@@ -13714,16 +14197,19 @@
       <c r="AA161" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="162" spans="1:27">
+      <c r="AB161" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="162" spans="1:28">
       <c r="A162" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B162" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C162" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H162" t="n">
         <v>0.05</v>
@@ -13785,16 +14271,19 @@
       <c r="AA162" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="163" spans="1:27">
+      <c r="AB162" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="163" spans="1:28">
       <c r="A163" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B163" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C163" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H163" t="n">
         <v>0.03</v>
@@ -13856,16 +14345,19 @@
       <c r="AA163" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="164" spans="1:27">
+      <c r="AB163" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="164" spans="1:28">
       <c r="A164" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B164" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C164" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H164" t="n">
         <v>0.04</v>
@@ -13927,16 +14419,19 @@
       <c r="AA164" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="165" spans="1:27">
+      <c r="AB164" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="165" spans="1:28">
       <c r="A165" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B165" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C165" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H165" t="n">
         <v>0.03</v>
@@ -13998,16 +14493,19 @@
       <c r="AA165" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="166" spans="1:27">
+      <c r="AB165" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="166" spans="1:28">
       <c r="A166" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B166" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C166" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H166" t="n">
         <v>0.05</v>
@@ -14069,16 +14567,19 @@
       <c r="AA166" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="167" spans="1:27">
+      <c r="AB166" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="167" spans="1:28">
       <c r="A167" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B167" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C167" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H167" t="n">
         <v>0.05</v>
@@ -14140,16 +14641,19 @@
       <c r="AA167" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="168" spans="1:27">
+      <c r="AB167" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="168" spans="1:28">
       <c r="A168" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B168" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C168" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H168" t="n">
         <v>0.06</v>
@@ -14211,16 +14715,19 @@
       <c r="AA168" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:27">
+      <c r="AB168" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="169" spans="1:28">
       <c r="A169" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B169" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C169" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D169" t="n">
         <v>0.03</v>
@@ -14294,16 +14801,19 @@
       <c r="AA169" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="170" spans="1:27">
+      <c r="AB169" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="170" spans="1:28">
       <c r="A170" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B170" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C170" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D170" t="n">
         <v>0.03</v>
@@ -14377,16 +14887,19 @@
       <c r="AA170" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="171" spans="1:27">
+      <c r="AB170" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="171" spans="1:28">
       <c r="A171" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B171" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C171" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D171" t="n">
         <v>0.015</v>
@@ -14460,16 +14973,19 @@
       <c r="AA171" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:27">
+      <c r="AB171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28">
       <c r="A172" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B172" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C172" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D172" t="n">
         <v>0.02</v>
@@ -14543,16 +15059,19 @@
       <c r="AA172" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:27">
+      <c r="AB172" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28">
       <c r="A173" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B173" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C173" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D173" t="n">
         <v>0.02</v>
@@ -14626,16 +15145,19 @@
       <c r="AA173" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="174" spans="1:27">
+      <c r="AB173" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28">
       <c r="A174" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B174" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C174" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D174" t="n">
         <v>0.02</v>
@@ -14709,16 +15231,19 @@
       <c r="AA174" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="175" spans="1:27">
+      <c r="AB174" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28">
       <c r="A175" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B175" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C175" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D175" t="n">
         <v>0.09</v>
@@ -14792,16 +15317,19 @@
       <c r="AA175" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="176" spans="1:27">
+      <c r="AB175" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="176" spans="1:28">
       <c r="A176" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B176" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C176" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D176" t="n">
         <v>0.08</v>
@@ -14875,16 +15403,19 @@
       <c r="AA176" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="177" spans="1:27">
+      <c r="AB176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28">
       <c r="A177" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B177" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C177" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D177" t="n">
         <v>0.02</v>
@@ -14958,16 +15489,19 @@
       <c r="AA177" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:27">
+      <c r="AB177" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28">
       <c r="A178" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B178" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C178" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D178" t="n">
         <v>0.02</v>
@@ -15041,16 +15575,19 @@
       <c r="AA178" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="179" spans="1:27">
+      <c r="AB178" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28">
       <c r="A179" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B179" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C179" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D179" t="n">
         <v>0.02</v>
@@ -15124,16 +15661,19 @@
       <c r="AA179" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="180" spans="1:27">
+      <c r="AB179" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28">
       <c r="A180" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B180" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C180" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D180" t="n">
         <v>0.02</v>
@@ -15207,16 +15747,19 @@
       <c r="AA180" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="181" spans="1:27">
+      <c r="AB180" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="181" spans="1:28">
       <c r="A181" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B181" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C181" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D181" t="n">
         <v>0.04</v>
@@ -15290,16 +15833,19 @@
       <c r="AA181" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:27">
+      <c r="AB181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:28">
       <c r="A182" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B182" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C182" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D182" t="n">
         <v>0.02</v>
@@ -15373,16 +15919,19 @@
       <c r="AA182" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="183" spans="1:27">
+      <c r="AB182" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="183" spans="1:28">
       <c r="A183" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B183" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C183" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D183" t="n">
         <v>0.03</v>
@@ -15456,16 +16005,19 @@
       <c r="AA183" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:27">
+      <c r="AB183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:28">
       <c r="A184" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B184" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C184" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
@@ -15536,16 +16088,19 @@
       <c r="AA184" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="185" spans="1:27">
+      <c r="AB184" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="185" spans="1:28">
       <c r="A185" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B185" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C185" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -15616,16 +16171,19 @@
       <c r="AA185" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="186" spans="1:27">
+      <c r="AB185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:28">
       <c r="A186" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B186" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C186" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -15696,16 +16254,19 @@
       <c r="AA186" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="187" spans="1:27">
+      <c r="AB186" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="187" spans="1:28">
       <c r="A187" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B187" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C187" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -15776,16 +16337,19 @@
       <c r="AA187" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:27">
+      <c r="AB187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:28">
       <c r="A188" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B188" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C188" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D188" t="n">
         <v>0.02</v>
@@ -15859,16 +16423,19 @@
       <c r="AA188" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="189" spans="1:27">
+      <c r="AB188" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="189" spans="1:28">
       <c r="A189" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B189" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C189" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D189" t="n">
         <v>0.015</v>
@@ -15942,16 +16509,19 @@
       <c r="AA189" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="190" spans="1:27">
+      <c r="AB189" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="190" spans="1:28">
       <c r="A190" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C190" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D190" t="n">
         <v>0.005</v>
@@ -16025,16 +16595,19 @@
       <c r="AA190" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:27">
+      <c r="AB190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:28">
       <c r="A191" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B191" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C191" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D191" t="n">
         <v>0.005</v>
@@ -16108,16 +16681,19 @@
       <c r="AA191" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="192" spans="1:27">
+      <c r="AB191" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="192" spans="1:28">
       <c r="A192" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B192" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C192" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D192" t="n">
         <v>0.015</v>
@@ -16191,16 +16767,19 @@
       <c r="AA192" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="193" spans="1:27">
+      <c r="AB192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:28">
       <c r="A193" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B193" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C193" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D193" t="n">
         <v>0.015</v>
@@ -16274,16 +16853,19 @@
       <c r="AA193" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="194" spans="1:27">
+      <c r="AB193" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="194" spans="1:28">
       <c r="A194" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B194" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C194" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D194" t="n">
         <v>0.06</v>
@@ -16357,16 +16939,19 @@
       <c r="AA194" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="195" spans="1:27">
+      <c r="AB194" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="195" spans="1:28">
       <c r="A195" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B195" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C195" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D195" t="n">
         <v>0.07000000000000001</v>
@@ -16440,16 +17025,19 @@
       <c r="AA195" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:27">
+      <c r="AB195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:28">
       <c r="A196" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B196" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C196" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D196" t="n">
         <v>0.01</v>
@@ -16523,16 +17111,19 @@
       <c r="AA196" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:27">
+      <c r="AB196" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="197" spans="1:28">
       <c r="A197" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B197" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C197" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D197" t="n">
         <v>0.015</v>
@@ -16606,16 +17197,19 @@
       <c r="AA197" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="198" spans="1:27">
+      <c r="AB197" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="198" spans="1:28">
       <c r="A198" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B198" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C198" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D198" t="n">
         <v>0.01</v>
@@ -16689,16 +17283,19 @@
       <c r="AA198" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="199" spans="1:27">
+      <c r="AB198" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="199" spans="1:28">
       <c r="A199" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B199" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C199" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D199" t="n">
         <v>0.015</v>
@@ -16772,16 +17369,19 @@
       <c r="AA199" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="200" spans="1:27">
+      <c r="AB199" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="200" spans="1:28">
       <c r="A200" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B200" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C200" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D200" t="n">
         <v>0.01</v>
@@ -16855,16 +17455,19 @@
       <c r="AA200" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:27">
+      <c r="AB200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:28">
       <c r="A201" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B201" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C201" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D201" t="n">
         <v>0.02</v>
@@ -16938,16 +17541,19 @@
       <c r="AA201" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="202" spans="1:27">
+      <c r="AB201" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="202" spans="1:28">
       <c r="A202" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B202" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C202" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D202" t="n">
         <v>0.01</v>
@@ -17021,16 +17627,19 @@
       <c r="AA202" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:27">
+      <c r="AB202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:28">
       <c r="A203" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B203" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C203" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E203" t="n">
         <v>0</v>
@@ -17101,16 +17710,19 @@
       <c r="AA203" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="204" spans="1:27">
+      <c r="AB203" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="204" spans="1:28">
       <c r="A204" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B204" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C204" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E204" t="n">
         <v>0</v>
@@ -17181,16 +17793,19 @@
       <c r="AA204" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="205" spans="1:27">
+      <c r="AB204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:28">
       <c r="A205" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B205" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C205" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
@@ -17261,16 +17876,19 @@
       <c r="AA205" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="206" spans="1:27">
+      <c r="AB205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:28">
       <c r="A206" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B206" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C206" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
@@ -17341,16 +17959,19 @@
       <c r="AA206" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:27">
+      <c r="AB206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:28">
       <c r="A207" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B207" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C207" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D207" t="n">
         <v>0.5600000000000001</v>
@@ -17424,16 +18045,19 @@
       <c r="AA207" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="208" spans="1:27">
+      <c r="AB207" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="208" spans="1:28">
       <c r="A208" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B208" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C208" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D208" t="n">
         <v>0.47</v>
@@ -17507,16 +18131,19 @@
       <c r="AA208" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="209" spans="1:27">
+      <c r="AB208" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="209" spans="1:28">
       <c r="A209" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B209" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C209" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D209" t="n">
         <v>0.4</v>
@@ -17590,16 +18217,19 @@
       <c r="AA209" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="210" spans="1:27">
+      <c r="AB209" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="210" spans="1:28">
       <c r="A210" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B210" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C210" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D210" t="n">
         <v>0.47</v>
@@ -17673,16 +18303,19 @@
       <c r="AA210" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="211" spans="1:27">
+      <c r="AB210" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="211" spans="1:28">
       <c r="A211" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B211" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C211" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D211" t="n">
         <v>0.46</v>
@@ -17756,16 +18389,19 @@
       <c r="AA211" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="212" spans="1:27">
+      <c r="AB211" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="212" spans="1:28">
       <c r="A212" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B212" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C212" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D212" t="n">
         <v>0.47</v>
@@ -17839,16 +18475,19 @@
       <c r="AA212" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="213" spans="1:27">
+      <c r="AB212" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="213" spans="1:28">
       <c r="A213" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B213" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C213" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D213" t="n">
         <v>0.63</v>
@@ -17922,16 +18561,19 @@
       <c r="AA213" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="214" spans="1:27">
+      <c r="AB213" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="214" spans="1:28">
       <c r="A214" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B214" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C214" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D214" t="n">
         <v>0.61</v>
@@ -18005,16 +18647,19 @@
       <c r="AA214" t="n">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="215" spans="1:27">
+      <c r="AB214" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="215" spans="1:28">
       <c r="A215" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B215" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C215" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D215" t="n">
         <v>0.46</v>
@@ -18088,16 +18733,19 @@
       <c r="AA215" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="216" spans="1:27">
+      <c r="AB215" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:28">
       <c r="A216" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B216" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C216" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D216" t="n">
         <v>0.48</v>
@@ -18171,16 +18819,19 @@
       <c r="AA216" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="217" spans="1:27">
+      <c r="AB216" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="217" spans="1:28">
       <c r="A217" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B217" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C217" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D217" t="n">
         <v>0.45</v>
@@ -18254,16 +18905,19 @@
       <c r="AA217" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="218" spans="1:27">
+      <c r="AB217" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="218" spans="1:28">
       <c r="A218" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B218" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C218" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D218" t="n">
         <v>0.46</v>
@@ -18337,16 +18991,19 @@
       <c r="AA218" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="219" spans="1:27">
+      <c r="AB218" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="219" spans="1:28">
       <c r="A219" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B219" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C219" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D219" t="n">
         <v>0.49</v>
@@ -18420,16 +19077,19 @@
       <c r="AA219" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="220" spans="1:27">
+      <c r="AB219" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="220" spans="1:28">
       <c r="A220" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B220" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C220" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D220" t="n">
         <v>0.49</v>
@@ -18503,16 +19163,19 @@
       <c r="AA220" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="221" spans="1:27">
+      <c r="AB220" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="221" spans="1:28">
       <c r="A221" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B221" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C221" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D221" t="n">
         <v>0.4</v>
@@ -18586,16 +19249,19 @@
       <c r="AA221" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="222" spans="1:27">
+      <c r="AB221" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="222" spans="1:28">
       <c r="A222" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B222" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C222" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E222" t="n">
         <v>0.38</v>
@@ -18666,16 +19332,19 @@
       <c r="AA222" t="n">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="223" spans="1:27">
+      <c r="AB222" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="223" spans="1:28">
       <c r="A223" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B223" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C223" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E223" t="n">
         <v>0.41</v>
@@ -18746,16 +19415,19 @@
       <c r="AA223" t="n">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="224" spans="1:27">
+      <c r="AB223" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="224" spans="1:28">
       <c r="A224" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B224" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C224" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E224" t="n">
         <v>0.34</v>
@@ -18826,16 +19498,19 @@
       <c r="AA224" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="225" spans="1:27">
+      <c r="AB224" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:28">
       <c r="A225" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B225" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C225" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E225" t="n">
         <v>0.32</v>
@@ -18906,16 +19581,19 @@
       <c r="AA225" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="226" spans="1:27">
+      <c r="AB225" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="226" spans="1:28">
       <c r="A226" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B226" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C226" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E226" t="n">
         <v>0.17</v>
@@ -18986,16 +19664,19 @@
       <c r="AA226" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="227" spans="1:27">
+      <c r="AB226" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="227" spans="1:28">
       <c r="A227" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B227" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C227" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E227" t="n">
         <v>0.14</v>
@@ -19066,16 +19747,19 @@
       <c r="AA227" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="228" spans="1:27">
+      <c r="AB227" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="228" spans="1:28">
       <c r="A228" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B228" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C228" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E228" t="n">
         <v>0.08</v>
@@ -19146,16 +19830,19 @@
       <c r="AA228" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="229" spans="1:27">
+      <c r="AB228" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:28">
       <c r="A229" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B229" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C229" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E229" t="n">
         <v>0.16</v>
@@ -19226,16 +19913,19 @@
       <c r="AA229" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="230" spans="1:27">
+      <c r="AB229" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="230" spans="1:28">
       <c r="A230" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B230" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C230" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E230" t="n">
         <v>0.13</v>
@@ -19306,16 +19996,19 @@
       <c r="AA230" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="231" spans="1:27">
+      <c r="AB230" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="231" spans="1:28">
       <c r="A231" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B231" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C231" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E231" t="n">
         <v>0.11</v>
@@ -19386,16 +20079,19 @@
       <c r="AA231" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="232" spans="1:27">
+      <c r="AB231" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="232" spans="1:28">
       <c r="A232" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B232" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C232" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E232" t="n">
         <v>0.06</v>
@@ -19466,16 +20162,19 @@
       <c r="AA232" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="233" spans="1:27">
+      <c r="AB232" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="233" spans="1:28">
       <c r="A233" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B233" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C233" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E233" t="n">
         <v>0.18</v>
@@ -19546,16 +20245,19 @@
       <c r="AA233" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="234" spans="1:27">
+      <c r="AB233" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="234" spans="1:28">
       <c r="A234" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B234" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C234" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E234" t="n">
         <v>0.12</v>
@@ -19626,16 +20328,19 @@
       <c r="AA234" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="235" spans="1:27">
+      <c r="AB234" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="235" spans="1:28">
       <c r="A235" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B235" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C235" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E235" t="n">
         <v>0.14</v>
@@ -19706,16 +20411,19 @@
       <c r="AA235" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="236" spans="1:27">
+      <c r="AB235" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="236" spans="1:28">
       <c r="A236" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B236" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C236" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E236" t="n">
         <v>0.11</v>
@@ -19786,16 +20494,19 @@
       <c r="AA236" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="237" spans="1:27">
+      <c r="AB236" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="237" spans="1:28">
       <c r="A237" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B237" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C237" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E237" t="n">
         <v>0.11</v>
@@ -19866,16 +20577,19 @@
       <c r="AA237" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="238" spans="1:27">
+      <c r="AB237" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:28">
       <c r="A238" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B238" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C238" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E238" t="n">
         <v>0.12</v>
@@ -19946,16 +20660,19 @@
       <c r="AA238" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="239" spans="1:27">
+      <c r="AB238" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:28">
       <c r="A239" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B239" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C239" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E239" t="n">
         <v>0.16</v>
@@ -20026,16 +20743,19 @@
       <c r="AA239" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="240" spans="1:27">
+      <c r="AB239" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="240" spans="1:28">
       <c r="A240" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B240" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C240" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E240" t="n">
         <v>0.15</v>
@@ -20106,16 +20826,19 @@
       <c r="AA240" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="241" spans="1:27">
+      <c r="AB240" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="241" spans="1:28">
       <c r="A241" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B241" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C241" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E241" t="n">
         <v>0.15</v>
@@ -20186,16 +20909,19 @@
       <c r="AA241" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="242" spans="1:27">
+      <c r="AB241" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="242" spans="1:28">
       <c r="A242" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B242" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C242" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E242" t="n">
         <v>0.18</v>
@@ -20266,16 +20992,19 @@
       <c r="AA242" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="243" spans="1:27">
+      <c r="AB242" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="243" spans="1:28">
       <c r="A243" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B243" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C243" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E243" t="n">
         <v>0.12</v>
@@ -20346,16 +21075,19 @@
       <c r="AA243" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="244" spans="1:27">
+      <c r="AB243" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="244" spans="1:28">
       <c r="A244" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B244" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C244" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E244" t="n">
         <v>0.14</v>
@@ -20426,16 +21158,19 @@
       <c r="AA244" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="245" spans="1:27">
+      <c r="AB244" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="245" spans="1:28">
       <c r="A245" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B245" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C245" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E245" t="n">
         <v>0.04</v>
@@ -20506,16 +21241,19 @@
       <c r="AA245" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="246" spans="1:27">
+      <c r="AB245" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="246" spans="1:28">
       <c r="A246" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B246" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C246" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E246" t="n">
         <v>0.04</v>
@@ -20586,16 +21324,19 @@
       <c r="AA246" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="247" spans="1:27">
+      <c r="AB246" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="247" spans="1:28">
       <c r="A247" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B247" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C247" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E247" t="n">
         <v>0.03</v>
@@ -20666,16 +21407,19 @@
       <c r="AA247" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="248" spans="1:27">
+      <c r="AB247" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="248" spans="1:28">
       <c r="A248" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B248" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C248" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E248" t="n">
         <v>0.04</v>
@@ -20746,16 +21490,19 @@
       <c r="AA248" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="249" spans="1:27">
+      <c r="AB248" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:28">
       <c r="A249" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B249" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C249" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E249" t="n">
         <v>0.04</v>
@@ -20826,16 +21573,19 @@
       <c r="AA249" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="250" spans="1:27">
+      <c r="AB249" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="250" spans="1:28">
       <c r="A250" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B250" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C250" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E250" t="n">
         <v>0.03</v>
@@ -20906,16 +21656,19 @@
       <c r="AA250" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="251" spans="1:27">
+      <c r="AB250" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="251" spans="1:28">
       <c r="A251" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B251" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C251" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
@@ -20986,16 +21739,19 @@
       <c r="AA251" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="252" spans="1:27">
+      <c r="AB251" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="252" spans="1:28">
       <c r="A252" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B252" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C252" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E252" t="n">
         <v>0.05</v>
@@ -21066,16 +21822,19 @@
       <c r="AA252" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="253" spans="1:27">
+      <c r="AB252" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="253" spans="1:28">
       <c r="A253" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B253" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C253" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E253" t="n">
         <v>0.03</v>
@@ -21146,16 +21905,19 @@
       <c r="AA253" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="254" spans="1:27">
+      <c r="AB253" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="254" spans="1:28">
       <c r="A254" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B254" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C254" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E254" t="n">
         <v>0.04</v>
@@ -21226,16 +21988,19 @@
       <c r="AA254" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="255" spans="1:27">
+      <c r="AB254" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="255" spans="1:28">
       <c r="A255" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B255" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C255" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E255" t="n">
         <v>0.03</v>
@@ -21306,16 +22071,19 @@
       <c r="AA255" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="256" spans="1:27">
+      <c r="AB255" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="256" spans="1:28">
       <c r="A256" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B256" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C256" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E256" t="n">
         <v>0.03</v>
@@ -21386,16 +22154,19 @@
       <c r="AA256" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="257" spans="1:27">
+      <c r="AB256" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="257" spans="1:28">
       <c r="A257" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B257" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C257" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E257" t="n">
         <v>0.04</v>
@@ -21466,16 +22237,19 @@
       <c r="AA257" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="258" spans="1:27">
+      <c r="AB257" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="258" spans="1:28">
       <c r="A258" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B258" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C258" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E258" t="n">
         <v>0.03</v>
@@ -21546,16 +22320,19 @@
       <c r="AA258" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="259" spans="1:27">
+      <c r="AB258" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:28">
       <c r="A259" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B259" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C259" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E259" t="n">
         <v>0.06</v>
@@ -21626,16 +22403,19 @@
       <c r="AA259" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="260" spans="1:27">
+      <c r="AB259" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="260" spans="1:28">
       <c r="A260" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B260" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C260" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E260" t="n">
         <v>0.05</v>
@@ -21706,16 +22486,19 @@
       <c r="AA260" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="261" spans="1:27">
+      <c r="AB260" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="261" spans="1:28">
       <c r="A261" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B261" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C261" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E261" t="n">
         <v>0.02</v>
@@ -21786,16 +22569,19 @@
       <c r="AA261" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="262" spans="1:27">
+      <c r="AB261" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="262" spans="1:28">
       <c r="A262" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B262" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C262" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E262" t="n">
         <v>0.03</v>
@@ -21866,16 +22652,19 @@
       <c r="AA262" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="263" spans="1:27">
+      <c r="AB262" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="263" spans="1:28">
       <c r="A263" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B263" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C263" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E263" t="n">
         <v>0.05</v>
@@ -21946,16 +22735,19 @@
       <c r="AA263" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="264" spans="1:27">
+      <c r="AB263" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="264" spans="1:28">
       <c r="A264" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B264" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C264" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D264" t="n">
         <v>0.08</v>
@@ -22029,16 +22821,19 @@
       <c r="AA264" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="265" spans="1:27">
+      <c r="AB264" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:28">
       <c r="A265" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B265" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C265" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D265" t="n">
         <v>0.05</v>
@@ -22112,16 +22907,19 @@
       <c r="AA265" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="266" spans="1:27">
+      <c r="AB265" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="266" spans="1:28">
       <c r="A266" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B266" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C266" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D266" t="n">
         <v>0.03</v>
@@ -22195,16 +22993,19 @@
       <c r="AA266" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="267" spans="1:27">
+      <c r="AB266" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="267" spans="1:28">
       <c r="A267" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B267" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C267" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D267" t="n">
         <v>0.04</v>
@@ -22278,16 +23079,19 @@
       <c r="AA267" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="268" spans="1:27">
+      <c r="AB267" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="268" spans="1:28">
       <c r="A268" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B268" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C268" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D268" t="n">
         <v>0.05</v>
@@ -22361,16 +23165,19 @@
       <c r="AA268" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="269" spans="1:27">
+      <c r="AB268" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="269" spans="1:28">
       <c r="A269" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B269" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C269" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D269" t="n">
         <v>0.05</v>
@@ -22444,16 +23251,19 @@
       <c r="AA269" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="270" spans="1:27">
+      <c r="AB269" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="270" spans="1:28">
       <c r="A270" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B270" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C270" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D270" t="n">
         <v>0.32</v>
@@ -22527,16 +23337,19 @@
       <c r="AA270" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="271" spans="1:27">
+      <c r="AB270" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="271" spans="1:28">
       <c r="A271" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B271" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C271" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D271" t="n">
         <v>0.1</v>
@@ -22610,16 +23423,19 @@
       <c r="AA271" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="272" spans="1:27">
+      <c r="AB271" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="272" spans="1:28">
       <c r="A272" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B272" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C272" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D272" t="n">
         <v>0.04</v>
@@ -22693,16 +23509,19 @@
       <c r="AA272" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="273" spans="1:27">
+      <c r="AB272" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="273" spans="1:28">
       <c r="A273" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B273" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C273" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D273" t="n">
         <v>0.05</v>
@@ -22776,16 +23595,19 @@
       <c r="AA273" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="274" spans="1:27">
+      <c r="AB273" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="274" spans="1:28">
       <c r="A274" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B274" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C274" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D274" t="n">
         <v>0.05</v>
@@ -22859,16 +23681,19 @@
       <c r="AA274" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="275" spans="1:27">
+      <c r="AB274" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="275" spans="1:28">
       <c r="A275" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B275" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C275" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D275" t="n">
         <v>0.04</v>
@@ -22942,16 +23767,19 @@
       <c r="AA275" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="276" spans="1:27">
+      <c r="AB275" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="276" spans="1:28">
       <c r="A276" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B276" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C276" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D276" t="n">
         <v>0.06</v>
@@ -23025,16 +23853,19 @@
       <c r="AA276" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="277" spans="1:27">
+      <c r="AB276" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="277" spans="1:28">
       <c r="A277" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B277" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C277" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D277" t="n">
         <v>0.06</v>
@@ -23108,16 +23939,19 @@
       <c r="AA277" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="278" spans="1:27">
+      <c r="AB277" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="278" spans="1:28">
       <c r="A278" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B278" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C278" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D278" t="n">
         <v>0.06</v>
@@ -23191,16 +24025,19 @@
       <c r="AA278" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="279" spans="1:27">
+      <c r="AB278" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="279" spans="1:28">
       <c r="A279" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B279" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C279" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E279" t="n">
         <v>0.03</v>
@@ -23271,16 +24108,19 @@
       <c r="AA279" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="280" spans="1:27">
+      <c r="AB279" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="280" spans="1:28">
       <c r="A280" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B280" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C280" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E280" t="n">
         <v>0.04</v>
@@ -23351,16 +24191,19 @@
       <c r="AA280" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="281" spans="1:27">
+      <c r="AB280" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="281" spans="1:28">
       <c r="A281" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B281" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C281" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E281" t="n">
         <v>0.015</v>
@@ -23431,16 +24274,19 @@
       <c r="AA281" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="282" spans="1:27">
+      <c r="AB281" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="282" spans="1:28">
       <c r="A282" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B282" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C282" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E282" t="n">
         <v>0.005</v>
@@ -23511,16 +24357,19 @@
       <c r="AA282" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="283" spans="1:27">
+      <c r="AB282" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="283" spans="1:28">
       <c r="A283" t="s">
+        <v>45</v>
+      </c>
+      <c r="B283" t="s">
+        <v>46</v>
+      </c>
+      <c r="C283" t="s">
         <v>44</v>
-      </c>
-      <c r="B283" t="s">
-        <v>45</v>
-      </c>
-      <c r="C283" t="s">
-        <v>43</v>
       </c>
       <c r="H283" t="n">
         <v>0.02</v>
@@ -23582,16 +24431,19 @@
       <c r="AA283" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="284" spans="1:27">
+      <c r="AB283" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="284" spans="1:28">
       <c r="A284" t="s">
+        <v>45</v>
+      </c>
+      <c r="B284" t="s">
+        <v>47</v>
+      </c>
+      <c r="C284" t="s">
         <v>44</v>
-      </c>
-      <c r="B284" t="s">
-        <v>46</v>
-      </c>
-      <c r="C284" t="s">
-        <v>43</v>
       </c>
       <c r="H284" t="n">
         <v>0.015</v>
@@ -23653,16 +24505,19 @@
       <c r="AA284" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="285" spans="1:27">
+      <c r="AB284" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="285" spans="1:28">
       <c r="A285" t="s">
+        <v>45</v>
+      </c>
+      <c r="B285" t="s">
+        <v>48</v>
+      </c>
+      <c r="C285" t="s">
         <v>44</v>
-      </c>
-      <c r="B285" t="s">
-        <v>47</v>
-      </c>
-      <c r="C285" t="s">
-        <v>43</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -23724,16 +24579,19 @@
       <c r="AA285" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:27">
+      <c r="AB285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:28">
       <c r="A286" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B286" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C286" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -23795,16 +24653,19 @@
       <c r="AA286" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="287" spans="1:27">
+      <c r="AB286" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="287" spans="1:28">
       <c r="A287" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B287" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C287" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H287" t="n">
         <v>0.005</v>
@@ -23866,16 +24727,19 @@
       <c r="AA287" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="288" spans="1:27">
+      <c r="AB287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:28">
       <c r="A288" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B288" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C288" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H288" t="n">
         <v>0.03</v>
@@ -23937,16 +24801,19 @@
       <c r="AA288" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="289" spans="1:27">
+      <c r="AB288" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="289" spans="1:28">
       <c r="A289" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B289" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C289" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H289" t="n">
         <v>0.05</v>
@@ -24008,16 +24875,19 @@
       <c r="AA289" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="290" spans="1:27">
+      <c r="AB289" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="290" spans="1:28">
       <c r="A290" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B290" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C290" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H290" t="n">
         <v>0.005</v>
@@ -24079,16 +24949,19 @@
       <c r="AA290" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="291" spans="1:27">
+      <c r="AB290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:28">
       <c r="A291" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B291" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C291" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H291" t="n">
         <v>0.01</v>
@@ -24150,16 +25023,19 @@
       <c r="AA291" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="292" spans="1:27">
+      <c r="AB291" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="292" spans="1:28">
       <c r="A292" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B292" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C292" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H292" t="n">
         <v>0.01</v>
@@ -24221,16 +25097,19 @@
       <c r="AA292" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="293" spans="1:27">
+      <c r="AB292" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="293" spans="1:28">
       <c r="A293" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B293" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C293" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H293" t="n">
         <v>0.01</v>
@@ -24292,87 +25171,93 @@
       <c r="AA293" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="294" spans="1:27">
+      <c r="AB293" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="294" spans="1:28">
       <c r="A294" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B294" t="s">
+        <v>61</v>
+      </c>
+      <c r="C294" t="s">
+        <v>44</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L294" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M294" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N294" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="O294" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="P294" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R294" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S294" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T294" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="U294" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="V294" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="W294" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X294" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="295" spans="1:28">
+      <c r="A295" t="s">
         <v>60</v>
       </c>
-      <c r="C294" t="s">
-        <v>43</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="I294" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J294" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="K294" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L294" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M294" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N294" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O294" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="P294" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q294" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="R294" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S294" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T294" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="U294" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="V294" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W294" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="X294" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Y294" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z294" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AA294" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="295" spans="1:27">
-      <c r="A295" t="s">
-        <v>59</v>
-      </c>
       <c r="B295" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C295" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H295" t="n">
         <v>0.005</v>
@@ -24434,16 +25319,19 @@
       <c r="AA295" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="296" spans="1:27">
+      <c r="AB295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:28">
       <c r="A296" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B296" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C296" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H296" t="n">
         <v>0.005</v>
@@ -24505,16 +25393,19 @@
       <c r="AA296" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="297" spans="1:27">
+      <c r="AB296" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="297" spans="1:28">
       <c r="A297" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B297" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C297" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H297" t="n">
         <v>0.005</v>
@@ -24576,16 +25467,19 @@
       <c r="AA297" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="298" spans="1:27">
+      <c r="AB297" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="298" spans="1:28">
       <c r="A298" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B298" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C298" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H298" t="n">
         <v>0.01</v>
@@ -24647,16 +25541,19 @@
       <c r="AA298" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="299" spans="1:27">
+      <c r="AB298" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="299" spans="1:28">
       <c r="A299" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B299" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C299" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H299" t="n">
         <v>0.02</v>
@@ -24718,16 +25615,19 @@
       <c r="AA299" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="300" spans="1:27">
+      <c r="AB299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:28">
       <c r="A300" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B300" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C300" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H300" t="n">
         <v>0.02</v>
@@ -24789,16 +25689,19 @@
       <c r="AA300" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:27">
+      <c r="AB300" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="301" spans="1:28">
       <c r="A301" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B301" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C301" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H301" t="n">
         <v>0.02</v>
@@ -24860,10 +25763,13 @@
       <c r="AA301" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:27">
+      <c r="AB301" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="302" spans="1:28">
       <c r="A302" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -24877,7 +25783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24885,7 +25791,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -24964,13 +25870,16 @@
       <c r="Z1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AA1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -25044,13 +25953,16 @@
       <c r="Z2" t="n">
         <v>2101</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="n">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -25124,13 +26036,16 @@
       <c r="Z3" t="n">
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="n">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -25204,13 +26119,16 @@
       <c r="Z4" t="n">
         <v>776</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="n">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -25284,13 +26202,16 @@
       <c r="Z5" t="n">
         <v>825</v>
       </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="n">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="n">
         <v>665</v>
@@ -25364,13 +26285,16 @@
       <c r="Z6" t="n">
         <v>345</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" t="n">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" t="n">
         <v>885</v>
@@ -25444,13 +26368,16 @@
       <c r="Z7" t="n">
         <v>738</v>
       </c>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" t="n">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8" t="n">
         <v>1551</v>
@@ -25524,13 +26451,16 @@
       <c r="Z8" t="n">
         <v>1018</v>
       </c>
-    </row>
-    <row r="9" spans="1:26">
+      <c r="AA8" t="n">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" t="n">
         <v>11</v>
@@ -25604,13 +26534,16 @@
       <c r="Z9" t="n">
         <v>676</v>
       </c>
-    </row>
-    <row r="10" spans="1:26">
+      <c r="AA9" t="n">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" t="n">
         <v>102</v>
@@ -25684,13 +26617,16 @@
       <c r="Z10" t="n">
         <v>744</v>
       </c>
-    </row>
-    <row r="11" spans="1:26">
+      <c r="AA10" t="n">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" t="n">
         <v>2988</v>
@@ -25764,13 +26700,16 @@
       <c r="Z11" t="n">
         <v>681</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" t="n">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" t="n">
         <v>1514</v>
@@ -25844,13 +26783,16 @@
       <c r="Z12" t="n">
         <v>1015</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" t="n">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" t="n">
         <v>1587</v>
@@ -25924,13 +26866,16 @@
       <c r="Z13" t="n">
         <v>1086</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" t="n">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C14" t="n">
         <v>1726</v>
@@ -26004,13 +26949,16 @@
       <c r="Z14" t="n">
         <v>1104</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" t="n">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C15" t="n">
         <v>667</v>
@@ -26084,13 +27032,16 @@
       <c r="Z15" t="n">
         <v>478</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" t="n">
         <v>333</v>
@@ -26164,13 +27115,16 @@
       <c r="Z16" t="n">
         <v>242</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" t="n">
         <v>375</v>
@@ -26244,13 +27198,16 @@
       <c r="Z17" t="n">
         <v>277</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s"/>
       <c r="D18" t="n">
@@ -26322,13 +27279,16 @@
       <c r="Z18" t="n">
         <v>682</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" t="n">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s"/>
       <c r="D19" t="n">
@@ -26400,13 +27360,16 @@
       <c r="Z19" t="n">
         <v>105</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s"/>
       <c r="D20" t="n">
@@ -26478,13 +27441,16 @@
       <c r="Z20" t="n">
         <v>205</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s"/>
       <c r="D21" t="n">
@@ -26556,10 +27522,13 @@
       <c r="Z21" t="n">
         <v>168</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s"/>
       <c r="C22" t="s"/>
@@ -26586,6 +27555,7 @@
       <c r="X22" t="s"/>
       <c r="Y22" t="s"/>
       <c r="Z22" t="s"/>
+      <c r="AA22" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_04_socialni_aktivity.xlsx
+++ b/ZBP_04_socialni_aktivity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
     <t>trideni</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>22.–28. 3. 2021</t>
+  </si>
+  <si>
+    <t>5.–11. 4. 2021</t>
+  </si>
+  <si>
+    <t>26. 4.–2. 5. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -227,10 +233,10 @@
     <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
   </si>
   <si>
-    <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 7. 4. 2021</t>
+    <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 11. 5. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 7. 4. 2021</t>
+    <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
   </si>
 </sst>
 </file>
@@ -605,7 +611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB302"/>
+  <dimension ref="A1:AD302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,7 +619,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,16 +704,22 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
         <v>0.74</v>
@@ -784,16 +796,22 @@
       <c r="AB2" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:28">
+      <c r="AC2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
         <v>0.28</v>
@@ -870,16 +888,22 @@
       <c r="AB3" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="AC3" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
         <v>0.2</v>
@@ -956,16 +980,22 @@
       <c r="AB4" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="AC4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
         <v>0.09</v>
@@ -1042,16 +1072,22 @@
       <c r="AB5" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="6" spans="1:28">
+      <c r="AC5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
         <v>0.02</v>
@@ -1128,16 +1164,22 @@
       <c r="AB6" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="AC6" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" t="n">
         <v>0.19</v>
@@ -1214,16 +1256,22 @@
       <c r="AB7" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="8" spans="1:28">
+      <c r="AC7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" t="n">
         <v>0.06</v>
@@ -1300,16 +1348,22 @@
       <c r="AB8" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="AC8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H9" t="n">
         <v>0.05</v>
@@ -1374,16 +1428,22 @@
       <c r="AB9" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="10" spans="1:28">
+      <c r="AC9" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D10" t="n">
         <v>0.02</v>
@@ -1460,16 +1520,22 @@
       <c r="AB10" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="AC10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" t="n">
         <v>0.015</v>
@@ -1546,16 +1612,22 @@
       <c r="AB11" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="12" spans="1:28">
+      <c r="AC11" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" t="n">
         <v>0.47</v>
@@ -1632,16 +1704,22 @@
       <c r="AB12" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="AC12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" t="n">
         <v>0.12</v>
@@ -1715,16 +1793,22 @@
       <c r="AB13" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="AC13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E14" t="n">
         <v>0.04</v>
@@ -1798,16 +1882,22 @@
       <c r="AB14" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="AC14" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" t="n">
         <v>0.05</v>
@@ -1884,16 +1974,22 @@
       <c r="AB15" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="AC15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H16" t="n">
         <v>0.01</v>
@@ -1958,16 +2054,22 @@
       <c r="AB16" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="AC16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" t="n">
         <v>0.72</v>
@@ -2044,16 +2146,22 @@
       <c r="AB17" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="AC17" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" t="n">
         <v>0.78</v>
@@ -2130,16 +2238,22 @@
       <c r="AB18" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="AC18" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D19" t="n">
         <v>0.71</v>
@@ -2216,16 +2330,22 @@
       <c r="AB19" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="20" spans="1:28">
+      <c r="AC19" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" t="n">
         <v>0.72</v>
@@ -2302,16 +2422,22 @@
       <c r="AB20" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="AC20" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" t="n">
         <v>0.75</v>
@@ -2388,16 +2514,22 @@
       <c r="AB21" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="AC21" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D22" t="n">
         <v>0.74</v>
@@ -2474,16 +2606,22 @@
       <c r="AB22" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="AC22" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -2560,16 +2698,22 @@
       <c r="AB23" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="24" spans="1:28">
+      <c r="AC23" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
         <v>0.79</v>
@@ -2646,16 +2790,22 @@
       <c r="AB24" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="25" spans="1:28">
+      <c r="AC24" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
         <v>0.73</v>
@@ -2732,16 +2882,22 @@
       <c r="AB25" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="26" spans="1:28">
+      <c r="AC25" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26" t="n">
         <v>0.72</v>
@@ -2818,16 +2974,22 @@
       <c r="AB26" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="27" spans="1:28">
+      <c r="AC26" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27" t="n">
         <v>0.75</v>
@@ -2904,16 +3066,22 @@
       <c r="AB27" t="n">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:28">
+      <c r="AC27" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D28" t="n">
         <v>0.71</v>
@@ -2990,16 +3158,22 @@
       <c r="AB28" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="29" spans="1:28">
+      <c r="AC28" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29" t="n">
         <v>0.75</v>
@@ -3076,16 +3250,22 @@
       <c r="AB29" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="30" spans="1:28">
+      <c r="AC29" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D30" t="n">
         <v>0.79</v>
@@ -3162,16 +3342,22 @@
       <c r="AB30" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="31" spans="1:28">
+      <c r="AC30" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D31" t="n">
         <v>0.78</v>
@@ -3248,16 +3434,22 @@
       <c r="AB31" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="32" spans="1:28">
+      <c r="AC31" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E32" t="n">
         <v>0.8100000000000001</v>
@@ -3331,16 +3523,22 @@
       <c r="AB32" t="n">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="33" spans="1:28">
+      <c r="AC32" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E33" t="n">
         <v>0.8</v>
@@ -3414,16 +3612,22 @@
       <c r="AB33" t="n">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="34" spans="1:28">
+      <c r="AC33" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E34" t="n">
         <v>0.7</v>
@@ -3497,16 +3701,22 @@
       <c r="AB34" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="35" spans="1:28">
+      <c r="AC34" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E35" t="n">
         <v>0.73</v>
@@ -3580,16 +3790,22 @@
       <c r="AB35" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="36" spans="1:28">
+      <c r="AC35" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D36" t="n">
         <v>0.32</v>
@@ -3666,16 +3882,22 @@
       <c r="AB36" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="37" spans="1:28">
+      <c r="AC36" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D37" t="n">
         <v>0.27</v>
@@ -3752,16 +3974,22 @@
       <c r="AB37" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="38" spans="1:28">
+      <c r="AC37" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D38" t="n">
         <v>0.25</v>
@@ -3838,16 +4066,22 @@
       <c r="AB38" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="39" spans="1:28">
+      <c r="AC38" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D39" t="n">
         <v>0.31</v>
@@ -3924,16 +4158,22 @@
       <c r="AB39" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="40" spans="1:28">
+      <c r="AC39" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D40" t="n">
         <v>0.28</v>
@@ -4010,16 +4250,22 @@
       <c r="AB40" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="41" spans="1:28">
+      <c r="AC40" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D41" t="n">
         <v>0.26</v>
@@ -4096,16 +4342,22 @@
       <c r="AB41" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="42" spans="1:28">
+      <c r="AC41" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D42" t="n">
         <v>0.59</v>
@@ -4182,16 +4434,22 @@
       <c r="AB42" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="43" spans="1:28">
+      <c r="AC42" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D43" t="n">
         <v>0.38</v>
@@ -4268,16 +4526,22 @@
       <c r="AB43" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="44" spans="1:28">
+      <c r="AC43" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D44" t="n">
         <v>0.27</v>
@@ -4354,16 +4618,22 @@
       <c r="AB44" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="45" spans="1:28">
+      <c r="AC44" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D45" t="n">
         <v>0.26</v>
@@ -4440,16 +4710,22 @@
       <c r="AB45" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="46" spans="1:28">
+      <c r="AC45" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D46" t="n">
         <v>0.29</v>
@@ -4526,16 +4802,22 @@
       <c r="AB46" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="47" spans="1:28">
+      <c r="AC46" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D47" t="n">
         <v>0.2</v>
@@ -4612,16 +4894,22 @@
       <c r="AB47" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="48" spans="1:28">
+      <c r="AC47" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D48" t="n">
         <v>0.27</v>
@@ -4698,16 +4986,22 @@
       <c r="AB48" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="49" spans="1:28">
+      <c r="AC48" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D49" t="n">
         <v>0.42</v>
@@ -4784,16 +5078,22 @@
       <c r="AB49" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="50" spans="1:28">
+      <c r="AC49" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D50" t="n">
         <v>0.51</v>
@@ -4870,16 +5170,22 @@
       <c r="AB50" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="51" spans="1:28">
+      <c r="AC50" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E51" t="n">
         <v>0.16</v>
@@ -4953,16 +5259,22 @@
       <c r="AB51" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="52" spans="1:28">
+      <c r="AC51" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E52" t="n">
         <v>0.16</v>
@@ -5036,16 +5348,22 @@
       <c r="AB52" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="53" spans="1:28">
+      <c r="AC52" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E53" t="n">
         <v>0.04</v>
@@ -5119,16 +5437,22 @@
       <c r="AB53" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="54" spans="1:28">
+      <c r="AC53" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E54" t="n">
         <v>0.1</v>
@@ -5202,16 +5526,22 @@
       <c r="AB54" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:28">
+      <c r="AC54" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D55" t="n">
         <v>0.18</v>
@@ -5288,16 +5618,22 @@
       <c r="AB55" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="56" spans="1:28">
+      <c r="AC55" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D56" t="n">
         <v>0.21</v>
@@ -5374,16 +5710,22 @@
       <c r="AB56" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="57" spans="1:28">
+      <c r="AC56" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D57" t="n">
         <v>0.2</v>
@@ -5460,16 +5802,22 @@
       <c r="AB57" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="58" spans="1:28">
+      <c r="AC57" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D58" t="n">
         <v>0.15</v>
@@ -5546,16 +5894,22 @@
       <c r="AB58" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="59" spans="1:28">
+      <c r="AC58" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D59" t="n">
         <v>0.19</v>
@@ -5632,16 +5986,22 @@
       <c r="AB59" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="60" spans="1:28">
+      <c r="AC59" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D60" t="n">
         <v>0.22</v>
@@ -5718,16 +6078,22 @@
       <c r="AB60" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="61" spans="1:28">
+      <c r="AC60" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D61" t="n">
         <v>0.11</v>
@@ -5804,16 +6170,22 @@
       <c r="AB61" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="62" spans="1:28">
+      <c r="AC61" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D62" t="n">
         <v>0.2</v>
@@ -5890,16 +6262,22 @@
       <c r="AB62" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="63" spans="1:28">
+      <c r="AC62" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30">
       <c r="A63" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D63" t="n">
         <v>0.2</v>
@@ -5976,16 +6354,22 @@
       <c r="AB63" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="64" spans="1:28">
+      <c r="AC63" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D64" t="n">
         <v>0.18</v>
@@ -6062,16 +6446,22 @@
       <c r="AB64" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="65" spans="1:28">
+      <c r="AC64" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D65" t="n">
         <v>0.22</v>
@@ -6148,16 +6538,22 @@
       <c r="AB65" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="66" spans="1:28">
+      <c r="AC65" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D66" t="n">
         <v>0.22</v>
@@ -6234,16 +6630,22 @@
       <c r="AB66" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="67" spans="1:28">
+      <c r="AC66" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D67" t="n">
         <v>0.17</v>
@@ -6320,16 +6722,22 @@
       <c r="AB67" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="68" spans="1:28">
+      <c r="AC67" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D68" t="n">
         <v>0.2</v>
@@ -6406,16 +6814,22 @@
       <c r="AB68" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="69" spans="1:28">
+      <c r="AC68" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D69" t="n">
         <v>0.17</v>
@@ -6492,16 +6906,22 @@
       <c r="AB69" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="70" spans="1:28">
+      <c r="AC69" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E70" t="n">
         <v>0.1</v>
@@ -6575,16 +6995,22 @@
       <c r="AB70" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="71" spans="1:28">
+      <c r="AC70" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E71" t="n">
         <v>0.08</v>
@@ -6658,16 +7084,22 @@
       <c r="AB71" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="72" spans="1:28">
+      <c r="AC71" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30">
       <c r="A72" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E72" t="n">
         <v>0.08</v>
@@ -6741,16 +7173,22 @@
       <c r="AB72" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="73" spans="1:28">
+      <c r="AC72" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30">
       <c r="A73" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E73" t="n">
         <v>0.14</v>
@@ -6824,16 +7262,22 @@
       <c r="AB73" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="74" spans="1:28">
+      <c r="AC73" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30">
       <c r="A74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B74" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D74" t="n">
         <v>0.09</v>
@@ -6910,16 +7354,22 @@
       <c r="AB74" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="75" spans="1:28">
+      <c r="AC74" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30">
       <c r="A75" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D75" t="n">
         <v>0.09</v>
@@ -6996,16 +7446,22 @@
       <c r="AB75" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:28">
+      <c r="AC75" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30">
       <c r="A76" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B76" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D76" t="n">
         <v>0.08</v>
@@ -7082,16 +7538,22 @@
       <c r="AB76" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="77" spans="1:28">
+      <c r="AC76" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30">
       <c r="A77" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D77" t="n">
         <v>0.1</v>
@@ -7168,16 +7630,22 @@
       <c r="AB77" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="78" spans="1:28">
+      <c r="AC77" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30">
       <c r="A78" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B78" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D78" t="n">
         <v>0.07000000000000001</v>
@@ -7254,16 +7722,22 @@
       <c r="AB78" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="79" spans="1:28">
+      <c r="AC78" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30">
       <c r="A79" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B79" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D79" t="n">
         <v>0.09</v>
@@ -7340,16 +7814,22 @@
       <c r="AB79" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="80" spans="1:28">
+      <c r="AC79" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30">
       <c r="A80" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B80" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D80" t="n">
         <v>0.06</v>
@@ -7426,16 +7906,22 @@
       <c r="AB80" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="81" spans="1:28">
+      <c r="AC80" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30">
       <c r="A81" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B81" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D81" t="n">
         <v>0.13</v>
@@ -7512,16 +7998,22 @@
       <c r="AB81" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:28">
+      <c r="AC81" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30">
       <c r="A82" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B82" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D82" t="n">
         <v>0.09</v>
@@ -7598,16 +8090,22 @@
       <c r="AB82" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:28">
+      <c r="AC82" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30">
       <c r="A83" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B83" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D83" t="n">
         <v>0.09</v>
@@ -7684,16 +8182,22 @@
       <c r="AB83" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="84" spans="1:28">
+      <c r="AC83" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30">
       <c r="A84" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B84" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D84" t="n">
         <v>0.08</v>
@@ -7770,16 +8274,22 @@
       <c r="AB84" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:28">
+      <c r="AC84" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30">
       <c r="A85" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B85" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D85" t="n">
         <v>0.07000000000000001</v>
@@ -7856,16 +8366,22 @@
       <c r="AB85" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="86" spans="1:28">
+      <c r="AC85" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B86" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D86" t="n">
         <v>0.09</v>
@@ -7942,16 +8458,22 @@
       <c r="AB86" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="87" spans="1:28">
+      <c r="AC86" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30">
       <c r="A87" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B87" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D87" t="n">
         <v>0.11</v>
@@ -8028,16 +8550,22 @@
       <c r="AB87" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="88" spans="1:28">
+      <c r="AC87" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30">
       <c r="A88" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B88" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D88" t="n">
         <v>0.13</v>
@@ -8114,16 +8642,22 @@
       <c r="AB88" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="89" spans="1:28">
+      <c r="AC88" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30">
       <c r="A89" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B89" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E89" t="n">
         <v>0.03</v>
@@ -8197,16 +8731,22 @@
       <c r="AB89" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="90" spans="1:28">
+      <c r="AC89" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30">
       <c r="A90" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B90" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E90" t="n">
         <v>0.04</v>
@@ -8280,16 +8820,22 @@
       <c r="AB90" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="91" spans="1:28">
+      <c r="AC90" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30">
       <c r="A91" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B91" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E91" t="n">
         <v>0.02</v>
@@ -8363,16 +8909,22 @@
       <c r="AB91" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="92" spans="1:28">
+      <c r="AC91" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30">
       <c r="A92" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B92" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E92" t="n">
         <v>0.01</v>
@@ -8446,16 +8998,22 @@
       <c r="AB92" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="93" spans="1:28">
+      <c r="AC92" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30">
       <c r="A93" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B93" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D93" t="n">
         <v>0.04</v>
@@ -8532,102 +9090,114 @@
       <c r="AB93" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="94" spans="1:28">
+      <c r="AC93" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30">
       <c r="A94" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B94" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="W94" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30">
+      <c r="A95" t="s">
         <v>47</v>
       </c>
-      <c r="C94" t="s">
-        <v>34</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E94" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F94" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="R94" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S94" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T94" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="U94" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="V94" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W94" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="X94" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Y94" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z94" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AA94" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AB94" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="95" spans="1:28">
-      <c r="A95" t="s">
-        <v>45</v>
-      </c>
       <c r="B95" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C95" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D95" t="n">
         <v>0.01</v>
@@ -8704,16 +9274,22 @@
       <c r="AB95" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="96" spans="1:28">
+      <c r="AC95" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30">
       <c r="A96" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B96" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D96" t="n">
         <v>0.03</v>
@@ -8790,102 +9366,114 @@
       <c r="AB96" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="97" spans="1:28">
+      <c r="AC96" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30">
       <c r="A97" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B97" t="s">
+        <v>53</v>
+      </c>
+      <c r="C97" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30">
+      <c r="A98" t="s">
         <v>51</v>
       </c>
-      <c r="C97" t="s">
-        <v>34</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E97" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O97" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P97" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q97" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="R97" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S97" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T97" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="U97" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="V97" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="W97" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="X97" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y97" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z97" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AA97" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AB97" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="98" spans="1:28">
-      <c r="A98" t="s">
-        <v>49</v>
-      </c>
       <c r="B98" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D98" t="n">
         <v>0.02</v>
@@ -8962,16 +9550,22 @@
       <c r="AB98" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="99" spans="1:28">
+      <c r="AC98" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30">
       <c r="A99" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B99" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C99" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D99" t="n">
         <v>0.28</v>
@@ -9048,16 +9642,22 @@
       <c r="AB99" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="100" spans="1:28">
+      <c r="AC99" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30">
       <c r="A100" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B100" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C100" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D100" t="n">
         <v>0.04</v>
@@ -9134,16 +9734,22 @@
       <c r="AB100" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="101" spans="1:28">
+      <c r="AC100" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30">
       <c r="A101" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B101" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D101" t="n">
         <v>0.02</v>
@@ -9220,16 +9826,22 @@
       <c r="AB101" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="102" spans="1:28">
+      <c r="AC101" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30">
       <c r="A102" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B102" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C102" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D102" t="n">
         <v>0.03</v>
@@ -9306,16 +9918,22 @@
       <c r="AB102" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="103" spans="1:28">
+      <c r="AC102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30">
       <c r="A103" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B103" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C103" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D103" t="n">
         <v>0.02</v>
@@ -9392,16 +10010,22 @@
       <c r="AB103" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="104" spans="1:28">
+      <c r="AC103" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30">
       <c r="A104" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B104" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C104" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D104" t="n">
         <v>0.02</v>
@@ -9478,16 +10102,22 @@
       <c r="AB104" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="105" spans="1:28">
+      <c r="AC104" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30">
       <c r="A105" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B105" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C105" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D105" t="n">
         <v>0.02</v>
@@ -9564,16 +10194,22 @@
       <c r="AB105" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="106" spans="1:28">
+      <c r="AC105" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30">
       <c r="A106" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B106" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D106" t="n">
         <v>0.03</v>
@@ -9650,16 +10286,22 @@
       <c r="AB106" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="107" spans="1:28">
+      <c r="AC106" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30">
       <c r="A107" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B107" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C107" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D107" t="n">
         <v>0.05</v>
@@ -9736,16 +10378,22 @@
       <c r="AB107" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="108" spans="1:28">
+      <c r="AC107" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30">
       <c r="A108" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B108" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E108" t="n">
         <v>0.02</v>
@@ -9819,16 +10467,22 @@
       <c r="AB108" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="109" spans="1:28">
+      <c r="AC108" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30">
       <c r="A109" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B109" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C109" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E109" t="n">
         <v>0.005</v>
@@ -9902,16 +10556,22 @@
       <c r="AB109" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="110" spans="1:28">
+      <c r="AC109" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30">
       <c r="A110" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B110" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C110" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -9985,16 +10645,22 @@
       <c r="AB110" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="111" spans="1:28">
+      <c r="AC110" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30">
       <c r="A111" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B111" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C111" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -10068,16 +10734,22 @@
       <c r="AB111" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="112" spans="1:28">
+      <c r="AC111" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="112" spans="1:30">
       <c r="A112" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B112" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C112" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D112" t="n">
         <v>0.25</v>
@@ -10154,16 +10826,22 @@
       <c r="AB112" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="113" spans="1:28">
+      <c r="AC112" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="113" spans="1:30">
       <c r="A113" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C113" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D113" t="n">
         <v>0.21</v>
@@ -10240,16 +10918,22 @@
       <c r="AB113" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="114" spans="1:28">
+      <c r="AC113" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="114" spans="1:30">
       <c r="A114" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B114" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C114" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D114" t="n">
         <v>0.14</v>
@@ -10326,16 +11010,22 @@
       <c r="AB114" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="115" spans="1:28">
+      <c r="AC114" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30">
       <c r="A115" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B115" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C115" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D115" t="n">
         <v>0.25</v>
@@ -10412,16 +11102,22 @@
       <c r="AB115" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:28">
+      <c r="AC115" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:30">
       <c r="A116" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B116" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C116" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D116" t="n">
         <v>0.2</v>
@@ -10498,16 +11194,22 @@
       <c r="AB116" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="117" spans="1:28">
+      <c r="AC116" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="117" spans="1:30">
       <c r="A117" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C117" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D117" t="n">
         <v>0.16</v>
@@ -10584,16 +11286,22 @@
       <c r="AB117" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="118" spans="1:28">
+      <c r="AC117" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="118" spans="1:30">
       <c r="A118" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B118" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C118" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D118" t="n">
         <v>0.37</v>
@@ -10670,16 +11378,22 @@
       <c r="AB118" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="119" spans="1:28">
+      <c r="AC118" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="119" spans="1:30">
       <c r="A119" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B119" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C119" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D119" t="n">
         <v>0.2</v>
@@ -10756,16 +11470,22 @@
       <c r="AB119" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="120" spans="1:28">
+      <c r="AC119" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="120" spans="1:30">
       <c r="A120" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B120" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D120" t="n">
         <v>0.19</v>
@@ -10842,16 +11562,22 @@
       <c r="AB120" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="121" spans="1:28">
+      <c r="AC120" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="121" spans="1:30">
       <c r="A121" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B121" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C121" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D121" t="n">
         <v>0.25</v>
@@ -10928,16 +11654,22 @@
       <c r="AB121" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="122" spans="1:28">
+      <c r="AC121" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="122" spans="1:30">
       <c r="A122" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B122" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C122" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D122" t="n">
         <v>0.13</v>
@@ -11014,16 +11746,22 @@
       <c r="AB122" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="123" spans="1:28">
+      <c r="AC122" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="123" spans="1:30">
       <c r="A123" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B123" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C123" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D123" t="n">
         <v>0.17</v>
@@ -11100,16 +11838,22 @@
       <c r="AB123" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="124" spans="1:28">
+      <c r="AC123" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="124" spans="1:30">
       <c r="A124" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B124" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C124" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D124" t="n">
         <v>0.19</v>
@@ -11186,16 +11930,22 @@
       <c r="AB124" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="125" spans="1:28">
+      <c r="AC124" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="125" spans="1:30">
       <c r="A125" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B125" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C125" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D125" t="n">
         <v>0.25</v>
@@ -11272,16 +12022,22 @@
       <c r="AB125" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="126" spans="1:28">
+      <c r="AC125" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:30">
       <c r="A126" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B126" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C126" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D126" t="n">
         <v>0.26</v>
@@ -11358,16 +12114,22 @@
       <c r="AB126" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="127" spans="1:28">
+      <c r="AC126" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:30">
       <c r="A127" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B127" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C127" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E127" t="n">
         <v>0.02</v>
@@ -11441,16 +12203,22 @@
       <c r="AB127" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="128" spans="1:28">
+      <c r="AC127" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="128" spans="1:30">
       <c r="A128" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B128" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C128" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E128" t="n">
         <v>0.01</v>
@@ -11524,16 +12292,22 @@
       <c r="AB128" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="129" spans="1:28">
+      <c r="AC128" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="129" spans="1:30">
       <c r="A129" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B129" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C129" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E129" t="n">
         <v>0.005</v>
@@ -11607,16 +12381,22 @@
       <c r="AB129" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="130" spans="1:28">
+      <c r="AC129" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:30">
       <c r="A130" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B130" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C130" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -11690,16 +12470,22 @@
       <c r="AB130" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="131" spans="1:28">
+      <c r="AC130" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="131" spans="1:30">
       <c r="A131" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B131" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C131" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D131" t="n">
         <v>0.09</v>
@@ -11776,16 +12562,22 @@
       <c r="AB131" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="132" spans="1:28">
+      <c r="AC131" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="132" spans="1:30">
       <c r="A132" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B132" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C132" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D132" t="n">
         <v>0.08</v>
@@ -11862,16 +12654,22 @@
       <c r="AB132" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="133" spans="1:28">
+      <c r="AC132" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="133" spans="1:30">
       <c r="A133" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B133" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C133" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D133" t="n">
         <v>0.04</v>
@@ -11948,16 +12746,22 @@
       <c r="AB133" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="134" spans="1:28">
+      <c r="AC133" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="134" spans="1:30">
       <c r="A134" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B134" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C134" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D134" t="n">
         <v>0.07000000000000001</v>
@@ -12034,16 +12838,22 @@
       <c r="AB134" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="135" spans="1:28">
+      <c r="AC134" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30">
       <c r="A135" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B135" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C135" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D135" t="n">
         <v>0.07000000000000001</v>
@@ -12120,16 +12930,22 @@
       <c r="AB135" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="136" spans="1:28">
+      <c r="AC135" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="136" spans="1:30">
       <c r="A136" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B136" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C136" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D136" t="n">
         <v>0.06</v>
@@ -12206,16 +13022,22 @@
       <c r="AB136" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="137" spans="1:28">
+      <c r="AC136" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="137" spans="1:30">
       <c r="A137" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B137" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C137" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D137" t="n">
         <v>0.2</v>
@@ -12292,16 +13114,22 @@
       <c r="AB137" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="138" spans="1:28">
+      <c r="AC137" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="138" spans="1:30">
       <c r="A138" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B138" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C138" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D138" t="n">
         <v>0.13</v>
@@ -12378,16 +13206,22 @@
       <c r="AB138" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="139" spans="1:28">
+      <c r="AC138" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="139" spans="1:30">
       <c r="A139" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B139" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C139" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D139" t="n">
         <v>0.06</v>
@@ -12464,16 +13298,22 @@
       <c r="AB139" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="140" spans="1:28">
+      <c r="AC139" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="140" spans="1:30">
       <c r="A140" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B140" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C140" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D140" t="n">
         <v>0.07000000000000001</v>
@@ -12550,16 +13390,22 @@
       <c r="AB140" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="141" spans="1:28">
+      <c r="AC140" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="141" spans="1:30">
       <c r="A141" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B141" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D141" t="n">
         <v>0.05</v>
@@ -12636,16 +13482,22 @@
       <c r="AB141" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="142" spans="1:28">
+      <c r="AC141" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="142" spans="1:30">
       <c r="A142" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B142" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C142" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D142" t="n">
         <v>0.05</v>
@@ -12722,16 +13574,22 @@
       <c r="AB142" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="143" spans="1:28">
+      <c r="AC142" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30">
       <c r="A143" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B143" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C143" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D143" t="n">
         <v>0.07000000000000001</v>
@@ -12808,16 +13666,22 @@
       <c r="AB143" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="144" spans="1:28">
+      <c r="AC143" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="144" spans="1:30">
       <c r="A144" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B144" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C144" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D144" t="n">
         <v>0.08</v>
@@ -12894,16 +13758,22 @@
       <c r="AB144" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="145" spans="1:28">
+      <c r="AC144" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="145" spans="1:30">
       <c r="A145" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B145" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C145" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D145" t="n">
         <v>0.1</v>
@@ -12980,16 +13850,22 @@
       <c r="AB145" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="146" spans="1:28">
+      <c r="AC145" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="146" spans="1:30">
       <c r="A146" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B146" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C146" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E146" t="n">
         <v>0.01</v>
@@ -13063,16 +13939,22 @@
       <c r="AB146" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="147" spans="1:28">
+      <c r="AC146" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="147" spans="1:30">
       <c r="A147" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B147" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C147" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
@@ -13146,16 +14028,22 @@
       <c r="AB147" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:28">
+      <c r="AC147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="148" spans="1:30">
       <c r="A148" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B148" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C148" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
@@ -13229,16 +14117,22 @@
       <c r="AB148" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="149" spans="1:28">
+      <c r="AC148" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="149" spans="1:30">
       <c r="A149" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B149" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C149" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E149" t="n">
         <v>0.01</v>
@@ -13312,16 +14206,22 @@
       <c r="AB149" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:28">
+      <c r="AC149" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:30">
       <c r="A150" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B150" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C150" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H150" t="n">
         <v>0.04</v>
@@ -13386,16 +14286,22 @@
       <c r="AB150" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="151" spans="1:28">
+      <c r="AC150" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="151" spans="1:30">
       <c r="A151" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B151" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C151" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H151" t="n">
         <v>0.05</v>
@@ -13460,16 +14366,22 @@
       <c r="AB151" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="152" spans="1:28">
+      <c r="AC151" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="152" spans="1:30">
       <c r="A152" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B152" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C152" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H152" t="n">
         <v>0.04</v>
@@ -13534,16 +14446,22 @@
       <c r="AB152" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="153" spans="1:28">
+      <c r="AC152" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="153" spans="1:30">
       <c r="A153" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B153" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C153" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H153" t="n">
         <v>0.05</v>
@@ -13608,16 +14526,22 @@
       <c r="AB153" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="154" spans="1:28">
+      <c r="AC153" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:30">
       <c r="A154" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B154" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C154" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H154" t="n">
         <v>0.04</v>
@@ -13682,16 +14606,22 @@
       <c r="AB154" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="155" spans="1:28">
+      <c r="AC154" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="155" spans="1:30">
       <c r="A155" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B155" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C155" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H155" t="n">
         <v>0.06</v>
@@ -13756,16 +14686,22 @@
       <c r="AB155" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="156" spans="1:28">
+      <c r="AC155" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="156" spans="1:30">
       <c r="A156" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B156" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C156" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H156" t="n">
         <v>0.06</v>
@@ -13830,16 +14766,22 @@
       <c r="AB156" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="157" spans="1:28">
+      <c r="AC156" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:30">
       <c r="A157" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B157" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C157" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H157" t="n">
         <v>0.05</v>
@@ -13904,16 +14846,22 @@
       <c r="AB157" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="158" spans="1:28">
+      <c r="AC157" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="158" spans="1:30">
       <c r="A158" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B158" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C158" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H158" t="n">
         <v>0.05</v>
@@ -13978,16 +14926,22 @@
       <c r="AB158" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="159" spans="1:28">
+      <c r="AC158" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="159" spans="1:30">
       <c r="A159" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B159" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C159" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H159" t="n">
         <v>0.04</v>
@@ -14052,16 +15006,22 @@
       <c r="AB159" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="160" spans="1:28">
+      <c r="AC159" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="160" spans="1:30">
       <c r="A160" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B160" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C160" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H160" t="n">
         <v>0.05</v>
@@ -14126,16 +15086,22 @@
       <c r="AB160" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="161" spans="1:28">
+      <c r="AC160" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="161" spans="1:30">
       <c r="A161" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B161" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C161" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H161" t="n">
         <v>0.05</v>
@@ -14200,16 +15166,22 @@
       <c r="AB161" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="162" spans="1:28">
+      <c r="AC161" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="162" spans="1:30">
       <c r="A162" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B162" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C162" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H162" t="n">
         <v>0.05</v>
@@ -14274,16 +15246,22 @@
       <c r="AB162" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="163" spans="1:28">
+      <c r="AC162" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="163" spans="1:30">
       <c r="A163" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B163" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C163" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H163" t="n">
         <v>0.03</v>
@@ -14348,16 +15326,22 @@
       <c r="AB163" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="164" spans="1:28">
+      <c r="AC163" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="164" spans="1:30">
       <c r="A164" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B164" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C164" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H164" t="n">
         <v>0.04</v>
@@ -14422,16 +15406,22 @@
       <c r="AB164" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="165" spans="1:28">
+      <c r="AC164" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="165" spans="1:30">
       <c r="A165" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B165" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C165" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H165" t="n">
         <v>0.03</v>
@@ -14496,16 +15486,22 @@
       <c r="AB165" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="166" spans="1:28">
+      <c r="AC165" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="166" spans="1:30">
       <c r="A166" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B166" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C166" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H166" t="n">
         <v>0.05</v>
@@ -14570,16 +15566,22 @@
       <c r="AB166" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="167" spans="1:28">
+      <c r="AC166" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="167" spans="1:30">
       <c r="A167" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B167" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C167" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H167" t="n">
         <v>0.05</v>
@@ -14644,16 +15646,22 @@
       <c r="AB167" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="168" spans="1:28">
+      <c r="AC167" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="168" spans="1:30">
       <c r="A168" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B168" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C168" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H168" t="n">
         <v>0.06</v>
@@ -14718,16 +15726,22 @@
       <c r="AB168" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="169" spans="1:28">
+      <c r="AC168" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="169" spans="1:30">
       <c r="A169" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B169" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C169" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D169" t="n">
         <v>0.03</v>
@@ -14804,16 +15818,22 @@
       <c r="AB169" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="170" spans="1:28">
+      <c r="AC169" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="170" spans="1:30">
       <c r="A170" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B170" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C170" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D170" t="n">
         <v>0.03</v>
@@ -14890,16 +15910,22 @@
       <c r="AB170" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="171" spans="1:28">
+      <c r="AC170" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="171" spans="1:30">
       <c r="A171" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B171" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C171" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D171" t="n">
         <v>0.015</v>
@@ -14976,16 +16002,22 @@
       <c r="AB171" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:28">
+      <c r="AC171" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="172" spans="1:30">
       <c r="A172" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B172" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C172" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D172" t="n">
         <v>0.02</v>
@@ -15062,16 +16094,22 @@
       <c r="AB172" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="173" spans="1:28">
+      <c r="AC172" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="173" spans="1:30">
       <c r="A173" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B173" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C173" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D173" t="n">
         <v>0.02</v>
@@ -15148,16 +16186,22 @@
       <c r="AB173" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="174" spans="1:28">
+      <c r="AC173" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="174" spans="1:30">
       <c r="A174" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B174" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C174" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D174" t="n">
         <v>0.02</v>
@@ -15234,16 +16278,22 @@
       <c r="AB174" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="175" spans="1:28">
+      <c r="AC174" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="175" spans="1:30">
       <c r="A175" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B175" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C175" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D175" t="n">
         <v>0.09</v>
@@ -15320,16 +16370,22 @@
       <c r="AB175" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="176" spans="1:28">
+      <c r="AC175" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="176" spans="1:30">
       <c r="A176" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B176" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C176" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D176" t="n">
         <v>0.08</v>
@@ -15406,16 +16462,22 @@
       <c r="AB176" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:28">
+      <c r="AC176" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="177" spans="1:30">
       <c r="A177" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B177" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C177" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D177" t="n">
         <v>0.02</v>
@@ -15492,16 +16554,22 @@
       <c r="AB177" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="178" spans="1:28">
+      <c r="AC177" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="178" spans="1:30">
       <c r="A178" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B178" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C178" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D178" t="n">
         <v>0.02</v>
@@ -15578,16 +16646,22 @@
       <c r="AB178" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="179" spans="1:28">
+      <c r="AC178" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="179" spans="1:30">
       <c r="A179" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B179" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C179" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D179" t="n">
         <v>0.02</v>
@@ -15664,16 +16738,22 @@
       <c r="AB179" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="180" spans="1:28">
+      <c r="AC179" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="180" spans="1:30">
       <c r="A180" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B180" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C180" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D180" t="n">
         <v>0.02</v>
@@ -15750,16 +16830,22 @@
       <c r="AB180" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="181" spans="1:28">
+      <c r="AC180" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="181" spans="1:30">
       <c r="A181" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B181" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C181" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D181" t="n">
         <v>0.04</v>
@@ -15836,16 +16922,22 @@
       <c r="AB181" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:28">
+      <c r="AC181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="182" spans="1:30">
       <c r="A182" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B182" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C182" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D182" t="n">
         <v>0.02</v>
@@ -15922,16 +17014,22 @@
       <c r="AB182" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="183" spans="1:28">
+      <c r="AC182" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="183" spans="1:30">
       <c r="A183" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B183" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C183" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D183" t="n">
         <v>0.03</v>
@@ -16008,16 +17106,22 @@
       <c r="AB183" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:28">
+      <c r="AC183" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="184" spans="1:30">
       <c r="A184" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B184" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C184" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
@@ -16091,16 +17195,22 @@
       <c r="AB184" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="185" spans="1:28">
+      <c r="AC184" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="185" spans="1:30">
       <c r="A185" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B185" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C185" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -16174,16 +17284,22 @@
       <c r="AB185" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:28">
+      <c r="AC185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="186" spans="1:30">
       <c r="A186" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B186" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C186" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -16257,16 +17373,22 @@
       <c r="AB186" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="187" spans="1:28">
+      <c r="AC186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="187" spans="1:30">
       <c r="A187" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B187" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C187" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -16340,16 +17462,22 @@
       <c r="AB187" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:28">
+      <c r="AC187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="188" spans="1:30">
       <c r="A188" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B188" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C188" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D188" t="n">
         <v>0.02</v>
@@ -16426,16 +17554,22 @@
       <c r="AB188" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="189" spans="1:28">
+      <c r="AC188" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="189" spans="1:30">
       <c r="A189" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B189" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C189" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D189" t="n">
         <v>0.015</v>
@@ -16512,16 +17646,22 @@
       <c r="AB189" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="190" spans="1:28">
+      <c r="AC189" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AD189" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="190" spans="1:30">
       <c r="A190" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B190" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C190" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D190" t="n">
         <v>0.005</v>
@@ -16598,16 +17738,22 @@
       <c r="AB190" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:28">
+      <c r="AC190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:30">
       <c r="A191" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B191" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C191" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D191" t="n">
         <v>0.005</v>
@@ -16684,16 +17830,22 @@
       <c r="AB191" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="192" spans="1:28">
+      <c r="AC191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD191" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="192" spans="1:30">
       <c r="A192" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B192" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C192" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D192" t="n">
         <v>0.015</v>
@@ -16770,16 +17922,22 @@
       <c r="AB192" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:28">
+      <c r="AC192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD192" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="193" spans="1:30">
       <c r="A193" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B193" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C193" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D193" t="n">
         <v>0.015</v>
@@ -16856,16 +18014,22 @@
       <c r="AB193" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="194" spans="1:28">
+      <c r="AC193" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="194" spans="1:30">
       <c r="A194" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B194" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C194" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D194" t="n">
         <v>0.06</v>
@@ -16942,16 +18106,22 @@
       <c r="AB194" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="195" spans="1:28">
+      <c r="AC194" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="195" spans="1:30">
       <c r="A195" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B195" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C195" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D195" t="n">
         <v>0.07000000000000001</v>
@@ -17028,16 +18198,22 @@
       <c r="AB195" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:28">
+      <c r="AC195" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:30">
       <c r="A196" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B196" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C196" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D196" t="n">
         <v>0.01</v>
@@ -17114,16 +18290,22 @@
       <c r="AB196" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="197" spans="1:28">
+      <c r="AC196" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="197" spans="1:30">
       <c r="A197" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B197" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C197" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D197" t="n">
         <v>0.015</v>
@@ -17200,16 +18382,22 @@
       <c r="AB197" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="198" spans="1:28">
+      <c r="AC197" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="198" spans="1:30">
       <c r="A198" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B198" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C198" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D198" t="n">
         <v>0.01</v>
@@ -17286,16 +18474,22 @@
       <c r="AB198" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="199" spans="1:28">
+      <c r="AC198" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="199" spans="1:30">
       <c r="A199" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B199" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C199" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D199" t="n">
         <v>0.015</v>
@@ -17372,102 +18566,114 @@
       <c r="AB199" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="200" spans="1:28">
+      <c r="AC199" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="200" spans="1:30">
       <c r="A200" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B200" t="s">
+        <v>64</v>
+      </c>
+      <c r="C200" t="s">
+        <v>41</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O200" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="P200" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R200" t="n">
+        <v>0</v>
+      </c>
+      <c r="S200" t="n">
+        <v>0</v>
+      </c>
+      <c r="T200" t="n">
+        <v>0</v>
+      </c>
+      <c r="U200" t="n">
+        <v>0</v>
+      </c>
+      <c r="V200" t="n">
+        <v>0</v>
+      </c>
+      <c r="W200" t="n">
+        <v>0</v>
+      </c>
+      <c r="X200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="201" spans="1:30">
+      <c r="A201" t="s">
         <v>62</v>
       </c>
-      <c r="C200" t="s">
-        <v>39</v>
-      </c>
-      <c r="D200" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E200" t="n">
-        <v>0</v>
-      </c>
-      <c r="F200" t="n">
-        <v>0</v>
-      </c>
-      <c r="G200" t="n">
-        <v>0</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="n">
-        <v>0</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="L200" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M200" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N200" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O200" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="P200" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Q200" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="R200" t="n">
-        <v>0</v>
-      </c>
-      <c r="S200" t="n">
-        <v>0</v>
-      </c>
-      <c r="T200" t="n">
-        <v>0</v>
-      </c>
-      <c r="U200" t="n">
-        <v>0</v>
-      </c>
-      <c r="V200" t="n">
-        <v>0</v>
-      </c>
-      <c r="W200" t="n">
-        <v>0</v>
-      </c>
-      <c r="X200" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y200" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z200" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA200" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB200" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:28">
-      <c r="A201" t="s">
-        <v>60</v>
-      </c>
       <c r="B201" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C201" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D201" t="n">
         <v>0.02</v>
@@ -17544,16 +18750,22 @@
       <c r="AB201" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="202" spans="1:28">
+      <c r="AC201" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="202" spans="1:30">
       <c r="A202" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B202" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C202" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D202" t="n">
         <v>0.01</v>
@@ -17630,16 +18842,22 @@
       <c r="AB202" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:28">
+      <c r="AC202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="203" spans="1:30">
       <c r="A203" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B203" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C203" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E203" t="n">
         <v>0</v>
@@ -17713,16 +18931,22 @@
       <c r="AB203" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="204" spans="1:28">
+      <c r="AC203" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="204" spans="1:30">
       <c r="A204" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B204" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C204" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E204" t="n">
         <v>0</v>
@@ -17796,16 +19020,22 @@
       <c r="AB204" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:28">
+      <c r="AC204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:30">
       <c r="A205" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B205" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C205" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
@@ -17879,16 +19109,22 @@
       <c r="AB205" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:28">
+      <c r="AC205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="206" spans="1:30">
       <c r="A206" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B206" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C206" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
@@ -17962,16 +19198,22 @@
       <c r="AB206" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:28">
+      <c r="AC206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:30">
       <c r="A207" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B207" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C207" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D207" t="n">
         <v>0.5600000000000001</v>
@@ -18048,16 +19290,22 @@
       <c r="AB207" t="n">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="208" spans="1:28">
+      <c r="AC207" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="208" spans="1:30">
       <c r="A208" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B208" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C208" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D208" t="n">
         <v>0.47</v>
@@ -18134,16 +19382,22 @@
       <c r="AB208" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="209" spans="1:28">
+      <c r="AC208" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="209" spans="1:30">
       <c r="A209" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B209" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C209" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D209" t="n">
         <v>0.4</v>
@@ -18220,16 +19474,22 @@
       <c r="AB209" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="210" spans="1:28">
+      <c r="AC209" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:30">
       <c r="A210" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B210" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C210" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D210" t="n">
         <v>0.47</v>
@@ -18306,16 +19566,22 @@
       <c r="AB210" t="n">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="211" spans="1:28">
+      <c r="AC210" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="211" spans="1:30">
       <c r="A211" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B211" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C211" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D211" t="n">
         <v>0.46</v>
@@ -18392,16 +19658,22 @@
       <c r="AB211" t="n">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="212" spans="1:28">
+      <c r="AC211" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="212" spans="1:30">
       <c r="A212" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B212" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C212" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D212" t="n">
         <v>0.47</v>
@@ -18478,16 +19750,22 @@
       <c r="AB212" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="213" spans="1:28">
+      <c r="AC212" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:30">
       <c r="A213" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B213" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C213" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D213" t="n">
         <v>0.63</v>
@@ -18564,16 +19842,22 @@
       <c r="AB213" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="214" spans="1:28">
+      <c r="AC213" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="214" spans="1:30">
       <c r="A214" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B214" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C214" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D214" t="n">
         <v>0.61</v>
@@ -18650,16 +19934,22 @@
       <c r="AB214" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="215" spans="1:28">
+      <c r="AC214" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="215" spans="1:30">
       <c r="A215" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B215" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C215" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D215" t="n">
         <v>0.46</v>
@@ -18736,16 +20026,22 @@
       <c r="AB215" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="216" spans="1:28">
+      <c r="AC215" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="216" spans="1:30">
       <c r="A216" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B216" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C216" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D216" t="n">
         <v>0.48</v>
@@ -18822,16 +20118,22 @@
       <c r="AB216" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="217" spans="1:28">
+      <c r="AC216" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="217" spans="1:30">
       <c r="A217" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B217" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C217" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D217" t="n">
         <v>0.45</v>
@@ -18908,16 +20210,22 @@
       <c r="AB217" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="218" spans="1:28">
+      <c r="AC217" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="218" spans="1:30">
       <c r="A218" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B218" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C218" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D218" t="n">
         <v>0.46</v>
@@ -18994,16 +20302,22 @@
       <c r="AB218" t="n">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="219" spans="1:28">
+      <c r="AC218" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="219" spans="1:30">
       <c r="A219" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B219" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C219" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D219" t="n">
         <v>0.49</v>
@@ -19080,16 +20394,22 @@
       <c r="AB219" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="220" spans="1:28">
+      <c r="AC219" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="220" spans="1:30">
       <c r="A220" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B220" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C220" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D220" t="n">
         <v>0.49</v>
@@ -19166,16 +20486,22 @@
       <c r="AB220" t="n">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="221" spans="1:28">
+      <c r="AC220" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="221" spans="1:30">
       <c r="A221" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B221" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C221" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D221" t="n">
         <v>0.4</v>
@@ -19252,16 +20578,22 @@
       <c r="AB221" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="222" spans="1:28">
+      <c r="AC221" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="222" spans="1:30">
       <c r="A222" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B222" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C222" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E222" t="n">
         <v>0.38</v>
@@ -19335,16 +20667,22 @@
       <c r="AB222" t="n">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="223" spans="1:28">
+      <c r="AC222" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="223" spans="1:30">
       <c r="A223" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B223" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C223" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E223" t="n">
         <v>0.41</v>
@@ -19418,16 +20756,22 @@
       <c r="AB223" t="n">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="224" spans="1:28">
+      <c r="AC223" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="224" spans="1:30">
       <c r="A224" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B224" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C224" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E224" t="n">
         <v>0.34</v>
@@ -19501,16 +20845,22 @@
       <c r="AB224" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="225" spans="1:28">
+      <c r="AC224" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="225" spans="1:30">
       <c r="A225" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B225" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C225" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E225" t="n">
         <v>0.32</v>
@@ -19584,16 +20934,22 @@
       <c r="AB225" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="226" spans="1:28">
+      <c r="AC225" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="226" spans="1:30">
       <c r="A226" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B226" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C226" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E226" t="n">
         <v>0.17</v>
@@ -19667,16 +21023,22 @@
       <c r="AB226" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="227" spans="1:28">
+      <c r="AC226" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="227" spans="1:30">
       <c r="A227" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B227" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C227" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E227" t="n">
         <v>0.14</v>
@@ -19750,16 +21112,22 @@
       <c r="AB227" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="228" spans="1:28">
+      <c r="AC227" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="228" spans="1:30">
       <c r="A228" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B228" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C228" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E228" t="n">
         <v>0.08</v>
@@ -19833,16 +21201,22 @@
       <c r="AB228" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="229" spans="1:28">
+      <c r="AC228" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="229" spans="1:30">
       <c r="A229" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B229" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C229" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E229" t="n">
         <v>0.16</v>
@@ -19916,16 +21290,22 @@
       <c r="AB229" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="230" spans="1:28">
+      <c r="AC229" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="230" spans="1:30">
       <c r="A230" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B230" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C230" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E230" t="n">
         <v>0.13</v>
@@ -19999,16 +21379,22 @@
       <c r="AB230" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="231" spans="1:28">
+      <c r="AC230" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="231" spans="1:30">
       <c r="A231" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B231" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C231" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E231" t="n">
         <v>0.11</v>
@@ -20082,16 +21468,22 @@
       <c r="AB231" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="232" spans="1:28">
+      <c r="AC231" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="232" spans="1:30">
       <c r="A232" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B232" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C232" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E232" t="n">
         <v>0.06</v>
@@ -20165,16 +21557,22 @@
       <c r="AB232" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="233" spans="1:28">
+      <c r="AC232" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:30">
       <c r="A233" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B233" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C233" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E233" t="n">
         <v>0.18</v>
@@ -20248,16 +21646,22 @@
       <c r="AB233" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="234" spans="1:28">
+      <c r="AC233" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:30">
       <c r="A234" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B234" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C234" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E234" t="n">
         <v>0.12</v>
@@ -20331,16 +21735,22 @@
       <c r="AB234" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="235" spans="1:28">
+      <c r="AC234" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="235" spans="1:30">
       <c r="A235" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B235" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C235" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E235" t="n">
         <v>0.14</v>
@@ -20414,16 +21824,22 @@
       <c r="AB235" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="236" spans="1:28">
+      <c r="AC235" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="236" spans="1:30">
       <c r="A236" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B236" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C236" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E236" t="n">
         <v>0.11</v>
@@ -20497,16 +21913,22 @@
       <c r="AB236" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="237" spans="1:28">
+      <c r="AC236" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="237" spans="1:30">
       <c r="A237" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B237" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C237" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E237" t="n">
         <v>0.11</v>
@@ -20580,16 +22002,22 @@
       <c r="AB237" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="238" spans="1:28">
+      <c r="AC237" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:30">
       <c r="A238" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B238" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C238" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E238" t="n">
         <v>0.12</v>
@@ -20663,16 +22091,22 @@
       <c r="AB238" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="239" spans="1:28">
+      <c r="AC238" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:30">
       <c r="A239" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B239" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C239" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E239" t="n">
         <v>0.16</v>
@@ -20746,16 +22180,22 @@
       <c r="AB239" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="240" spans="1:28">
+      <c r="AC239" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="240" spans="1:30">
       <c r="A240" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B240" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C240" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E240" t="n">
         <v>0.15</v>
@@ -20829,16 +22269,22 @@
       <c r="AB240" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="241" spans="1:28">
+      <c r="AC240" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="241" spans="1:30">
       <c r="A241" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B241" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C241" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E241" t="n">
         <v>0.15</v>
@@ -20912,16 +22358,22 @@
       <c r="AB241" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="242" spans="1:28">
+      <c r="AC241" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="242" spans="1:30">
       <c r="A242" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B242" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C242" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E242" t="n">
         <v>0.18</v>
@@ -20995,16 +22447,22 @@
       <c r="AB242" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="243" spans="1:28">
+      <c r="AC242" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:30">
       <c r="A243" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B243" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C243" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E243" t="n">
         <v>0.12</v>
@@ -21078,16 +22536,22 @@
       <c r="AB243" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="244" spans="1:28">
+      <c r="AC243" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="244" spans="1:30">
       <c r="A244" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B244" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C244" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E244" t="n">
         <v>0.14</v>
@@ -21161,16 +22625,22 @@
       <c r="AB244" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="245" spans="1:28">
+      <c r="AC244" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="245" spans="1:30">
       <c r="A245" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B245" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C245" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E245" t="n">
         <v>0.04</v>
@@ -21244,16 +22714,22 @@
       <c r="AB245" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="246" spans="1:28">
+      <c r="AC245" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="246" spans="1:30">
       <c r="A246" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B246" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C246" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E246" t="n">
         <v>0.04</v>
@@ -21327,16 +22803,22 @@
       <c r="AB246" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="247" spans="1:28">
+      <c r="AC246" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:30">
       <c r="A247" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B247" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C247" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E247" t="n">
         <v>0.03</v>
@@ -21410,16 +22892,22 @@
       <c r="AB247" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="248" spans="1:28">
+      <c r="AC247" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="248" spans="1:30">
       <c r="A248" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B248" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C248" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E248" t="n">
         <v>0.04</v>
@@ -21493,16 +22981,22 @@
       <c r="AB248" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="249" spans="1:28">
+      <c r="AC248" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:30">
       <c r="A249" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B249" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C249" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E249" t="n">
         <v>0.04</v>
@@ -21576,16 +23070,22 @@
       <c r="AB249" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="250" spans="1:28">
+      <c r="AC249" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="250" spans="1:30">
       <c r="A250" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B250" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C250" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E250" t="n">
         <v>0.03</v>
@@ -21659,16 +23159,22 @@
       <c r="AB250" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="251" spans="1:28">
+      <c r="AC250" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="251" spans="1:30">
       <c r="A251" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B251" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C251" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
@@ -21742,16 +23248,22 @@
       <c r="AB251" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="252" spans="1:28">
+      <c r="AC251" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:30">
       <c r="A252" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B252" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C252" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E252" t="n">
         <v>0.05</v>
@@ -21825,16 +23337,22 @@
       <c r="AB252" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="253" spans="1:28">
+      <c r="AC252" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="253" spans="1:30">
       <c r="A253" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B253" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C253" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E253" t="n">
         <v>0.03</v>
@@ -21908,16 +23426,22 @@
       <c r="AB253" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="254" spans="1:28">
+      <c r="AC253" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="254" spans="1:30">
       <c r="A254" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B254" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C254" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E254" t="n">
         <v>0.04</v>
@@ -21991,16 +23515,22 @@
       <c r="AB254" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="255" spans="1:28">
+      <c r="AC254" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD254" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:30">
       <c r="A255" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B255" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C255" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E255" t="n">
         <v>0.03</v>
@@ -22074,16 +23604,22 @@
       <c r="AB255" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="256" spans="1:28">
+      <c r="AC255" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD255" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="256" spans="1:30">
       <c r="A256" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C256" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E256" t="n">
         <v>0.03</v>
@@ -22157,16 +23693,22 @@
       <c r="AB256" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="257" spans="1:28">
+      <c r="AC256" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD256" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="257" spans="1:30">
       <c r="A257" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B257" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C257" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E257" t="n">
         <v>0.04</v>
@@ -22240,16 +23782,22 @@
       <c r="AB257" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="258" spans="1:28">
+      <c r="AC257" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD257" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:30">
       <c r="A258" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B258" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C258" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E258" t="n">
         <v>0.03</v>
@@ -22323,16 +23871,22 @@
       <c r="AB258" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="259" spans="1:28">
+      <c r="AC258" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD258" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:30">
       <c r="A259" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B259" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C259" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E259" t="n">
         <v>0.06</v>
@@ -22406,16 +23960,22 @@
       <c r="AB259" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="260" spans="1:28">
+      <c r="AC259" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD259" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="260" spans="1:30">
       <c r="A260" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B260" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C260" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E260" t="n">
         <v>0.05</v>
@@ -22489,16 +24049,22 @@
       <c r="AB260" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="261" spans="1:28">
+      <c r="AC260" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="261" spans="1:30">
       <c r="A261" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B261" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C261" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E261" t="n">
         <v>0.02</v>
@@ -22572,16 +24138,22 @@
       <c r="AB261" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="262" spans="1:28">
+      <c r="AC261" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="262" spans="1:30">
       <c r="A262" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B262" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C262" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E262" t="n">
         <v>0.03</v>
@@ -22655,16 +24227,22 @@
       <c r="AB262" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="263" spans="1:28">
+      <c r="AC262" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="263" spans="1:30">
       <c r="A263" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B263" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C263" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E263" t="n">
         <v>0.05</v>
@@ -22738,16 +24316,22 @@
       <c r="AB263" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="264" spans="1:28">
+      <c r="AC263" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="264" spans="1:30">
       <c r="A264" t="s">
+        <v>47</v>
+      </c>
+      <c r="B264" t="s">
+        <v>48</v>
+      </c>
+      <c r="C264" t="s">
         <v>45</v>
-      </c>
-      <c r="B264" t="s">
-        <v>46</v>
-      </c>
-      <c r="C264" t="s">
-        <v>43</v>
       </c>
       <c r="D264" t="n">
         <v>0.08</v>
@@ -22824,16 +24408,22 @@
       <c r="AB264" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="265" spans="1:28">
+      <c r="AC264" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="265" spans="1:30">
       <c r="A265" t="s">
+        <v>47</v>
+      </c>
+      <c r="B265" t="s">
+        <v>49</v>
+      </c>
+      <c r="C265" t="s">
         <v>45</v>
-      </c>
-      <c r="B265" t="s">
-        <v>47</v>
-      </c>
-      <c r="C265" t="s">
-        <v>43</v>
       </c>
       <c r="D265" t="n">
         <v>0.05</v>
@@ -22910,16 +24500,22 @@
       <c r="AB265" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="266" spans="1:28">
+      <c r="AC265" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="266" spans="1:30">
       <c r="A266" t="s">
+        <v>47</v>
+      </c>
+      <c r="B266" t="s">
+        <v>50</v>
+      </c>
+      <c r="C266" t="s">
         <v>45</v>
-      </c>
-      <c r="B266" t="s">
-        <v>48</v>
-      </c>
-      <c r="C266" t="s">
-        <v>43</v>
       </c>
       <c r="D266" t="n">
         <v>0.03</v>
@@ -22996,16 +24592,22 @@
       <c r="AB266" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="267" spans="1:28">
+      <c r="AC266" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="267" spans="1:30">
       <c r="A267" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B267" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C267" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D267" t="n">
         <v>0.04</v>
@@ -23082,16 +24684,22 @@
       <c r="AB267" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="268" spans="1:28">
+      <c r="AC267" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="268" spans="1:30">
       <c r="A268" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B268" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C268" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D268" t="n">
         <v>0.05</v>
@@ -23168,16 +24776,22 @@
       <c r="AB268" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="269" spans="1:28">
+      <c r="AC268" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="269" spans="1:30">
       <c r="A269" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B269" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C269" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D269" t="n">
         <v>0.05</v>
@@ -23254,16 +24868,22 @@
       <c r="AB269" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="270" spans="1:28">
+      <c r="AC269" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD269" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:30">
       <c r="A270" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B270" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C270" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D270" t="n">
         <v>0.32</v>
@@ -23340,16 +24960,22 @@
       <c r="AB270" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="271" spans="1:28">
+      <c r="AC270" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD270" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:30">
       <c r="A271" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B271" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C271" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D271" t="n">
         <v>0.1</v>
@@ -23426,16 +25052,22 @@
       <c r="AB271" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="272" spans="1:28">
+      <c r="AC271" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:30">
       <c r="A272" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B272" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C272" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D272" t="n">
         <v>0.04</v>
@@ -23512,16 +25144,22 @@
       <c r="AB272" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="273" spans="1:28">
+      <c r="AC272" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="273" spans="1:30">
       <c r="A273" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B273" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C273" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D273" t="n">
         <v>0.05</v>
@@ -23598,16 +25236,22 @@
       <c r="AB273" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="274" spans="1:28">
+      <c r="AC273" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:30">
       <c r="A274" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B274" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C274" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D274" t="n">
         <v>0.05</v>
@@ -23684,16 +25328,22 @@
       <c r="AB274" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="275" spans="1:28">
+      <c r="AC274" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="275" spans="1:30">
       <c r="A275" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B275" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C275" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D275" t="n">
         <v>0.04</v>
@@ -23770,16 +25420,22 @@
       <c r="AB275" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="276" spans="1:28">
+      <c r="AC275" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="276" spans="1:30">
       <c r="A276" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B276" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C276" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D276" t="n">
         <v>0.06</v>
@@ -23856,16 +25512,22 @@
       <c r="AB276" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="277" spans="1:28">
+      <c r="AC276" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:30">
       <c r="A277" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B277" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C277" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D277" t="n">
         <v>0.06</v>
@@ -23942,16 +25604,22 @@
       <c r="AB277" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="278" spans="1:28">
+      <c r="AC277" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="278" spans="1:30">
       <c r="A278" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B278" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C278" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D278" t="n">
         <v>0.06</v>
@@ -24028,16 +25696,22 @@
       <c r="AB278" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="279" spans="1:28">
+      <c r="AC278" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="279" spans="1:30">
       <c r="A279" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B279" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C279" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E279" t="n">
         <v>0.03</v>
@@ -24111,16 +25785,22 @@
       <c r="AB279" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="280" spans="1:28">
+      <c r="AC279" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="280" spans="1:30">
       <c r="A280" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B280" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C280" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E280" t="n">
         <v>0.04</v>
@@ -24194,16 +25874,22 @@
       <c r="AB280" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="281" spans="1:28">
+      <c r="AC280" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="281" spans="1:30">
       <c r="A281" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B281" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C281" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E281" t="n">
         <v>0.015</v>
@@ -24277,16 +25963,22 @@
       <c r="AB281" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="282" spans="1:28">
+      <c r="AC281" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="282" spans="1:30">
       <c r="A282" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B282" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C282" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E282" t="n">
         <v>0.005</v>
@@ -24360,16 +26052,22 @@
       <c r="AB282" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="283" spans="1:28">
+      <c r="AC282" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AD282" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:30">
       <c r="A283" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B283" t="s">
+        <v>48</v>
+      </c>
+      <c r="C283" t="s">
         <v>46</v>
-      </c>
-      <c r="C283" t="s">
-        <v>44</v>
       </c>
       <c r="H283" t="n">
         <v>0.02</v>
@@ -24434,16 +26132,22 @@
       <c r="AB283" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="284" spans="1:28">
+      <c r="AC283" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD283" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="284" spans="1:30">
       <c r="A284" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B284" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C284" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H284" t="n">
         <v>0.015</v>
@@ -24508,16 +26212,22 @@
       <c r="AB284" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="285" spans="1:28">
+      <c r="AC284" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AD284" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="285" spans="1:30">
       <c r="A285" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B285" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C285" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -24582,16 +26292,22 @@
       <c r="AB285" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:28">
+      <c r="AC285" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AD285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:30">
       <c r="A286" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B286" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C286" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -24656,16 +26372,22 @@
       <c r="AB286" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="287" spans="1:28">
+      <c r="AC286" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AD286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:30">
       <c r="A287" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B287" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C287" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H287" t="n">
         <v>0.005</v>
@@ -24730,16 +26452,22 @@
       <c r="AB287" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:28">
+      <c r="AC287" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="288" spans="1:30">
       <c r="A288" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B288" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C288" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H288" t="n">
         <v>0.03</v>
@@ -24804,16 +26532,22 @@
       <c r="AB288" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="289" spans="1:28">
+      <c r="AC288" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD288" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="289" spans="1:30">
       <c r="A289" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B289" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C289" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H289" t="n">
         <v>0.05</v>
@@ -24878,16 +26612,22 @@
       <c r="AB289" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="290" spans="1:28">
+      <c r="AC289" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD289" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="290" spans="1:30">
       <c r="A290" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B290" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C290" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H290" t="n">
         <v>0.005</v>
@@ -24952,16 +26692,22 @@
       <c r="AB290" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:28">
+      <c r="AC290" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD290" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="291" spans="1:30">
       <c r="A291" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B291" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C291" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H291" t="n">
         <v>0.01</v>
@@ -25026,16 +26772,22 @@
       <c r="AB291" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="292" spans="1:28">
+      <c r="AC291" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="292" spans="1:30">
       <c r="A292" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B292" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C292" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H292" t="n">
         <v>0.01</v>
@@ -25100,16 +26852,22 @@
       <c r="AB292" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="293" spans="1:28">
+      <c r="AC292" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AD292" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="293" spans="1:30">
       <c r="A293" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B293" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C293" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H293" t="n">
         <v>0.01</v>
@@ -25174,16 +26932,22 @@
       <c r="AB293" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="294" spans="1:28">
+      <c r="AC293" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD293" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="294" spans="1:30">
       <c r="A294" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B294" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C294" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H294" t="n">
         <v>0.015</v>
@@ -25248,16 +27012,22 @@
       <c r="AB294" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="295" spans="1:28">
+      <c r="AC294" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="295" spans="1:30">
       <c r="A295" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B295" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C295" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H295" t="n">
         <v>0.005</v>
@@ -25322,16 +27092,22 @@
       <c r="AB295" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:28">
+      <c r="AC295" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AD295" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="296" spans="1:30">
       <c r="A296" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B296" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C296" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H296" t="n">
         <v>0.005</v>
@@ -25396,16 +27172,22 @@
       <c r="AB296" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="297" spans="1:28">
+      <c r="AC296" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="297" spans="1:30">
       <c r="A297" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B297" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C297" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H297" t="n">
         <v>0.005</v>
@@ -25470,16 +27252,22 @@
       <c r="AB297" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="298" spans="1:28">
+      <c r="AC297" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="298" spans="1:30">
       <c r="A298" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B298" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C298" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H298" t="n">
         <v>0.01</v>
@@ -25544,16 +27332,22 @@
       <c r="AB298" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="299" spans="1:28">
+      <c r="AC298" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AD298" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="299" spans="1:30">
       <c r="A299" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B299" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C299" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H299" t="n">
         <v>0.02</v>
@@ -25618,16 +27412,22 @@
       <c r="AB299" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:28">
+      <c r="AC299" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD299" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="300" spans="1:30">
       <c r="A300" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B300" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C300" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H300" t="n">
         <v>0.02</v>
@@ -25692,16 +27492,22 @@
       <c r="AB300" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="301" spans="1:28">
+      <c r="AC300" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD300" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="301" spans="1:30">
       <c r="A301" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B301" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C301" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H301" t="n">
         <v>0.02</v>
@@ -25766,10 +27572,16 @@
       <c r="AB301" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="302" spans="1:28">
+      <c r="AC301" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AD301" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="302" spans="1:30">
       <c r="A302" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -25783,7 +27595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25791,7 +27603,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -25873,13 +27685,19 @@
       <c r="AA1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -25956,13 +27774,19 @@
       <c r="AA2" t="n">
         <v>2061</v>
       </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AB2" t="n">
+        <v>2059</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -26039,13 +27863,19 @@
       <c r="AA3" t="n">
         <v>488</v>
       </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AB3" t="n">
+        <v>491</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -26122,13 +27952,19 @@
       <c r="AA4" t="n">
         <v>758</v>
       </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AB4" t="n">
+        <v>754</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -26205,13 +28041,19 @@
       <c r="AA5" t="n">
         <v>815</v>
       </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AB5" t="n">
+        <v>814</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" t="n">
         <v>665</v>
@@ -26288,13 +28130,19 @@
       <c r="AA6" t="n">
         <v>387</v>
       </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AB6" t="n">
+        <v>401</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7" t="n">
         <v>885</v>
@@ -26371,13 +28219,19 @@
       <c r="AA7" t="n">
         <v>751</v>
       </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AB7" t="n">
+        <v>750</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8" t="n">
         <v>1551</v>
@@ -26454,13 +28308,19 @@
       <c r="AA8" t="n">
         <v>923</v>
       </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AB8" t="n">
+        <v>908</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" t="n">
         <v>11</v>
@@ -26537,13 +28397,19 @@
       <c r="AA9" t="n">
         <v>626</v>
       </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AB9" t="n">
+        <v>554</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10" t="n">
         <v>102</v>
@@ -26620,13 +28486,19 @@
       <c r="AA10" t="n">
         <v>734</v>
       </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AB10" t="n">
+        <v>690</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" t="n">
         <v>2988</v>
@@ -26703,13 +28575,19 @@
       <c r="AA11" t="n">
         <v>701</v>
       </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AB11" t="n">
+        <v>815</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12" t="n">
         <v>1514</v>
@@ -26786,13 +28664,19 @@
       <c r="AA12" t="n">
         <v>1007</v>
       </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AB12" t="n">
+        <v>997</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13" t="n">
         <v>1587</v>
@@ -26869,13 +28753,19 @@
       <c r="AA13" t="n">
         <v>1054</v>
       </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AB13" t="n">
+        <v>1062</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" t="n">
         <v>1726</v>
@@ -26952,13 +28842,19 @@
       <c r="AA14" t="n">
         <v>1084</v>
       </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AB14" t="n">
+        <v>1084</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C15" t="n">
         <v>667</v>
@@ -27035,13 +28931,19 @@
       <c r="AA15" t="n">
         <v>464</v>
       </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AB15" t="n">
+        <v>462</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C16" t="n">
         <v>333</v>
@@ -27118,13 +29020,19 @@
       <c r="AA16" t="n">
         <v>241</v>
       </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AB16" t="n">
+        <v>241</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C17" t="n">
         <v>375</v>
@@ -27201,13 +29109,19 @@
       <c r="AA17" t="n">
         <v>272</v>
       </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AB17" t="n">
+        <v>272</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s"/>
       <c r="D18" t="n">
@@ -27282,13 +29196,19 @@
       <c r="AA18" t="n">
         <v>698</v>
       </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AB18" t="n">
+        <v>711</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s"/>
       <c r="D19" t="n">
@@ -27363,13 +29283,19 @@
       <c r="AA19" t="n">
         <v>107</v>
       </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AB19" t="n">
+        <v>89</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s"/>
       <c r="D20" t="n">
@@ -27444,13 +29370,19 @@
       <c r="AA20" t="n">
         <v>179</v>
       </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AB20" t="n">
+        <v>178</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s"/>
       <c r="D21" t="n">
@@ -27525,10 +29457,16 @@
       <c r="AA21" t="n">
         <v>158</v>
       </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AB21" t="n">
+        <v>148</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s"/>
       <c r="C22" t="s"/>
@@ -27556,6 +29494,8 @@
       <c r="Y22" t="s"/>
       <c r="Z22" t="s"/>
       <c r="AA22" t="s"/>
+      <c r="AB22" t="s"/>
+      <c r="AC22" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_04_socialni_aktivity.xlsx
+++ b/ZBP_04_socialni_aktivity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>trideni</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>26. 4.–2. 5. 2021</t>
+  </si>
+  <si>
+    <t>17.–23. 5. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -233,10 +236,10 @@
     <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
   </si>
   <si>
-    <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 11. 5. 2021</t>
+    <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -611,7 +614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD302"/>
+  <dimension ref="A1:AE302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,7 +622,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,16 +713,19 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
         <v>0.74</v>
@@ -800,18 +806,21 @@
         <v>0.71</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>0.76</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
         <v>0.28</v>
@@ -894,16 +903,19 @@
       <c r="AD3" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AE3" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
         <v>0.2</v>
@@ -986,16 +998,19 @@
       <c r="AD4" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AE4" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
         <v>0.09</v>
@@ -1078,16 +1093,19 @@
       <c r="AD5" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="AE5" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" t="n">
         <v>0.02</v>
@@ -1170,16 +1188,19 @@
       <c r="AD6" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="AE6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" t="n">
         <v>0.19</v>
@@ -1262,16 +1283,19 @@
       <c r="AD7" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="AE7" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" t="n">
         <v>0.06</v>
@@ -1354,16 +1378,19 @@
       <c r="AD8" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="9" spans="1:30">
+      <c r="AE8" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9" t="n">
         <v>0.05</v>
@@ -1434,16 +1461,19 @@
       <c r="AD9" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="AE9" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D10" t="n">
         <v>0.02</v>
@@ -1526,16 +1556,19 @@
       <c r="AD10" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="AE10" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" t="n">
         <v>0.015</v>
@@ -1618,16 +1651,19 @@
       <c r="AD11" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="12" spans="1:30">
+      <c r="AE11" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" t="n">
         <v>0.47</v>
@@ -1710,16 +1746,19 @@
       <c r="AD12" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="AE12" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E13" t="n">
         <v>0.12</v>
@@ -1799,16 +1838,19 @@
       <c r="AD13" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="14" spans="1:30">
+      <c r="AE13" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" t="n">
         <v>0.04</v>
@@ -1888,16 +1930,19 @@
       <c r="AD14" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:30">
+      <c r="AE14" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" t="n">
         <v>0.05</v>
@@ -1980,16 +2025,19 @@
       <c r="AD15" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="AE15" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="n">
         <v>0.01</v>
@@ -2060,16 +2108,19 @@
       <c r="AD16" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="17" spans="1:30">
+      <c r="AE16" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
         <v>0.72</v>
@@ -2152,16 +2203,19 @@
       <c r="AD17" t="n">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="18" spans="1:30">
+      <c r="AE17" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" t="n">
         <v>0.78</v>
@@ -2244,16 +2298,19 @@
       <c r="AD18" t="n">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="19" spans="1:30">
+      <c r="AE18" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" t="n">
         <v>0.71</v>
@@ -2336,16 +2393,19 @@
       <c r="AD19" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="20" spans="1:30">
+      <c r="AE19" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
         <v>0.72</v>
@@ -2428,16 +2488,19 @@
       <c r="AD20" t="n">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="21" spans="1:30">
+      <c r="AE20" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" t="n">
         <v>0.75</v>
@@ -2520,16 +2583,19 @@
       <c r="AD21" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="22" spans="1:30">
+      <c r="AE21" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" t="n">
         <v>0.74</v>
@@ -2612,16 +2678,19 @@
       <c r="AD22" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="23" spans="1:30">
+      <c r="AE22" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -2704,16 +2773,19 @@
       <c r="AD23" t="n">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="24" spans="1:30">
+      <c r="AE23" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="n">
         <v>0.79</v>
@@ -2796,16 +2868,19 @@
       <c r="AD24" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="25" spans="1:30">
+      <c r="AE24" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" t="n">
         <v>0.73</v>
@@ -2888,16 +2963,19 @@
       <c r="AD25" t="n">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="26" spans="1:30">
+      <c r="AE25" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" t="n">
         <v>0.72</v>
@@ -2980,16 +3058,19 @@
       <c r="AD26" t="n">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="27" spans="1:30">
+      <c r="AE26" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" t="n">
         <v>0.75</v>
@@ -3072,16 +3153,19 @@
       <c r="AD27" t="n">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="28" spans="1:30">
+      <c r="AE27" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" t="n">
         <v>0.71</v>
@@ -3164,16 +3248,19 @@
       <c r="AD28" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="29" spans="1:30">
+      <c r="AE28" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" t="n">
         <v>0.75</v>
@@ -3254,18 +3341,21 @@
         <v>0.73</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30">
+        <v>0.75</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" t="n">
         <v>0.79</v>
@@ -3348,16 +3438,19 @@
       <c r="AD30" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:30">
+      <c r="AE30" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31" t="n">
         <v>0.78</v>
@@ -3440,16 +3533,19 @@
       <c r="AD31" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="32" spans="1:30">
+      <c r="AE31" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E32" t="n">
         <v>0.8100000000000001</v>
@@ -3529,16 +3625,19 @@
       <c r="AD32" t="n">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="33" spans="1:30">
+      <c r="AE32" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E33" t="n">
         <v>0.8</v>
@@ -3616,18 +3715,21 @@
         <v>0.86</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30">
+        <v>0.86</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E34" t="n">
         <v>0.7</v>
@@ -3707,16 +3809,19 @@
       <c r="AD34" t="n">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="35" spans="1:30">
+      <c r="AE34" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E35" t="n">
         <v>0.73</v>
@@ -3796,16 +3901,19 @@
       <c r="AD35" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:30">
+      <c r="AE35" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36" t="n">
         <v>0.32</v>
@@ -3888,16 +3996,19 @@
       <c r="AD36" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="37" spans="1:30">
+      <c r="AE36" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37" t="n">
         <v>0.27</v>
@@ -3980,16 +4091,19 @@
       <c r="AD37" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:30">
+      <c r="AE37" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38" t="n">
         <v>0.25</v>
@@ -4072,16 +4186,19 @@
       <c r="AD38" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="39" spans="1:30">
+      <c r="AE38" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D39" t="n">
         <v>0.31</v>
@@ -4164,16 +4281,19 @@
       <c r="AD39" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="40" spans="1:30">
+      <c r="AE39" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D40" t="n">
         <v>0.28</v>
@@ -4256,16 +4376,19 @@
       <c r="AD40" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="41" spans="1:30">
+      <c r="AE40" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D41" t="n">
         <v>0.26</v>
@@ -4348,16 +4471,19 @@
       <c r="AD41" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="42" spans="1:30">
+      <c r="AE41" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D42" t="n">
         <v>0.59</v>
@@ -4440,16 +4566,19 @@
       <c r="AD42" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="43" spans="1:30">
+      <c r="AE42" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D43" t="n">
         <v>0.38</v>
@@ -4532,16 +4661,19 @@
       <c r="AD43" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="44" spans="1:30">
+      <c r="AE43" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D44" t="n">
         <v>0.27</v>
@@ -4624,16 +4756,19 @@
       <c r="AD44" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="45" spans="1:30">
+      <c r="AE44" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D45" t="n">
         <v>0.26</v>
@@ -4716,16 +4851,19 @@
       <c r="AD45" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="46" spans="1:30">
+      <c r="AE45" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D46" t="n">
         <v>0.29</v>
@@ -4808,16 +4946,19 @@
       <c r="AD46" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="47" spans="1:30">
+      <c r="AE46" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D47" t="n">
         <v>0.2</v>
@@ -4900,16 +5041,19 @@
       <c r="AD47" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="48" spans="1:30">
+      <c r="AE47" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D48" t="n">
         <v>0.27</v>
@@ -4990,18 +5134,21 @@
         <v>0.23</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30">
+        <v>0.26</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D49" t="n">
         <v>0.42</v>
@@ -5084,16 +5231,19 @@
       <c r="AD49" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="50" spans="1:30">
+      <c r="AE49" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D50" t="n">
         <v>0.51</v>
@@ -5176,16 +5326,19 @@
       <c r="AD50" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="51" spans="1:30">
+      <c r="AE50" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E51" t="n">
         <v>0.16</v>
@@ -5263,18 +5416,21 @@
         <v>0.27</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30">
+        <v>0.29</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E52" t="n">
         <v>0.16</v>
@@ -5354,16 +5510,19 @@
       <c r="AD52" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="53" spans="1:30">
+      <c r="AE52" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E53" t="n">
         <v>0.04</v>
@@ -5443,16 +5602,19 @@
       <c r="AD53" t="n">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="54" spans="1:30">
+      <c r="AE53" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E54" t="n">
         <v>0.1</v>
@@ -5532,16 +5694,19 @@
       <c r="AD54" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="55" spans="1:30">
+      <c r="AE54" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D55" t="n">
         <v>0.18</v>
@@ -5624,16 +5789,19 @@
       <c r="AD55" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="56" spans="1:30">
+      <c r="AE55" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D56" t="n">
         <v>0.21</v>
@@ -5714,18 +5882,21 @@
         <v>0.22</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30">
+        <v>0.22</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D57" t="n">
         <v>0.2</v>
@@ -5808,16 +5979,19 @@
       <c r="AD57" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="58" spans="1:30">
+      <c r="AE57" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D58" t="n">
         <v>0.15</v>
@@ -5900,16 +6074,19 @@
       <c r="AD58" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="59" spans="1:30">
+      <c r="AE58" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D59" t="n">
         <v>0.19</v>
@@ -5992,16 +6169,19 @@
       <c r="AD59" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="60" spans="1:30">
+      <c r="AE59" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D60" t="n">
         <v>0.22</v>
@@ -6082,18 +6262,21 @@
         <v>0.28</v>
       </c>
       <c r="AD60" t="n">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30">
+        <v>0.3</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D61" t="n">
         <v>0.11</v>
@@ -6176,16 +6359,19 @@
       <c r="AD61" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="62" spans="1:30">
+      <c r="AE61" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D62" t="n">
         <v>0.2</v>
@@ -6266,18 +6452,21 @@
         <v>0.21</v>
       </c>
       <c r="AD62" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30">
+        <v>0.28</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D63" t="n">
         <v>0.2</v>
@@ -6358,18 +6547,21 @@
         <v>0.25</v>
       </c>
       <c r="AD63" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30">
+        <v>0.25</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D64" t="n">
         <v>0.18</v>
@@ -6452,16 +6644,19 @@
       <c r="AD64" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="65" spans="1:30">
+      <c r="AE64" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D65" t="n">
         <v>0.22</v>
@@ -6544,16 +6739,19 @@
       <c r="AD65" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="66" spans="1:30">
+      <c r="AE65" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D66" t="n">
         <v>0.22</v>
@@ -6634,18 +6832,21 @@
         <v>0.25</v>
       </c>
       <c r="AD66" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30">
+        <v>0.27</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D67" t="n">
         <v>0.17</v>
@@ -6728,16 +6929,19 @@
       <c r="AD67" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="68" spans="1:30">
+      <c r="AE67" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D68" t="n">
         <v>0.2</v>
@@ -6820,16 +7024,19 @@
       <c r="AD68" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="69" spans="1:30">
+      <c r="AE68" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D69" t="n">
         <v>0.17</v>
@@ -6912,16 +7119,19 @@
       <c r="AD69" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="70" spans="1:30">
+      <c r="AE69" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E70" t="n">
         <v>0.1</v>
@@ -7001,16 +7211,19 @@
       <c r="AD70" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="71" spans="1:30">
+      <c r="AE70" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E71" t="n">
         <v>0.08</v>
@@ -7090,16 +7303,19 @@
       <c r="AD71" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="72" spans="1:30">
+      <c r="AE71" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E72" t="n">
         <v>0.08</v>
@@ -7179,16 +7395,19 @@
       <c r="AD72" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="73" spans="1:30">
+      <c r="AE72" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E73" t="n">
         <v>0.14</v>
@@ -7268,16 +7487,19 @@
       <c r="AD73" t="n">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:30">
+      <c r="AE73" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31">
       <c r="A74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D74" t="n">
         <v>0.09</v>
@@ -7360,16 +7582,19 @@
       <c r="AD74" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="75" spans="1:30">
+      <c r="AE74" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31">
       <c r="A75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D75" t="n">
         <v>0.09</v>
@@ -7452,16 +7677,19 @@
       <c r="AD75" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="76" spans="1:30">
+      <c r="AE75" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31">
       <c r="A76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D76" t="n">
         <v>0.08</v>
@@ -7544,16 +7772,19 @@
       <c r="AD76" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="77" spans="1:30">
+      <c r="AE76" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31">
       <c r="A77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D77" t="n">
         <v>0.1</v>
@@ -7636,16 +7867,19 @@
       <c r="AD77" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="78" spans="1:30">
+      <c r="AE77" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31">
       <c r="A78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D78" t="n">
         <v>0.07000000000000001</v>
@@ -7728,16 +7962,19 @@
       <c r="AD78" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="79" spans="1:30">
+      <c r="AE78" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31">
       <c r="A79" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D79" t="n">
         <v>0.09</v>
@@ -7820,16 +8057,19 @@
       <c r="AD79" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="80" spans="1:30">
+      <c r="AE79" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31">
       <c r="A80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D80" t="n">
         <v>0.06</v>
@@ -7912,16 +8152,19 @@
       <c r="AD80" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="81" spans="1:30">
+      <c r="AE80" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D81" t="n">
         <v>0.13</v>
@@ -8004,16 +8247,19 @@
       <c r="AD81" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="82" spans="1:30">
+      <c r="AE81" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D82" t="n">
         <v>0.09</v>
@@ -8096,16 +8342,19 @@
       <c r="AD82" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="83" spans="1:30">
+      <c r="AE82" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D83" t="n">
         <v>0.09</v>
@@ -8188,16 +8437,19 @@
       <c r="AD83" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="84" spans="1:30">
+      <c r="AE83" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31">
       <c r="A84" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D84" t="n">
         <v>0.08</v>
@@ -8280,16 +8532,19 @@
       <c r="AD84" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="85" spans="1:30">
+      <c r="AE84" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31">
       <c r="A85" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D85" t="n">
         <v>0.07000000000000001</v>
@@ -8372,16 +8627,19 @@
       <c r="AD85" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="86" spans="1:30">
+      <c r="AE85" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31">
       <c r="A86" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B86" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D86" t="n">
         <v>0.09</v>
@@ -8464,16 +8722,19 @@
       <c r="AD86" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="87" spans="1:30">
+      <c r="AE86" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31">
       <c r="A87" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B87" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D87" t="n">
         <v>0.11</v>
@@ -8556,16 +8817,19 @@
       <c r="AD87" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="88" spans="1:30">
+      <c r="AE87" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31">
       <c r="A88" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B88" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D88" t="n">
         <v>0.13</v>
@@ -8648,16 +8912,19 @@
       <c r="AD88" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="89" spans="1:30">
+      <c r="AE88" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31">
       <c r="A89" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B89" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E89" t="n">
         <v>0.03</v>
@@ -8737,16 +9004,19 @@
       <c r="AD89" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="90" spans="1:30">
+      <c r="AE89" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31">
       <c r="A90" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B90" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E90" t="n">
         <v>0.04</v>
@@ -8826,16 +9096,19 @@
       <c r="AD90" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="91" spans="1:30">
+      <c r="AE90" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31">
       <c r="A91" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B91" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E91" t="n">
         <v>0.02</v>
@@ -8915,16 +9188,19 @@
       <c r="AD91" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="92" spans="1:30">
+      <c r="AE91" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31">
       <c r="A92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B92" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E92" t="n">
         <v>0.01</v>
@@ -9004,16 +9280,19 @@
       <c r="AD92" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="93" spans="1:30">
+      <c r="AE92" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31">
       <c r="A93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D93" t="n">
         <v>0.04</v>
@@ -9096,16 +9375,19 @@
       <c r="AD93" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="94" spans="1:30">
+      <c r="AE93" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31">
       <c r="A94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D94" t="n">
         <v>0.03</v>
@@ -9188,16 +9470,19 @@
       <c r="AD94" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="95" spans="1:30">
+      <c r="AE94" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31">
       <c r="A95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B95" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D95" t="n">
         <v>0.01</v>
@@ -9280,16 +9565,19 @@
       <c r="AD95" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="96" spans="1:30">
+      <c r="AE95" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31">
       <c r="A96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D96" t="n">
         <v>0.03</v>
@@ -9372,16 +9660,19 @@
       <c r="AD96" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="97" spans="1:30">
+      <c r="AE96" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31">
       <c r="A97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D97" t="n">
         <v>0.03</v>
@@ -9464,16 +9755,19 @@
       <c r="AD97" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="98" spans="1:30">
+      <c r="AE97" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31">
       <c r="A98" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D98" t="n">
         <v>0.02</v>
@@ -9556,16 +9850,19 @@
       <c r="AD98" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="99" spans="1:30">
+      <c r="AE98" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31">
       <c r="A99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D99" t="n">
         <v>0.28</v>
@@ -9648,16 +9945,19 @@
       <c r="AD99" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="100" spans="1:30">
+      <c r="AE99" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31">
       <c r="A100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D100" t="n">
         <v>0.04</v>
@@ -9740,16 +10040,19 @@
       <c r="AD100" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="101" spans="1:30">
+      <c r="AE100" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31">
       <c r="A101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D101" t="n">
         <v>0.02</v>
@@ -9832,108 +10135,114 @@
       <c r="AD101" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="102" spans="1:30">
+      <c r="AE101" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="102" spans="1:31">
       <c r="A102" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B102" t="s">
+        <v>61</v>
+      </c>
+      <c r="C102" t="s">
+        <v>37</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31">
+      <c r="A103" t="s">
         <v>60</v>
       </c>
-      <c r="C102" t="s">
-        <v>36</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O102" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P102" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="R102" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S102" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="T102" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="U102" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="V102" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="W102" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="X102" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y102" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z102" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AA102" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AB102" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AC102" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AD102" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="103" spans="1:30">
-      <c r="A103" t="s">
-        <v>59</v>
-      </c>
       <c r="B103" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C103" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D103" t="n">
         <v>0.02</v>
@@ -10016,16 +10325,19 @@
       <c r="AD103" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="104" spans="1:30">
+      <c r="AE103" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31">
       <c r="A104" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B104" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D104" t="n">
         <v>0.02</v>
@@ -10108,16 +10420,19 @@
       <c r="AD104" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="105" spans="1:30">
+      <c r="AE104" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31">
       <c r="A105" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B105" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D105" t="n">
         <v>0.02</v>
@@ -10200,16 +10515,19 @@
       <c r="AD105" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="106" spans="1:30">
+      <c r="AE105" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31">
       <c r="A106" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B106" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D106" t="n">
         <v>0.03</v>
@@ -10292,16 +10610,19 @@
       <c r="AD106" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="107" spans="1:30">
+      <c r="AE106" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31">
       <c r="A107" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B107" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D107" t="n">
         <v>0.05</v>
@@ -10384,16 +10705,19 @@
       <c r="AD107" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="108" spans="1:30">
+      <c r="AE107" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31">
       <c r="A108" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B108" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C108" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E108" t="n">
         <v>0.02</v>
@@ -10473,16 +10797,19 @@
       <c r="AD108" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="109" spans="1:30">
+      <c r="AE108" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31">
       <c r="A109" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B109" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E109" t="n">
         <v>0.005</v>
@@ -10562,16 +10889,19 @@
       <c r="AD109" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="110" spans="1:30">
+      <c r="AE109" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31">
       <c r="A110" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B110" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -10651,16 +10981,19 @@
       <c r="AD110" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="111" spans="1:30">
+      <c r="AE110" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31">
       <c r="A111" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B111" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -10740,16 +11073,19 @@
       <c r="AD111" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="112" spans="1:30">
+      <c r="AE111" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="112" spans="1:31">
       <c r="A112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C112" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D112" t="n">
         <v>0.25</v>
@@ -10832,16 +11168,19 @@
       <c r="AD112" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="113" spans="1:30">
+      <c r="AE112" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31">
       <c r="A113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B113" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C113" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D113" t="n">
         <v>0.21</v>
@@ -10924,16 +11263,19 @@
       <c r="AD113" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="114" spans="1:30">
+      <c r="AE113" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:31">
       <c r="A114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D114" t="n">
         <v>0.14</v>
@@ -11016,16 +11358,19 @@
       <c r="AD114" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="115" spans="1:30">
+      <c r="AE114" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="115" spans="1:31">
       <c r="A115" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B115" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D115" t="n">
         <v>0.25</v>
@@ -11108,16 +11453,19 @@
       <c r="AD115" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:30">
+      <c r="AE115" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:31">
       <c r="A116" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D116" t="n">
         <v>0.2</v>
@@ -11200,16 +11548,19 @@
       <c r="AD116" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="117" spans="1:30">
+      <c r="AE116" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31">
       <c r="A117" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C117" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D117" t="n">
         <v>0.16</v>
@@ -11292,16 +11643,19 @@
       <c r="AD117" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="118" spans="1:30">
+      <c r="AE117" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31">
       <c r="A118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C118" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D118" t="n">
         <v>0.37</v>
@@ -11384,16 +11738,19 @@
       <c r="AD118" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="119" spans="1:30">
+      <c r="AE118" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:31">
       <c r="A119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D119" t="n">
         <v>0.2</v>
@@ -11476,16 +11833,19 @@
       <c r="AD119" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="120" spans="1:30">
+      <c r="AE119" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:31">
       <c r="A120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B120" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C120" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D120" t="n">
         <v>0.19</v>
@@ -11568,16 +11928,19 @@
       <c r="AD120" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="121" spans="1:30">
+      <c r="AE120" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:31">
       <c r="A121" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B121" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D121" t="n">
         <v>0.25</v>
@@ -11660,16 +12023,19 @@
       <c r="AD121" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="122" spans="1:30">
+      <c r="AE121" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:31">
       <c r="A122" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B122" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C122" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D122" t="n">
         <v>0.13</v>
@@ -11752,16 +12118,19 @@
       <c r="AD122" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="123" spans="1:30">
+      <c r="AE122" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:31">
       <c r="A123" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B123" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C123" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D123" t="n">
         <v>0.17</v>
@@ -11844,16 +12213,19 @@
       <c r="AD123" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="124" spans="1:30">
+      <c r="AE123" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:31">
       <c r="A124" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B124" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D124" t="n">
         <v>0.19</v>
@@ -11936,16 +12308,19 @@
       <c r="AD124" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="125" spans="1:30">
+      <c r="AE124" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:31">
       <c r="A125" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B125" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C125" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D125" t="n">
         <v>0.25</v>
@@ -12028,16 +12403,19 @@
       <c r="AD125" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:30">
+      <c r="AE125" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:31">
       <c r="A126" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B126" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C126" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D126" t="n">
         <v>0.26</v>
@@ -12120,16 +12498,19 @@
       <c r="AD126" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="127" spans="1:30">
+      <c r="AE126" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:31">
       <c r="A127" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B127" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C127" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E127" t="n">
         <v>0.02</v>
@@ -12209,16 +12590,19 @@
       <c r="AD127" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="128" spans="1:30">
+      <c r="AE127" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:31">
       <c r="A128" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B128" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C128" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E128" t="n">
         <v>0.01</v>
@@ -12298,16 +12682,19 @@
       <c r="AD128" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="129" spans="1:30">
+      <c r="AE128" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:31">
       <c r="A129" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B129" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C129" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E129" t="n">
         <v>0.005</v>
@@ -12387,16 +12774,19 @@
       <c r="AD129" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="130" spans="1:30">
+      <c r="AE129" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:31">
       <c r="A130" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B130" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C130" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -12476,16 +12866,19 @@
       <c r="AD130" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="131" spans="1:30">
+      <c r="AE130" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:31">
       <c r="A131" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D131" t="n">
         <v>0.09</v>
@@ -12568,16 +12961,19 @@
       <c r="AD131" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="132" spans="1:30">
+      <c r="AE131" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="132" spans="1:31">
       <c r="A132" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B132" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D132" t="n">
         <v>0.08</v>
@@ -12660,16 +13056,19 @@
       <c r="AD132" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="133" spans="1:30">
+      <c r="AE132" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="133" spans="1:31">
       <c r="A133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B133" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C133" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D133" t="n">
         <v>0.04</v>
@@ -12752,16 +13151,19 @@
       <c r="AD133" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="134" spans="1:30">
+      <c r="AE133" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="134" spans="1:31">
       <c r="A134" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B134" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C134" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D134" t="n">
         <v>0.07000000000000001</v>
@@ -12844,16 +13246,19 @@
       <c r="AD134" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="135" spans="1:30">
+      <c r="AE134" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="135" spans="1:31">
       <c r="A135" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B135" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D135" t="n">
         <v>0.07000000000000001</v>
@@ -12936,16 +13341,19 @@
       <c r="AD135" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="136" spans="1:30">
+      <c r="AE135" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="136" spans="1:31">
       <c r="A136" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B136" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D136" t="n">
         <v>0.06</v>
@@ -13028,16 +13436,19 @@
       <c r="AD136" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="137" spans="1:30">
+      <c r="AE136" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="137" spans="1:31">
       <c r="A137" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B137" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D137" t="n">
         <v>0.2</v>
@@ -13120,16 +13531,19 @@
       <c r="AD137" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="138" spans="1:30">
+      <c r="AE137" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:31">
       <c r="A138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D138" t="n">
         <v>0.13</v>
@@ -13212,16 +13626,19 @@
       <c r="AD138" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="139" spans="1:30">
+      <c r="AE138" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="139" spans="1:31">
       <c r="A139" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B139" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C139" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D139" t="n">
         <v>0.06</v>
@@ -13304,16 +13721,19 @@
       <c r="AD139" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="140" spans="1:30">
+      <c r="AE139" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="140" spans="1:31">
       <c r="A140" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B140" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C140" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D140" t="n">
         <v>0.07000000000000001</v>
@@ -13396,16 +13816,19 @@
       <c r="AD140" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="141" spans="1:30">
+      <c r="AE140" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="141" spans="1:31">
       <c r="A141" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B141" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C141" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D141" t="n">
         <v>0.05</v>
@@ -13488,16 +13911,19 @@
       <c r="AD141" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="142" spans="1:30">
+      <c r="AE141" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="142" spans="1:31">
       <c r="A142" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B142" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C142" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D142" t="n">
         <v>0.05</v>
@@ -13580,16 +14006,19 @@
       <c r="AD142" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="143" spans="1:30">
+      <c r="AE142" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="143" spans="1:31">
       <c r="A143" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B143" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C143" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D143" t="n">
         <v>0.07000000000000001</v>
@@ -13672,16 +14101,19 @@
       <c r="AD143" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="144" spans="1:30">
+      <c r="AE143" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="144" spans="1:31">
       <c r="A144" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B144" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C144" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D144" t="n">
         <v>0.08</v>
@@ -13764,16 +14196,19 @@
       <c r="AD144" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="145" spans="1:30">
+      <c r="AE144" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:31">
       <c r="A145" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B145" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C145" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D145" t="n">
         <v>0.1</v>
@@ -13856,16 +14291,19 @@
       <c r="AD145" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="146" spans="1:30">
+      <c r="AE145" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="146" spans="1:31">
       <c r="A146" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B146" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C146" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E146" t="n">
         <v>0.01</v>
@@ -13945,16 +14383,19 @@
       <c r="AD146" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="147" spans="1:30">
+      <c r="AE146" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="147" spans="1:31">
       <c r="A147" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B147" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C147" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
@@ -14034,16 +14475,19 @@
       <c r="AD147" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="148" spans="1:30">
+      <c r="AE147" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="148" spans="1:31">
       <c r="A148" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B148" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C148" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
@@ -14123,16 +14567,19 @@
       <c r="AD148" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="149" spans="1:30">
+      <c r="AE148" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:31">
       <c r="A149" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B149" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C149" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E149" t="n">
         <v>0.01</v>
@@ -14212,16 +14659,19 @@
       <c r="AD149" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:30">
+      <c r="AE149" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="150" spans="1:31">
       <c r="A150" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C150" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H150" t="n">
         <v>0.04</v>
@@ -14292,16 +14742,19 @@
       <c r="AD150" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="151" spans="1:30">
+      <c r="AE150" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="151" spans="1:31">
       <c r="A151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B151" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C151" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H151" t="n">
         <v>0.05</v>
@@ -14372,16 +14825,19 @@
       <c r="AD151" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="152" spans="1:30">
+      <c r="AE151" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="152" spans="1:31">
       <c r="A152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B152" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C152" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H152" t="n">
         <v>0.04</v>
@@ -14452,16 +14908,19 @@
       <c r="AD152" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="153" spans="1:30">
+      <c r="AE152" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="153" spans="1:31">
       <c r="A153" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B153" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C153" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H153" t="n">
         <v>0.05</v>
@@ -14532,16 +14991,19 @@
       <c r="AD153" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="154" spans="1:30">
+      <c r="AE153" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="154" spans="1:31">
       <c r="A154" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B154" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C154" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H154" t="n">
         <v>0.04</v>
@@ -14612,16 +15074,19 @@
       <c r="AD154" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="155" spans="1:30">
+      <c r="AE154" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="155" spans="1:31">
       <c r="A155" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B155" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C155" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H155" t="n">
         <v>0.06</v>
@@ -14692,16 +15157,19 @@
       <c r="AD155" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="156" spans="1:30">
+      <c r="AE155" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="156" spans="1:31">
       <c r="A156" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B156" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C156" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H156" t="n">
         <v>0.06</v>
@@ -14772,16 +15240,19 @@
       <c r="AD156" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="157" spans="1:30">
+      <c r="AE156" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:31">
       <c r="A157" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B157" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C157" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H157" t="n">
         <v>0.05</v>
@@ -14852,16 +15323,19 @@
       <c r="AD157" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="158" spans="1:30">
+      <c r="AE157" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="158" spans="1:31">
       <c r="A158" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B158" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C158" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H158" t="n">
         <v>0.05</v>
@@ -14932,16 +15406,19 @@
       <c r="AD158" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="159" spans="1:30">
+      <c r="AE158" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="159" spans="1:31">
       <c r="A159" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B159" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C159" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H159" t="n">
         <v>0.04</v>
@@ -15012,16 +15489,19 @@
       <c r="AD159" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="160" spans="1:30">
+      <c r="AE159" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="160" spans="1:31">
       <c r="A160" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B160" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C160" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H160" t="n">
         <v>0.05</v>
@@ -15092,16 +15572,19 @@
       <c r="AD160" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="161" spans="1:30">
+      <c r="AE160" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="161" spans="1:31">
       <c r="A161" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B161" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C161" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H161" t="n">
         <v>0.05</v>
@@ -15172,16 +15655,19 @@
       <c r="AD161" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="162" spans="1:30">
+      <c r="AE161" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="162" spans="1:31">
       <c r="A162" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B162" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C162" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H162" t="n">
         <v>0.05</v>
@@ -15252,16 +15738,19 @@
       <c r="AD162" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="163" spans="1:30">
+      <c r="AE162" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="163" spans="1:31">
       <c r="A163" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B163" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C163" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H163" t="n">
         <v>0.03</v>
@@ -15332,16 +15821,19 @@
       <c r="AD163" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="164" spans="1:30">
+      <c r="AE163" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="164" spans="1:31">
       <c r="A164" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B164" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C164" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H164" t="n">
         <v>0.04</v>
@@ -15412,16 +15904,19 @@
       <c r="AD164" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="165" spans="1:30">
+      <c r="AE164" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="165" spans="1:31">
       <c r="A165" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B165" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C165" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H165" t="n">
         <v>0.03</v>
@@ -15492,16 +15987,19 @@
       <c r="AD165" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="166" spans="1:30">
+      <c r="AE165" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="166" spans="1:31">
       <c r="A166" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B166" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C166" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H166" t="n">
         <v>0.05</v>
@@ -15572,16 +16070,19 @@
       <c r="AD166" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="167" spans="1:30">
+      <c r="AE166" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:31">
       <c r="A167" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B167" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C167" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H167" t="n">
         <v>0.05</v>
@@ -15652,16 +16153,19 @@
       <c r="AD167" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="168" spans="1:30">
+      <c r="AE167" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="168" spans="1:31">
       <c r="A168" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B168" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C168" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H168" t="n">
         <v>0.06</v>
@@ -15732,16 +16236,19 @@
       <c r="AD168" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="169" spans="1:30">
+      <c r="AE168" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="169" spans="1:31">
       <c r="A169" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B169" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C169" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D169" t="n">
         <v>0.03</v>
@@ -15824,16 +16331,19 @@
       <c r="AD169" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="170" spans="1:30">
+      <c r="AE169" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="170" spans="1:31">
       <c r="A170" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B170" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C170" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D170" t="n">
         <v>0.03</v>
@@ -15916,16 +16426,19 @@
       <c r="AD170" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="171" spans="1:30">
+      <c r="AE170" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="171" spans="1:31">
       <c r="A171" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B171" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C171" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D171" t="n">
         <v>0.015</v>
@@ -16008,16 +16521,19 @@
       <c r="AD171" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="172" spans="1:30">
+      <c r="AE171" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="172" spans="1:31">
       <c r="A172" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B172" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C172" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D172" t="n">
         <v>0.02</v>
@@ -16100,16 +16616,19 @@
       <c r="AD172" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="173" spans="1:30">
+      <c r="AE172" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="173" spans="1:31">
       <c r="A173" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B173" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C173" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D173" t="n">
         <v>0.02</v>
@@ -16192,16 +16711,19 @@
       <c r="AD173" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="174" spans="1:30">
+      <c r="AE173" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="174" spans="1:31">
       <c r="A174" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B174" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C174" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D174" t="n">
         <v>0.02</v>
@@ -16284,16 +16806,19 @@
       <c r="AD174" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="175" spans="1:30">
+      <c r="AE174" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="175" spans="1:31">
       <c r="A175" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B175" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C175" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D175" t="n">
         <v>0.09</v>
@@ -16376,16 +16901,19 @@
       <c r="AD175" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="176" spans="1:30">
+      <c r="AE175" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="176" spans="1:31">
       <c r="A176" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B176" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C176" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D176" t="n">
         <v>0.08</v>
@@ -16468,16 +16996,19 @@
       <c r="AD176" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="177" spans="1:30">
+      <c r="AE176" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="177" spans="1:31">
       <c r="A177" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B177" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C177" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D177" t="n">
         <v>0.02</v>
@@ -16560,16 +17091,19 @@
       <c r="AD177" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="178" spans="1:30">
+      <c r="AE177" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="178" spans="1:31">
       <c r="A178" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B178" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C178" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D178" t="n">
         <v>0.02</v>
@@ -16652,16 +17186,19 @@
       <c r="AD178" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="179" spans="1:30">
+      <c r="AE178" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="179" spans="1:31">
       <c r="A179" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B179" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C179" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D179" t="n">
         <v>0.02</v>
@@ -16744,16 +17281,19 @@
       <c r="AD179" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="180" spans="1:30">
+      <c r="AE179" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="180" spans="1:31">
       <c r="A180" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B180" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C180" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D180" t="n">
         <v>0.02</v>
@@ -16836,16 +17376,19 @@
       <c r="AD180" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="181" spans="1:30">
+      <c r="AE180" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="181" spans="1:31">
       <c r="A181" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B181" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C181" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D181" t="n">
         <v>0.04</v>
@@ -16928,16 +17471,19 @@
       <c r="AD181" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="182" spans="1:30">
+      <c r="AE181" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="182" spans="1:31">
       <c r="A182" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B182" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C182" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D182" t="n">
         <v>0.02</v>
@@ -17020,16 +17566,19 @@
       <c r="AD182" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="183" spans="1:30">
+      <c r="AE182" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:31">
       <c r="A183" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B183" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C183" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D183" t="n">
         <v>0.03</v>
@@ -17112,16 +17661,19 @@
       <c r="AD183" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="184" spans="1:30">
+      <c r="AE183" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="184" spans="1:31">
       <c r="A184" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B184" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C184" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
@@ -17201,16 +17753,19 @@
       <c r="AD184" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="185" spans="1:30">
+      <c r="AE184" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="185" spans="1:31">
       <c r="A185" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B185" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C185" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -17288,18 +17843,21 @@
         <v>0</v>
       </c>
       <c r="AD185" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="186" spans="1:30">
+        <v>0.005</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="186" spans="1:31">
       <c r="A186" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B186" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C186" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -17379,16 +17937,19 @@
       <c r="AD186" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="187" spans="1:30">
+      <c r="AE186" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:31">
       <c r="A187" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B187" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C187" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -17468,16 +18029,19 @@
       <c r="AD187" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="188" spans="1:30">
+      <c r="AE187" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="188" spans="1:31">
       <c r="A188" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B188" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C188" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D188" t="n">
         <v>0.02</v>
@@ -17560,16 +18124,19 @@
       <c r="AD188" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="189" spans="1:30">
+      <c r="AE188" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="189" spans="1:31">
       <c r="A189" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B189" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C189" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D189" t="n">
         <v>0.015</v>
@@ -17652,16 +18219,19 @@
       <c r="AD189" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="190" spans="1:30">
+      <c r="AE189" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="190" spans="1:31">
       <c r="A190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B190" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C190" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D190" t="n">
         <v>0.005</v>
@@ -17744,16 +18314,19 @@
       <c r="AD190" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:30">
+      <c r="AE190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:31">
       <c r="A191" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B191" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C191" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D191" t="n">
         <v>0.005</v>
@@ -17836,16 +18409,19 @@
       <c r="AD191" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="192" spans="1:30">
+      <c r="AE191" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="192" spans="1:31">
       <c r="A192" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B192" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C192" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D192" t="n">
         <v>0.015</v>
@@ -17928,16 +18504,19 @@
       <c r="AD192" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="193" spans="1:30">
+      <c r="AE192" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="193" spans="1:31">
       <c r="A193" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B193" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C193" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D193" t="n">
         <v>0.015</v>
@@ -18020,16 +18599,19 @@
       <c r="AD193" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="194" spans="1:30">
+      <c r="AE193" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="194" spans="1:31">
       <c r="A194" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B194" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C194" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D194" t="n">
         <v>0.06</v>
@@ -18112,16 +18694,19 @@
       <c r="AD194" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="195" spans="1:30">
+      <c r="AE194" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="195" spans="1:31">
       <c r="A195" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B195" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C195" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D195" t="n">
         <v>0.07000000000000001</v>
@@ -18204,16 +18789,19 @@
       <c r="AD195" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:30">
+      <c r="AE195" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="196" spans="1:31">
       <c r="A196" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B196" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C196" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D196" t="n">
         <v>0.01</v>
@@ -18296,16 +18884,19 @@
       <c r="AD196" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="197" spans="1:30">
+      <c r="AE196" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="197" spans="1:31">
       <c r="A197" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B197" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C197" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D197" t="n">
         <v>0.015</v>
@@ -18388,16 +18979,19 @@
       <c r="AD197" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="198" spans="1:30">
+      <c r="AE197" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="198" spans="1:31">
       <c r="A198" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B198" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C198" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D198" t="n">
         <v>0.01</v>
@@ -18480,16 +19074,19 @@
       <c r="AD198" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="199" spans="1:30">
+      <c r="AE198" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="199" spans="1:31">
       <c r="A199" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B199" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C199" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D199" t="n">
         <v>0.015</v>
@@ -18572,16 +19169,19 @@
       <c r="AD199" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="200" spans="1:30">
+      <c r="AE199" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="200" spans="1:31">
       <c r="A200" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B200" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C200" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D200" t="n">
         <v>0.01</v>
@@ -18664,16 +19264,19 @@
       <c r="AD200" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="201" spans="1:30">
+      <c r="AE200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:31">
       <c r="A201" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B201" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C201" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D201" t="n">
         <v>0.02</v>
@@ -18754,18 +19357,21 @@
         <v>0.01</v>
       </c>
       <c r="AD201" t="n">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="202" spans="1:30">
+        <v>0.01</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="202" spans="1:31">
       <c r="A202" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B202" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C202" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D202" t="n">
         <v>0.01</v>
@@ -18848,16 +19454,19 @@
       <c r="AD202" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="203" spans="1:30">
+      <c r="AE202" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="203" spans="1:31">
       <c r="A203" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B203" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C203" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E203" t="n">
         <v>0</v>
@@ -18937,16 +19546,19 @@
       <c r="AD203" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="204" spans="1:30">
+      <c r="AE203" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="204" spans="1:31">
       <c r="A204" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B204" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C204" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E204" t="n">
         <v>0</v>
@@ -19026,16 +19638,19 @@
       <c r="AD204" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:30">
+      <c r="AE204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:31">
       <c r="A205" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B205" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C205" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
@@ -19115,16 +19730,19 @@
       <c r="AD205" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="206" spans="1:30">
+      <c r="AE205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:31">
       <c r="A206" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B206" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C206" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
@@ -19204,16 +19822,19 @@
       <c r="AD206" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:30">
+      <c r="AE206" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="207" spans="1:31">
       <c r="A207" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B207" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C207" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D207" t="n">
         <v>0.5600000000000001</v>
@@ -19296,16 +19917,19 @@
       <c r="AD207" t="n">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="208" spans="1:30">
+      <c r="AE207" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:31">
       <c r="A208" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B208" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C208" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D208" t="n">
         <v>0.47</v>
@@ -19388,16 +20012,19 @@
       <c r="AD208" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="209" spans="1:30">
+      <c r="AE208" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="209" spans="1:31">
       <c r="A209" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B209" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C209" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D209" t="n">
         <v>0.4</v>
@@ -19480,16 +20107,19 @@
       <c r="AD209" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="210" spans="1:30">
+      <c r="AE209" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="210" spans="1:31">
       <c r="A210" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B210" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C210" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D210" t="n">
         <v>0.47</v>
@@ -19572,16 +20202,19 @@
       <c r="AD210" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="211" spans="1:30">
+      <c r="AE210" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="211" spans="1:31">
       <c r="A211" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B211" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C211" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D211" t="n">
         <v>0.46</v>
@@ -19664,16 +20297,19 @@
       <c r="AD211" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="212" spans="1:30">
+      <c r="AE211" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:31">
       <c r="A212" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B212" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C212" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D212" t="n">
         <v>0.47</v>
@@ -19756,16 +20392,19 @@
       <c r="AD212" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="213" spans="1:30">
+      <c r="AE212" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="213" spans="1:31">
       <c r="A213" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B213" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C213" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D213" t="n">
         <v>0.63</v>
@@ -19846,18 +20485,21 @@
         <v>0.54</v>
       </c>
       <c r="AD213" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="214" spans="1:30">
+        <v>0.64</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="214" spans="1:31">
       <c r="A214" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B214" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C214" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D214" t="n">
         <v>0.61</v>
@@ -19940,16 +20582,19 @@
       <c r="AD214" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="215" spans="1:30">
+      <c r="AE214" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="215" spans="1:31">
       <c r="A215" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B215" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C215" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D215" t="n">
         <v>0.46</v>
@@ -20032,16 +20677,19 @@
       <c r="AD215" t="n">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="216" spans="1:30">
+      <c r="AE215" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="216" spans="1:31">
       <c r="A216" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B216" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C216" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D216" t="n">
         <v>0.48</v>
@@ -20124,16 +20772,19 @@
       <c r="AD216" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="217" spans="1:30">
+      <c r="AE216" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="217" spans="1:31">
       <c r="A217" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B217" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C217" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D217" t="n">
         <v>0.45</v>
@@ -20214,18 +20865,21 @@
         <v>0.5</v>
       </c>
       <c r="AD217" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="218" spans="1:30">
+        <v>0.59</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="218" spans="1:31">
       <c r="A218" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B218" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C218" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D218" t="n">
         <v>0.46</v>
@@ -20308,16 +20962,19 @@
       <c r="AD218" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="219" spans="1:30">
+      <c r="AE218" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="219" spans="1:31">
       <c r="A219" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B219" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C219" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D219" t="n">
         <v>0.49</v>
@@ -20400,16 +21057,19 @@
       <c r="AD219" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="220" spans="1:30">
+      <c r="AE219" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="220" spans="1:31">
       <c r="A220" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B220" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C220" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D220" t="n">
         <v>0.49</v>
@@ -20492,16 +21152,19 @@
       <c r="AD220" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="221" spans="1:30">
+      <c r="AE220" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="221" spans="1:31">
       <c r="A221" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B221" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C221" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D221" t="n">
         <v>0.4</v>
@@ -20584,16 +21247,19 @@
       <c r="AD221" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="222" spans="1:30">
+      <c r="AE221" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="222" spans="1:31">
       <c r="A222" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B222" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C222" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E222" t="n">
         <v>0.38</v>
@@ -20673,16 +21339,19 @@
       <c r="AD222" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="223" spans="1:30">
+      <c r="AE222" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="223" spans="1:31">
       <c r="A223" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B223" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C223" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E223" t="n">
         <v>0.41</v>
@@ -20762,16 +21431,19 @@
       <c r="AD223" t="n">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="224" spans="1:30">
+      <c r="AE223" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="224" spans="1:31">
       <c r="A224" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B224" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C224" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E224" t="n">
         <v>0.34</v>
@@ -20851,16 +21523,19 @@
       <c r="AD224" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="225" spans="1:30">
+      <c r="AE224" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="225" spans="1:31">
       <c r="A225" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B225" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C225" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E225" t="n">
         <v>0.32</v>
@@ -20940,16 +21615,19 @@
       <c r="AD225" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="226" spans="1:30">
+      <c r="AE225" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:31">
       <c r="A226" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B226" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C226" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E226" t="n">
         <v>0.17</v>
@@ -21029,16 +21707,19 @@
       <c r="AD226" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="227" spans="1:30">
+      <c r="AE226" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="227" spans="1:31">
       <c r="A227" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B227" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C227" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E227" t="n">
         <v>0.14</v>
@@ -21118,16 +21799,19 @@
       <c r="AD227" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="228" spans="1:30">
+      <c r="AE227" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="228" spans="1:31">
       <c r="A228" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B228" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C228" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E228" t="n">
         <v>0.08</v>
@@ -21207,16 +21891,19 @@
       <c r="AD228" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="229" spans="1:30">
+      <c r="AE228" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="229" spans="1:31">
       <c r="A229" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B229" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C229" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E229" t="n">
         <v>0.16</v>
@@ -21296,16 +21983,19 @@
       <c r="AD229" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="230" spans="1:30">
+      <c r="AE229" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="230" spans="1:31">
       <c r="A230" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B230" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C230" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E230" t="n">
         <v>0.13</v>
@@ -21385,16 +22075,19 @@
       <c r="AD230" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="231" spans="1:30">
+      <c r="AE230" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="231" spans="1:31">
       <c r="A231" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B231" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C231" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E231" t="n">
         <v>0.11</v>
@@ -21474,16 +22167,19 @@
       <c r="AD231" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="232" spans="1:30">
+      <c r="AE231" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="232" spans="1:31">
       <c r="A232" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B232" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C232" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E232" t="n">
         <v>0.06</v>
@@ -21563,16 +22259,19 @@
       <c r="AD232" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="233" spans="1:30">
+      <c r="AE232" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:31">
       <c r="A233" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B233" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C233" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E233" t="n">
         <v>0.18</v>
@@ -21652,16 +22351,19 @@
       <c r="AD233" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="234" spans="1:30">
+      <c r="AE233" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="234" spans="1:31">
       <c r="A234" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B234" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C234" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E234" t="n">
         <v>0.12</v>
@@ -21741,16 +22443,19 @@
       <c r="AD234" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="235" spans="1:30">
+      <c r="AE234" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="235" spans="1:31">
       <c r="A235" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B235" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C235" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E235" t="n">
         <v>0.14</v>
@@ -21830,16 +22535,19 @@
       <c r="AD235" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="236" spans="1:30">
+      <c r="AE235" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="236" spans="1:31">
       <c r="A236" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B236" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C236" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E236" t="n">
         <v>0.11</v>
@@ -21919,16 +22627,19 @@
       <c r="AD236" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="237" spans="1:30">
+      <c r="AE236" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="237" spans="1:31">
       <c r="A237" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B237" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C237" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E237" t="n">
         <v>0.11</v>
@@ -22008,16 +22719,19 @@
       <c r="AD237" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="238" spans="1:30">
+      <c r="AE237" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="238" spans="1:31">
       <c r="A238" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B238" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C238" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E238" t="n">
         <v>0.12</v>
@@ -22097,16 +22811,19 @@
       <c r="AD238" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="239" spans="1:30">
+      <c r="AE238" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:31">
       <c r="A239" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B239" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C239" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E239" t="n">
         <v>0.16</v>
@@ -22186,16 +22903,19 @@
       <c r="AD239" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="240" spans="1:30">
+      <c r="AE239" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="240" spans="1:31">
       <c r="A240" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B240" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C240" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E240" t="n">
         <v>0.15</v>
@@ -22275,16 +22995,19 @@
       <c r="AD240" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="241" spans="1:30">
+      <c r="AE240" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="241" spans="1:31">
       <c r="A241" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B241" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C241" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E241" t="n">
         <v>0.15</v>
@@ -22364,16 +23087,19 @@
       <c r="AD241" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="242" spans="1:30">
+      <c r="AE241" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="242" spans="1:31">
       <c r="A242" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B242" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C242" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E242" t="n">
         <v>0.18</v>
@@ -22453,16 +23179,19 @@
       <c r="AD242" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="243" spans="1:30">
+      <c r="AE242" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="243" spans="1:31">
       <c r="A243" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B243" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C243" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E243" t="n">
         <v>0.12</v>
@@ -22542,16 +23271,19 @@
       <c r="AD243" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="244" spans="1:30">
+      <c r="AE243" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="244" spans="1:31">
       <c r="A244" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B244" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C244" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E244" t="n">
         <v>0.14</v>
@@ -22631,16 +23363,19 @@
       <c r="AD244" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="245" spans="1:30">
+      <c r="AE244" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="245" spans="1:31">
       <c r="A245" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B245" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C245" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E245" t="n">
         <v>0.04</v>
@@ -22720,16 +23455,19 @@
       <c r="AD245" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="246" spans="1:30">
+      <c r="AE245" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="246" spans="1:31">
       <c r="A246" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B246" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C246" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E246" t="n">
         <v>0.04</v>
@@ -22809,16 +23547,19 @@
       <c r="AD246" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="247" spans="1:30">
+      <c r="AE246" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="247" spans="1:31">
       <c r="A247" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B247" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C247" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E247" t="n">
         <v>0.03</v>
@@ -22898,16 +23639,19 @@
       <c r="AD247" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="248" spans="1:30">
+      <c r="AE247" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="248" spans="1:31">
       <c r="A248" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B248" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C248" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E248" t="n">
         <v>0.04</v>
@@ -22987,16 +23731,19 @@
       <c r="AD248" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="249" spans="1:30">
+      <c r="AE248" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="249" spans="1:31">
       <c r="A249" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B249" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C249" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E249" t="n">
         <v>0.04</v>
@@ -23076,16 +23823,19 @@
       <c r="AD249" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="250" spans="1:30">
+      <c r="AE249" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:31">
       <c r="A250" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B250" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C250" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E250" t="n">
         <v>0.03</v>
@@ -23165,16 +23915,19 @@
       <c r="AD250" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="251" spans="1:30">
+      <c r="AE250" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="251" spans="1:31">
       <c r="A251" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B251" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C251" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
@@ -23254,16 +24007,19 @@
       <c r="AD251" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="252" spans="1:30">
+      <c r="AE251" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:31">
       <c r="A252" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B252" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C252" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E252" t="n">
         <v>0.05</v>
@@ -23343,16 +24099,19 @@
       <c r="AD252" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="253" spans="1:30">
+      <c r="AE252" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="253" spans="1:31">
       <c r="A253" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B253" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C253" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E253" t="n">
         <v>0.03</v>
@@ -23432,16 +24191,19 @@
       <c r="AD253" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="254" spans="1:30">
+      <c r="AE253" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:31">
       <c r="A254" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C254" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E254" t="n">
         <v>0.04</v>
@@ -23521,16 +24283,19 @@
       <c r="AD254" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="255" spans="1:30">
+      <c r="AE254" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:31">
       <c r="A255" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B255" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C255" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E255" t="n">
         <v>0.03</v>
@@ -23610,16 +24375,19 @@
       <c r="AD255" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="256" spans="1:30">
+      <c r="AE255" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="256" spans="1:31">
       <c r="A256" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B256" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C256" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E256" t="n">
         <v>0.03</v>
@@ -23699,16 +24467,19 @@
       <c r="AD256" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="257" spans="1:30">
+      <c r="AE256" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:31">
       <c r="A257" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C257" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E257" t="n">
         <v>0.04</v>
@@ -23788,16 +24559,19 @@
       <c r="AD257" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="258" spans="1:30">
+      <c r="AE257" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="258" spans="1:31">
       <c r="A258" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B258" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C258" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E258" t="n">
         <v>0.03</v>
@@ -23877,16 +24651,19 @@
       <c r="AD258" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="259" spans="1:30">
+      <c r="AE258" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="259" spans="1:31">
       <c r="A259" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B259" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C259" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E259" t="n">
         <v>0.06</v>
@@ -23966,16 +24743,19 @@
       <c r="AD259" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="260" spans="1:30">
+      <c r="AE259" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="260" spans="1:31">
       <c r="A260" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B260" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C260" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E260" t="n">
         <v>0.05</v>
@@ -24055,16 +24835,19 @@
       <c r="AD260" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="261" spans="1:30">
+      <c r="AE260" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="261" spans="1:31">
       <c r="A261" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B261" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C261" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E261" t="n">
         <v>0.02</v>
@@ -24144,16 +24927,19 @@
       <c r="AD261" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="262" spans="1:30">
+      <c r="AE261" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="262" spans="1:31">
       <c r="A262" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B262" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C262" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E262" t="n">
         <v>0.03</v>
@@ -24233,16 +25019,19 @@
       <c r="AD262" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="263" spans="1:30">
+      <c r="AE262" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:31">
       <c r="A263" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B263" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C263" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E263" t="n">
         <v>0.05</v>
@@ -24320,18 +25109,21 @@
         <v>0.06</v>
       </c>
       <c r="AD263" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="264" spans="1:30">
+        <v>0.06</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="264" spans="1:31">
       <c r="A264" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B264" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C264" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D264" t="n">
         <v>0.08</v>
@@ -24414,16 +25206,19 @@
       <c r="AD264" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="265" spans="1:30">
+      <c r="AE264" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="265" spans="1:31">
       <c r="A265" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B265" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C265" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D265" t="n">
         <v>0.05</v>
@@ -24506,16 +25301,19 @@
       <c r="AD265" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="266" spans="1:30">
+      <c r="AE265" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="266" spans="1:31">
       <c r="A266" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B266" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C266" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D266" t="n">
         <v>0.03</v>
@@ -24598,16 +25396,19 @@
       <c r="AD266" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="267" spans="1:30">
+      <c r="AE266" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="267" spans="1:31">
       <c r="A267" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B267" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C267" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D267" t="n">
         <v>0.04</v>
@@ -24690,16 +25491,19 @@
       <c r="AD267" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="268" spans="1:30">
+      <c r="AE267" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="268" spans="1:31">
       <c r="A268" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B268" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C268" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D268" t="n">
         <v>0.05</v>
@@ -24782,16 +25586,19 @@
       <c r="AD268" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="269" spans="1:30">
+      <c r="AE268" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="269" spans="1:31">
       <c r="A269" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B269" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C269" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D269" t="n">
         <v>0.05</v>
@@ -24874,16 +25681,19 @@
       <c r="AD269" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="270" spans="1:30">
+      <c r="AE269" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="270" spans="1:31">
       <c r="A270" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B270" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C270" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D270" t="n">
         <v>0.32</v>
@@ -24966,16 +25776,19 @@
       <c r="AD270" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="271" spans="1:30">
+      <c r="AE270" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:31">
       <c r="A271" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B271" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C271" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D271" t="n">
         <v>0.1</v>
@@ -25058,16 +25871,19 @@
       <c r="AD271" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="272" spans="1:30">
+      <c r="AE271" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:31">
       <c r="A272" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B272" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C272" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D272" t="n">
         <v>0.04</v>
@@ -25150,16 +25966,19 @@
       <c r="AD272" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="273" spans="1:30">
+      <c r="AE272" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="273" spans="1:31">
       <c r="A273" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B273" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C273" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D273" t="n">
         <v>0.05</v>
@@ -25242,16 +26061,19 @@
       <c r="AD273" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="274" spans="1:30">
+      <c r="AE273" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="274" spans="1:31">
       <c r="A274" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B274" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C274" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D274" t="n">
         <v>0.05</v>
@@ -25334,16 +26156,19 @@
       <c r="AD274" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="275" spans="1:30">
+      <c r="AE274" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="275" spans="1:31">
       <c r="A275" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B275" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C275" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D275" t="n">
         <v>0.04</v>
@@ -25426,16 +26251,19 @@
       <c r="AD275" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="276" spans="1:30">
+      <c r="AE275" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="276" spans="1:31">
       <c r="A276" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B276" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C276" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D276" t="n">
         <v>0.06</v>
@@ -25518,16 +26346,19 @@
       <c r="AD276" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="277" spans="1:30">
+      <c r="AE276" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="277" spans="1:31">
       <c r="A277" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B277" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C277" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D277" t="n">
         <v>0.06</v>
@@ -25610,16 +26441,19 @@
       <c r="AD277" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="278" spans="1:30">
+      <c r="AE277" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="278" spans="1:31">
       <c r="A278" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B278" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C278" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D278" t="n">
         <v>0.06</v>
@@ -25702,16 +26536,19 @@
       <c r="AD278" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="279" spans="1:30">
+      <c r="AE278" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="279" spans="1:31">
       <c r="A279" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B279" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C279" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E279" t="n">
         <v>0.03</v>
@@ -25791,16 +26628,19 @@
       <c r="AD279" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="280" spans="1:30">
+      <c r="AE279" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:31">
       <c r="A280" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B280" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C280" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E280" t="n">
         <v>0.04</v>
@@ -25880,16 +26720,19 @@
       <c r="AD280" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="281" spans="1:30">
+      <c r="AE280" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="281" spans="1:31">
       <c r="A281" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B281" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C281" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E281" t="n">
         <v>0.015</v>
@@ -25969,16 +26812,19 @@
       <c r="AD281" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="282" spans="1:30">
+      <c r="AE281" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="282" spans="1:31">
       <c r="A282" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B282" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C282" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E282" t="n">
         <v>0.005</v>
@@ -26058,16 +26904,19 @@
       <c r="AD282" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="283" spans="1:30">
+      <c r="AE282" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:31">
       <c r="A283" t="s">
+        <v>48</v>
+      </c>
+      <c r="B283" t="s">
+        <v>49</v>
+      </c>
+      <c r="C283" t="s">
         <v>47</v>
-      </c>
-      <c r="B283" t="s">
-        <v>48</v>
-      </c>
-      <c r="C283" t="s">
-        <v>46</v>
       </c>
       <c r="H283" t="n">
         <v>0.02</v>
@@ -26138,16 +26987,19 @@
       <c r="AD283" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="284" spans="1:30">
+      <c r="AE283" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="284" spans="1:31">
       <c r="A284" t="s">
+        <v>48</v>
+      </c>
+      <c r="B284" t="s">
+        <v>50</v>
+      </c>
+      <c r="C284" t="s">
         <v>47</v>
-      </c>
-      <c r="B284" t="s">
-        <v>49</v>
-      </c>
-      <c r="C284" t="s">
-        <v>46</v>
       </c>
       <c r="H284" t="n">
         <v>0.015</v>
@@ -26218,16 +27070,19 @@
       <c r="AD284" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="285" spans="1:30">
+      <c r="AE284" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="285" spans="1:31">
       <c r="A285" t="s">
+        <v>48</v>
+      </c>
+      <c r="B285" t="s">
+        <v>51</v>
+      </c>
+      <c r="C285" t="s">
         <v>47</v>
-      </c>
-      <c r="B285" t="s">
-        <v>50</v>
-      </c>
-      <c r="C285" t="s">
-        <v>46</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -26298,16 +27153,19 @@
       <c r="AD285" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:30">
+      <c r="AE285" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="286" spans="1:31">
       <c r="A286" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B286" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C286" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -26378,16 +27236,19 @@
       <c r="AD286" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:30">
+      <c r="AE286" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="287" spans="1:31">
       <c r="A287" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B287" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C287" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H287" t="n">
         <v>0.005</v>
@@ -26458,16 +27319,19 @@
       <c r="AD287" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="288" spans="1:30">
+      <c r="AE287" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="288" spans="1:31">
       <c r="A288" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B288" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C288" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H288" t="n">
         <v>0.03</v>
@@ -26538,16 +27402,19 @@
       <c r="AD288" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="289" spans="1:30">
+      <c r="AE288" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="289" spans="1:31">
       <c r="A289" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B289" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C289" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H289" t="n">
         <v>0.05</v>
@@ -26618,16 +27485,19 @@
       <c r="AD289" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="290" spans="1:30">
+      <c r="AE289" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="290" spans="1:31">
       <c r="A290" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B290" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C290" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H290" t="n">
         <v>0.005</v>
@@ -26698,16 +27568,19 @@
       <c r="AD290" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="291" spans="1:30">
+      <c r="AE290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:31">
       <c r="A291" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B291" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C291" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H291" t="n">
         <v>0.01</v>
@@ -26778,16 +27651,19 @@
       <c r="AD291" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="292" spans="1:30">
+      <c r="AE291" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="292" spans="1:31">
       <c r="A292" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B292" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C292" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H292" t="n">
         <v>0.01</v>
@@ -26858,16 +27734,19 @@
       <c r="AD292" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="293" spans="1:30">
+      <c r="AE292" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="293" spans="1:31">
       <c r="A293" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B293" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C293" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H293" t="n">
         <v>0.01</v>
@@ -26938,16 +27817,19 @@
       <c r="AD293" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="294" spans="1:30">
+      <c r="AE293" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="294" spans="1:31">
       <c r="A294" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B294" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C294" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H294" t="n">
         <v>0.015</v>
@@ -27018,16 +27900,19 @@
       <c r="AD294" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="295" spans="1:30">
+      <c r="AE294" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="295" spans="1:31">
       <c r="A295" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B295" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C295" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H295" t="n">
         <v>0.005</v>
@@ -27098,16 +27983,19 @@
       <c r="AD295" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="296" spans="1:30">
+      <c r="AE295" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="296" spans="1:31">
       <c r="A296" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B296" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C296" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H296" t="n">
         <v>0.005</v>
@@ -27178,16 +28066,19 @@
       <c r="AD296" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="297" spans="1:30">
+      <c r="AE296" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="297" spans="1:31">
       <c r="A297" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B297" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C297" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H297" t="n">
         <v>0.005</v>
@@ -27258,16 +28149,19 @@
       <c r="AD297" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="298" spans="1:30">
+      <c r="AE297" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="298" spans="1:31">
       <c r="A298" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B298" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C298" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H298" t="n">
         <v>0.01</v>
@@ -27338,16 +28232,19 @@
       <c r="AD298" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="299" spans="1:30">
+      <c r="AE298" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="299" spans="1:31">
       <c r="A299" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B299" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C299" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H299" t="n">
         <v>0.02</v>
@@ -27418,16 +28315,19 @@
       <c r="AD299" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="300" spans="1:30">
+      <c r="AE299" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="300" spans="1:31">
       <c r="A300" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B300" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C300" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H300" t="n">
         <v>0.02</v>
@@ -27498,16 +28398,19 @@
       <c r="AD300" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="301" spans="1:30">
+      <c r="AE300" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="301" spans="1:31">
       <c r="A301" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B301" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C301" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H301" t="n">
         <v>0.02</v>
@@ -27578,10 +28481,13 @@
       <c r="AD301" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="302" spans="1:30">
+      <c r="AE301" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="302" spans="1:31">
       <c r="A302" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -27595,7 +28501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27603,7 +28509,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -27691,13 +28597,16 @@
       <c r="AC1" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AD1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -27778,15 +28687,18 @@
         <v>2059</v>
       </c>
       <c r="AC2" t="n">
-        <v>2032</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>2029</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -27867,15 +28779,18 @@
         <v>491</v>
       </c>
       <c r="AC3" t="n">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+        <v>480</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -27956,15 +28871,18 @@
         <v>754</v>
       </c>
       <c r="AC4" t="n">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+        <v>749</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -28045,15 +28963,18 @@
         <v>814</v>
       </c>
       <c r="AC5" t="n">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+        <v>800</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" t="n">
         <v>665</v>
@@ -28136,13 +29057,16 @@
       <c r="AC6" t="n">
         <v>461</v>
       </c>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="AD6" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" t="n">
         <v>885</v>
@@ -28225,13 +29149,16 @@
       <c r="AC7" t="n">
         <v>831</v>
       </c>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="AD7" t="n">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" t="n">
         <v>1551</v>
@@ -28312,15 +29239,18 @@
         <v>908</v>
       </c>
       <c r="AC8" t="n">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
+        <v>737</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" t="n">
         <v>11</v>
@@ -28401,15 +29331,18 @@
         <v>554</v>
       </c>
       <c r="AC9" t="n">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
+        <v>493</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C10" t="n">
         <v>102</v>
@@ -28490,15 +29423,18 @@
         <v>690</v>
       </c>
       <c r="AC10" t="n">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
+        <v>591</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" t="n">
         <v>2988</v>
@@ -28581,13 +29517,16 @@
       <c r="AC11" t="n">
         <v>945</v>
       </c>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="AD11" t="n">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C12" t="n">
         <v>1514</v>
@@ -28668,15 +29607,18 @@
         <v>997</v>
       </c>
       <c r="AC12" t="n">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
+        <v>980</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" t="n">
         <v>1587</v>
@@ -28757,15 +29699,18 @@
         <v>1062</v>
       </c>
       <c r="AC13" t="n">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
+        <v>1049</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" t="n">
         <v>1726</v>
@@ -28846,15 +29791,18 @@
         <v>1084</v>
       </c>
       <c r="AC14" t="n">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
+        <v>1058</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" t="n">
         <v>667</v>
@@ -28935,15 +29883,18 @@
         <v>462</v>
       </c>
       <c r="AC15" t="n">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
+        <v>466</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" t="n">
         <v>333</v>
@@ -29026,13 +29977,16 @@
       <c r="AC16" t="n">
         <v>238</v>
       </c>
-    </row>
-    <row r="17" spans="1:29">
+      <c r="AD16" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C17" t="n">
         <v>375</v>
@@ -29113,15 +30067,18 @@
         <v>272</v>
       </c>
       <c r="AC17" t="n">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29">
+        <v>267</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s"/>
       <c r="D18" t="n">
@@ -29200,15 +30157,18 @@
         <v>711</v>
       </c>
       <c r="AC18" t="n">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29">
+        <v>776</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s"/>
       <c r="D19" t="n">
@@ -29289,13 +30249,16 @@
       <c r="AC19" t="n">
         <v>93</v>
       </c>
-    </row>
-    <row r="20" spans="1:29">
+      <c r="AD19" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s"/>
       <c r="D20" t="n">
@@ -29376,13 +30339,16 @@
       <c r="AC20" t="n">
         <v>143</v>
       </c>
-    </row>
-    <row r="21" spans="1:29">
+      <c r="AD20" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s"/>
       <c r="D21" t="n">
@@ -29461,12 +30427,15 @@
         <v>148</v>
       </c>
       <c r="AC21" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29">
+        <v>93</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s"/>
       <c r="C22" t="s"/>
@@ -29496,6 +30465,7 @@
       <c r="AA22" t="s"/>
       <c r="AB22" t="s"/>
       <c r="AC22" t="s"/>
+      <c r="AD22" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_04_socialni_aktivity.xlsx
+++ b/ZBP_04_socialni_aktivity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <t>trideni</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>17.–23. 5. 2021</t>
+  </si>
+  <si>
+    <t>14.–20. 6. 2021</t>
   </si>
   <si>
     <t>total</t>
@@ -236,10 +239,10 @@
     <t>Nepracoval/a (dovolená, nemocenská atd.)</t>
   </si>
   <si>
-    <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
   <si>
-    <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 6. 2021</t>
+    <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 28. 6. 2021</t>
   </si>
 </sst>
 </file>
@@ -614,7 +617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE302"/>
+  <dimension ref="A1:AF302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,7 +625,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,16 +719,19 @@
       <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:31">
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
         <v>0.74</v>
@@ -811,16 +817,19 @@
       <c r="AE2" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:31">
+      <c r="AF2" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
         <v>0.28</v>
@@ -906,16 +915,19 @@
       <c r="AE3" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:31">
+      <c r="AF3" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
         <v>0.2</v>
@@ -1001,16 +1013,19 @@
       <c r="AE4" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:31">
+      <c r="AF4" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
         <v>0.09</v>
@@ -1096,16 +1111,19 @@
       <c r="AE5" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="6" spans="1:31">
+      <c r="AF5" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
         <v>0.02</v>
@@ -1191,16 +1209,19 @@
       <c r="AE6" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="7" spans="1:31">
+      <c r="AF6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
         <v>0.19</v>
@@ -1286,16 +1307,19 @@
       <c r="AE7" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="8" spans="1:31">
+      <c r="AF7" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" t="n">
         <v>0.06</v>
@@ -1381,16 +1405,19 @@
       <c r="AE8" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="9" spans="1:31">
+      <c r="AF8" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H9" t="n">
         <v>0.05</v>
@@ -1464,16 +1491,19 @@
       <c r="AE9" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="10" spans="1:31">
+      <c r="AF9" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" t="n">
         <v>0.02</v>
@@ -1559,16 +1589,19 @@
       <c r="AE10" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="11" spans="1:31">
+      <c r="AF10" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="n">
         <v>0.015</v>
@@ -1654,16 +1687,19 @@
       <c r="AE11" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="12" spans="1:31">
+      <c r="AF11" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12" t="n">
         <v>0.47</v>
@@ -1749,16 +1785,19 @@
       <c r="AE12" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="13" spans="1:31">
+      <c r="AF12" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E13" t="n">
         <v>0.12</v>
@@ -1841,16 +1880,19 @@
       <c r="AE13" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:31">
+      <c r="AF13" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" t="n">
         <v>0.04</v>
@@ -1933,16 +1975,19 @@
       <c r="AE14" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="15" spans="1:31">
+      <c r="AF14" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" t="n">
         <v>0.05</v>
@@ -2028,16 +2073,19 @@
       <c r="AE15" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="16" spans="1:31">
+      <c r="AF15" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H16" t="n">
         <v>0.01</v>
@@ -2111,16 +2159,19 @@
       <c r="AE16" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="17" spans="1:31">
+      <c r="AF16" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D17" t="n">
         <v>0.72</v>
@@ -2206,16 +2257,19 @@
       <c r="AE17" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="18" spans="1:31">
+      <c r="AF17" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" t="n">
         <v>0.78</v>
@@ -2301,16 +2355,19 @@
       <c r="AE18" t="n">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="19" spans="1:31">
+      <c r="AF18" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D19" t="n">
         <v>0.71</v>
@@ -2396,16 +2453,19 @@
       <c r="AE19" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:31">
+      <c r="AF19" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" t="n">
         <v>0.72</v>
@@ -2491,16 +2551,19 @@
       <c r="AE20" t="n">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="21" spans="1:31">
+      <c r="AF20" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" t="n">
         <v>0.75</v>
@@ -2586,16 +2649,19 @@
       <c r="AE21" t="n">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="22" spans="1:31">
+      <c r="AF21" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" t="n">
         <v>0.74</v>
@@ -2681,16 +2747,19 @@
       <c r="AE22" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:31">
+      <c r="AF22" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -2776,16 +2845,19 @@
       <c r="AE23" t="n">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="24" spans="1:31">
+      <c r="AF23" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" t="n">
         <v>0.79</v>
@@ -2871,16 +2943,19 @@
       <c r="AE24" t="n">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="25" spans="1:31">
+      <c r="AF24" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" t="n">
         <v>0.73</v>
@@ -2966,16 +3041,19 @@
       <c r="AE25" t="n">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="26" spans="1:31">
+      <c r="AF25" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26" t="n">
         <v>0.72</v>
@@ -3061,16 +3139,19 @@
       <c r="AE26" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:31">
+      <c r="AF26" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" t="n">
         <v>0.75</v>
@@ -3156,16 +3237,19 @@
       <c r="AE27" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:31">
+      <c r="AF27" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D28" t="n">
         <v>0.71</v>
@@ -3251,16 +3335,19 @@
       <c r="AE28" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:31">
+      <c r="AF28" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D29" t="n">
         <v>0.75</v>
@@ -3346,16 +3433,19 @@
       <c r="AE29" t="n">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="30" spans="1:31">
+      <c r="AF29" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" t="n">
         <v>0.79</v>
@@ -3441,16 +3531,19 @@
       <c r="AE30" t="n">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:31">
+      <c r="AF30" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" t="n">
         <v>0.78</v>
@@ -3536,16 +3629,19 @@
       <c r="AE31" t="n">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="32" spans="1:31">
+      <c r="AF31" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E32" t="n">
         <v>0.8100000000000001</v>
@@ -3628,16 +3724,19 @@
       <c r="AE32" t="n">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="33" spans="1:31">
+      <c r="AF32" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E33" t="n">
         <v>0.8</v>
@@ -3720,16 +3819,19 @@
       <c r="AE33" t="n">
         <v>0.9399999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:31">
+      <c r="AF33" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E34" t="n">
         <v>0.7</v>
@@ -3812,16 +3914,19 @@
       <c r="AE34" t="n">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="35" spans="1:31">
+      <c r="AF34" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E35" t="n">
         <v>0.73</v>
@@ -3904,16 +4009,19 @@
       <c r="AE35" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="36" spans="1:31">
+      <c r="AF35" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D36" t="n">
         <v>0.32</v>
@@ -3999,16 +4107,19 @@
       <c r="AE36" t="n">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="37" spans="1:31">
+      <c r="AF36" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D37" t="n">
         <v>0.27</v>
@@ -4094,16 +4205,19 @@
       <c r="AE37" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:31">
+      <c r="AF37" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D38" t="n">
         <v>0.25</v>
@@ -4189,16 +4303,19 @@
       <c r="AE38" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="39" spans="1:31">
+      <c r="AF38" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D39" t="n">
         <v>0.31</v>
@@ -4284,16 +4401,19 @@
       <c r="AE39" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="40" spans="1:31">
+      <c r="AF39" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D40" t="n">
         <v>0.28</v>
@@ -4379,16 +4499,19 @@
       <c r="AE40" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="41" spans="1:31">
+      <c r="AF40" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D41" t="n">
         <v>0.26</v>
@@ -4474,16 +4597,19 @@
       <c r="AE41" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="42" spans="1:31">
+      <c r="AF41" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D42" t="n">
         <v>0.59</v>
@@ -4569,16 +4695,19 @@
       <c r="AE42" t="n">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="43" spans="1:31">
+      <c r="AF42" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:32">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43" t="n">
         <v>0.38</v>
@@ -4664,16 +4793,19 @@
       <c r="AE43" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="44" spans="1:31">
+      <c r="AF43" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D44" t="n">
         <v>0.27</v>
@@ -4759,16 +4891,19 @@
       <c r="AE44" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="45" spans="1:31">
+      <c r="AF44" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D45" t="n">
         <v>0.26</v>
@@ -4854,16 +4989,19 @@
       <c r="AE45" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="46" spans="1:31">
+      <c r="AF45" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:32">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D46" t="n">
         <v>0.29</v>
@@ -4949,16 +5087,19 @@
       <c r="AE46" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="47" spans="1:31">
+      <c r="AF46" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D47" t="n">
         <v>0.2</v>
@@ -5044,16 +5185,19 @@
       <c r="AE47" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="48" spans="1:31">
+      <c r="AF47" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D48" t="n">
         <v>0.27</v>
@@ -5139,16 +5283,19 @@
       <c r="AE48" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="49" spans="1:31">
+      <c r="AF48" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D49" t="n">
         <v>0.42</v>
@@ -5234,16 +5381,19 @@
       <c r="AE49" t="n">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="50" spans="1:31">
+      <c r="AF49" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D50" t="n">
         <v>0.51</v>
@@ -5329,16 +5479,19 @@
       <c r="AE50" t="n">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="51" spans="1:31">
+      <c r="AF50" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E51" t="n">
         <v>0.16</v>
@@ -5421,16 +5574,19 @@
       <c r="AE51" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="52" spans="1:31">
+      <c r="AF51" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E52" t="n">
         <v>0.16</v>
@@ -5513,16 +5669,19 @@
       <c r="AE52" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="53" spans="1:31">
+      <c r="AF52" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E53" t="n">
         <v>0.04</v>
@@ -5605,16 +5764,19 @@
       <c r="AE53" t="n">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="54" spans="1:31">
+      <c r="AF53" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E54" t="n">
         <v>0.1</v>
@@ -5697,16 +5859,19 @@
       <c r="AE54" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="55" spans="1:31">
+      <c r="AF54" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D55" t="n">
         <v>0.18</v>
@@ -5792,16 +5957,19 @@
       <c r="AE55" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="56" spans="1:31">
+      <c r="AF55" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D56" t="n">
         <v>0.21</v>
@@ -5887,16 +6055,19 @@
       <c r="AE56" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="57" spans="1:31">
+      <c r="AF56" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D57" t="n">
         <v>0.2</v>
@@ -5982,16 +6153,19 @@
       <c r="AE57" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="58" spans="1:31">
+      <c r="AF57" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D58" t="n">
         <v>0.15</v>
@@ -6077,16 +6251,19 @@
       <c r="AE58" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="59" spans="1:31">
+      <c r="AF58" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32">
       <c r="A59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D59" t="n">
         <v>0.19</v>
@@ -6172,16 +6349,19 @@
       <c r="AE59" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="60" spans="1:31">
+      <c r="AF59" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D60" t="n">
         <v>0.22</v>
@@ -6267,16 +6447,19 @@
       <c r="AE60" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="61" spans="1:31">
+      <c r="AF60" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D61" t="n">
         <v>0.11</v>
@@ -6362,16 +6545,19 @@
       <c r="AE61" t="n">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="62" spans="1:31">
+      <c r="AF61" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D62" t="n">
         <v>0.2</v>
@@ -6457,16 +6643,19 @@
       <c r="AE62" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="63" spans="1:31">
+      <c r="AF62" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32">
       <c r="A63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D63" t="n">
         <v>0.2</v>
@@ -6552,16 +6741,19 @@
       <c r="AE63" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="64" spans="1:31">
+      <c r="AF63" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D64" t="n">
         <v>0.18</v>
@@ -6647,16 +6839,19 @@
       <c r="AE64" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="65" spans="1:31">
+      <c r="AF64" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D65" t="n">
         <v>0.22</v>
@@ -6742,16 +6937,19 @@
       <c r="AE65" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="66" spans="1:31">
+      <c r="AF65" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D66" t="n">
         <v>0.22</v>
@@ -6837,16 +7035,19 @@
       <c r="AE66" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="67" spans="1:31">
+      <c r="AF66" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D67" t="n">
         <v>0.17</v>
@@ -6932,16 +7133,19 @@
       <c r="AE67" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="68" spans="1:31">
+      <c r="AF67" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D68" t="n">
         <v>0.2</v>
@@ -7027,16 +7231,19 @@
       <c r="AE68" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="69" spans="1:31">
+      <c r="AF68" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D69" t="n">
         <v>0.17</v>
@@ -7122,16 +7329,19 @@
       <c r="AE69" t="n">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="70" spans="1:31">
+      <c r="AF69" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E70" t="n">
         <v>0.1</v>
@@ -7214,16 +7424,19 @@
       <c r="AE70" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="71" spans="1:31">
+      <c r="AF70" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E71" t="n">
         <v>0.08</v>
@@ -7306,16 +7519,19 @@
       <c r="AE71" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="72" spans="1:31">
+      <c r="AF71" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E72" t="n">
         <v>0.08</v>
@@ -7398,16 +7614,19 @@
       <c r="AE72" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="73" spans="1:31">
+      <c r="AF72" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E73" t="n">
         <v>0.14</v>
@@ -7490,16 +7709,19 @@
       <c r="AE73" t="n">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="74" spans="1:31">
+      <c r="AF73" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32">
       <c r="A74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D74" t="n">
         <v>0.09</v>
@@ -7585,16 +7807,19 @@
       <c r="AE74" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="75" spans="1:31">
+      <c r="AF74" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32">
       <c r="A75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D75" t="n">
         <v>0.09</v>
@@ -7680,16 +7905,19 @@
       <c r="AE75" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="76" spans="1:31">
+      <c r="AF75" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32">
       <c r="A76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D76" t="n">
         <v>0.08</v>
@@ -7775,16 +8003,19 @@
       <c r="AE76" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="77" spans="1:31">
+      <c r="AF76" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32">
       <c r="A77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D77" t="n">
         <v>0.1</v>
@@ -7870,16 +8101,19 @@
       <c r="AE77" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="78" spans="1:31">
+      <c r="AF77" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32">
       <c r="A78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D78" t="n">
         <v>0.07000000000000001</v>
@@ -7965,16 +8199,19 @@
       <c r="AE78" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="79" spans="1:31">
+      <c r="AF78" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32">
       <c r="A79" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D79" t="n">
         <v>0.09</v>
@@ -8060,16 +8297,19 @@
       <c r="AE79" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="80" spans="1:31">
+      <c r="AF79" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32">
       <c r="A80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D80" t="n">
         <v>0.06</v>
@@ -8155,16 +8395,19 @@
       <c r="AE80" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="81" spans="1:31">
+      <c r="AF80" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32">
       <c r="A81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B81" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D81" t="n">
         <v>0.13</v>
@@ -8250,16 +8493,19 @@
       <c r="AE81" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="82" spans="1:31">
+      <c r="AF81" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32">
       <c r="A82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B82" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D82" t="n">
         <v>0.09</v>
@@ -8345,16 +8591,19 @@
       <c r="AE82" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="83" spans="1:31">
+      <c r="AF82" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32">
       <c r="A83" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D83" t="n">
         <v>0.09</v>
@@ -8440,16 +8689,19 @@
       <c r="AE83" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="84" spans="1:31">
+      <c r="AF83" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B84" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D84" t="n">
         <v>0.08</v>
@@ -8535,16 +8787,19 @@
       <c r="AE84" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="85" spans="1:31">
+      <c r="AF84" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32">
       <c r="A85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B85" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D85" t="n">
         <v>0.07000000000000001</v>
@@ -8630,16 +8885,19 @@
       <c r="AE85" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="86" spans="1:31">
+      <c r="AF85" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32">
       <c r="A86" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B86" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D86" t="n">
         <v>0.09</v>
@@ -8725,16 +8983,19 @@
       <c r="AE86" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="87" spans="1:31">
+      <c r="AF86" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32">
       <c r="A87" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B87" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D87" t="n">
         <v>0.11</v>
@@ -8820,16 +9081,19 @@
       <c r="AE87" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="88" spans="1:31">
+      <c r="AF87" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32">
       <c r="A88" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B88" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D88" t="n">
         <v>0.13</v>
@@ -8915,16 +9179,19 @@
       <c r="AE88" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="89" spans="1:31">
+      <c r="AF88" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:32">
       <c r="A89" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B89" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E89" t="n">
         <v>0.03</v>
@@ -9007,16 +9274,19 @@
       <c r="AE89" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="90" spans="1:31">
+      <c r="AF89" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32">
       <c r="A90" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B90" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E90" t="n">
         <v>0.04</v>
@@ -9099,16 +9369,19 @@
       <c r="AE90" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="91" spans="1:31">
+      <c r="AF90" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32">
       <c r="A91" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B91" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E91" t="n">
         <v>0.02</v>
@@ -9191,16 +9464,19 @@
       <c r="AE91" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="92" spans="1:31">
+      <c r="AF91" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32">
       <c r="A92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B92" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E92" t="n">
         <v>0.01</v>
@@ -9283,16 +9559,19 @@
       <c r="AE92" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="93" spans="1:31">
+      <c r="AF92" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32">
       <c r="A93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B93" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D93" t="n">
         <v>0.04</v>
@@ -9378,16 +9657,19 @@
       <c r="AE93" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="94" spans="1:31">
+      <c r="AF93" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:32">
       <c r="A94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B94" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D94" t="n">
         <v>0.03</v>
@@ -9473,16 +9755,19 @@
       <c r="AE94" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="95" spans="1:31">
+      <c r="AF94" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="95" spans="1:32">
       <c r="A95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B95" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D95" t="n">
         <v>0.01</v>
@@ -9568,16 +9853,19 @@
       <c r="AE95" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="96" spans="1:31">
+      <c r="AF95" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="96" spans="1:32">
       <c r="A96" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D96" t="n">
         <v>0.03</v>
@@ -9663,16 +9951,19 @@
       <c r="AE96" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="97" spans="1:31">
+      <c r="AF96" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="97" spans="1:32">
       <c r="A97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C97" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D97" t="n">
         <v>0.03</v>
@@ -9758,16 +10049,19 @@
       <c r="AE97" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="98" spans="1:31">
+      <c r="AF97" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="98" spans="1:32">
       <c r="A98" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D98" t="n">
         <v>0.02</v>
@@ -9853,16 +10147,19 @@
       <c r="AE98" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="99" spans="1:31">
+      <c r="AF98" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="99" spans="1:32">
       <c r="A99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D99" t="n">
         <v>0.28</v>
@@ -9948,16 +10245,19 @@
       <c r="AE99" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:31">
+      <c r="AF99" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="100" spans="1:32">
       <c r="A100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D100" t="n">
         <v>0.04</v>
@@ -10043,16 +10343,19 @@
       <c r="AE100" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="101" spans="1:31">
+      <c r="AF100" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="101" spans="1:32">
       <c r="A101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B101" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D101" t="n">
         <v>0.02</v>
@@ -10138,111 +10441,117 @@
       <c r="AE101" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="102" spans="1:31">
+      <c r="AF101" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="102" spans="1:32">
       <c r="A102" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B102" t="s">
+        <v>62</v>
+      </c>
+      <c r="C102" t="s">
+        <v>38</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="103" spans="1:32">
+      <c r="A103" t="s">
         <v>61</v>
       </c>
-      <c r="C102" t="s">
-        <v>37</v>
-      </c>
-      <c r="D102" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E102" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F102" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O102" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="P102" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="R102" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S102" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="T102" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="U102" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="V102" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="W102" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="X102" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y102" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z102" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AA102" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AB102" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AC102" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AD102" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AE102" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="103" spans="1:31">
-      <c r="A103" t="s">
-        <v>60</v>
-      </c>
       <c r="B103" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D103" t="n">
         <v>0.02</v>
@@ -10328,16 +10637,19 @@
       <c r="AE103" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="104" spans="1:31">
+      <c r="AF103" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="104" spans="1:32">
       <c r="A104" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B104" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D104" t="n">
         <v>0.02</v>
@@ -10423,16 +10735,19 @@
       <c r="AE104" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="105" spans="1:31">
+      <c r="AF104" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="105" spans="1:32">
       <c r="A105" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B105" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D105" t="n">
         <v>0.02</v>
@@ -10518,16 +10833,19 @@
       <c r="AE105" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="106" spans="1:31">
+      <c r="AF105" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="106" spans="1:32">
       <c r="A106" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B106" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D106" t="n">
         <v>0.03</v>
@@ -10613,16 +10931,19 @@
       <c r="AE106" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="107" spans="1:31">
+      <c r="AF106" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="107" spans="1:32">
       <c r="A107" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B107" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D107" t="n">
         <v>0.05</v>
@@ -10708,16 +11029,19 @@
       <c r="AE107" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="108" spans="1:31">
+      <c r="AF107" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="108" spans="1:32">
       <c r="A108" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B108" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C108" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E108" t="n">
         <v>0.02</v>
@@ -10800,16 +11124,19 @@
       <c r="AE108" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="109" spans="1:31">
+      <c r="AF108" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32">
       <c r="A109" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B109" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C109" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E109" t="n">
         <v>0.005</v>
@@ -10892,16 +11219,19 @@
       <c r="AE109" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="110" spans="1:31">
+      <c r="AF109" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="110" spans="1:32">
       <c r="A110" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B110" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -10984,16 +11314,19 @@
       <c r="AE110" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="111" spans="1:31">
+      <c r="AF110" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32">
       <c r="A111" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B111" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -11076,16 +11409,19 @@
       <c r="AE111" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="112" spans="1:31">
+      <c r="AF111" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="112" spans="1:32">
       <c r="A112" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B112" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D112" t="n">
         <v>0.25</v>
@@ -11171,16 +11507,19 @@
       <c r="AE112" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="113" spans="1:31">
+      <c r="AF112" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:32">
       <c r="A113" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B113" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D113" t="n">
         <v>0.21</v>
@@ -11266,16 +11605,19 @@
       <c r="AE113" t="n">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="114" spans="1:31">
+      <c r="AF113" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:32">
       <c r="A114" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B114" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C114" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D114" t="n">
         <v>0.14</v>
@@ -11361,16 +11703,19 @@
       <c r="AE114" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="115" spans="1:31">
+      <c r="AF114" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="115" spans="1:32">
       <c r="A115" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B115" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D115" t="n">
         <v>0.25</v>
@@ -11456,16 +11801,19 @@
       <c r="AE115" t="n">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="116" spans="1:31">
+      <c r="AF115" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="116" spans="1:32">
       <c r="A116" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B116" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C116" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D116" t="n">
         <v>0.2</v>
@@ -11551,16 +11899,19 @@
       <c r="AE116" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="117" spans="1:31">
+      <c r="AF116" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="117" spans="1:32">
       <c r="A117" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C117" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D117" t="n">
         <v>0.16</v>
@@ -11646,16 +11997,19 @@
       <c r="AE117" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="118" spans="1:31">
+      <c r="AF117" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="118" spans="1:32">
       <c r="A118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C118" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D118" t="n">
         <v>0.37</v>
@@ -11741,16 +12095,19 @@
       <c r="AE118" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="119" spans="1:31">
+      <c r="AF118" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="119" spans="1:32">
       <c r="A119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C119" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D119" t="n">
         <v>0.2</v>
@@ -11836,16 +12193,19 @@
       <c r="AE119" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="120" spans="1:31">
+      <c r="AF119" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="120" spans="1:32">
       <c r="A120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B120" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C120" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D120" t="n">
         <v>0.19</v>
@@ -11931,16 +12291,19 @@
       <c r="AE120" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="121" spans="1:31">
+      <c r="AF120" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="121" spans="1:32">
       <c r="A121" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B121" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D121" t="n">
         <v>0.25</v>
@@ -12026,16 +12389,19 @@
       <c r="AE121" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="122" spans="1:31">
+      <c r="AF121" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="122" spans="1:32">
       <c r="A122" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B122" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C122" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D122" t="n">
         <v>0.13</v>
@@ -12121,16 +12487,19 @@
       <c r="AE122" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="123" spans="1:31">
+      <c r="AF122" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:32">
       <c r="A123" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B123" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D123" t="n">
         <v>0.17</v>
@@ -12216,16 +12585,19 @@
       <c r="AE123" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="124" spans="1:31">
+      <c r="AF123" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:32">
       <c r="A124" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B124" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C124" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D124" t="n">
         <v>0.19</v>
@@ -12311,16 +12683,19 @@
       <c r="AE124" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="125" spans="1:31">
+      <c r="AF124" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:32">
       <c r="A125" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B125" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D125" t="n">
         <v>0.25</v>
@@ -12406,16 +12781,19 @@
       <c r="AE125" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="126" spans="1:31">
+      <c r="AF125" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="126" spans="1:32">
       <c r="A126" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B126" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D126" t="n">
         <v>0.26</v>
@@ -12501,16 +12879,19 @@
       <c r="AE126" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="127" spans="1:31">
+      <c r="AF126" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:32">
       <c r="A127" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B127" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C127" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E127" t="n">
         <v>0.02</v>
@@ -12593,16 +12974,19 @@
       <c r="AE127" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="128" spans="1:31">
+      <c r="AF127" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="128" spans="1:32">
       <c r="A128" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B128" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C128" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E128" t="n">
         <v>0.01</v>
@@ -12685,16 +13069,19 @@
       <c r="AE128" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="129" spans="1:31">
+      <c r="AF128" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="129" spans="1:32">
       <c r="A129" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B129" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E129" t="n">
         <v>0.005</v>
@@ -12777,16 +13164,19 @@
       <c r="AE129" t="n">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="130" spans="1:31">
+      <c r="AF129" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="130" spans="1:32">
       <c r="A130" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B130" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C130" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -12869,16 +13259,19 @@
       <c r="AE130" t="n">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="131" spans="1:31">
+      <c r="AF130" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:32">
       <c r="A131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B131" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C131" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D131" t="n">
         <v>0.09</v>
@@ -12964,16 +13357,19 @@
       <c r="AE131" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="132" spans="1:31">
+      <c r="AF131" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:32">
       <c r="A132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B132" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D132" t="n">
         <v>0.08</v>
@@ -13059,16 +13455,19 @@
       <c r="AE132" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="133" spans="1:31">
+      <c r="AF132" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="133" spans="1:32">
       <c r="A133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B133" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C133" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D133" t="n">
         <v>0.04</v>
@@ -13154,16 +13553,19 @@
       <c r="AE133" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="134" spans="1:31">
+      <c r="AF133" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="134" spans="1:32">
       <c r="A134" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B134" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D134" t="n">
         <v>0.07000000000000001</v>
@@ -13249,16 +13651,19 @@
       <c r="AE134" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="135" spans="1:31">
+      <c r="AF134" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:32">
       <c r="A135" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C135" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D135" t="n">
         <v>0.07000000000000001</v>
@@ -13344,16 +13749,19 @@
       <c r="AE135" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="136" spans="1:31">
+      <c r="AF135" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="136" spans="1:32">
       <c r="A136" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B136" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C136" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D136" t="n">
         <v>0.06</v>
@@ -13439,16 +13847,19 @@
       <c r="AE136" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="137" spans="1:31">
+      <c r="AF136" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:32">
       <c r="A137" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B137" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C137" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D137" t="n">
         <v>0.2</v>
@@ -13534,16 +13945,19 @@
       <c r="AE137" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="138" spans="1:31">
+      <c r="AF137" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:32">
       <c r="A138" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B138" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C138" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D138" t="n">
         <v>0.13</v>
@@ -13629,16 +14043,19 @@
       <c r="AE138" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="139" spans="1:31">
+      <c r="AF138" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:32">
       <c r="A139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B139" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C139" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D139" t="n">
         <v>0.06</v>
@@ -13724,16 +14141,19 @@
       <c r="AE139" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="140" spans="1:31">
+      <c r="AF139" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="140" spans="1:32">
       <c r="A140" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B140" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D140" t="n">
         <v>0.07000000000000001</v>
@@ -13819,16 +14239,19 @@
       <c r="AE140" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="141" spans="1:31">
+      <c r="AF140" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:32">
       <c r="A141" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B141" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C141" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D141" t="n">
         <v>0.05</v>
@@ -13914,16 +14337,19 @@
       <c r="AE141" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="142" spans="1:31">
+      <c r="AF141" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="142" spans="1:32">
       <c r="A142" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B142" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D142" t="n">
         <v>0.05</v>
@@ -14009,16 +14435,19 @@
       <c r="AE142" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="143" spans="1:31">
+      <c r="AF142" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:32">
       <c r="A143" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B143" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C143" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D143" t="n">
         <v>0.07000000000000001</v>
@@ -14104,16 +14533,19 @@
       <c r="AE143" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="144" spans="1:31">
+      <c r="AF143" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="144" spans="1:32">
       <c r="A144" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B144" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C144" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D144" t="n">
         <v>0.08</v>
@@ -14199,16 +14631,19 @@
       <c r="AE144" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="145" spans="1:31">
+      <c r="AF144" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:32">
       <c r="A145" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B145" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C145" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D145" t="n">
         <v>0.1</v>
@@ -14294,16 +14729,19 @@
       <c r="AE145" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="146" spans="1:31">
+      <c r="AF145" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:32">
       <c r="A146" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B146" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C146" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E146" t="n">
         <v>0.01</v>
@@ -14386,16 +14824,19 @@
       <c r="AE146" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="147" spans="1:31">
+      <c r="AF146" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:32">
       <c r="A147" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B147" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C147" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E147" t="n">
         <v>0</v>
@@ -14478,16 +14919,19 @@
       <c r="AE147" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="148" spans="1:31">
+      <c r="AF147" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:32">
       <c r="A148" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B148" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C148" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E148" t="n">
         <v>0</v>
@@ -14570,16 +15014,19 @@
       <c r="AE148" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="149" spans="1:31">
+      <c r="AF148" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:32">
       <c r="A149" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B149" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C149" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E149" t="n">
         <v>0.01</v>
@@ -14662,16 +15109,19 @@
       <c r="AE149" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="150" spans="1:31">
+      <c r="AF149" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="150" spans="1:32">
       <c r="A150" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B150" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C150" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H150" t="n">
         <v>0.04</v>
@@ -14745,16 +15195,19 @@
       <c r="AE150" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="151" spans="1:31">
+      <c r="AF150" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:32">
       <c r="A151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B151" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C151" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H151" t="n">
         <v>0.05</v>
@@ -14828,16 +15281,19 @@
       <c r="AE151" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="152" spans="1:31">
+      <c r="AF151" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="152" spans="1:32">
       <c r="A152" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B152" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H152" t="n">
         <v>0.04</v>
@@ -14911,16 +15367,19 @@
       <c r="AE152" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="153" spans="1:31">
+      <c r="AF152" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="153" spans="1:32">
       <c r="A153" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B153" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C153" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H153" t="n">
         <v>0.05</v>
@@ -14994,16 +15453,19 @@
       <c r="AE153" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="154" spans="1:31">
+      <c r="AF153" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:32">
       <c r="A154" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B154" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C154" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H154" t="n">
         <v>0.04</v>
@@ -15077,16 +15539,19 @@
       <c r="AE154" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="155" spans="1:31">
+      <c r="AF154" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:32">
       <c r="A155" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B155" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C155" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H155" t="n">
         <v>0.06</v>
@@ -15160,16 +15625,19 @@
       <c r="AE155" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="156" spans="1:31">
+      <c r="AF155" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:32">
       <c r="A156" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B156" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C156" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H156" t="n">
         <v>0.06</v>
@@ -15243,16 +15711,19 @@
       <c r="AE156" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="157" spans="1:31">
+      <c r="AF156" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:32">
       <c r="A157" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C157" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H157" t="n">
         <v>0.05</v>
@@ -15326,16 +15797,19 @@
       <c r="AE157" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="158" spans="1:31">
+      <c r="AF157" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:32">
       <c r="A158" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B158" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C158" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H158" t="n">
         <v>0.05</v>
@@ -15409,16 +15883,19 @@
       <c r="AE158" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="159" spans="1:31">
+      <c r="AF158" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="159" spans="1:32">
       <c r="A159" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B159" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C159" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H159" t="n">
         <v>0.04</v>
@@ -15492,16 +15969,19 @@
       <c r="AE159" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="160" spans="1:31">
+      <c r="AF159" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:32">
       <c r="A160" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B160" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C160" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H160" t="n">
         <v>0.05</v>
@@ -15575,16 +16055,19 @@
       <c r="AE160" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="161" spans="1:31">
+      <c r="AF160" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="161" spans="1:32">
       <c r="A161" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B161" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C161" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H161" t="n">
         <v>0.05</v>
@@ -15658,16 +16141,19 @@
       <c r="AE161" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="162" spans="1:31">
+      <c r="AF161" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:32">
       <c r="A162" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B162" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C162" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H162" t="n">
         <v>0.05</v>
@@ -15741,16 +16227,19 @@
       <c r="AE162" t="n">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="163" spans="1:31">
+      <c r="AF162" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:32">
       <c r="A163" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B163" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C163" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H163" t="n">
         <v>0.03</v>
@@ -15824,16 +16313,19 @@
       <c r="AE163" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="164" spans="1:31">
+      <c r="AF163" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:32">
       <c r="A164" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B164" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C164" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H164" t="n">
         <v>0.04</v>
@@ -15907,16 +16399,19 @@
       <c r="AE164" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="165" spans="1:31">
+      <c r="AF164" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:32">
       <c r="A165" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B165" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C165" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H165" t="n">
         <v>0.03</v>
@@ -15990,16 +16485,19 @@
       <c r="AE165" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="166" spans="1:31">
+      <c r="AF165" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:32">
       <c r="A166" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B166" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C166" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H166" t="n">
         <v>0.05</v>
@@ -16073,16 +16571,19 @@
       <c r="AE166" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="167" spans="1:31">
+      <c r="AF166" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="167" spans="1:32">
       <c r="A167" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B167" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C167" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H167" t="n">
         <v>0.05</v>
@@ -16156,16 +16657,19 @@
       <c r="AE167" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="168" spans="1:31">
+      <c r="AF167" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:32">
       <c r="A168" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B168" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C168" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H168" t="n">
         <v>0.06</v>
@@ -16239,16 +16743,19 @@
       <c r="AE168" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="169" spans="1:31">
+      <c r="AF168" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="169" spans="1:32">
       <c r="A169" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B169" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C169" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D169" t="n">
         <v>0.03</v>
@@ -16334,16 +16841,19 @@
       <c r="AE169" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="170" spans="1:31">
+      <c r="AF169" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:32">
       <c r="A170" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B170" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C170" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D170" t="n">
         <v>0.03</v>
@@ -16429,16 +16939,19 @@
       <c r="AE170" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="171" spans="1:31">
+      <c r="AF170" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:32">
       <c r="A171" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B171" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C171" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D171" t="n">
         <v>0.015</v>
@@ -16524,16 +17037,19 @@
       <c r="AE171" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="172" spans="1:31">
+      <c r="AF171" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="172" spans="1:32">
       <c r="A172" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B172" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C172" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D172" t="n">
         <v>0.02</v>
@@ -16619,16 +17135,19 @@
       <c r="AE172" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="173" spans="1:31">
+      <c r="AF172" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="173" spans="1:32">
       <c r="A173" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B173" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C173" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D173" t="n">
         <v>0.02</v>
@@ -16714,16 +17233,19 @@
       <c r="AE173" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="174" spans="1:31">
+      <c r="AF173" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="174" spans="1:32">
       <c r="A174" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B174" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C174" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D174" t="n">
         <v>0.02</v>
@@ -16809,16 +17331,19 @@
       <c r="AE174" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="175" spans="1:31">
+      <c r="AF174" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="175" spans="1:32">
       <c r="A175" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B175" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C175" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D175" t="n">
         <v>0.09</v>
@@ -16904,16 +17429,19 @@
       <c r="AE175" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="176" spans="1:31">
+      <c r="AF175" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="176" spans="1:32">
       <c r="A176" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B176" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C176" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D176" t="n">
         <v>0.08</v>
@@ -16999,16 +17527,19 @@
       <c r="AE176" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="177" spans="1:31">
+      <c r="AF176" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="177" spans="1:32">
       <c r="A177" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B177" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C177" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D177" t="n">
         <v>0.02</v>
@@ -17094,16 +17625,19 @@
       <c r="AE177" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="178" spans="1:31">
+      <c r="AF177" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:32">
       <c r="A178" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B178" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C178" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D178" t="n">
         <v>0.02</v>
@@ -17189,16 +17723,19 @@
       <c r="AE178" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="179" spans="1:31">
+      <c r="AF178" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="179" spans="1:32">
       <c r="A179" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B179" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C179" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D179" t="n">
         <v>0.02</v>
@@ -17284,16 +17821,19 @@
       <c r="AE179" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="180" spans="1:31">
+      <c r="AF179" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="180" spans="1:32">
       <c r="A180" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B180" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C180" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D180" t="n">
         <v>0.02</v>
@@ -17379,16 +17919,19 @@
       <c r="AE180" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="181" spans="1:31">
+      <c r="AF180" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="181" spans="1:32">
       <c r="A181" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B181" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C181" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D181" t="n">
         <v>0.04</v>
@@ -17474,16 +18017,19 @@
       <c r="AE181" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="182" spans="1:31">
+      <c r="AF181" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="182" spans="1:32">
       <c r="A182" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B182" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C182" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D182" t="n">
         <v>0.02</v>
@@ -17569,16 +18115,19 @@
       <c r="AE182" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="183" spans="1:31">
+      <c r="AF182" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="183" spans="1:32">
       <c r="A183" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B183" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C183" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D183" t="n">
         <v>0.03</v>
@@ -17664,16 +18213,19 @@
       <c r="AE183" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="184" spans="1:31">
+      <c r="AF183" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="184" spans="1:32">
       <c r="A184" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B184" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C184" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
@@ -17756,16 +18308,19 @@
       <c r="AE184" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="185" spans="1:31">
+      <c r="AF184" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:32">
       <c r="A185" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B185" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C185" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
@@ -17848,16 +18403,19 @@
       <c r="AE185" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="186" spans="1:31">
+      <c r="AF185" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="186" spans="1:32">
       <c r="A186" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B186" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C186" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
@@ -17940,16 +18498,19 @@
       <c r="AE186" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="187" spans="1:31">
+      <c r="AF186" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:32">
       <c r="A187" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B187" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C187" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
@@ -18032,16 +18593,19 @@
       <c r="AE187" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="188" spans="1:31">
+      <c r="AF187" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="188" spans="1:32">
       <c r="A188" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B188" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C188" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D188" t="n">
         <v>0.02</v>
@@ -18127,16 +18691,19 @@
       <c r="AE188" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="189" spans="1:31">
+      <c r="AF188" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="189" spans="1:32">
       <c r="A189" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B189" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C189" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D189" t="n">
         <v>0.015</v>
@@ -18222,16 +18789,19 @@
       <c r="AE189" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="190" spans="1:31">
+      <c r="AF189" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="190" spans="1:32">
       <c r="A190" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B190" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C190" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D190" t="n">
         <v>0.005</v>
@@ -18317,16 +18887,19 @@
       <c r="AE190" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:31">
+      <c r="AF190" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="191" spans="1:32">
       <c r="A191" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B191" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C191" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D191" t="n">
         <v>0.005</v>
@@ -18412,16 +18985,19 @@
       <c r="AE191" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="192" spans="1:31">
+      <c r="AF191" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="192" spans="1:32">
       <c r="A192" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B192" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C192" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D192" t="n">
         <v>0.015</v>
@@ -18507,16 +19083,19 @@
       <c r="AE192" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="193" spans="1:31">
+      <c r="AF192" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="193" spans="1:32">
       <c r="A193" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B193" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C193" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D193" t="n">
         <v>0.015</v>
@@ -18602,16 +19181,19 @@
       <c r="AE193" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="194" spans="1:31">
+      <c r="AF193" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="194" spans="1:32">
       <c r="A194" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B194" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C194" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D194" t="n">
         <v>0.06</v>
@@ -18697,16 +19279,19 @@
       <c r="AE194" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="195" spans="1:31">
+      <c r="AF194" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="195" spans="1:32">
       <c r="A195" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B195" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C195" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D195" t="n">
         <v>0.07000000000000001</v>
@@ -18792,16 +19377,19 @@
       <c r="AE195" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="196" spans="1:31">
+      <c r="AF195" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="196" spans="1:32">
       <c r="A196" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B196" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C196" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D196" t="n">
         <v>0.01</v>
@@ -18887,16 +19475,19 @@
       <c r="AE196" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="197" spans="1:31">
+      <c r="AF196" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="197" spans="1:32">
       <c r="A197" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B197" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C197" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D197" t="n">
         <v>0.015</v>
@@ -18982,16 +19573,19 @@
       <c r="AE197" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="198" spans="1:31">
+      <c r="AF197" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="198" spans="1:32">
       <c r="A198" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B198" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C198" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D198" t="n">
         <v>0.01</v>
@@ -19077,16 +19671,19 @@
       <c r="AE198" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="199" spans="1:31">
+      <c r="AF198" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="199" spans="1:32">
       <c r="A199" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B199" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C199" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D199" t="n">
         <v>0.015</v>
@@ -19172,16 +19769,19 @@
       <c r="AE199" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="200" spans="1:31">
+      <c r="AF199" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="200" spans="1:32">
       <c r="A200" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B200" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C200" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D200" t="n">
         <v>0.01</v>
@@ -19267,16 +19867,19 @@
       <c r="AE200" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:31">
+      <c r="AF200" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="201" spans="1:32">
       <c r="A201" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B201" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C201" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D201" t="n">
         <v>0.02</v>
@@ -19362,16 +19965,19 @@
       <c r="AE201" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="202" spans="1:31">
+      <c r="AF201" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="202" spans="1:32">
       <c r="A202" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B202" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C202" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D202" t="n">
         <v>0.01</v>
@@ -19457,16 +20063,19 @@
       <c r="AE202" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="203" spans="1:31">
+      <c r="AF202" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="203" spans="1:32">
       <c r="A203" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B203" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C203" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E203" t="n">
         <v>0</v>
@@ -19549,16 +20158,19 @@
       <c r="AE203" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="204" spans="1:31">
+      <c r="AF203" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="204" spans="1:32">
       <c r="A204" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B204" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C204" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E204" t="n">
         <v>0</v>
@@ -19641,16 +20253,19 @@
       <c r="AE204" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:31">
+      <c r="AF204" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="205" spans="1:32">
       <c r="A205" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B205" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C205" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
@@ -19733,16 +20348,19 @@
       <c r="AE205" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:31">
+      <c r="AF205" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="206" spans="1:32">
       <c r="A206" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B206" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C206" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
@@ -19825,16 +20443,19 @@
       <c r="AE206" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="207" spans="1:31">
+      <c r="AF206" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="207" spans="1:32">
       <c r="A207" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B207" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C207" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D207" t="n">
         <v>0.5600000000000001</v>
@@ -19920,16 +20541,19 @@
       <c r="AE207" t="n">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="208" spans="1:31">
+      <c r="AF207" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="208" spans="1:32">
       <c r="A208" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B208" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C208" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D208" t="n">
         <v>0.47</v>
@@ -20015,16 +20639,19 @@
       <c r="AE208" t="n">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="209" spans="1:31">
+      <c r="AF208" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="209" spans="1:32">
       <c r="A209" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B209" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C209" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D209" t="n">
         <v>0.4</v>
@@ -20110,16 +20737,19 @@
       <c r="AE209" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="210" spans="1:31">
+      <c r="AF209" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="210" spans="1:32">
       <c r="A210" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B210" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C210" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D210" t="n">
         <v>0.47</v>
@@ -20205,16 +20835,19 @@
       <c r="AE210" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="211" spans="1:31">
+      <c r="AF210" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="211" spans="1:32">
       <c r="A211" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B211" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C211" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D211" t="n">
         <v>0.46</v>
@@ -20300,16 +20933,19 @@
       <c r="AE211" t="n">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="212" spans="1:31">
+      <c r="AF211" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="212" spans="1:32">
       <c r="A212" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B212" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C212" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D212" t="n">
         <v>0.47</v>
@@ -20395,16 +21031,19 @@
       <c r="AE212" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="213" spans="1:31">
+      <c r="AF212" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="213" spans="1:32">
       <c r="A213" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B213" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C213" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D213" t="n">
         <v>0.63</v>
@@ -20490,16 +21129,19 @@
       <c r="AE213" t="n">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="214" spans="1:31">
+      <c r="AF213" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="214" spans="1:32">
       <c r="A214" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B214" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C214" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D214" t="n">
         <v>0.61</v>
@@ -20585,16 +21227,19 @@
       <c r="AE214" t="n">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="215" spans="1:31">
+      <c r="AF214" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="215" spans="1:32">
       <c r="A215" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B215" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C215" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D215" t="n">
         <v>0.46</v>
@@ -20680,16 +21325,19 @@
       <c r="AE215" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="216" spans="1:31">
+      <c r="AF215" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="216" spans="1:32">
       <c r="A216" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B216" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C216" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D216" t="n">
         <v>0.48</v>
@@ -20775,16 +21423,19 @@
       <c r="AE216" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="217" spans="1:31">
+      <c r="AF216" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="217" spans="1:32">
       <c r="A217" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B217" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C217" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D217" t="n">
         <v>0.45</v>
@@ -20870,16 +21521,19 @@
       <c r="AE217" t="n">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="218" spans="1:31">
+      <c r="AF217" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="218" spans="1:32">
       <c r="A218" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B218" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C218" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D218" t="n">
         <v>0.46</v>
@@ -20965,16 +21619,19 @@
       <c r="AE218" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="219" spans="1:31">
+      <c r="AF218" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="219" spans="1:32">
       <c r="A219" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B219" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C219" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D219" t="n">
         <v>0.49</v>
@@ -21060,16 +21717,19 @@
       <c r="AE219" t="n">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="220" spans="1:31">
+      <c r="AF219" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="220" spans="1:32">
       <c r="A220" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B220" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C220" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D220" t="n">
         <v>0.49</v>
@@ -21155,16 +21815,19 @@
       <c r="AE220" t="n">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="221" spans="1:31">
+      <c r="AF220" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="221" spans="1:32">
       <c r="A221" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B221" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C221" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D221" t="n">
         <v>0.4</v>
@@ -21250,16 +21913,19 @@
       <c r="AE221" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="222" spans="1:31">
+      <c r="AF221" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="222" spans="1:32">
       <c r="A222" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B222" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C222" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E222" t="n">
         <v>0.38</v>
@@ -21342,16 +22008,19 @@
       <c r="AE222" t="n">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="223" spans="1:31">
+      <c r="AF222" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="223" spans="1:32">
       <c r="A223" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B223" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C223" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E223" t="n">
         <v>0.41</v>
@@ -21434,16 +22103,19 @@
       <c r="AE223" t="n">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="224" spans="1:31">
+      <c r="AF223" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="224" spans="1:32">
       <c r="A224" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B224" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C224" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E224" t="n">
         <v>0.34</v>
@@ -21526,16 +22198,19 @@
       <c r="AE224" t="n">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="225" spans="1:31">
+      <c r="AF224" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="225" spans="1:32">
       <c r="A225" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B225" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C225" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E225" t="n">
         <v>0.32</v>
@@ -21618,16 +22293,19 @@
       <c r="AE225" t="n">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="226" spans="1:31">
+      <c r="AF225" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="226" spans="1:32">
       <c r="A226" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B226" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C226" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E226" t="n">
         <v>0.17</v>
@@ -21710,16 +22388,19 @@
       <c r="AE226" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="227" spans="1:31">
+      <c r="AF226" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="227" spans="1:32">
       <c r="A227" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B227" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C227" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E227" t="n">
         <v>0.14</v>
@@ -21802,16 +22483,19 @@
       <c r="AE227" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="228" spans="1:31">
+      <c r="AF227" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:32">
       <c r="A228" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B228" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C228" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E228" t="n">
         <v>0.08</v>
@@ -21894,16 +22578,19 @@
       <c r="AE228" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="229" spans="1:31">
+      <c r="AF228" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="229" spans="1:32">
       <c r="A229" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B229" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C229" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E229" t="n">
         <v>0.16</v>
@@ -21986,16 +22673,19 @@
       <c r="AE229" t="n">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="230" spans="1:31">
+      <c r="AF229" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="230" spans="1:32">
       <c r="A230" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B230" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C230" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E230" t="n">
         <v>0.13</v>
@@ -22078,16 +22768,19 @@
       <c r="AE230" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="231" spans="1:31">
+      <c r="AF230" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="231" spans="1:32">
       <c r="A231" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B231" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C231" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E231" t="n">
         <v>0.11</v>
@@ -22170,16 +22863,19 @@
       <c r="AE231" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="232" spans="1:31">
+      <c r="AF231" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="232" spans="1:32">
       <c r="A232" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B232" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C232" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E232" t="n">
         <v>0.06</v>
@@ -22262,16 +22958,19 @@
       <c r="AE232" t="n">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="233" spans="1:31">
+      <c r="AF232" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="233" spans="1:32">
       <c r="A233" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B233" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C233" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E233" t="n">
         <v>0.18</v>
@@ -22354,16 +23053,19 @@
       <c r="AE233" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="234" spans="1:31">
+      <c r="AF233" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="234" spans="1:32">
       <c r="A234" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B234" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C234" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E234" t="n">
         <v>0.12</v>
@@ -22446,16 +23148,19 @@
       <c r="AE234" t="n">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="235" spans="1:31">
+      <c r="AF234" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="235" spans="1:32">
       <c r="A235" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B235" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C235" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E235" t="n">
         <v>0.14</v>
@@ -22538,16 +23243,19 @@
       <c r="AE235" t="n">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="236" spans="1:31">
+      <c r="AF235" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="236" spans="1:32">
       <c r="A236" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B236" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C236" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E236" t="n">
         <v>0.11</v>
@@ -22630,16 +23338,19 @@
       <c r="AE236" t="n">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="237" spans="1:31">
+      <c r="AF236" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:32">
       <c r="A237" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B237" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C237" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E237" t="n">
         <v>0.11</v>
@@ -22722,16 +23433,19 @@
       <c r="AE237" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="238" spans="1:31">
+      <c r="AF237" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="238" spans="1:32">
       <c r="A238" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B238" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C238" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E238" t="n">
         <v>0.12</v>
@@ -22814,16 +23528,19 @@
       <c r="AE238" t="n">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="239" spans="1:31">
+      <c r="AF238" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="239" spans="1:32">
       <c r="A239" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B239" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C239" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E239" t="n">
         <v>0.16</v>
@@ -22906,16 +23623,19 @@
       <c r="AE239" t="n">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="240" spans="1:31">
+      <c r="AF239" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="240" spans="1:32">
       <c r="A240" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B240" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C240" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E240" t="n">
         <v>0.15</v>
@@ -22998,16 +23718,19 @@
       <c r="AE240" t="n">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="241" spans="1:31">
+      <c r="AF240" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="241" spans="1:32">
       <c r="A241" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B241" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C241" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E241" t="n">
         <v>0.15</v>
@@ -23090,16 +23813,19 @@
       <c r="AE241" t="n">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="242" spans="1:31">
+      <c r="AF241" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="242" spans="1:32">
       <c r="A242" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B242" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C242" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E242" t="n">
         <v>0.18</v>
@@ -23182,16 +23908,19 @@
       <c r="AE242" t="n">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="243" spans="1:31">
+      <c r="AF242" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="243" spans="1:32">
       <c r="A243" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B243" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C243" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E243" t="n">
         <v>0.12</v>
@@ -23274,16 +24003,19 @@
       <c r="AE243" t="n">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="244" spans="1:31">
+      <c r="AF243" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="244" spans="1:32">
       <c r="A244" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B244" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C244" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E244" t="n">
         <v>0.14</v>
@@ -23366,16 +24098,19 @@
       <c r="AE244" t="n">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="245" spans="1:31">
+      <c r="AF244" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="245" spans="1:32">
       <c r="A245" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B245" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C245" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E245" t="n">
         <v>0.04</v>
@@ -23458,16 +24193,19 @@
       <c r="AE245" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="246" spans="1:31">
+      <c r="AF245" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:32">
       <c r="A246" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B246" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C246" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E246" t="n">
         <v>0.04</v>
@@ -23550,16 +24288,19 @@
       <c r="AE246" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="247" spans="1:31">
+      <c r="AF246" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="247" spans="1:32">
       <c r="A247" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B247" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C247" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E247" t="n">
         <v>0.03</v>
@@ -23642,16 +24383,19 @@
       <c r="AE247" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="248" spans="1:31">
+      <c r="AF247" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="248" spans="1:32">
       <c r="A248" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B248" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C248" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E248" t="n">
         <v>0.04</v>
@@ -23734,16 +24478,19 @@
       <c r="AE248" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="249" spans="1:31">
+      <c r="AF248" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:32">
       <c r="A249" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B249" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C249" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E249" t="n">
         <v>0.04</v>
@@ -23826,16 +24573,19 @@
       <c r="AE249" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="250" spans="1:31">
+      <c r="AF249" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="250" spans="1:32">
       <c r="A250" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B250" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C250" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E250" t="n">
         <v>0.03</v>
@@ -23918,16 +24668,19 @@
       <c r="AE250" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="251" spans="1:31">
+      <c r="AF250" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:32">
       <c r="A251" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C251" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
@@ -24010,16 +24763,19 @@
       <c r="AE251" t="n">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="252" spans="1:31">
+      <c r="AF251" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="252" spans="1:32">
       <c r="A252" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B252" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C252" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E252" t="n">
         <v>0.05</v>
@@ -24102,16 +24858,19 @@
       <c r="AE252" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="253" spans="1:31">
+      <c r="AF252" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:32">
       <c r="A253" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B253" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C253" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E253" t="n">
         <v>0.03</v>
@@ -24194,16 +24953,19 @@
       <c r="AE253" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="254" spans="1:31">
+      <c r="AF253" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="254" spans="1:32">
       <c r="A254" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B254" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C254" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E254" t="n">
         <v>0.04</v>
@@ -24286,16 +25048,19 @@
       <c r="AE254" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="255" spans="1:31">
+      <c r="AF254" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:32">
       <c r="A255" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C255" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E255" t="n">
         <v>0.03</v>
@@ -24378,16 +25143,19 @@
       <c r="AE255" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="256" spans="1:31">
+      <c r="AF255" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="256" spans="1:32">
       <c r="A256" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B256" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C256" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E256" t="n">
         <v>0.03</v>
@@ -24470,16 +25238,19 @@
       <c r="AE256" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="257" spans="1:31">
+      <c r="AF256" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:32">
       <c r="A257" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B257" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C257" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E257" t="n">
         <v>0.04</v>
@@ -24562,16 +25333,19 @@
       <c r="AE257" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="258" spans="1:31">
+      <c r="AF257" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:32">
       <c r="A258" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B258" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C258" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E258" t="n">
         <v>0.03</v>
@@ -24654,16 +25428,19 @@
       <c r="AE258" t="n">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="259" spans="1:31">
+      <c r="AF258" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="259" spans="1:32">
       <c r="A259" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B259" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C259" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E259" t="n">
         <v>0.06</v>
@@ -24746,16 +25523,19 @@
       <c r="AE259" t="n">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="260" spans="1:31">
+      <c r="AF259" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="260" spans="1:32">
       <c r="A260" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B260" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C260" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E260" t="n">
         <v>0.05</v>
@@ -24838,16 +25618,19 @@
       <c r="AE260" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="261" spans="1:31">
+      <c r="AF260" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="261" spans="1:32">
       <c r="A261" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B261" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C261" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E261" t="n">
         <v>0.02</v>
@@ -24930,16 +25713,19 @@
       <c r="AE261" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="262" spans="1:31">
+      <c r="AF261" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:32">
       <c r="A262" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B262" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C262" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E262" t="n">
         <v>0.03</v>
@@ -25022,16 +25808,19 @@
       <c r="AE262" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="263" spans="1:31">
+      <c r="AF262" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="263" spans="1:32">
       <c r="A263" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B263" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C263" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E263" t="n">
         <v>0.05</v>
@@ -25114,16 +25903,19 @@
       <c r="AE263" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="264" spans="1:31">
+      <c r="AF263" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="264" spans="1:32">
       <c r="A264" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B264" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C264" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D264" t="n">
         <v>0.08</v>
@@ -25209,16 +26001,19 @@
       <c r="AE264" t="n">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="265" spans="1:31">
+      <c r="AF264" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="265" spans="1:32">
       <c r="A265" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B265" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C265" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D265" t="n">
         <v>0.05</v>
@@ -25304,16 +26099,19 @@
       <c r="AE265" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="266" spans="1:31">
+      <c r="AF265" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:32">
       <c r="A266" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B266" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C266" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D266" t="n">
         <v>0.03</v>
@@ -25399,16 +26197,19 @@
       <c r="AE266" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="267" spans="1:31">
+      <c r="AF266" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="267" spans="1:32">
       <c r="A267" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B267" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C267" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D267" t="n">
         <v>0.04</v>
@@ -25494,16 +26295,19 @@
       <c r="AE267" t="n">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="268" spans="1:31">
+      <c r="AF267" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="268" spans="1:32">
       <c r="A268" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B268" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C268" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D268" t="n">
         <v>0.05</v>
@@ -25589,16 +26393,19 @@
       <c r="AE268" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="269" spans="1:31">
+      <c r="AF268" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:32">
       <c r="A269" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B269" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C269" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D269" t="n">
         <v>0.05</v>
@@ -25684,16 +26491,19 @@
       <c r="AE269" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="270" spans="1:31">
+      <c r="AF269" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="270" spans="1:32">
       <c r="A270" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B270" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C270" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D270" t="n">
         <v>0.32</v>
@@ -25779,16 +26589,19 @@
       <c r="AE270" t="n">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="271" spans="1:31">
+      <c r="AF270" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="271" spans="1:32">
       <c r="A271" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B271" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C271" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D271" t="n">
         <v>0.1</v>
@@ -25874,16 +26687,19 @@
       <c r="AE271" t="n">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="272" spans="1:31">
+      <c r="AF271" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="272" spans="1:32">
       <c r="A272" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B272" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C272" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D272" t="n">
         <v>0.04</v>
@@ -25969,16 +26785,19 @@
       <c r="AE272" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="273" spans="1:31">
+      <c r="AF272" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="273" spans="1:32">
       <c r="A273" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B273" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C273" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D273" t="n">
         <v>0.05</v>
@@ -26064,16 +26883,19 @@
       <c r="AE273" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="274" spans="1:31">
+      <c r="AF273" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="274" spans="1:32">
       <c r="A274" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B274" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C274" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D274" t="n">
         <v>0.05</v>
@@ -26159,16 +26981,19 @@
       <c r="AE274" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="275" spans="1:31">
+      <c r="AF274" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="275" spans="1:32">
       <c r="A275" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B275" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C275" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D275" t="n">
         <v>0.04</v>
@@ -26254,16 +27079,19 @@
       <c r="AE275" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="276" spans="1:31">
+      <c r="AF275" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="276" spans="1:32">
       <c r="A276" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B276" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C276" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D276" t="n">
         <v>0.06</v>
@@ -26349,16 +27177,19 @@
       <c r="AE276" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="277" spans="1:31">
+      <c r="AF276" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="277" spans="1:32">
       <c r="A277" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B277" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C277" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D277" t="n">
         <v>0.06</v>
@@ -26444,16 +27275,19 @@
       <c r="AE277" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="278" spans="1:31">
+      <c r="AF277" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="278" spans="1:32">
       <c r="A278" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B278" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C278" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D278" t="n">
         <v>0.06</v>
@@ -26539,16 +27373,19 @@
       <c r="AE278" t="n">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="279" spans="1:31">
+      <c r="AF278" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="279" spans="1:32">
       <c r="A279" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B279" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C279" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E279" t="n">
         <v>0.03</v>
@@ -26631,16 +27468,19 @@
       <c r="AE279" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="280" spans="1:31">
+      <c r="AF279" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="280" spans="1:32">
       <c r="A280" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B280" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C280" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E280" t="n">
         <v>0.04</v>
@@ -26723,16 +27563,19 @@
       <c r="AE280" t="n">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="281" spans="1:31">
+      <c r="AF280" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="281" spans="1:32">
       <c r="A281" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B281" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C281" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E281" t="n">
         <v>0.015</v>
@@ -26815,16 +27658,19 @@
       <c r="AE281" t="n">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="282" spans="1:31">
+      <c r="AF281" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:32">
       <c r="A282" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B282" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C282" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E282" t="n">
         <v>0.005</v>
@@ -26907,16 +27753,19 @@
       <c r="AE282" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="283" spans="1:31">
+      <c r="AF282" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="283" spans="1:32">
       <c r="A283" t="s">
+        <v>49</v>
+      </c>
+      <c r="B283" t="s">
+        <v>50</v>
+      </c>
+      <c r="C283" t="s">
         <v>48</v>
-      </c>
-      <c r="B283" t="s">
-        <v>49</v>
-      </c>
-      <c r="C283" t="s">
-        <v>47</v>
       </c>
       <c r="H283" t="n">
         <v>0.02</v>
@@ -26990,16 +27839,19 @@
       <c r="AE283" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="284" spans="1:31">
+      <c r="AF283" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="284" spans="1:32">
       <c r="A284" t="s">
+        <v>49</v>
+      </c>
+      <c r="B284" t="s">
+        <v>51</v>
+      </c>
+      <c r="C284" t="s">
         <v>48</v>
-      </c>
-      <c r="B284" t="s">
-        <v>50</v>
-      </c>
-      <c r="C284" t="s">
-        <v>47</v>
       </c>
       <c r="H284" t="n">
         <v>0.015</v>
@@ -27073,16 +27925,19 @@
       <c r="AE284" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="285" spans="1:31">
+      <c r="AF284" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="285" spans="1:32">
       <c r="A285" t="s">
+        <v>49</v>
+      </c>
+      <c r="B285" t="s">
+        <v>52</v>
+      </c>
+      <c r="C285" t="s">
         <v>48</v>
-      </c>
-      <c r="B285" t="s">
-        <v>51</v>
-      </c>
-      <c r="C285" t="s">
-        <v>47</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -27156,16 +28011,19 @@
       <c r="AE285" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="286" spans="1:31">
+      <c r="AF285" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="286" spans="1:32">
       <c r="A286" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B286" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C286" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -27239,16 +28097,19 @@
       <c r="AE286" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="287" spans="1:31">
+      <c r="AF286" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="287" spans="1:32">
       <c r="A287" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B287" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C287" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H287" t="n">
         <v>0.005</v>
@@ -27322,16 +28183,19 @@
       <c r="AE287" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="288" spans="1:31">
+      <c r="AF287" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="288" spans="1:32">
       <c r="A288" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B288" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C288" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H288" t="n">
         <v>0.03</v>
@@ -27405,16 +28269,19 @@
       <c r="AE288" t="n">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="289" spans="1:31">
+      <c r="AF288" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="289" spans="1:32">
       <c r="A289" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B289" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C289" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H289" t="n">
         <v>0.05</v>
@@ -27488,16 +28355,19 @@
       <c r="AE289" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="290" spans="1:31">
+      <c r="AF289" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="290" spans="1:32">
       <c r="A290" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B290" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C290" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H290" t="n">
         <v>0.005</v>
@@ -27571,16 +28441,19 @@
       <c r="AE290" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:31">
+      <c r="AF290" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="291" spans="1:32">
       <c r="A291" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B291" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C291" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H291" t="n">
         <v>0.01</v>
@@ -27654,16 +28527,19 @@
       <c r="AE291" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="292" spans="1:31">
+      <c r="AF291" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="292" spans="1:32">
       <c r="A292" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B292" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C292" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H292" t="n">
         <v>0.01</v>
@@ -27737,16 +28613,19 @@
       <c r="AE292" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="293" spans="1:31">
+      <c r="AF292" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="293" spans="1:32">
       <c r="A293" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B293" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C293" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H293" t="n">
         <v>0.01</v>
@@ -27820,16 +28699,19 @@
       <c r="AE293" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="294" spans="1:31">
+      <c r="AF293" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="294" spans="1:32">
       <c r="A294" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B294" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C294" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H294" t="n">
         <v>0.015</v>
@@ -27903,16 +28785,19 @@
       <c r="AE294" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="295" spans="1:31">
+      <c r="AF294" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="295" spans="1:32">
       <c r="A295" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B295" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C295" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H295" t="n">
         <v>0.005</v>
@@ -27986,16 +28871,19 @@
       <c r="AE295" t="n">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="296" spans="1:31">
+      <c r="AF295" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="296" spans="1:32">
       <c r="A296" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B296" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C296" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H296" t="n">
         <v>0.005</v>
@@ -28069,16 +28957,19 @@
       <c r="AE296" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="297" spans="1:31">
+      <c r="AF296" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="297" spans="1:32">
       <c r="A297" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B297" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C297" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H297" t="n">
         <v>0.005</v>
@@ -28152,16 +29043,19 @@
       <c r="AE297" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="298" spans="1:31">
+      <c r="AF297" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="298" spans="1:32">
       <c r="A298" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B298" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C298" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H298" t="n">
         <v>0.01</v>
@@ -28235,16 +29129,19 @@
       <c r="AE298" t="n">
         <v>0.015</v>
       </c>
-    </row>
-    <row r="299" spans="1:31">
+      <c r="AF298" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="299" spans="1:32">
       <c r="A299" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B299" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C299" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H299" t="n">
         <v>0.02</v>
@@ -28318,16 +29215,19 @@
       <c r="AE299" t="n">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="300" spans="1:31">
+      <c r="AF299" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="300" spans="1:32">
       <c r="A300" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B300" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C300" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H300" t="n">
         <v>0.02</v>
@@ -28401,16 +29301,19 @@
       <c r="AE300" t="n">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="301" spans="1:31">
+      <c r="AF300" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="1:32">
       <c r="A301" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B301" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C301" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H301" t="n">
         <v>0.02</v>
@@ -28484,10 +29387,13 @@
       <c r="AE301" t="n">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="302" spans="1:31">
+      <c r="AF301" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:32">
       <c r="A302" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -28501,7 +29407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD22"/>
+  <dimension ref="A1:AE22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28509,7 +29415,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -28600,13 +29506,16 @@
       <c r="AD1" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AE1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
         <v>3101</v>
@@ -28692,13 +29601,16 @@
       <c r="AD2" t="n">
         <v>1975</v>
       </c>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="AE2" t="n">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" t="n">
         <v>746</v>
@@ -28784,13 +29696,16 @@
       <c r="AD3" t="n">
         <v>471</v>
       </c>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AE3" t="n">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" t="n">
         <v>1148</v>
@@ -28876,13 +29791,16 @@
       <c r="AD4" t="n">
         <v>729</v>
       </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AE4" t="n">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" t="n">
         <v>1207</v>
@@ -28968,13 +29886,16 @@
       <c r="AD5" t="n">
         <v>775</v>
       </c>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="AE5" t="n">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" t="n">
         <v>665</v>
@@ -29060,13 +29981,16 @@
       <c r="AD6" t="n">
         <v>512</v>
       </c>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="AE6" t="n">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" t="n">
         <v>885</v>
@@ -29152,13 +30076,16 @@
       <c r="AD7" t="n">
         <v>844</v>
       </c>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="AE7" t="n">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C8" t="n">
         <v>1551</v>
@@ -29244,13 +30171,16 @@
       <c r="AD8" t="n">
         <v>619</v>
       </c>
-    </row>
-    <row r="9" spans="1:30">
+      <c r="AE8" t="n">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" t="n">
         <v>11</v>
@@ -29336,13 +30266,16 @@
       <c r="AD9" t="n">
         <v>443</v>
       </c>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="AE9" t="n">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" t="n">
         <v>102</v>
@@ -29428,13 +30361,16 @@
       <c r="AD10" t="n">
         <v>528</v>
       </c>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="AE10" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" t="n">
         <v>2988</v>
@@ -29520,13 +30456,16 @@
       <c r="AD11" t="n">
         <v>1004</v>
       </c>
-    </row>
-    <row r="12" spans="1:30">
+      <c r="AE11" t="n">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" t="n">
         <v>1514</v>
@@ -29612,13 +30551,16 @@
       <c r="AD12" t="n">
         <v>956</v>
       </c>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="AE12" t="n">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" t="n">
         <v>1587</v>
@@ -29704,13 +30646,16 @@
       <c r="AD13" t="n">
         <v>1019</v>
       </c>
-    </row>
-    <row r="14" spans="1:30">
+      <c r="AE13" t="n">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" t="n">
         <v>1726</v>
@@ -29796,13 +30741,16 @@
       <c r="AD14" t="n">
         <v>1029</v>
       </c>
-    </row>
-    <row r="15" spans="1:30">
+      <c r="AE14" t="n">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C15" t="n">
         <v>667</v>
@@ -29888,13 +30836,16 @@
       <c r="AD15" t="n">
         <v>456</v>
       </c>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="AE15" t="n">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" t="n">
         <v>333</v>
@@ -29980,13 +30931,16 @@
       <c r="AD16" t="n">
         <v>230</v>
       </c>
-    </row>
-    <row r="17" spans="1:30">
+      <c r="AE16" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" t="n">
         <v>375</v>
@@ -30072,13 +31026,16 @@
       <c r="AD17" t="n">
         <v>260</v>
       </c>
-    </row>
-    <row r="18" spans="1:30">
+      <c r="AE17" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s"/>
       <c r="D18" t="n">
@@ -30162,13 +31119,16 @@
       <c r="AD18" t="n">
         <v>794</v>
       </c>
-    </row>
-    <row r="19" spans="1:30">
+      <c r="AE18" t="n">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s"/>
       <c r="D19" t="n">
@@ -30252,13 +31212,16 @@
       <c r="AD19" t="n">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="1:30">
+      <c r="AE19" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s"/>
       <c r="D20" t="n">
@@ -30342,13 +31305,16 @@
       <c r="AD20" t="n">
         <v>111</v>
       </c>
-    </row>
-    <row r="21" spans="1:30">
+      <c r="AE20" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s"/>
       <c r="D21" t="n">
@@ -30432,10 +31398,13 @@
       <c r="AD21" t="n">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:30">
+      <c r="AE21" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s"/>
       <c r="C22" t="s"/>
@@ -30466,6 +31435,7 @@
       <c r="AB22" t="s"/>
       <c r="AC22" t="s"/>
       <c r="AD22" t="s"/>
+      <c r="AE22" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/ZBP_04_socialni_aktivity.xlsx
+++ b/ZBP_04_socialni_aktivity.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG302"/>
+  <dimension ref="A1:AH302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +625,11 @@
           <t>12.–18. 7. 2021</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>16.–22. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -732,6 +737,9 @@
       <c r="AG2" t="n">
         <v>0.79</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -839,6 +847,9 @@
       <c r="AG3" t="n">
         <v>0.32</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -946,6 +957,9 @@
       <c r="AG4" t="n">
         <v>0.3</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1053,6 +1067,9 @@
       <c r="AG5" t="n">
         <v>0.22</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1160,6 +1177,9 @@
       <c r="AG6" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1267,6 +1287,9 @@
       <c r="AG7" t="n">
         <v>0.42</v>
       </c>
+      <c r="AH7" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1374,6 +1397,9 @@
       <c r="AG8" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH8" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1469,6 +1495,9 @@
       <c r="AG9" t="n">
         <v>0.1</v>
       </c>
+      <c r="AH9" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1576,6 +1605,9 @@
       <c r="AG10" t="n">
         <v>0.06</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1683,6 +1715,9 @@
       <c r="AG11" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH11" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1790,6 +1825,9 @@
       <c r="AG12" t="n">
         <v>0.65</v>
       </c>
+      <c r="AH12" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1894,6 +1932,9 @@
       <c r="AG13" t="n">
         <v>0.28</v>
       </c>
+      <c r="AH13" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1998,6 +2039,9 @@
       <c r="AG14" t="n">
         <v>0.15</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2105,6 +2149,9 @@
       <c r="AG15" t="n">
         <v>0.21</v>
       </c>
+      <c r="AH15" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2200,6 +2247,9 @@
       <c r="AG16" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2307,6 +2357,9 @@
       <c r="AG17" t="n">
         <v>0.74</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2414,6 +2467,9 @@
       <c r="AG18" t="n">
         <v>0.85</v>
       </c>
+      <c r="AH18" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2521,6 +2577,9 @@
       <c r="AG19" t="n">
         <v>0.77</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2628,6 +2687,9 @@
       <c r="AG20" t="n">
         <v>0.85</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2735,6 +2797,9 @@
       <c r="AG21" t="n">
         <v>0.78</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2842,6 +2907,9 @@
       <c r="AG22" t="n">
         <v>0.75</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2949,6 +3017,9 @@
       <c r="AG23" t="n">
         <v>0.82</v>
       </c>
+      <c r="AH23" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3056,6 +3127,9 @@
       <c r="AG24" t="n">
         <v>0.83</v>
       </c>
+      <c r="AH24" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3163,6 +3237,9 @@
       <c r="AG25" t="n">
         <v>0.77</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3270,6 +3347,9 @@
       <c r="AG26" t="n">
         <v>0.8</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3377,6 +3457,9 @@
       <c r="AG27" t="n">
         <v>0.78</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3484,6 +3567,9 @@
       <c r="AG28" t="n">
         <v>0.77</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3591,6 +3677,9 @@
       <c r="AG29" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AH29" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3698,6 +3787,9 @@
       <c r="AG30" t="n">
         <v>0.84</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3805,6 +3897,9 @@
       <c r="AG31" t="n">
         <v>0.79</v>
       </c>
+      <c r="AH31" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3909,6 +4004,9 @@
       <c r="AG32" t="n">
         <v>0.83</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4013,6 +4111,9 @@
       <c r="AG33" t="n">
         <v>0.89</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4117,6 +4218,9 @@
       <c r="AG34" t="n">
         <v>0.76</v>
       </c>
+      <c r="AH34" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4221,6 +4325,9 @@
       <c r="AG35" t="n">
         <v>0.83</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4328,6 +4435,9 @@
       <c r="AG36" t="n">
         <v>0.4</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4435,6 +4545,9 @@
       <c r="AG37" t="n">
         <v>0.31</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4542,6 +4655,9 @@
       <c r="AG38" t="n">
         <v>0.28</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4649,6 +4765,9 @@
       <c r="AG39" t="n">
         <v>0.35</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4756,6 +4875,9 @@
       <c r="AG40" t="n">
         <v>0.32</v>
       </c>
+      <c r="AH40" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4863,6 +4985,9 @@
       <c r="AG41" t="n">
         <v>0.3</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4970,6 +5095,9 @@
       <c r="AG42" t="n">
         <v>0.32</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5077,6 +5205,9 @@
       <c r="AG43" t="n">
         <v>0.36</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5184,6 +5315,9 @@
       <c r="AG44" t="n">
         <v>0.31</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5291,6 +5425,9 @@
       <c r="AG45" t="n">
         <v>0.31</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5398,6 +5535,9 @@
       <c r="AG46" t="n">
         <v>0.33</v>
       </c>
+      <c r="AH46" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5505,6 +5645,9 @@
       <c r="AG47" t="n">
         <v>0.21</v>
       </c>
+      <c r="AH47" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5612,6 +5755,9 @@
       <c r="AG48" t="n">
         <v>0.31</v>
       </c>
+      <c r="AH48" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5719,6 +5865,9 @@
       <c r="AG49" t="n">
         <v>0.51</v>
       </c>
+      <c r="AH49" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5826,6 +5975,9 @@
       <c r="AG50" t="n">
         <v>0.6</v>
       </c>
+      <c r="AH50" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5930,6 +6082,9 @@
       <c r="AG51" t="n">
         <v>0.37</v>
       </c>
+      <c r="AH51" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6034,6 +6189,9 @@
       <c r="AG52" t="n">
         <v>0.33</v>
       </c>
+      <c r="AH52" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6138,6 +6296,9 @@
       <c r="AG53" t="n">
         <v>0.62</v>
       </c>
+      <c r="AH53" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6242,6 +6403,9 @@
       <c r="AG54" t="n">
         <v>0.21</v>
       </c>
+      <c r="AH54" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6349,6 +6513,9 @@
       <c r="AG55" t="n">
         <v>0.23</v>
       </c>
+      <c r="AH55" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6456,6 +6623,9 @@
       <c r="AG56" t="n">
         <v>0.31</v>
       </c>
+      <c r="AH56" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6563,6 +6733,9 @@
       <c r="AG57" t="n">
         <v>0.35</v>
       </c>
+      <c r="AH57" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6670,6 +6843,9 @@
       <c r="AG58" t="n">
         <v>0.25</v>
       </c>
+      <c r="AH58" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6777,6 +6953,9 @@
       <c r="AG59" t="n">
         <v>0.28</v>
       </c>
+      <c r="AH59" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -6884,6 +7063,9 @@
       <c r="AG60" t="n">
         <v>0.38</v>
       </c>
+      <c r="AH60" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -6991,6 +7173,9 @@
       <c r="AG61" t="n">
         <v>0.31</v>
       </c>
+      <c r="AH61" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7098,6 +7283,9 @@
       <c r="AG62" t="n">
         <v>0.31</v>
       </c>
+      <c r="AH62" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7205,6 +7393,9 @@
       <c r="AG63" t="n">
         <v>0.3</v>
       </c>
+      <c r="AH63" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7312,6 +7503,9 @@
       <c r="AG64" t="n">
         <v>0.29</v>
       </c>
+      <c r="AH64" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7419,6 +7613,9 @@
       <c r="AG65" t="n">
         <v>0.32</v>
       </c>
+      <c r="AH65" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7526,6 +7723,9 @@
       <c r="AG66" t="n">
         <v>0.32</v>
       </c>
+      <c r="AH66" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7633,6 +7833,9 @@
       <c r="AG67" t="n">
         <v>0.3</v>
       </c>
+      <c r="AH67" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7740,6 +7943,9 @@
       <c r="AG68" t="n">
         <v>0.27</v>
       </c>
+      <c r="AH68" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -7847,6 +8053,9 @@
       <c r="AG69" t="n">
         <v>0.28</v>
       </c>
+      <c r="AH69" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -7951,6 +8160,9 @@
       <c r="AG70" t="n">
         <v>0.26</v>
       </c>
+      <c r="AH70" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8055,6 +8267,9 @@
       <c r="AG71" t="n">
         <v>0.29</v>
       </c>
+      <c r="AH71" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8159,6 +8374,9 @@
       <c r="AG72" t="n">
         <v>0.28</v>
       </c>
+      <c r="AH72" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8263,6 +8481,9 @@
       <c r="AG73" t="n">
         <v>0.41</v>
       </c>
+      <c r="AH73" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8370,6 +8591,9 @@
       <c r="AG74" t="n">
         <v>0.25</v>
       </c>
+      <c r="AH74" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8477,6 +8701,9 @@
       <c r="AG75" t="n">
         <v>0.22</v>
       </c>
+      <c r="AH75" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8584,6 +8811,9 @@
       <c r="AG76" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH76" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8691,6 +8921,9 @@
       <c r="AG77" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH77" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -8798,6 +9031,9 @@
       <c r="AG78" t="n">
         <v>0.24</v>
       </c>
+      <c r="AH78" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -8905,6 +9141,9 @@
       <c r="AG79" t="n">
         <v>0.21</v>
       </c>
+      <c r="AH79" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9012,6 +9251,9 @@
       <c r="AG80" t="n">
         <v>0.27</v>
       </c>
+      <c r="AH80" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9119,6 +9361,9 @@
       <c r="AG81" t="n">
         <v>0.22</v>
       </c>
+      <c r="AH81" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9226,6 +9471,9 @@
       <c r="AG82" t="n">
         <v>0.21</v>
       </c>
+      <c r="AH82" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9333,6 +9581,9 @@
       <c r="AG83" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH83" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9440,6 +9691,9 @@
       <c r="AG84" t="n">
         <v>0.24</v>
       </c>
+      <c r="AH84" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9547,6 +9801,9 @@
       <c r="AG85" t="n">
         <v>0.21</v>
       </c>
+      <c r="AH85" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9654,6 +9911,9 @@
       <c r="AG86" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH86" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9761,6 +10021,9 @@
       <c r="AG87" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH87" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9868,6 +10131,9 @@
       <c r="AG88" t="n">
         <v>0.31</v>
       </c>
+      <c r="AH88" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -9972,6 +10238,9 @@
       <c r="AG89" t="n">
         <v>0.22</v>
       </c>
+      <c r="AH89" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10076,6 +10345,9 @@
       <c r="AG90" t="n">
         <v>0.3</v>
       </c>
+      <c r="AH90" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10180,6 +10452,9 @@
       <c r="AG91" t="n">
         <v>0.21</v>
       </c>
+      <c r="AH91" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10284,6 +10559,9 @@
       <c r="AG92" t="n">
         <v>0.24</v>
       </c>
+      <c r="AH92" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10391,6 +10669,9 @@
       <c r="AG93" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH93" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10498,6 +10779,9 @@
       <c r="AG94" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH94" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10605,6 +10889,9 @@
       <c r="AG95" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH95" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -10712,6 +10999,9 @@
       <c r="AG96" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH96" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -10819,6 +11109,9 @@
       <c r="AG97" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH97" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -10926,6 +11219,9 @@
       <c r="AG98" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH98" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11033,6 +11329,9 @@
       <c r="AG99" t="n">
         <v>0.06</v>
       </c>
+      <c r="AH99" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -11140,6 +11439,9 @@
       <c r="AG100" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH100" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11247,6 +11549,9 @@
       <c r="AG101" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH101" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -11354,6 +11659,9 @@
       <c r="AG102" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH102" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -11461,6 +11769,9 @@
       <c r="AG103" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH103" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -11568,6 +11879,9 @@
       <c r="AG104" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH104" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -11675,6 +11989,9 @@
       <c r="AG105" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH105" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -11782,6 +12099,9 @@
       <c r="AG106" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH106" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -11889,6 +12209,9 @@
       <c r="AG107" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH107" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -11993,6 +12316,9 @@
       <c r="AG108" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH108" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -12097,6 +12423,9 @@
       <c r="AG109" t="n">
         <v>0.1</v>
       </c>
+      <c r="AH109" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -12201,6 +12530,9 @@
       <c r="AG110" t="n">
         <v>0.1</v>
       </c>
+      <c r="AH110" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -12305,6 +12637,9 @@
       <c r="AG111" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH111" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -12412,6 +12747,9 @@
       <c r="AG112" t="n">
         <v>0.5</v>
       </c>
+      <c r="AH112" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -12519,6 +12857,9 @@
       <c r="AG113" t="n">
         <v>0.49</v>
       </c>
+      <c r="AH113" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -12626,6 +12967,9 @@
       <c r="AG114" t="n">
         <v>0.3</v>
       </c>
+      <c r="AH114" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -12733,6 +13077,9 @@
       <c r="AG115" t="n">
         <v>0.55</v>
       </c>
+      <c r="AH115" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -12840,6 +13187,9 @@
       <c r="AG116" t="n">
         <v>0.39</v>
       </c>
+      <c r="AH116" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -12947,6 +13297,9 @@
       <c r="AG117" t="n">
         <v>0.35</v>
       </c>
+      <c r="AH117" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -13054,6 +13407,9 @@
       <c r="AG118" t="n">
         <v>0.51</v>
       </c>
+      <c r="AH118" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -13161,6 +13517,9 @@
       <c r="AG119" t="n">
         <v>0.42</v>
       </c>
+      <c r="AH119" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -13268,6 +13627,9 @@
       <c r="AG120" t="n">
         <v>0.39</v>
       </c>
+      <c r="AH120" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -13375,6 +13737,9 @@
       <c r="AG121" t="n">
         <v>0.49</v>
       </c>
+      <c r="AH121" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -13482,6 +13847,9 @@
       <c r="AG122" t="n">
         <v>0.36</v>
       </c>
+      <c r="AH122" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -13589,6 +13957,9 @@
       <c r="AG123" t="n">
         <v>0.38</v>
       </c>
+      <c r="AH123" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -13696,6 +14067,9 @@
       <c r="AG124" t="n">
         <v>0.43</v>
       </c>
+      <c r="AH124" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -13803,6 +14177,9 @@
       <c r="AG125" t="n">
         <v>0.5</v>
       </c>
+      <c r="AH125" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -13910,6 +14287,9 @@
       <c r="AG126" t="n">
         <v>0.49</v>
       </c>
+      <c r="AH126" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -14014,6 +14394,9 @@
       <c r="AG127" t="n">
         <v>0.47</v>
       </c>
+      <c r="AH127" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -14118,6 +14501,9 @@
       <c r="AG128" t="n">
         <v>0.54</v>
       </c>
+      <c r="AH128" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -14222,6 +14608,9 @@
       <c r="AG129" t="n">
         <v>0.45</v>
       </c>
+      <c r="AH129" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -14326,6 +14715,9 @@
       <c r="AG130" t="n">
         <v>0.58</v>
       </c>
+      <c r="AH130" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -14433,6 +14825,9 @@
       <c r="AG131" t="n">
         <v>0.13</v>
       </c>
+      <c r="AH131" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -14540,6 +14935,9 @@
       <c r="AG132" t="n">
         <v>0.08</v>
       </c>
+      <c r="AH132" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -14647,6 +15045,9 @@
       <c r="AG133" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH133" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -14754,6 +15155,9 @@
       <c r="AG134" t="n">
         <v>0.08</v>
       </c>
+      <c r="AH134" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -14861,6 +15265,9 @@
       <c r="AG135" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH135" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -14968,6 +15375,9 @@
       <c r="AG136" t="n">
         <v>0.06</v>
       </c>
+      <c r="AH136" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -15075,6 +15485,9 @@
       <c r="AG137" t="n">
         <v>0.13</v>
       </c>
+      <c r="AH137" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -15182,6 +15595,9 @@
       <c r="AG138" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH138" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -15289,6 +15705,9 @@
       <c r="AG139" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH139" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -15396,6 +15815,9 @@
       <c r="AG140" t="n">
         <v>0.09</v>
       </c>
+      <c r="AH140" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -15503,6 +15925,9 @@
       <c r="AG141" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH141" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -15610,6 +16035,9 @@
       <c r="AG142" t="n">
         <v>0.06</v>
       </c>
+      <c r="AH142" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -15717,6 +16145,9 @@
       <c r="AG143" t="n">
         <v>0.09</v>
       </c>
+      <c r="AH143" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -15824,6 +16255,9 @@
       <c r="AG144" t="n">
         <v>0.08</v>
       </c>
+      <c r="AH144" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -15931,6 +16365,9 @@
       <c r="AG145" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH145" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -16035,6 +16472,9 @@
       <c r="AG146" t="n">
         <v>0.08</v>
       </c>
+      <c r="AH146" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -16139,6 +16579,9 @@
       <c r="AG147" t="n">
         <v>0.08</v>
       </c>
+      <c r="AH147" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -16243,6 +16686,9 @@
       <c r="AG148" t="n">
         <v>0.1</v>
       </c>
+      <c r="AH148" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -16347,6 +16793,9 @@
       <c r="AG149" t="n">
         <v>0.13</v>
       </c>
+      <c r="AH149" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -16442,6 +16891,9 @@
       <c r="AG150" t="n">
         <v>0.13</v>
       </c>
+      <c r="AH150" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -16537,6 +16989,9 @@
       <c r="AG151" t="n">
         <v>0.11</v>
       </c>
+      <c r="AH151" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -16632,6 +17087,9 @@
       <c r="AG152" t="n">
         <v>0.08</v>
       </c>
+      <c r="AH152" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -16727,6 +17185,9 @@
       <c r="AG153" t="n">
         <v>0.12</v>
       </c>
+      <c r="AH153" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -16822,6 +17283,9 @@
       <c r="AG154" t="n">
         <v>0.1</v>
       </c>
+      <c r="AH154" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -16917,6 +17381,9 @@
       <c r="AG155" t="n">
         <v>0.09</v>
       </c>
+      <c r="AH155" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -17012,6 +17479,9 @@
       <c r="AG156" t="n">
         <v>0.16</v>
       </c>
+      <c r="AH156" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -17107,6 +17577,9 @@
       <c r="AG157" t="n">
         <v>0.12</v>
       </c>
+      <c r="AH157" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -17202,6 +17675,9 @@
       <c r="AG158" t="n">
         <v>0.08</v>
       </c>
+      <c r="AH158" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -17297,6 +17773,9 @@
       <c r="AG159" t="n">
         <v>0.1</v>
       </c>
+      <c r="AH159" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -17392,6 +17871,9 @@
       <c r="AG160" t="n">
         <v>0.1</v>
       </c>
+      <c r="AH160" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -17487,6 +17969,9 @@
       <c r="AG161" t="n">
         <v>0.12</v>
       </c>
+      <c r="AH161" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -17582,6 +18067,9 @@
       <c r="AG162" t="n">
         <v>0.1</v>
       </c>
+      <c r="AH162" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -17677,6 +18165,9 @@
       <c r="AG163" t="n">
         <v>0.09</v>
       </c>
+      <c r="AH163" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -17772,6 +18263,9 @@
       <c r="AG164" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH164" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -17867,6 +18361,9 @@
       <c r="AG165" t="n">
         <v>0.1</v>
       </c>
+      <c r="AH165" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -17962,6 +18459,9 @@
       <c r="AG166" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH166" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -18057,6 +18557,9 @@
       <c r="AG167" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH167" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -18152,6 +18655,9 @@
       <c r="AG168" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH168" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -18259,6 +18765,9 @@
       <c r="AG169" t="n">
         <v>0.08</v>
       </c>
+      <c r="AH169" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -18366,6 +18875,9 @@
       <c r="AG170" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH170" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -18473,6 +18985,9 @@
       <c r="AG171" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH171" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -18580,6 +19095,9 @@
       <c r="AG172" t="n">
         <v>0.08</v>
       </c>
+      <c r="AH172" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -18687,6 +19205,9 @@
       <c r="AG173" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH173" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -18794,6 +19315,9 @@
       <c r="AG174" t="n">
         <v>0.06</v>
       </c>
+      <c r="AH174" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -18901,6 +19425,9 @@
       <c r="AG175" t="n">
         <v>0.11</v>
       </c>
+      <c r="AH175" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -19008,6 +19535,9 @@
       <c r="AG176" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH176" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -19115,6 +19645,9 @@
       <c r="AG177" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH177" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -19222,6 +19755,9 @@
       <c r="AG178" t="n">
         <v>0.06</v>
       </c>
+      <c r="AH178" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -19329,6 +19865,9 @@
       <c r="AG179" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH179" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -19436,6 +19975,9 @@
       <c r="AG180" t="n">
         <v>0.06</v>
       </c>
+      <c r="AH180" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -19543,6 +20085,9 @@
       <c r="AG181" t="n">
         <v>0.06</v>
       </c>
+      <c r="AH181" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -19650,6 +20195,9 @@
       <c r="AG182" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH182" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -19757,6 +20305,9 @@
       <c r="AG183" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH183" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -19861,6 +20412,9 @@
       <c r="AG184" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH184" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -19965,6 +20519,9 @@
       <c r="AG185" t="n">
         <v>0.11</v>
       </c>
+      <c r="AH185" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -20069,6 +20626,9 @@
       <c r="AG186" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH186" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -20173,6 +20733,9 @@
       <c r="AG187" t="n">
         <v>0.08</v>
       </c>
+      <c r="AH187" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -20280,6 +20843,9 @@
       <c r="AG188" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH188" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -20387,6 +20953,9 @@
       <c r="AG189" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH189" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -20494,6 +21063,9 @@
       <c r="AG190" t="n">
         <v>0.01</v>
       </c>
+      <c r="AH190" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -20601,6 +21173,9 @@
       <c r="AG191" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH191" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -20708,6 +21283,9 @@
       <c r="AG192" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH192" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -20815,6 +21393,9 @@
       <c r="AG193" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH193" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -20922,6 +21503,9 @@
       <c r="AG194" t="n">
         <v>0.06</v>
       </c>
+      <c r="AH194" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -21029,6 +21613,9 @@
       <c r="AG195" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH195" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -21136,6 +21723,9 @@
       <c r="AG196" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH196" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -21243,6 +21833,9 @@
       <c r="AG197" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH197" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -21350,6 +21943,9 @@
       <c r="AG198" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH198" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -21457,6 +22053,9 @@
       <c r="AG199" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH199" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -21564,6 +22163,9 @@
       <c r="AG200" t="n">
         <v>0.015</v>
       </c>
+      <c r="AH200" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -21671,6 +22273,9 @@
       <c r="AG201" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH201" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -21778,6 +22383,9 @@
       <c r="AG202" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH202" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -21882,6 +22490,9 @@
       <c r="AG203" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH203" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -21986,6 +22597,9 @@
       <c r="AG204" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH204" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -22090,6 +22704,9 @@
       <c r="AG205" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH205" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -22194,6 +22811,9 @@
       <c r="AG206" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH206" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -22301,6 +22921,9 @@
       <c r="AG207" t="n">
         <v>0.74</v>
       </c>
+      <c r="AH207" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -22408,6 +23031,9 @@
       <c r="AG208" t="n">
         <v>0.61</v>
       </c>
+      <c r="AH208" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -22515,6 +23141,9 @@
       <c r="AG209" t="n">
         <v>0.63</v>
       </c>
+      <c r="AH209" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -22622,6 +23251,9 @@
       <c r="AG210" t="n">
         <v>0.67</v>
       </c>
+      <c r="AH210" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -22729,6 +23361,9 @@
       <c r="AG211" t="n">
         <v>0.64</v>
       </c>
+      <c r="AH211" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -22836,6 +23471,9 @@
       <c r="AG212" t="n">
         <v>0.65</v>
       </c>
+      <c r="AH212" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -22943,6 +23581,9 @@
       <c r="AG213" t="n">
         <v>0.75</v>
       </c>
+      <c r="AH213" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -23050,6 +23691,9 @@
       <c r="AG214" t="n">
         <v>0.67</v>
       </c>
+      <c r="AH214" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -23157,6 +23801,9 @@
       <c r="AG215" t="n">
         <v>0.61</v>
       </c>
+      <c r="AH215" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -23264,6 +23911,9 @@
       <c r="AG216" t="n">
         <v>0.63</v>
       </c>
+      <c r="AH216" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -23371,6 +24021,9 @@
       <c r="AG217" t="n">
         <v>0.67</v>
       </c>
+      <c r="AH217" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -23478,6 +24131,9 @@
       <c r="AG218" t="n">
         <v>0.68</v>
       </c>
+      <c r="AH218" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -23585,6 +24241,9 @@
       <c r="AG219" t="n">
         <v>0.61</v>
       </c>
+      <c r="AH219" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -23692,6 +24351,9 @@
       <c r="AG220" t="n">
         <v>0.67</v>
       </c>
+      <c r="AH220" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -23799,6 +24461,9 @@
       <c r="AG221" t="n">
         <v>0.59</v>
       </c>
+      <c r="AH221" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -23903,6 +24568,9 @@
       <c r="AG222" t="n">
         <v>0.63</v>
       </c>
+      <c r="AH222" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -24007,6 +24675,9 @@
       <c r="AG223" t="n">
         <v>0.74</v>
       </c>
+      <c r="AH223" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -24111,6 +24782,9 @@
       <c r="AG224" t="n">
         <v>0.66</v>
       </c>
+      <c r="AH224" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -24215,6 +24889,9 @@
       <c r="AG225" t="n">
         <v>0.65</v>
       </c>
+      <c r="AH225" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -24319,6 +24996,9 @@
       <c r="AG226" t="n">
         <v>0.33</v>
       </c>
+      <c r="AH226" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -24423,6 +25103,9 @@
       <c r="AG227" t="n">
         <v>0.29</v>
       </c>
+      <c r="AH227" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -24527,6 +25210,9 @@
       <c r="AG228" t="n">
         <v>0.25</v>
       </c>
+      <c r="AH228" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -24631,6 +25317,9 @@
       <c r="AG229" t="n">
         <v>0.34</v>
       </c>
+      <c r="AH229" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -24735,6 +25424,9 @@
       <c r="AG230" t="n">
         <v>0.27</v>
       </c>
+      <c r="AH230" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -24839,6 +25531,9 @@
       <c r="AG231" t="n">
         <v>0.26</v>
       </c>
+      <c r="AH231" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -24943,6 +25638,9 @@
       <c r="AG232" t="n">
         <v>0.38</v>
       </c>
+      <c r="AH232" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -25047,6 +25745,9 @@
       <c r="AG233" t="n">
         <v>0.26</v>
       </c>
+      <c r="AH233" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -25151,6 +25852,9 @@
       <c r="AG234" t="n">
         <v>0.26</v>
       </c>
+      <c r="AH234" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -25255,6 +25959,9 @@
       <c r="AG235" t="n">
         <v>0.29</v>
       </c>
+      <c r="AH235" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -25359,6 +26066,9 @@
       <c r="AG236" t="n">
         <v>0.28</v>
       </c>
+      <c r="AH236" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -25463,6 +26173,9 @@
       <c r="AG237" t="n">
         <v>0.26</v>
       </c>
+      <c r="AH237" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -25567,6 +26280,9 @@
       <c r="AG238" t="n">
         <v>0.32</v>
       </c>
+      <c r="AH238" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -25671,6 +26387,9 @@
       <c r="AG239" t="n">
         <v>0.31</v>
       </c>
+      <c r="AH239" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -25775,6 +26494,9 @@
       <c r="AG240" t="n">
         <v>0.3</v>
       </c>
+      <c r="AH240" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -25879,6 +26601,9 @@
       <c r="AG241" t="n">
         <v>0.29</v>
       </c>
+      <c r="AH241" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -25983,6 +26708,9 @@
       <c r="AG242" t="n">
         <v>0.3</v>
       </c>
+      <c r="AH242" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -26087,6 +26815,9 @@
       <c r="AG243" t="n">
         <v>0.31</v>
       </c>
+      <c r="AH243" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -26191,6 +26922,9 @@
       <c r="AG244" t="n">
         <v>0.37</v>
       </c>
+      <c r="AH244" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -26295,6 +27029,9 @@
       <c r="AG245" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH245" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -26399,6 +27136,9 @@
       <c r="AG246" t="n">
         <v>0.16</v>
       </c>
+      <c r="AH246" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -26503,6 +27243,9 @@
       <c r="AG247" t="n">
         <v>0.15</v>
       </c>
+      <c r="AH247" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -26607,6 +27350,9 @@
       <c r="AG248" t="n">
         <v>0.17</v>
       </c>
+      <c r="AH248" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -26711,6 +27457,9 @@
       <c r="AG249" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH249" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -26815,6 +27564,9 @@
       <c r="AG250" t="n">
         <v>0.15</v>
       </c>
+      <c r="AH250" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -26919,6 +27671,9 @@
       <c r="AG251" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH251" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -27023,6 +27778,9 @@
       <c r="AG252" t="n">
         <v>0.17</v>
       </c>
+      <c r="AH252" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -27127,6 +27885,9 @@
       <c r="AG253" t="n">
         <v>0.13</v>
       </c>
+      <c r="AH253" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -27231,6 +27992,9 @@
       <c r="AG254" t="n">
         <v>0.19</v>
       </c>
+      <c r="AH254" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -27335,6 +28099,9 @@
       <c r="AG255" t="n">
         <v>0.12</v>
       </c>
+      <c r="AH255" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -27439,6 +28206,9 @@
       <c r="AG256" t="n">
         <v>0.12</v>
       </c>
+      <c r="AH256" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -27543,6 +28313,9 @@
       <c r="AG257" t="n">
         <v>0.14</v>
       </c>
+      <c r="AH257" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -27647,6 +28420,9 @@
       <c r="AG258" t="n">
         <v>0.21</v>
       </c>
+      <c r="AH258" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -27751,6 +28527,9 @@
       <c r="AG259" t="n">
         <v>0.25</v>
       </c>
+      <c r="AH259" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -27855,6 +28634,9 @@
       <c r="AG260" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH260" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -27959,6 +28741,9 @@
       <c r="AG261" t="n">
         <v>0.17</v>
       </c>
+      <c r="AH261" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -28063,6 +28848,9 @@
       <c r="AG262" t="n">
         <v>0.15</v>
       </c>
+      <c r="AH262" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -28167,6 +28955,9 @@
       <c r="AG263" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH263" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -28274,6 +29065,9 @@
       <c r="AG264" t="n">
         <v>0.28</v>
       </c>
+      <c r="AH264" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -28381,6 +29175,9 @@
       <c r="AG265" t="n">
         <v>0.26</v>
       </c>
+      <c r="AH265" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -28488,6 +29285,9 @@
       <c r="AG266" t="n">
         <v>0.12</v>
       </c>
+      <c r="AH266" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -28595,6 +29395,9 @@
       <c r="AG267" t="n">
         <v>0.24</v>
       </c>
+      <c r="AH267" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -28702,6 +29505,9 @@
       <c r="AG268" t="n">
         <v>0.22</v>
       </c>
+      <c r="AH268" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -28809,6 +29615,9 @@
       <c r="AG269" t="n">
         <v>0.17</v>
       </c>
+      <c r="AH269" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -28916,6 +29725,9 @@
       <c r="AG270" t="n">
         <v>0.26</v>
       </c>
+      <c r="AH270" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -29023,6 +29835,9 @@
       <c r="AG271" t="n">
         <v>0.21</v>
       </c>
+      <c r="AH271" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -29130,6 +29945,9 @@
       <c r="AG272" t="n">
         <v>0.19</v>
       </c>
+      <c r="AH272" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -29237,6 +30055,9 @@
       <c r="AG273" t="n">
         <v>0.22</v>
       </c>
+      <c r="AH273" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -29344,6 +30165,9 @@
       <c r="AG274" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH274" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -29451,6 +30275,9 @@
       <c r="AG275" t="n">
         <v>0.21</v>
       </c>
+      <c r="AH275" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -29558,6 +30385,9 @@
       <c r="AG276" t="n">
         <v>0.2</v>
       </c>
+      <c r="AH276" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -29665,6 +30495,9 @@
       <c r="AG277" t="n">
         <v>0.27</v>
       </c>
+      <c r="AH277" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -29772,6 +30605,9 @@
       <c r="AG278" t="n">
         <v>0.18</v>
       </c>
+      <c r="AH278" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -29876,6 +30712,9 @@
       <c r="AG279" t="n">
         <v>0.19</v>
       </c>
+      <c r="AH279" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -29980,6 +30819,9 @@
       <c r="AG280" t="n">
         <v>0.24</v>
       </c>
+      <c r="AH280" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -30084,6 +30926,9 @@
       <c r="AG281" t="n">
         <v>0.19</v>
       </c>
+      <c r="AH281" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -30188,6 +31033,9 @@
       <c r="AG282" t="n">
         <v>0.49</v>
       </c>
+      <c r="AH282" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -30283,6 +31131,9 @@
       <c r="AG283" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH283" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -30378,6 +31229,9 @@
       <c r="AG284" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH284" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -30473,6 +31327,9 @@
       <c r="AG285" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH285" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -30568,6 +31425,9 @@
       <c r="AG286" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH286" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -30663,6 +31523,9 @@
       <c r="AG287" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH287" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -30758,6 +31621,9 @@
       <c r="AG288" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH288" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -30853,6 +31719,9 @@
       <c r="AG289" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AH289" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -30948,6 +31817,9 @@
       <c r="AG290" t="n">
         <v>0.02</v>
       </c>
+      <c r="AH290" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -31043,6 +31915,9 @@
       <c r="AG291" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH291" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -31138,6 +32013,9 @@
       <c r="AG292" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH292" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -31233,6 +32111,9 @@
       <c r="AG293" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH293" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -31328,6 +32209,9 @@
       <c r="AG294" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH294" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -31423,6 +32307,9 @@
       <c r="AG295" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH295" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -31518,6 +32405,9 @@
       <c r="AG296" t="n">
         <v>0.04</v>
       </c>
+      <c r="AH296" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -31613,6 +32503,9 @@
       <c r="AG297" t="n">
         <v>0.03</v>
       </c>
+      <c r="AH297" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -31708,6 +32601,9 @@
       <c r="AG298" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH298" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -31803,6 +32699,9 @@
       <c r="AG299" t="n">
         <v>0.05</v>
       </c>
+      <c r="AH299" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -31898,6 +32797,9 @@
       <c r="AG300" t="n">
         <v>0.015</v>
       </c>
+      <c r="AH300" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -31993,11 +32895,14 @@
       <c r="AG301" t="n">
         <v>0.09</v>
       </c>
+      <c r="AH301" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
     </row>
@@ -32012,7 +32917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF22"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32181,6 +33086,11 @@
           <t>12.–18. 7. 2021</t>
         </is>
       </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>16.–22. 8. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -32283,6 +33193,9 @@
       <c r="AF2" t="n">
         <v>1782</v>
       </c>
+      <c r="AG2" t="n">
+        <v>1901</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -32385,6 +33298,9 @@
       <c r="AF3" t="n">
         <v>430</v>
       </c>
+      <c r="AG3" t="n">
+        <v>452</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -32487,6 +33403,9 @@
       <c r="AF4" t="n">
         <v>648</v>
       </c>
+      <c r="AG4" t="n">
+        <v>709</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -32589,6 +33508,9 @@
       <c r="AF5" t="n">
         <v>704</v>
       </c>
+      <c r="AG5" t="n">
+        <v>740</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -32691,6 +33613,9 @@
       <c r="AF6" t="n">
         <v>459</v>
       </c>
+      <c r="AG6" t="n">
+        <v>522</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -32793,6 +33718,9 @@
       <c r="AF7" t="n">
         <v>767</v>
       </c>
+      <c r="AG7" t="n">
+        <v>847</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -32895,6 +33823,9 @@
       <c r="AF8" t="n">
         <v>556</v>
       </c>
+      <c r="AG8" t="n">
+        <v>529</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -32997,6 +33928,9 @@
       <c r="AF9" t="n">
         <v>327</v>
       </c>
+      <c r="AG9" t="n">
+        <v>314</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -33099,6 +34033,9 @@
       <c r="AF10" t="n">
         <v>349</v>
       </c>
+      <c r="AG10" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -33201,6 +34138,9 @@
       <c r="AF11" t="n">
         <v>1106</v>
       </c>
+      <c r="AG11" t="n">
+        <v>1237</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -33303,6 +34243,9 @@
       <c r="AF12" t="n">
         <v>863</v>
       </c>
+      <c r="AG12" t="n">
+        <v>937</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -33405,6 +34348,9 @@
       <c r="AF13" t="n">
         <v>919</v>
       </c>
+      <c r="AG13" t="n">
+        <v>964</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -33507,6 +34453,9 @@
       <c r="AF14" t="n">
         <v>923</v>
       </c>
+      <c r="AG14" t="n">
+        <v>988</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -33609,6 +34558,9 @@
       <c r="AF15" t="n">
         <v>417</v>
       </c>
+      <c r="AG15" t="n">
+        <v>442</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -33711,6 +34663,9 @@
       <c r="AF16" t="n">
         <v>208</v>
       </c>
+      <c r="AG16" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -33813,6 +34768,9 @@
       <c r="AF17" t="n">
         <v>234</v>
       </c>
+      <c r="AG17" t="n">
+        <v>251</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -33913,6 +34871,9 @@
       <c r="AF18" t="n">
         <v>662</v>
       </c>
+      <c r="AG18" t="n">
+        <v>671</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -34013,6 +34974,9 @@
       <c r="AF19" t="n">
         <v>90</v>
       </c>
+      <c r="AG19" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -34113,6 +35077,9 @@
       <c r="AF20" t="n">
         <v>67</v>
       </c>
+      <c r="AG20" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -34213,11 +35180,14 @@
       <c r="AF21" t="n">
         <v>189</v>
       </c>
+      <c r="AG21" t="n">
+        <v>261</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 27. 7. 2021</t>
+          <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -34251,6 +35221,7 @@
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_04_socialni_aktivity.xlsx
+++ b/ZBP_04_socialni_aktivity.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH302"/>
+  <dimension ref="A1:AI302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,6 +630,11 @@
           <t>16.–22. 8. 2021</t>
         </is>
       </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>20.–26. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -740,6 +745,9 @@
       <c r="AH2" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AI2" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -850,6 +858,9 @@
       <c r="AH3" t="n">
         <v>0.34</v>
       </c>
+      <c r="AI3" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -960,6 +971,9 @@
       <c r="AH4" t="n">
         <v>0.25</v>
       </c>
+      <c r="AI4" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1070,6 +1084,9 @@
       <c r="AH5" t="n">
         <v>0.29</v>
       </c>
+      <c r="AI5" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1180,6 +1197,9 @@
       <c r="AH6" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI6" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1290,6 +1310,9 @@
       <c r="AH7" t="n">
         <v>0.46</v>
       </c>
+      <c r="AI7" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1400,6 +1423,9 @@
       <c r="AH8" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI8" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1498,6 +1524,9 @@
       <c r="AH9" t="n">
         <v>0.12</v>
       </c>
+      <c r="AI9" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1608,6 +1637,9 @@
       <c r="AH10" t="n">
         <v>0.09</v>
       </c>
+      <c r="AI10" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1718,6 +1750,9 @@
       <c r="AH11" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI11" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1828,6 +1863,9 @@
       <c r="AH12" t="n">
         <v>0.65</v>
       </c>
+      <c r="AI12" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1935,6 +1973,9 @@
       <c r="AH13" t="n">
         <v>0.34</v>
       </c>
+      <c r="AI13" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2042,6 +2083,9 @@
       <c r="AH14" t="n">
         <v>0.16</v>
       </c>
+      <c r="AI14" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2152,6 +2196,9 @@
       <c r="AH15" t="n">
         <v>0.26</v>
       </c>
+      <c r="AI15" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2250,6 +2297,9 @@
       <c r="AH16" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI16" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2360,6 +2410,9 @@
       <c r="AH17" t="n">
         <v>0.76</v>
       </c>
+      <c r="AI17" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2470,6 +2523,9 @@
       <c r="AH18" t="n">
         <v>0.86</v>
       </c>
+      <c r="AI18" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2580,6 +2636,9 @@
       <c r="AH19" t="n">
         <v>0.8</v>
       </c>
+      <c r="AI19" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2690,6 +2749,9 @@
       <c r="AH20" t="n">
         <v>0.83</v>
       </c>
+      <c r="AI20" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2800,6 +2862,9 @@
       <c r="AH21" t="n">
         <v>0.79</v>
       </c>
+      <c r="AI21" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2910,6 +2975,9 @@
       <c r="AH22" t="n">
         <v>0.82</v>
       </c>
+      <c r="AI22" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3020,6 +3088,9 @@
       <c r="AH23" t="n">
         <v>0.84</v>
       </c>
+      <c r="AI23" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3130,6 +3201,9 @@
       <c r="AH24" t="n">
         <v>0.83</v>
       </c>
+      <c r="AI24" t="n">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3240,6 +3314,9 @@
       <c r="AH25" t="n">
         <v>0.8</v>
       </c>
+      <c r="AI25" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3350,6 +3427,9 @@
       <c r="AH26" t="n">
         <v>0.82</v>
       </c>
+      <c r="AI26" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3460,6 +3540,9 @@
       <c r="AH27" t="n">
         <v>0.8</v>
       </c>
+      <c r="AI27" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3570,6 +3653,9 @@
       <c r="AH28" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AI28" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3680,6 +3766,9 @@
       <c r="AH29" t="n">
         <v>0.82</v>
       </c>
+      <c r="AI29" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3790,6 +3879,9 @@
       <c r="AH30" t="n">
         <v>0.82</v>
       </c>
+      <c r="AI30" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3900,6 +3992,9 @@
       <c r="AH31" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AI31" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4007,6 +4102,9 @@
       <c r="AH32" t="n">
         <v>0.84</v>
       </c>
+      <c r="AI32" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4114,6 +4212,9 @@
       <c r="AH33" t="n">
         <v>0.9</v>
       </c>
+      <c r="AI33" t="n">
+        <v>0.9399999999999999</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4221,6 +4322,9 @@
       <c r="AH34" t="n">
         <v>0.82</v>
       </c>
+      <c r="AI34" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4328,6 +4432,9 @@
       <c r="AH35" t="n">
         <v>0.84</v>
       </c>
+      <c r="AI35" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4438,6 +4545,9 @@
       <c r="AH36" t="n">
         <v>0.39</v>
       </c>
+      <c r="AI36" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4548,6 +4658,9 @@
       <c r="AH37" t="n">
         <v>0.35</v>
       </c>
+      <c r="AI37" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4658,6 +4771,9 @@
       <c r="AH38" t="n">
         <v>0.3</v>
       </c>
+      <c r="AI38" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4768,6 +4884,9 @@
       <c r="AH39" t="n">
         <v>0.4</v>
       </c>
+      <c r="AI39" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4878,6 +4997,9 @@
       <c r="AH40" t="n">
         <v>0.31</v>
       </c>
+      <c r="AI40" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4988,6 +5110,9 @@
       <c r="AH41" t="n">
         <v>0.33</v>
       </c>
+      <c r="AI41" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5098,6 +5223,9 @@
       <c r="AH42" t="n">
         <v>0.34</v>
       </c>
+      <c r="AI42" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5208,6 +5336,9 @@
       <c r="AH43" t="n">
         <v>0.37</v>
       </c>
+      <c r="AI43" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5318,6 +5449,9 @@
       <c r="AH44" t="n">
         <v>0.33</v>
       </c>
+      <c r="AI44" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5428,6 +5562,9 @@
       <c r="AH45" t="n">
         <v>0.34</v>
       </c>
+      <c r="AI45" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5538,6 +5675,9 @@
       <c r="AH46" t="n">
         <v>0.34</v>
       </c>
+      <c r="AI46" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5648,6 +5788,9 @@
       <c r="AH47" t="n">
         <v>0.22</v>
       </c>
+      <c r="AI47" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5758,6 +5901,9 @@
       <c r="AH48" t="n">
         <v>0.36</v>
       </c>
+      <c r="AI48" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5868,6 +6014,9 @@
       <c r="AH49" t="n">
         <v>0.52</v>
       </c>
+      <c r="AI49" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5978,6 +6127,9 @@
       <c r="AH50" t="n">
         <v>0.62</v>
       </c>
+      <c r="AI50" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6085,6 +6237,9 @@
       <c r="AH51" t="n">
         <v>0.36</v>
       </c>
+      <c r="AI51" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6192,6 +6347,9 @@
       <c r="AH52" t="n">
         <v>0.55</v>
       </c>
+      <c r="AI52" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6299,6 +6457,9 @@
       <c r="AH53" t="n">
         <v>0.57</v>
       </c>
+      <c r="AI53" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6406,6 +6567,9 @@
       <c r="AH54" t="n">
         <v>0.35</v>
       </c>
+      <c r="AI54" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6516,6 +6680,9 @@
       <c r="AH55" t="n">
         <v>0.26</v>
       </c>
+      <c r="AI55" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6626,6 +6793,9 @@
       <c r="AH56" t="n">
         <v>0.23</v>
       </c>
+      <c r="AI56" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6736,6 +6906,9 @@
       <c r="AH57" t="n">
         <v>0.27</v>
       </c>
+      <c r="AI57" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -6846,6 +7019,9 @@
       <c r="AH58" t="n">
         <v>0.23</v>
       </c>
+      <c r="AI58" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -6956,6 +7132,9 @@
       <c r="AH59" t="n">
         <v>0.24</v>
       </c>
+      <c r="AI59" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7066,6 +7245,9 @@
       <c r="AH60" t="n">
         <v>0.29</v>
       </c>
+      <c r="AI60" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7176,6 +7358,9 @@
       <c r="AH61" t="n">
         <v>0.25</v>
       </c>
+      <c r="AI61" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7286,6 +7471,9 @@
       <c r="AH62" t="n">
         <v>0.28</v>
       </c>
+      <c r="AI62" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7396,6 +7584,9 @@
       <c r="AH63" t="n">
         <v>0.25</v>
       </c>
+      <c r="AI63" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7506,6 +7697,9 @@
       <c r="AH64" t="n">
         <v>0.2</v>
       </c>
+      <c r="AI64" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7616,6 +7810,9 @@
       <c r="AH65" t="n">
         <v>0.31</v>
       </c>
+      <c r="AI65" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7726,6 +7923,9 @@
       <c r="AH66" t="n">
         <v>0.26</v>
       </c>
+      <c r="AI66" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -7836,6 +8036,9 @@
       <c r="AH67" t="n">
         <v>0.24</v>
       </c>
+      <c r="AI67" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -7946,6 +8149,9 @@
       <c r="AH68" t="n">
         <v>0.21</v>
       </c>
+      <c r="AI68" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8056,6 +8262,9 @@
       <c r="AH69" t="n">
         <v>0.28</v>
       </c>
+      <c r="AI69" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8163,6 +8372,9 @@
       <c r="AH70" t="n">
         <v>0.19</v>
       </c>
+      <c r="AI70" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8270,6 +8482,9 @@
       <c r="AH71" t="n">
         <v>0.21</v>
       </c>
+      <c r="AI71" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8377,6 +8592,9 @@
       <c r="AH72" t="n">
         <v>0.31</v>
       </c>
+      <c r="AI72" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8484,6 +8702,9 @@
       <c r="AH73" t="n">
         <v>0.3</v>
       </c>
+      <c r="AI73" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8594,6 +8815,9 @@
       <c r="AH74" t="n">
         <v>0.35</v>
       </c>
+      <c r="AI74" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8704,6 +8928,9 @@
       <c r="AH75" t="n">
         <v>0.29</v>
       </c>
+      <c r="AI75" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -8814,6 +9041,9 @@
       <c r="AH76" t="n">
         <v>0.25</v>
       </c>
+      <c r="AI76" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -8924,6 +9154,9 @@
       <c r="AH77" t="n">
         <v>0.31</v>
       </c>
+      <c r="AI77" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9034,6 +9267,9 @@
       <c r="AH78" t="n">
         <v>0.28</v>
       </c>
+      <c r="AI78" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9144,6 +9380,9 @@
       <c r="AH79" t="n">
         <v>0.27</v>
       </c>
+      <c r="AI79" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9254,6 +9493,9 @@
       <c r="AH80" t="n">
         <v>0.35</v>
       </c>
+      <c r="AI80" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9364,6 +9606,9 @@
       <c r="AH81" t="n">
         <v>0.26</v>
       </c>
+      <c r="AI81" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9474,6 +9719,9 @@
       <c r="AH82" t="n">
         <v>0.28</v>
       </c>
+      <c r="AI82" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9584,6 +9832,9 @@
       <c r="AH83" t="n">
         <v>0.27</v>
       </c>
+      <c r="AI83" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9694,6 +9945,9 @@
       <c r="AH84" t="n">
         <v>0.31</v>
       </c>
+      <c r="AI84" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9804,6 +10058,9 @@
       <c r="AH85" t="n">
         <v>0.28</v>
       </c>
+      <c r="AI85" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9914,6 +10171,9 @@
       <c r="AH86" t="n">
         <v>0.28</v>
       </c>
+      <c r="AI86" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10024,6 +10284,9 @@
       <c r="AH87" t="n">
         <v>0.3</v>
       </c>
+      <c r="AI87" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10134,6 +10397,9 @@
       <c r="AH88" t="n">
         <v>0.34</v>
       </c>
+      <c r="AI88" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10241,6 +10507,9 @@
       <c r="AH89" t="n">
         <v>0.23</v>
       </c>
+      <c r="AI89" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10348,6 +10617,9 @@
       <c r="AH90" t="n">
         <v>0.46</v>
       </c>
+      <c r="AI90" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10455,6 +10727,9 @@
       <c r="AH91" t="n">
         <v>0.25</v>
       </c>
+      <c r="AI91" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10562,6 +10837,9 @@
       <c r="AH92" t="n">
         <v>0.41</v>
       </c>
+      <c r="AI92" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10672,6 +10950,9 @@
       <c r="AH93" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI93" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10782,6 +11063,9 @@
       <c r="AH94" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI94" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10892,6 +11176,9 @@
       <c r="AH95" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI95" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11002,6 +11289,9 @@
       <c r="AH96" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI96" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11112,6 +11402,9 @@
       <c r="AH97" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI97" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11222,6 +11515,9 @@
       <c r="AH98" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI98" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11332,6 +11628,9 @@
       <c r="AH99" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI99" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -11442,6 +11741,9 @@
       <c r="AH100" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI100" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11552,6 +11854,9 @@
       <c r="AH101" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI101" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -11662,6 +11967,9 @@
       <c r="AH102" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI102" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -11772,6 +12080,9 @@
       <c r="AH103" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI103" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -11882,6 +12193,9 @@
       <c r="AH104" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI104" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -11992,6 +12306,9 @@
       <c r="AH105" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI105" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -12102,6 +12419,9 @@
       <c r="AH106" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI106" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -12212,6 +12532,9 @@
       <c r="AH107" t="n">
         <v>0.09</v>
       </c>
+      <c r="AI107" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -12319,6 +12642,9 @@
       <c r="AH108" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI108" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -12426,6 +12752,9 @@
       <c r="AH109" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI109" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -12533,6 +12862,9 @@
       <c r="AH110" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI110" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -12640,6 +12972,9 @@
       <c r="AH111" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI111" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -12750,6 +13085,9 @@
       <c r="AH112" t="n">
         <v>0.51</v>
       </c>
+      <c r="AI112" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -12860,6 +13198,9 @@
       <c r="AH113" t="n">
         <v>0.54</v>
       </c>
+      <c r="AI113" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -12970,6 +13311,9 @@
       <c r="AH114" t="n">
         <v>0.36</v>
       </c>
+      <c r="AI114" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -13080,6 +13424,9 @@
       <c r="AH115" t="n">
         <v>0.58</v>
       </c>
+      <c r="AI115" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -13190,6 +13537,9 @@
       <c r="AH116" t="n">
         <v>0.41</v>
       </c>
+      <c r="AI116" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -13300,6 +13650,9 @@
       <c r="AH117" t="n">
         <v>0.43</v>
       </c>
+      <c r="AI117" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -13410,6 +13763,9 @@
       <c r="AH118" t="n">
         <v>0.59</v>
       </c>
+      <c r="AI118" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -13520,6 +13876,9 @@
       <c r="AH119" t="n">
         <v>0.47</v>
       </c>
+      <c r="AI119" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -13630,6 +13989,9 @@
       <c r="AH120" t="n">
         <v>0.43</v>
       </c>
+      <c r="AI120" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -13740,6 +14102,9 @@
       <c r="AH121" t="n">
         <v>0.53</v>
       </c>
+      <c r="AI121" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -13850,6 +14215,9 @@
       <c r="AH122" t="n">
         <v>0.39</v>
       </c>
+      <c r="AI122" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -13960,6 +14328,9 @@
       <c r="AH123" t="n">
         <v>0.41</v>
       </c>
+      <c r="AI123" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -14070,6 +14441,9 @@
       <c r="AH124" t="n">
         <v>0.49</v>
       </c>
+      <c r="AI124" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -14180,6 +14554,9 @@
       <c r="AH125" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AI125" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -14290,6 +14667,9 @@
       <c r="AH126" t="n">
         <v>0.53</v>
       </c>
+      <c r="AI126" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -14397,6 +14777,9 @@
       <c r="AH127" t="n">
         <v>0.53</v>
       </c>
+      <c r="AI127" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -14504,6 +14887,9 @@
       <c r="AH128" t="n">
         <v>0.66</v>
       </c>
+      <c r="AI128" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -14611,6 +14997,9 @@
       <c r="AH129" t="n">
         <v>0.5</v>
       </c>
+      <c r="AI129" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -14718,6 +15107,9 @@
       <c r="AH130" t="n">
         <v>0.63</v>
       </c>
+      <c r="AI130" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -14828,6 +15220,9 @@
       <c r="AH131" t="n">
         <v>0.15</v>
       </c>
+      <c r="AI131" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -14938,6 +15333,9 @@
       <c r="AH132" t="n">
         <v>0.09</v>
       </c>
+      <c r="AI132" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -15048,6 +15446,9 @@
       <c r="AH133" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI133" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -15158,6 +15559,9 @@
       <c r="AH134" t="n">
         <v>0.12</v>
       </c>
+      <c r="AI134" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -15268,6 +15672,9 @@
       <c r="AH135" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI135" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -15378,6 +15785,9 @@
       <c r="AH136" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI136" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -15488,6 +15898,9 @@
       <c r="AH137" t="n">
         <v>0.15</v>
       </c>
+      <c r="AI137" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -15598,6 +16011,9 @@
       <c r="AH138" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI138" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -15708,6 +16124,9 @@
       <c r="AH139" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI139" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -15818,6 +16237,9 @@
       <c r="AH140" t="n">
         <v>0.1</v>
       </c>
+      <c r="AI140" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -15928,6 +16350,9 @@
       <c r="AH141" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI141" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -16038,6 +16463,9 @@
       <c r="AH142" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI142" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -16148,6 +16576,9 @@
       <c r="AH143" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI143" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -16258,6 +16689,9 @@
       <c r="AH144" t="n">
         <v>0.12</v>
       </c>
+      <c r="AI144" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -16368,6 +16802,9 @@
       <c r="AH145" t="n">
         <v>0.13</v>
       </c>
+      <c r="AI145" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -16475,6 +16912,9 @@
       <c r="AH146" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI146" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -16582,6 +17022,9 @@
       <c r="AH147" t="n">
         <v>0.13</v>
       </c>
+      <c r="AI147" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -16689,6 +17132,9 @@
       <c r="AH148" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI148" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -16796,6 +17242,9 @@
       <c r="AH149" t="n">
         <v>0.1</v>
       </c>
+      <c r="AI149" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -16894,6 +17343,9 @@
       <c r="AH150" t="n">
         <v>0.16</v>
       </c>
+      <c r="AI150" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -16992,6 +17444,9 @@
       <c r="AH151" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI151" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -17090,6 +17545,9 @@
       <c r="AH152" t="n">
         <v>0.09</v>
       </c>
+      <c r="AI152" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -17188,6 +17646,9 @@
       <c r="AH153" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI153" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -17286,6 +17747,9 @@
       <c r="AH154" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI154" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -17384,6 +17848,9 @@
       <c r="AH155" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI155" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -17482,6 +17949,9 @@
       <c r="AH156" t="n">
         <v>0.16</v>
       </c>
+      <c r="AI156" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -17580,6 +18050,9 @@
       <c r="AH157" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI157" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -17678,6 +18151,9 @@
       <c r="AH158" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI158" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -17776,6 +18252,9 @@
       <c r="AH159" t="n">
         <v>0.12</v>
       </c>
+      <c r="AI159" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -17874,6 +18353,9 @@
       <c r="AH160" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI160" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -17972,6 +18454,9 @@
       <c r="AH161" t="n">
         <v>0.12</v>
       </c>
+      <c r="AI161" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -18070,6 +18555,9 @@
       <c r="AH162" t="n">
         <v>0.1</v>
       </c>
+      <c r="AI162" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -18168,6 +18656,9 @@
       <c r="AH163" t="n">
         <v>0.12</v>
       </c>
+      <c r="AI163" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -18266,6 +18757,9 @@
       <c r="AH164" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI164" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -18364,6 +18858,9 @@
       <c r="AH165" t="n">
         <v>0.12</v>
       </c>
+      <c r="AI165" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -18462,6 +18959,9 @@
       <c r="AH166" t="n">
         <v>0.19</v>
       </c>
+      <c r="AI166" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -18560,6 +19060,9 @@
       <c r="AH167" t="n">
         <v>0.15</v>
       </c>
+      <c r="AI167" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -18658,6 +19161,9 @@
       <c r="AH168" t="n">
         <v>0.11</v>
       </c>
+      <c r="AI168" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -18768,6 +19274,9 @@
       <c r="AH169" t="n">
         <v>0.13</v>
       </c>
+      <c r="AI169" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -18878,6 +19387,9 @@
       <c r="AH170" t="n">
         <v>0.1</v>
       </c>
+      <c r="AI170" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -18988,6 +19500,9 @@
       <c r="AH171" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI171" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -19098,6 +19613,9 @@
       <c r="AH172" t="n">
         <v>0.12</v>
       </c>
+      <c r="AI172" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -19208,6 +19726,9 @@
       <c r="AH173" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI173" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -19318,6 +19839,9 @@
       <c r="AH174" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI174" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -19428,6 +19952,9 @@
       <c r="AH175" t="n">
         <v>0.13</v>
       </c>
+      <c r="AI175" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -19538,6 +20065,9 @@
       <c r="AH176" t="n">
         <v>0.09</v>
       </c>
+      <c r="AI176" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -19648,6 +20178,9 @@
       <c r="AH177" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI177" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -19758,6 +20291,9 @@
       <c r="AH178" t="n">
         <v>0.1</v>
       </c>
+      <c r="AI178" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -19868,6 +20404,9 @@
       <c r="AH179" t="n">
         <v>0.09</v>
       </c>
+      <c r="AI179" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -19978,6 +20517,9 @@
       <c r="AH180" t="n">
         <v>0.09</v>
       </c>
+      <c r="AI180" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -20088,6 +20630,9 @@
       <c r="AH181" t="n">
         <v>0.1</v>
       </c>
+      <c r="AI181" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -20198,6 +20743,9 @@
       <c r="AH182" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI182" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -20308,6 +20856,9 @@
       <c r="AH183" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI183" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -20415,6 +20966,9 @@
       <c r="AH184" t="n">
         <v>0.12</v>
       </c>
+      <c r="AI184" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -20522,6 +21076,9 @@
       <c r="AH185" t="n">
         <v>0.12</v>
       </c>
+      <c r="AI185" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -20629,6 +21186,9 @@
       <c r="AH186" t="n">
         <v>0.13</v>
       </c>
+      <c r="AI186" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -20736,6 +21296,9 @@
       <c r="AH187" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI187" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -20846,6 +21409,9 @@
       <c r="AH188" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI188" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -20956,6 +21522,9 @@
       <c r="AH189" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI189" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -21066,6 +21635,9 @@
       <c r="AH190" t="n">
         <v>0.02</v>
       </c>
+      <c r="AI190" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -21176,6 +21748,9 @@
       <c r="AH191" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI191" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -21286,6 +21861,9 @@
       <c r="AH192" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI192" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -21396,6 +21974,9 @@
       <c r="AH193" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI193" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -21506,6 +22087,9 @@
       <c r="AH194" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI194" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -21616,6 +22200,9 @@
       <c r="AH195" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI195" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -21726,6 +22313,9 @@
       <c r="AH196" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI196" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -21836,6 +22426,9 @@
       <c r="AH197" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI197" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -21946,6 +22539,9 @@
       <c r="AH198" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI198" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -22056,6 +22652,9 @@
       <c r="AH199" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI199" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -22166,6 +22765,9 @@
       <c r="AH200" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI200" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -22276,6 +22878,9 @@
       <c r="AH201" t="n">
         <v>0.09</v>
       </c>
+      <c r="AI201" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -22386,6 +22991,9 @@
       <c r="AH202" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI202" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -22493,6 +23101,9 @@
       <c r="AH203" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI203" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -22600,6 +23211,9 @@
       <c r="AH204" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI204" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -22707,6 +23321,9 @@
       <c r="AH205" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI205" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -22814,6 +23431,9 @@
       <c r="AH206" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI206" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -22924,6 +23544,9 @@
       <c r="AH207" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AI207" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -23034,6 +23657,9 @@
       <c r="AH208" t="n">
         <v>0.65</v>
       </c>
+      <c r="AI208" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -23144,6 +23770,9 @@
       <c r="AH209" t="n">
         <v>0.63</v>
       </c>
+      <c r="AI209" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -23254,6 +23883,9 @@
       <c r="AH210" t="n">
         <v>0.7</v>
       </c>
+      <c r="AI210" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -23364,6 +23996,9 @@
       <c r="AH211" t="n">
         <v>0.63</v>
       </c>
+      <c r="AI211" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -23474,6 +24109,9 @@
       <c r="AH212" t="n">
         <v>0.65</v>
       </c>
+      <c r="AI212" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -23584,6 +24222,9 @@
       <c r="AH213" t="n">
         <v>0.7</v>
       </c>
+      <c r="AI213" t="n">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -23694,6 +24335,9 @@
       <c r="AH214" t="n">
         <v>0.63</v>
       </c>
+      <c r="AI214" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -23804,6 +24448,9 @@
       <c r="AH215" t="n">
         <v>0.65</v>
       </c>
+      <c r="AI215" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -23914,6 +24561,9 @@
       <c r="AH216" t="n">
         <v>0.64</v>
       </c>
+      <c r="AI216" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -24024,6 +24674,9 @@
       <c r="AH217" t="n">
         <v>0.67</v>
       </c>
+      <c r="AI217" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -24134,6 +24787,9 @@
       <c r="AH218" t="n">
         <v>0.66</v>
       </c>
+      <c r="AI218" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -24244,6 +24900,9 @@
       <c r="AH219" t="n">
         <v>0.65</v>
       </c>
+      <c r="AI219" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -24354,6 +25013,9 @@
       <c r="AH220" t="n">
         <v>0.65</v>
       </c>
+      <c r="AI220" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -24464,6 +25126,9 @@
       <c r="AH221" t="n">
         <v>0.61</v>
       </c>
+      <c r="AI221" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -24571,6 +25236,9 @@
       <c r="AH222" t="n">
         <v>0.65</v>
       </c>
+      <c r="AI222" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -24678,6 +25346,9 @@
       <c r="AH223" t="n">
         <v>0.61</v>
       </c>
+      <c r="AI223" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -24785,6 +25456,9 @@
       <c r="AH224" t="n">
         <v>0.73</v>
       </c>
+      <c r="AI224" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -24892,6 +25566,9 @@
       <c r="AH225" t="n">
         <v>0.65</v>
       </c>
+      <c r="AI225" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -24999,6 +25676,9 @@
       <c r="AH226" t="n">
         <v>0.45</v>
       </c>
+      <c r="AI226" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -25106,6 +25786,9 @@
       <c r="AH227" t="n">
         <v>0.34</v>
       </c>
+      <c r="AI227" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -25213,6 +25896,9 @@
       <c r="AH228" t="n">
         <v>0.26</v>
       </c>
+      <c r="AI228" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -25320,6 +26006,9 @@
       <c r="AH229" t="n">
         <v>0.4</v>
       </c>
+      <c r="AI229" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -25427,6 +26116,9 @@
       <c r="AH230" t="n">
         <v>0.3</v>
       </c>
+      <c r="AI230" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -25534,6 +26226,9 @@
       <c r="AH231" t="n">
         <v>0.34</v>
       </c>
+      <c r="AI231" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -25641,6 +26336,9 @@
       <c r="AH232" t="n">
         <v>0.4</v>
       </c>
+      <c r="AI232" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -25748,6 +26446,9 @@
       <c r="AH233" t="n">
         <v>0.36</v>
       </c>
+      <c r="AI233" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -25855,6 +26556,9 @@
       <c r="AH234" t="n">
         <v>0.31</v>
       </c>
+      <c r="AI234" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -25962,6 +26666,9 @@
       <c r="AH235" t="n">
         <v>0.35</v>
       </c>
+      <c r="AI235" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -26069,6 +26776,9 @@
       <c r="AH236" t="n">
         <v>0.32</v>
       </c>
+      <c r="AI236" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -26176,6 +26886,9 @@
       <c r="AH237" t="n">
         <v>0.34</v>
       </c>
+      <c r="AI237" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -26283,6 +26996,9 @@
       <c r="AH238" t="n">
         <v>0.31</v>
       </c>
+      <c r="AI238" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -26390,6 +27106,9 @@
       <c r="AH239" t="n">
         <v>0.35</v>
       </c>
+      <c r="AI239" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -26497,6 +27216,9 @@
       <c r="AH240" t="n">
         <v>0.34</v>
       </c>
+      <c r="AI240" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -26604,6 +27326,9 @@
       <c r="AH241" t="n">
         <v>0.34</v>
       </c>
+      <c r="AI241" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -26711,6 +27436,9 @@
       <c r="AH242" t="n">
         <v>0.4</v>
       </c>
+      <c r="AI242" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -26818,6 +27546,9 @@
       <c r="AH243" t="n">
         <v>0.33</v>
       </c>
+      <c r="AI243" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -26925,6 +27656,9 @@
       <c r="AH244" t="n">
         <v>0.41</v>
       </c>
+      <c r="AI244" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -27032,6 +27766,9 @@
       <c r="AH245" t="n">
         <v>0.12</v>
       </c>
+      <c r="AI245" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -27139,6 +27876,9 @@
       <c r="AH246" t="n">
         <v>0.18</v>
       </c>
+      <c r="AI246" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -27246,6 +27986,9 @@
       <c r="AH247" t="n">
         <v>0.16</v>
       </c>
+      <c r="AI247" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -27353,6 +28096,9 @@
       <c r="AH248" t="n">
         <v>0.18</v>
       </c>
+      <c r="AI248" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -27460,6 +28206,9 @@
       <c r="AH249" t="n">
         <v>0.15</v>
       </c>
+      <c r="AI249" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -27567,6 +28316,9 @@
       <c r="AH250" t="n">
         <v>0.15</v>
       </c>
+      <c r="AI250" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -27674,6 +28426,9 @@
       <c r="AH251" t="n">
         <v>0.23</v>
       </c>
+      <c r="AI251" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -27781,6 +28536,9 @@
       <c r="AH252" t="n">
         <v>0.15</v>
       </c>
+      <c r="AI252" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -27888,6 +28646,9 @@
       <c r="AH253" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI253" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -27995,6 +28756,9 @@
       <c r="AH254" t="n">
         <v>0.19</v>
       </c>
+      <c r="AI254" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -28102,6 +28866,9 @@
       <c r="AH255" t="n">
         <v>0.13</v>
       </c>
+      <c r="AI255" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -28209,6 +28976,9 @@
       <c r="AH256" t="n">
         <v>0.12</v>
       </c>
+      <c r="AI256" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -28316,6 +29086,9 @@
       <c r="AH257" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI257" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -28423,6 +29196,9 @@
       <c r="AH258" t="n">
         <v>0.22</v>
       </c>
+      <c r="AI258" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -28530,6 +29306,9 @@
       <c r="AH259" t="n">
         <v>0.27</v>
       </c>
+      <c r="AI259" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -28637,6 +29416,9 @@
       <c r="AH260" t="n">
         <v>0.16</v>
       </c>
+      <c r="AI260" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -28744,6 +29526,9 @@
       <c r="AH261" t="n">
         <v>0.2</v>
       </c>
+      <c r="AI261" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -28851,6 +29636,9 @@
       <c r="AH262" t="n">
         <v>0.18</v>
       </c>
+      <c r="AI262" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -28958,6 +29746,9 @@
       <c r="AH263" t="n">
         <v>0.22</v>
       </c>
+      <c r="AI263" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -29068,6 +29859,9 @@
       <c r="AH264" t="n">
         <v>0.3</v>
       </c>
+      <c r="AI264" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -29178,6 +29972,9 @@
       <c r="AH265" t="n">
         <v>0.3</v>
       </c>
+      <c r="AI265" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -29288,6 +30085,9 @@
       <c r="AH266" t="n">
         <v>0.2</v>
       </c>
+      <c r="AI266" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -29398,6 +30198,9 @@
       <c r="AH267" t="n">
         <v>0.31</v>
       </c>
+      <c r="AI267" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -29508,6 +30311,9 @@
       <c r="AH268" t="n">
         <v>0.23</v>
       </c>
+      <c r="AI268" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -29618,6 +30424,9 @@
       <c r="AH269" t="n">
         <v>0.26</v>
       </c>
+      <c r="AI269" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -29728,6 +30537,9 @@
       <c r="AH270" t="n">
         <v>0.36</v>
       </c>
+      <c r="AI270" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -29838,6 +30650,9 @@
       <c r="AH271" t="n">
         <v>0.24</v>
       </c>
+      <c r="AI271" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -29948,6 +30763,9 @@
       <c r="AH272" t="n">
         <v>0.24</v>
       </c>
+      <c r="AI272" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -30058,6 +30876,9 @@
       <c r="AH273" t="n">
         <v>0.28</v>
       </c>
+      <c r="AI273" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -30168,6 +30989,9 @@
       <c r="AH274" t="n">
         <v>0.24</v>
       </c>
+      <c r="AI274" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -30278,6 +31102,9 @@
       <c r="AH275" t="n">
         <v>0.24</v>
       </c>
+      <c r="AI275" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -30388,6 +31215,9 @@
       <c r="AH276" t="n">
         <v>0.26</v>
       </c>
+      <c r="AI276" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -30498,6 +31328,9 @@
       <c r="AH277" t="n">
         <v>0.3</v>
       </c>
+      <c r="AI277" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -30608,6 +31441,9 @@
       <c r="AH278" t="n">
         <v>0.29</v>
       </c>
+      <c r="AI278" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -30715,6 +31551,9 @@
       <c r="AH279" t="n">
         <v>0.25</v>
       </c>
+      <c r="AI279" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -30822,6 +31661,9 @@
       <c r="AH280" t="n">
         <v>0.38</v>
       </c>
+      <c r="AI280" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -30929,6 +31771,9 @@
       <c r="AH281" t="n">
         <v>0.16</v>
       </c>
+      <c r="AI281" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -31036,6 +31881,9 @@
       <c r="AH282" t="n">
         <v>0.48</v>
       </c>
+      <c r="AI282" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -31134,6 +31982,9 @@
       <c r="AH283" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI283" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -31232,6 +32083,9 @@
       <c r="AH284" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AI284" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -31330,6 +32184,9 @@
       <c r="AH285" t="n">
         <v>0.03</v>
       </c>
+      <c r="AI285" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -31428,6 +32285,9 @@
       <c r="AH286" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI286" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -31526,6 +32386,9 @@
       <c r="AH287" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI287" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -31624,6 +32487,9 @@
       <c r="AH288" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI288" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -31722,6 +32588,9 @@
       <c r="AH289" t="n">
         <v>0.1</v>
       </c>
+      <c r="AI289" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -31820,6 +32689,9 @@
       <c r="AH290" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI290" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -31918,6 +32790,9 @@
       <c r="AH291" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI291" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -32016,6 +32891,9 @@
       <c r="AH292" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI292" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -32114,6 +32992,9 @@
       <c r="AH293" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI293" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -32212,6 +33093,9 @@
       <c r="AH294" t="n">
         <v>0.04</v>
       </c>
+      <c r="AI294" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -32310,6 +33194,9 @@
       <c r="AH295" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI295" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -32408,6 +33295,9 @@
       <c r="AH296" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI296" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -32506,6 +33396,9 @@
       <c r="AH297" t="n">
         <v>0.09</v>
       </c>
+      <c r="AI297" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -32604,6 +33497,9 @@
       <c r="AH298" t="n">
         <v>0.05</v>
       </c>
+      <c r="AI298" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -32702,6 +33598,9 @@
       <c r="AH299" t="n">
         <v>0.14</v>
       </c>
+      <c r="AI299" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -32800,6 +33699,9 @@
       <c r="AH300" t="n">
         <v>0.08</v>
       </c>
+      <c r="AI300" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -32898,11 +33800,14 @@
       <c r="AH301" t="n">
         <v>0.06</v>
       </c>
+      <c r="AI301" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -32917,7 +33822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG22"/>
+  <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33091,6 +33996,11 @@
           <t>16.–22. 8. 2021</t>
         </is>
       </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>20.–26. 9. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -33196,6 +34106,9 @@
       <c r="AG2" t="n">
         <v>1901</v>
       </c>
+      <c r="AH2" t="n">
+        <v>1855</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -33301,6 +34214,9 @@
       <c r="AG3" t="n">
         <v>452</v>
       </c>
+      <c r="AH3" t="n">
+        <v>456</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -33406,6 +34322,9 @@
       <c r="AG4" t="n">
         <v>709</v>
       </c>
+      <c r="AH4" t="n">
+        <v>678</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -33511,6 +34430,9 @@
       <c r="AG5" t="n">
         <v>740</v>
       </c>
+      <c r="AH5" t="n">
+        <v>721</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -33616,6 +34538,9 @@
       <c r="AG6" t="n">
         <v>522</v>
       </c>
+      <c r="AH6" t="n">
+        <v>539</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -33721,6 +34646,9 @@
       <c r="AG7" t="n">
         <v>847</v>
       </c>
+      <c r="AH7" t="n">
+        <v>801</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -33826,6 +34754,9 @@
       <c r="AG8" t="n">
         <v>529</v>
       </c>
+      <c r="AH8" t="n">
+        <v>515</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -33931,6 +34862,9 @@
       <c r="AG9" t="n">
         <v>314</v>
       </c>
+      <c r="AH9" t="n">
+        <v>317</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -34036,6 +34970,9 @@
       <c r="AG10" t="n">
         <v>350</v>
       </c>
+      <c r="AH10" t="n">
+        <v>325</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -34141,6 +35078,9 @@
       <c r="AG11" t="n">
         <v>1237</v>
       </c>
+      <c r="AH11" t="n">
+        <v>1213</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -34246,6 +35186,9 @@
       <c r="AG12" t="n">
         <v>937</v>
       </c>
+      <c r="AH12" t="n">
+        <v>897</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -34351,6 +35294,9 @@
       <c r="AG13" t="n">
         <v>964</v>
       </c>
+      <c r="AH13" t="n">
+        <v>958</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -34456,6 +35402,9 @@
       <c r="AG14" t="n">
         <v>988</v>
       </c>
+      <c r="AH14" t="n">
+        <v>965</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -34561,6 +35510,9 @@
       <c r="AG15" t="n">
         <v>442</v>
       </c>
+      <c r="AH15" t="n">
+        <v>429</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -34666,6 +35618,9 @@
       <c r="AG16" t="n">
         <v>220</v>
       </c>
+      <c r="AH16" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -34771,6 +35726,9 @@
       <c r="AG17" t="n">
         <v>251</v>
       </c>
+      <c r="AH17" t="n">
+        <v>245</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -34874,6 +35832,9 @@
       <c r="AG18" t="n">
         <v>671</v>
       </c>
+      <c r="AH18" t="n">
+        <v>833</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -34977,6 +35938,9 @@
       <c r="AG19" t="n">
         <v>76</v>
       </c>
+      <c r="AH19" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -35080,6 +36044,9 @@
       <c r="AG20" t="n">
         <v>65</v>
       </c>
+      <c r="AH20" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -35183,11 +36150,14 @@
       <c r="AG21" t="n">
         <v>261</v>
       </c>
+      <c r="AH21" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 9. 2021</t>
+          <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -35222,6 +36192,7 @@
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_04_socialni_aktivity.xlsx
+++ b/ZBP_04_socialni_aktivity.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI302"/>
+  <dimension ref="A1:AJ302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,6 +635,11 @@
           <t>20.–26. 9. 2021</t>
         </is>
       </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>11.–17. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -748,6 +753,9 @@
       <c r="AI2" t="n">
         <v>0.82</v>
       </c>
+      <c r="AJ2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -861,6 +869,9 @@
       <c r="AI3" t="n">
         <v>0.37</v>
       </c>
+      <c r="AJ3" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -974,6 +985,9 @@
       <c r="AI4" t="n">
         <v>0.31</v>
       </c>
+      <c r="AJ4" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1087,6 +1101,9 @@
       <c r="AI5" t="n">
         <v>0.26</v>
       </c>
+      <c r="AJ5" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1200,6 +1217,9 @@
       <c r="AI6" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ6" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1313,6 +1333,9 @@
       <c r="AI7" t="n">
         <v>0.44</v>
       </c>
+      <c r="AJ7" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1426,6 +1449,9 @@
       <c r="AI8" t="n">
         <v>0.12</v>
       </c>
+      <c r="AJ8" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1527,6 +1553,9 @@
       <c r="AI9" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ9" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1640,6 +1669,9 @@
       <c r="AI10" t="n">
         <v>0.1</v>
       </c>
+      <c r="AJ10" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1753,6 +1785,9 @@
       <c r="AI11" t="n">
         <v>0.06</v>
       </c>
+      <c r="AJ11" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1866,6 +1901,9 @@
       <c r="AI12" t="n">
         <v>0.65</v>
       </c>
+      <c r="AJ12" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1976,6 +2014,9 @@
       <c r="AI13" t="n">
         <v>0.33</v>
       </c>
+      <c r="AJ13" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2086,6 +2127,9 @@
       <c r="AI14" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ14" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2199,6 +2243,9 @@
       <c r="AI15" t="n">
         <v>0.19</v>
       </c>
+      <c r="AJ15" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2300,6 +2347,9 @@
       <c r="AI16" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ16" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2413,6 +2463,9 @@
       <c r="AI17" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AJ17" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2526,6 +2579,9 @@
       <c r="AI18" t="n">
         <v>0.84</v>
       </c>
+      <c r="AJ18" t="n">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2639,6 +2695,9 @@
       <c r="AI19" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AJ19" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2752,6 +2811,9 @@
       <c r="AI20" t="n">
         <v>0.82</v>
       </c>
+      <c r="AJ20" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2865,6 +2927,9 @@
       <c r="AI21" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AJ21" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2978,6 +3043,9 @@
       <c r="AI22" t="n">
         <v>0.85</v>
       </c>
+      <c r="AJ22" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3091,6 +3159,9 @@
       <c r="AI23" t="n">
         <v>0.85</v>
       </c>
+      <c r="AJ23" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3204,6 +3275,9 @@
       <c r="AI24" t="n">
         <v>0.89</v>
       </c>
+      <c r="AJ24" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3317,6 +3391,9 @@
       <c r="AI25" t="n">
         <v>0.8</v>
       </c>
+      <c r="AJ25" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3430,6 +3507,9 @@
       <c r="AI26" t="n">
         <v>0.83</v>
       </c>
+      <c r="AJ26" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3543,6 +3623,9 @@
       <c r="AI27" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AJ27" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3656,6 +3739,9 @@
       <c r="AI28" t="n">
         <v>0.8</v>
       </c>
+      <c r="AJ28" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3769,6 +3855,9 @@
       <c r="AI29" t="n">
         <v>0.88</v>
       </c>
+      <c r="AJ29" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3882,6 +3971,9 @@
       <c r="AI30" t="n">
         <v>0.86</v>
       </c>
+      <c r="AJ30" t="n">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3995,6 +4087,9 @@
       <c r="AI31" t="n">
         <v>0.78</v>
       </c>
+      <c r="AJ31" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4105,6 +4200,9 @@
       <c r="AI32" t="n">
         <v>0.85</v>
       </c>
+      <c r="AJ32" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4215,6 +4313,9 @@
       <c r="AI33" t="n">
         <v>0.9399999999999999</v>
       </c>
+      <c r="AJ33" t="n">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4325,6 +4426,9 @@
       <c r="AI34" t="n">
         <v>0.87</v>
       </c>
+      <c r="AJ34" t="n">
+        <v>0.9399999999999999</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4435,6 +4539,9 @@
       <c r="AI35" t="n">
         <v>0.68</v>
       </c>
+      <c r="AJ35" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4548,6 +4655,9 @@
       <c r="AI36" t="n">
         <v>0.44</v>
       </c>
+      <c r="AJ36" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4661,6 +4771,9 @@
       <c r="AI37" t="n">
         <v>0.36</v>
       </c>
+      <c r="AJ37" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4774,6 +4887,9 @@
       <c r="AI38" t="n">
         <v>0.34</v>
       </c>
+      <c r="AJ38" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4887,6 +5003,9 @@
       <c r="AI39" t="n">
         <v>0.41</v>
       </c>
+      <c r="AJ39" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5000,6 +5119,9 @@
       <c r="AI40" t="n">
         <v>0.34</v>
       </c>
+      <c r="AJ40" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5113,6 +5235,9 @@
       <c r="AI41" t="n">
         <v>0.37</v>
       </c>
+      <c r="AJ41" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5226,6 +5351,9 @@
       <c r="AI42" t="n">
         <v>0.39</v>
       </c>
+      <c r="AJ42" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5339,6 +5467,9 @@
       <c r="AI43" t="n">
         <v>0.45</v>
       </c>
+      <c r="AJ43" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5452,6 +5583,9 @@
       <c r="AI44" t="n">
         <v>0.34</v>
       </c>
+      <c r="AJ44" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5565,6 +5699,9 @@
       <c r="AI45" t="n">
         <v>0.36</v>
       </c>
+      <c r="AJ45" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5678,6 +5815,9 @@
       <c r="AI46" t="n">
         <v>0.38</v>
       </c>
+      <c r="AJ46" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5791,6 +5931,9 @@
       <c r="AI47" t="n">
         <v>0.25</v>
       </c>
+      <c r="AJ47" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5904,6 +6047,9 @@
       <c r="AI48" t="n">
         <v>0.4</v>
       </c>
+      <c r="AJ48" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6017,6 +6163,9 @@
       <c r="AI49" t="n">
         <v>0.58</v>
       </c>
+      <c r="AJ49" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6130,6 +6279,9 @@
       <c r="AI50" t="n">
         <v>0.62</v>
       </c>
+      <c r="AJ50" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6240,6 +6392,9 @@
       <c r="AI51" t="n">
         <v>0.38</v>
       </c>
+      <c r="AJ51" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6350,6 +6505,9 @@
       <c r="AI52" t="n">
         <v>0.45</v>
       </c>
+      <c r="AJ52" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6460,6 +6618,9 @@
       <c r="AI53" t="n">
         <v>0.6</v>
       </c>
+      <c r="AJ53" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6570,6 +6731,9 @@
       <c r="AI54" t="n">
         <v>0.33</v>
       </c>
+      <c r="AJ54" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6683,6 +6847,9 @@
       <c r="AI55" t="n">
         <v>0.28</v>
       </c>
+      <c r="AJ55" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6796,6 +6963,9 @@
       <c r="AI56" t="n">
         <v>0.3</v>
       </c>
+      <c r="AJ56" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -6909,6 +7079,9 @@
       <c r="AI57" t="n">
         <v>0.35</v>
       </c>
+      <c r="AJ57" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7022,6 +7195,9 @@
       <c r="AI58" t="n">
         <v>0.28</v>
       </c>
+      <c r="AJ58" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7135,6 +7311,9 @@
       <c r="AI59" t="n">
         <v>0.31</v>
       </c>
+      <c r="AJ59" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7248,6 +7427,9 @@
       <c r="AI60" t="n">
         <v>0.36</v>
       </c>
+      <c r="AJ60" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7361,6 +7543,9 @@
       <c r="AI61" t="n">
         <v>0.29</v>
       </c>
+      <c r="AJ61" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7474,6 +7659,9 @@
       <c r="AI62" t="n">
         <v>0.36</v>
       </c>
+      <c r="AJ62" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7587,6 +7775,9 @@
       <c r="AI63" t="n">
         <v>0.31</v>
       </c>
+      <c r="AJ63" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7700,6 +7891,9 @@
       <c r="AI64" t="n">
         <v>0.25</v>
       </c>
+      <c r="AJ64" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -7813,6 +8007,9 @@
       <c r="AI65" t="n">
         <v>0.38</v>
       </c>
+      <c r="AJ65" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -7926,6 +8123,9 @@
       <c r="AI66" t="n">
         <v>0.32</v>
       </c>
+      <c r="AJ66" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8039,6 +8239,9 @@
       <c r="AI67" t="n">
         <v>0.33</v>
       </c>
+      <c r="AJ67" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8152,6 +8355,9 @@
       <c r="AI68" t="n">
         <v>0.28</v>
       </c>
+      <c r="AJ68" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8265,6 +8471,9 @@
       <c r="AI69" t="n">
         <v>0.31</v>
       </c>
+      <c r="AJ69" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8375,6 +8584,9 @@
       <c r="AI70" t="n">
         <v>0.28</v>
       </c>
+      <c r="AJ70" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8485,6 +8697,9 @@
       <c r="AI71" t="n">
         <v>0.32</v>
       </c>
+      <c r="AJ71" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8595,6 +8810,9 @@
       <c r="AI72" t="n">
         <v>0.22</v>
       </c>
+      <c r="AJ72" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8705,6 +8923,9 @@
       <c r="AI73" t="n">
         <v>0.4</v>
       </c>
+      <c r="AJ73" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -8818,6 +9039,9 @@
       <c r="AI74" t="n">
         <v>0.33</v>
       </c>
+      <c r="AJ74" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -8931,6 +9155,9 @@
       <c r="AI75" t="n">
         <v>0.24</v>
       </c>
+      <c r="AJ75" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9044,6 +9271,9 @@
       <c r="AI76" t="n">
         <v>0.24</v>
       </c>
+      <c r="AJ76" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9157,6 +9387,9 @@
       <c r="AI77" t="n">
         <v>0.29</v>
       </c>
+      <c r="AJ77" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9270,6 +9503,9 @@
       <c r="AI78" t="n">
         <v>0.26</v>
       </c>
+      <c r="AJ78" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9383,6 +9619,9 @@
       <c r="AI79" t="n">
         <v>0.25</v>
       </c>
+      <c r="AJ79" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9496,6 +9735,9 @@
       <c r="AI80" t="n">
         <v>0.35</v>
       </c>
+      <c r="AJ80" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9609,6 +9851,9 @@
       <c r="AI81" t="n">
         <v>0.23</v>
       </c>
+      <c r="AJ81" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9722,6 +9967,9 @@
       <c r="AI82" t="n">
         <v>0.25</v>
       </c>
+      <c r="AJ82" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9835,6 +10083,9 @@
       <c r="AI83" t="n">
         <v>0.25</v>
       </c>
+      <c r="AJ83" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9948,6 +10199,9 @@
       <c r="AI84" t="n">
         <v>0.27</v>
       </c>
+      <c r="AJ84" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10061,6 +10315,9 @@
       <c r="AI85" t="n">
         <v>0.25</v>
       </c>
+      <c r="AJ85" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10174,6 +10431,9 @@
       <c r="AI86" t="n">
         <v>0.26</v>
       </c>
+      <c r="AJ86" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10287,6 +10547,9 @@
       <c r="AI87" t="n">
         <v>0.24</v>
       </c>
+      <c r="AJ87" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10400,6 +10663,9 @@
       <c r="AI88" t="n">
         <v>0.34</v>
       </c>
+      <c r="AJ88" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10510,6 +10776,9 @@
       <c r="AI89" t="n">
         <v>0.24</v>
       </c>
+      <c r="AJ89" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10620,6 +10889,9 @@
       <c r="AI90" t="n">
         <v>0.42</v>
       </c>
+      <c r="AJ90" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10730,6 +11002,9 @@
       <c r="AI91" t="n">
         <v>0.28</v>
       </c>
+      <c r="AJ91" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10840,6 +11115,9 @@
       <c r="AI92" t="n">
         <v>0.37</v>
       </c>
+      <c r="AJ92" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10953,6 +11231,9 @@
       <c r="AI93" t="n">
         <v>0.09</v>
       </c>
+      <c r="AJ93" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11066,6 +11347,9 @@
       <c r="AI94" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ94" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11179,6 +11463,9 @@
       <c r="AI95" t="n">
         <v>0.03</v>
       </c>
+      <c r="AJ95" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11292,6 +11579,9 @@
       <c r="AI96" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ96" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11405,6 +11695,9 @@
       <c r="AI97" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ97" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11518,6 +11811,9 @@
       <c r="AI98" t="n">
         <v>0.06</v>
       </c>
+      <c r="AJ98" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11631,6 +11927,9 @@
       <c r="AI99" t="n">
         <v>0.09</v>
       </c>
+      <c r="AJ99" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -11744,6 +12043,9 @@
       <c r="AI100" t="n">
         <v>0.06</v>
       </c>
+      <c r="AJ100" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -11857,6 +12159,9 @@
       <c r="AI101" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ101" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -11970,6 +12275,9 @@
       <c r="AI102" t="n">
         <v>0.06</v>
       </c>
+      <c r="AJ102" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12083,6 +12391,9 @@
       <c r="AI103" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ103" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12196,6 +12507,9 @@
       <c r="AI104" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ104" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12309,6 +12623,9 @@
       <c r="AI105" t="n">
         <v>0.06</v>
       </c>
+      <c r="AJ105" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -12422,6 +12739,9 @@
       <c r="AI106" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ106" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -12535,6 +12855,9 @@
       <c r="AI107" t="n">
         <v>0.12</v>
       </c>
+      <c r="AJ107" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -12645,6 +12968,9 @@
       <c r="AI108" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AJ108" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -12755,6 +13081,9 @@
       <c r="AI109" t="n">
         <v>0.11</v>
       </c>
+      <c r="AJ109" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -12865,6 +13194,9 @@
       <c r="AI110" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ110" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -12975,6 +13307,9 @@
       <c r="AI111" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ111" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13088,6 +13423,9 @@
       <c r="AI112" t="n">
         <v>0.54</v>
       </c>
+      <c r="AJ112" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -13201,6 +13539,9 @@
       <c r="AI113" t="n">
         <v>0.48</v>
       </c>
+      <c r="AJ113" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -13314,6 +13655,9 @@
       <c r="AI114" t="n">
         <v>0.35</v>
       </c>
+      <c r="AJ114" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -13427,6 +13771,9 @@
       <c r="AI115" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AJ115" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -13540,6 +13887,9 @@
       <c r="AI116" t="n">
         <v>0.4</v>
       </c>
+      <c r="AJ116" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -13653,6 +14003,9 @@
       <c r="AI117" t="n">
         <v>0.39</v>
       </c>
+      <c r="AJ117" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -13766,6 +14119,9 @@
       <c r="AI118" t="n">
         <v>0.55</v>
       </c>
+      <c r="AJ118" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -13879,6 +14235,9 @@
       <c r="AI119" t="n">
         <v>0.51</v>
       </c>
+      <c r="AJ119" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -13992,6 +14351,9 @@
       <c r="AI120" t="n">
         <v>0.4</v>
       </c>
+      <c r="AJ120" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -14105,6 +14467,9 @@
       <c r="AI121" t="n">
         <v>0.52</v>
       </c>
+      <c r="AJ121" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -14218,6 +14583,9 @@
       <c r="AI122" t="n">
         <v>0.37</v>
       </c>
+      <c r="AJ122" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -14331,6 +14699,9 @@
       <c r="AI123" t="n">
         <v>0.38</v>
       </c>
+      <c r="AJ123" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -14444,6 +14815,9 @@
       <c r="AI124" t="n">
         <v>0.47</v>
       </c>
+      <c r="AJ124" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -14557,6 +14931,9 @@
       <c r="AI125" t="n">
         <v>0.54</v>
       </c>
+      <c r="AJ125" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -14670,6 +15047,9 @@
       <c r="AI126" t="n">
         <v>0.55</v>
       </c>
+      <c r="AJ126" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -14780,6 +15160,9 @@
       <c r="AI127" t="n">
         <v>0.52</v>
       </c>
+      <c r="AJ127" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -14890,6 +15273,9 @@
       <c r="AI128" t="n">
         <v>0.7</v>
       </c>
+      <c r="AJ128" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -15000,6 +15386,9 @@
       <c r="AI129" t="n">
         <v>0.54</v>
       </c>
+      <c r="AJ129" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -15110,6 +15499,9 @@
       <c r="AI130" t="n">
         <v>0.4</v>
       </c>
+      <c r="AJ130" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -15223,6 +15615,9 @@
       <c r="AI131" t="n">
         <v>0.23</v>
       </c>
+      <c r="AJ131" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -15336,6 +15731,9 @@
       <c r="AI132" t="n">
         <v>0.12</v>
       </c>
+      <c r="AJ132" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -15449,6 +15847,9 @@
       <c r="AI133" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ133" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -15562,6 +15963,9 @@
       <c r="AI134" t="n">
         <v>0.19</v>
       </c>
+      <c r="AJ134" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -15675,6 +16079,9 @@
       <c r="AI135" t="n">
         <v>0.09</v>
       </c>
+      <c r="AJ135" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -15788,6 +16195,9 @@
       <c r="AI136" t="n">
         <v>0.1</v>
       </c>
+      <c r="AJ136" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -15901,6 +16311,9 @@
       <c r="AI137" t="n">
         <v>0.22</v>
       </c>
+      <c r="AJ137" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -16014,6 +16427,9 @@
       <c r="AI138" t="n">
         <v>0.09</v>
       </c>
+      <c r="AJ138" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -16127,6 +16543,9 @@
       <c r="AI139" t="n">
         <v>0.1</v>
       </c>
+      <c r="AJ139" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -16240,6 +16659,9 @@
       <c r="AI140" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ140" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -16353,6 +16775,9 @@
       <c r="AI141" t="n">
         <v>0.11</v>
       </c>
+      <c r="AJ141" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -16466,6 +16891,9 @@
       <c r="AI142" t="n">
         <v>0.11</v>
       </c>
+      <c r="AJ142" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -16579,6 +17007,9 @@
       <c r="AI143" t="n">
         <v>0.09</v>
       </c>
+      <c r="AJ143" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -16692,6 +17123,9 @@
       <c r="AI144" t="n">
         <v>0.16</v>
       </c>
+      <c r="AJ144" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -16805,6 +17239,9 @@
       <c r="AI145" t="n">
         <v>0.17</v>
       </c>
+      <c r="AJ145" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -16915,6 +17352,9 @@
       <c r="AI146" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ146" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -17025,6 +17465,9 @@
       <c r="AI147" t="n">
         <v>0.15</v>
       </c>
+      <c r="AJ147" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -17135,6 +17578,9 @@
       <c r="AI148" t="n">
         <v>0.3</v>
       </c>
+      <c r="AJ148" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -17245,6 +17691,9 @@
       <c r="AI149" t="n">
         <v>0.1</v>
       </c>
+      <c r="AJ149" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -17346,6 +17795,9 @@
       <c r="AI150" t="n">
         <v>0.15</v>
       </c>
+      <c r="AJ150" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -17447,6 +17899,9 @@
       <c r="AI151" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ151" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -17548,6 +18003,9 @@
       <c r="AI152" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ152" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -17649,6 +18107,9 @@
       <c r="AI153" t="n">
         <v>0.18</v>
       </c>
+      <c r="AJ153" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -17750,6 +18211,9 @@
       <c r="AI154" t="n">
         <v>0.11</v>
       </c>
+      <c r="AJ154" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -17851,6 +18315,9 @@
       <c r="AI155" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ155" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -17952,6 +18419,9 @@
       <c r="AI156" t="n">
         <v>0.15</v>
       </c>
+      <c r="AJ156" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -18053,6 +18523,9 @@
       <c r="AI157" t="n">
         <v>0.15</v>
       </c>
+      <c r="AJ157" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -18154,6 +18627,9 @@
       <c r="AI158" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ158" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -18255,6 +18731,9 @@
       <c r="AI159" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ159" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -18356,6 +18835,9 @@
       <c r="AI160" t="n">
         <v>0.15</v>
       </c>
+      <c r="AJ160" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -18457,6 +18939,9 @@
       <c r="AI161" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ161" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -18558,6 +19043,9 @@
       <c r="AI162" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ162" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -18659,6 +19147,9 @@
       <c r="AI163" t="n">
         <v>0.12</v>
       </c>
+      <c r="AJ163" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -18760,6 +19251,9 @@
       <c r="AI164" t="n">
         <v>0.11</v>
       </c>
+      <c r="AJ164" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -18861,6 +19355,9 @@
       <c r="AI165" t="n">
         <v>0.16</v>
       </c>
+      <c r="AJ165" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -18962,6 +19459,9 @@
       <c r="AI166" t="n">
         <v>0.02</v>
       </c>
+      <c r="AJ166" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -19063,6 +19563,9 @@
       <c r="AI167" t="n">
         <v>0.09</v>
       </c>
+      <c r="AJ167" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -19164,6 +19667,9 @@
       <c r="AI168" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AJ168" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -19277,6 +19783,9 @@
       <c r="AI169" t="n">
         <v>0.12</v>
       </c>
+      <c r="AJ169" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -19390,6 +19899,9 @@
       <c r="AI170" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ170" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -19503,6 +20015,9 @@
       <c r="AI171" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AJ171" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -19616,6 +20131,9 @@
       <c r="AI172" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ172" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -19729,6 +20247,9 @@
       <c r="AI173" t="n">
         <v>0.09</v>
       </c>
+      <c r="AJ173" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -19842,6 +20363,9 @@
       <c r="AI174" t="n">
         <v>0.09</v>
       </c>
+      <c r="AJ174" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -19955,6 +20479,9 @@
       <c r="AI175" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ175" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -20068,6 +20595,9 @@
       <c r="AI176" t="n">
         <v>0.08</v>
       </c>
+      <c r="AJ176" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -20181,6 +20711,9 @@
       <c r="AI177" t="n">
         <v>0.1</v>
       </c>
+      <c r="AJ177" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -20294,6 +20827,9 @@
       <c r="AI178" t="n">
         <v>0.11</v>
       </c>
+      <c r="AJ178" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -20407,6 +20943,9 @@
       <c r="AI179" t="n">
         <v>0.09</v>
       </c>
+      <c r="AJ179" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -20520,6 +21059,9 @@
       <c r="AI180" t="n">
         <v>0.11</v>
       </c>
+      <c r="AJ180" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -20633,6 +21175,9 @@
       <c r="AI181" t="n">
         <v>0.09</v>
       </c>
+      <c r="AJ181" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -20746,6 +21291,9 @@
       <c r="AI182" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ182" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -20859,6 +21407,9 @@
       <c r="AI183" t="n">
         <v>0.08</v>
       </c>
+      <c r="AJ183" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -20969,6 +21520,9 @@
       <c r="AI184" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ184" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -21079,6 +21633,9 @@
       <c r="AI185" t="n">
         <v>0.16</v>
       </c>
+      <c r="AJ185" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -21189,6 +21746,9 @@
       <c r="AI186" t="n">
         <v>0.09</v>
       </c>
+      <c r="AJ186" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -21299,6 +21859,9 @@
       <c r="AI187" t="n">
         <v>0.11</v>
       </c>
+      <c r="AJ187" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -21412,6 +21975,9 @@
       <c r="AI188" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ188" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -21525,6 +22091,9 @@
       <c r="AI189" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ189" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -21638,6 +22207,9 @@
       <c r="AI190" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ190" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -21751,6 +22323,9 @@
       <c r="AI191" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AJ191" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -21864,6 +22439,9 @@
       <c r="AI192" t="n">
         <v>0.06</v>
       </c>
+      <c r="AJ192" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -21977,6 +22555,9 @@
       <c r="AI193" t="n">
         <v>0.06</v>
       </c>
+      <c r="AJ193" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -22090,6 +22671,9 @@
       <c r="AI194" t="n">
         <v>0.11</v>
       </c>
+      <c r="AJ194" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -22203,6 +22787,9 @@
       <c r="AI195" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ195" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -22316,6 +22903,9 @@
       <c r="AI196" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ196" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -22429,6 +23019,9 @@
       <c r="AI197" t="n">
         <v>0.08</v>
       </c>
+      <c r="AJ197" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -22542,6 +23135,9 @@
       <c r="AI198" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ198" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -22655,6 +23251,9 @@
       <c r="AI199" t="n">
         <v>0.06</v>
       </c>
+      <c r="AJ199" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -22768,6 +23367,9 @@
       <c r="AI200" t="n">
         <v>0.06</v>
       </c>
+      <c r="AJ200" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -22881,6 +23483,9 @@
       <c r="AI201" t="n">
         <v>0.1</v>
       </c>
+      <c r="AJ201" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -22994,6 +23599,9 @@
       <c r="AI202" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ202" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -23104,6 +23712,9 @@
       <c r="AI203" t="n">
         <v>0.08</v>
       </c>
+      <c r="AJ203" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -23214,6 +23825,9 @@
       <c r="AI204" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ204" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -23324,6 +23938,9 @@
       <c r="AI205" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ205" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -23434,6 +24051,9 @@
       <c r="AI206" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AJ206" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -23547,6 +24167,9 @@
       <c r="AI207" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AJ207" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -23660,6 +24283,9 @@
       <c r="AI208" t="n">
         <v>0.64</v>
       </c>
+      <c r="AJ208" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -23773,6 +24399,9 @@
       <c r="AI209" t="n">
         <v>0.62</v>
       </c>
+      <c r="AJ209" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -23886,6 +24515,9 @@
       <c r="AI210" t="n">
         <v>0.66</v>
       </c>
+      <c r="AJ210" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -23999,6 +24631,9 @@
       <c r="AI211" t="n">
         <v>0.63</v>
       </c>
+      <c r="AJ211" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -24112,6 +24747,9 @@
       <c r="AI212" t="n">
         <v>0.65</v>
       </c>
+      <c r="AJ212" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -24225,6 +24863,9 @@
       <c r="AI213" t="n">
         <v>0.74</v>
       </c>
+      <c r="AJ213" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -24338,6 +24979,9 @@
       <c r="AI214" t="n">
         <v>0.67</v>
       </c>
+      <c r="AJ214" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -24451,6 +25095,9 @@
       <c r="AI215" t="n">
         <v>0.61</v>
       </c>
+      <c r="AJ215" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -24564,6 +25211,9 @@
       <c r="AI216" t="n">
         <v>0.62</v>
       </c>
+      <c r="AJ216" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -24677,6 +25327,9 @@
       <c r="AI217" t="n">
         <v>0.67</v>
       </c>
+      <c r="AJ217" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -24790,6 +25443,9 @@
       <c r="AI218" t="n">
         <v>0.67</v>
       </c>
+      <c r="AJ218" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -24903,6 +25559,9 @@
       <c r="AI219" t="n">
         <v>0.63</v>
       </c>
+      <c r="AJ219" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -25016,6 +25675,9 @@
       <c r="AI220" t="n">
         <v>0.61</v>
       </c>
+      <c r="AJ220" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -25129,6 +25791,9 @@
       <c r="AI221" t="n">
         <v>0.6</v>
       </c>
+      <c r="AJ221" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -25239,6 +25904,9 @@
       <c r="AI222" t="n">
         <v>0.66</v>
       </c>
+      <c r="AJ222" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -25349,6 +26017,9 @@
       <c r="AI223" t="n">
         <v>0.65</v>
       </c>
+      <c r="AJ223" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -25459,6 +26130,9 @@
       <c r="AI224" t="n">
         <v>0.57</v>
       </c>
+      <c r="AJ224" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -25569,6 +26243,9 @@
       <c r="AI225" t="n">
         <v>0.43</v>
       </c>
+      <c r="AJ225" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -25679,6 +26356,9 @@
       <c r="AI226" t="n">
         <v>0.46</v>
       </c>
+      <c r="AJ226" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -25789,6 +26469,9 @@
       <c r="AI227" t="n">
         <v>0.34</v>
       </c>
+      <c r="AJ227" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -25899,6 +26582,9 @@
       <c r="AI228" t="n">
         <v>0.25</v>
       </c>
+      <c r="AJ228" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -26009,6 +26695,9 @@
       <c r="AI229" t="n">
         <v>0.39</v>
       </c>
+      <c r="AJ229" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -26119,6 +26808,9 @@
       <c r="AI230" t="n">
         <v>0.32</v>
       </c>
+      <c r="AJ230" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -26229,6 +26921,9 @@
       <c r="AI231" t="n">
         <v>0.29</v>
       </c>
+      <c r="AJ231" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -26339,6 +27034,9 @@
       <c r="AI232" t="n">
         <v>0.42</v>
       </c>
+      <c r="AJ232" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -26449,6 +27147,9 @@
       <c r="AI233" t="n">
         <v>0.34</v>
       </c>
+      <c r="AJ233" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -26559,6 +27260,9 @@
       <c r="AI234" t="n">
         <v>0.31</v>
       </c>
+      <c r="AJ234" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -26669,6 +27373,9 @@
       <c r="AI235" t="n">
         <v>0.33</v>
       </c>
+      <c r="AJ235" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -26779,6 +27486,9 @@
       <c r="AI236" t="n">
         <v>0.34</v>
       </c>
+      <c r="AJ236" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -26889,6 +27599,9 @@
       <c r="AI237" t="n">
         <v>0.32</v>
       </c>
+      <c r="AJ237" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -26999,6 +27712,9 @@
       <c r="AI238" t="n">
         <v>0.34</v>
       </c>
+      <c r="AJ238" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -27109,6 +27825,9 @@
       <c r="AI239" t="n">
         <v>0.36</v>
       </c>
+      <c r="AJ239" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -27219,6 +27938,9 @@
       <c r="AI240" t="n">
         <v>0.37</v>
       </c>
+      <c r="AJ240" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -27329,6 +28051,9 @@
       <c r="AI241" t="n">
         <v>0.37</v>
       </c>
+      <c r="AJ241" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -27439,6 +28164,9 @@
       <c r="AI242" t="n">
         <v>0.42</v>
       </c>
+      <c r="AJ242" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -27549,6 +28277,9 @@
       <c r="AI243" t="n">
         <v>0.29</v>
       </c>
+      <c r="AJ243" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -27659,6 +28390,9 @@
       <c r="AI244" t="n">
         <v>0.48</v>
       </c>
+      <c r="AJ244" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -27769,6 +28503,9 @@
       <c r="AI245" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ245" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -27879,6 +28616,9 @@
       <c r="AI246" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ246" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -27989,6 +28729,9 @@
       <c r="AI247" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ247" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -28099,6 +28842,9 @@
       <c r="AI248" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ248" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -28209,6 +28955,9 @@
       <c r="AI249" t="n">
         <v>0.15</v>
       </c>
+      <c r="AJ249" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -28319,6 +29068,9 @@
       <c r="AI250" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ250" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -28429,6 +29181,9 @@
       <c r="AI251" t="n">
         <v>0.22</v>
       </c>
+      <c r="AJ251" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -28539,6 +29294,9 @@
       <c r="AI252" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ252" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -28649,6 +29407,9 @@
       <c r="AI253" t="n">
         <v>0.12</v>
       </c>
+      <c r="AJ253" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -28759,6 +29520,9 @@
       <c r="AI254" t="n">
         <v>0.16</v>
       </c>
+      <c r="AJ254" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -28869,6 +29633,9 @@
       <c r="AI255" t="n">
         <v>0.12</v>
       </c>
+      <c r="AJ255" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -28979,6 +29746,9 @@
       <c r="AI256" t="n">
         <v>0.11</v>
       </c>
+      <c r="AJ256" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -29089,6 +29859,9 @@
       <c r="AI257" t="n">
         <v>0.12</v>
       </c>
+      <c r="AJ257" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -29199,6 +29972,9 @@
       <c r="AI258" t="n">
         <v>0.2</v>
       </c>
+      <c r="AJ258" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -29309,6 +30085,9 @@
       <c r="AI259" t="n">
         <v>0.24</v>
       </c>
+      <c r="AJ259" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -29419,6 +30198,9 @@
       <c r="AI260" t="n">
         <v>0.17</v>
       </c>
+      <c r="AJ260" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -29529,6 +30311,9 @@
       <c r="AI261" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ261" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -29639,6 +30424,9 @@
       <c r="AI262" t="n">
         <v>0.16</v>
       </c>
+      <c r="AJ262" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -29749,6 +30537,9 @@
       <c r="AI263" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AJ263" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -29862,6 +30653,9 @@
       <c r="AI264" t="n">
         <v>0.27</v>
       </c>
+      <c r="AJ264" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -29975,6 +30769,9 @@
       <c r="AI265" t="n">
         <v>0.17</v>
       </c>
+      <c r="AJ265" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -30088,6 +30885,9 @@
       <c r="AI266" t="n">
         <v>0.14</v>
       </c>
+      <c r="AJ266" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -30201,6 +31001,9 @@
       <c r="AI267" t="n">
         <v>0.22</v>
       </c>
+      <c r="AJ267" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -30314,6 +31117,9 @@
       <c r="AI268" t="n">
         <v>0.19</v>
       </c>
+      <c r="AJ268" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -30427,6 +31233,9 @@
       <c r="AI269" t="n">
         <v>0.15</v>
       </c>
+      <c r="AJ269" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -30540,6 +31349,9 @@
       <c r="AI270" t="n">
         <v>0.22</v>
       </c>
+      <c r="AJ270" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -30653,6 +31465,9 @@
       <c r="AI271" t="n">
         <v>0.23</v>
       </c>
+      <c r="AJ271" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -30766,6 +31581,9 @@
       <c r="AI272" t="n">
         <v>0.17</v>
       </c>
+      <c r="AJ272" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -30879,6 +31697,9 @@
       <c r="AI273" t="n">
         <v>0.19</v>
       </c>
+      <c r="AJ273" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -30992,6 +31813,9 @@
       <c r="AI274" t="n">
         <v>0.19</v>
       </c>
+      <c r="AJ274" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -31105,6 +31929,9 @@
       <c r="AI275" t="n">
         <v>0.17</v>
       </c>
+      <c r="AJ275" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -31218,6 +32045,9 @@
       <c r="AI276" t="n">
         <v>0.17</v>
       </c>
+      <c r="AJ276" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -31331,6 +32161,9 @@
       <c r="AI277" t="n">
         <v>0.23</v>
       </c>
+      <c r="AJ277" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -31444,6 +32277,9 @@
       <c r="AI278" t="n">
         <v>0.24</v>
       </c>
+      <c r="AJ278" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -31554,6 +32390,9 @@
       <c r="AI279" t="n">
         <v>0.2</v>
       </c>
+      <c r="AJ279" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -31664,6 +32503,9 @@
       <c r="AI280" t="n">
         <v>0.2</v>
       </c>
+      <c r="AJ280" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -31774,6 +32616,9 @@
       <c r="AI281" t="n">
         <v>0.16</v>
       </c>
+      <c r="AJ281" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -31884,6 +32729,9 @@
       <c r="AI282" t="n">
         <v>0.28</v>
       </c>
+      <c r="AJ282" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -31985,6 +32833,9 @@
       <c r="AI283" t="n">
         <v>0.08</v>
       </c>
+      <c r="AJ283" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -32086,6 +32937,9 @@
       <c r="AI284" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ284" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -32187,6 +33041,9 @@
       <c r="AI285" t="n">
         <v>0.03</v>
       </c>
+      <c r="AJ285" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -32288,6 +33145,9 @@
       <c r="AI286" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ286" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -32389,6 +33249,9 @@
       <c r="AI287" t="n">
         <v>0.06</v>
       </c>
+      <c r="AJ287" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -32490,6 +33353,9 @@
       <c r="AI288" t="n">
         <v>0.04</v>
       </c>
+      <c r="AJ288" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -32591,6 +33457,9 @@
       <c r="AI289" t="n">
         <v>0.08</v>
       </c>
+      <c r="AJ289" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -32692,6 +33561,9 @@
       <c r="AI290" t="n">
         <v>0.06</v>
       </c>
+      <c r="AJ290" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -32793,6 +33665,9 @@
       <c r="AI291" t="n">
         <v>0.03</v>
       </c>
+      <c r="AJ291" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -32894,6 +33769,9 @@
       <c r="AI292" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ292" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -32995,6 +33873,9 @@
       <c r="AI293" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ293" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -33096,6 +33977,9 @@
       <c r="AI294" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ294" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -33197,6 +34081,9 @@
       <c r="AI295" t="n">
         <v>0.02</v>
       </c>
+      <c r="AJ295" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -33298,6 +34185,9 @@
       <c r="AI296" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ296" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -33399,6 +34289,9 @@
       <c r="AI297" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AJ297" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -33500,6 +34393,9 @@
       <c r="AI298" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ298" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -33601,6 +34497,9 @@
       <c r="AI299" t="n">
         <v>0.09</v>
       </c>
+      <c r="AJ299" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -33702,6 +34601,9 @@
       <c r="AI300" t="n">
         <v>0.05</v>
       </c>
+      <c r="AJ300" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -33803,11 +34705,14 @@
       <c r="AI301" t="n">
         <v>0.13</v>
       </c>
+      <c r="AJ301" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
     </row>
@@ -33822,7 +34727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH22"/>
+  <dimension ref="A1:AI22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34001,6 +34906,11 @@
           <t>20.–26. 9. 2021</t>
         </is>
       </c>
+      <c r="AI1" s="2" t="inlineStr">
+        <is>
+          <t>11.–17. 10. 2021</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -34109,6 +35019,9 @@
       <c r="AH2" t="n">
         <v>1855</v>
       </c>
+      <c r="AI2" t="n">
+        <v>1836</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -34217,6 +35130,9 @@
       <c r="AH3" t="n">
         <v>456</v>
       </c>
+      <c r="AI3" t="n">
+        <v>454</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -34325,6 +35241,9 @@
       <c r="AH4" t="n">
         <v>678</v>
       </c>
+      <c r="AI4" t="n">
+        <v>670</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -34433,6 +35352,9 @@
       <c r="AH5" t="n">
         <v>721</v>
       </c>
+      <c r="AI5" t="n">
+        <v>712</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -34541,6 +35463,9 @@
       <c r="AH6" t="n">
         <v>539</v>
       </c>
+      <c r="AI6" t="n">
+        <v>522</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -34649,6 +35574,9 @@
       <c r="AH7" t="n">
         <v>801</v>
       </c>
+      <c r="AI7" t="n">
+        <v>819</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -34757,6 +35685,9 @@
       <c r="AH8" t="n">
         <v>515</v>
       </c>
+      <c r="AI8" t="n">
+        <v>495</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -34865,6 +35796,9 @@
       <c r="AH9" t="n">
         <v>317</v>
       </c>
+      <c r="AI9" t="n">
+        <v>296</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -34973,6 +35907,9 @@
       <c r="AH10" t="n">
         <v>325</v>
       </c>
+      <c r="AI10" t="n">
+        <v>316</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -35081,6 +36018,9 @@
       <c r="AH11" t="n">
         <v>1213</v>
       </c>
+      <c r="AI11" t="n">
+        <v>1224</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -35189,6 +36129,9 @@
       <c r="AH12" t="n">
         <v>897</v>
       </c>
+      <c r="AI12" t="n">
+        <v>895</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -35297,6 +36240,9 @@
       <c r="AH13" t="n">
         <v>958</v>
       </c>
+      <c r="AI13" t="n">
+        <v>941</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -35405,6 +36351,9 @@
       <c r="AH14" t="n">
         <v>965</v>
       </c>
+      <c r="AI14" t="n">
+        <v>960</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -35513,6 +36462,9 @@
       <c r="AH15" t="n">
         <v>429</v>
       </c>
+      <c r="AI15" t="n">
+        <v>418</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -35621,6 +36573,9 @@
       <c r="AH16" t="n">
         <v>216</v>
       </c>
+      <c r="AI16" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -35729,6 +36684,9 @@
       <c r="AH17" t="n">
         <v>245</v>
       </c>
+      <c r="AI17" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -35835,6 +36793,9 @@
       <c r="AH18" t="n">
         <v>833</v>
       </c>
+      <c r="AI18" t="n">
+        <v>809</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -35941,6 +36902,9 @@
       <c r="AH19" t="n">
         <v>65</v>
       </c>
+      <c r="AI19" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -36047,6 +37011,9 @@
       <c r="AH20" t="n">
         <v>72</v>
       </c>
+      <c r="AI20" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -36153,11 +37120,14 @@
       <c r="AH21" t="n">
         <v>73</v>
       </c>
+      <c r="AI21" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 10. 2021</t>
+          <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 20. 10. 2021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -36193,6 +37163,7 @@
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_04_socialni_aktivity.xlsx
+++ b/ZBP_04_socialni_aktivity.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM392"/>
+  <dimension ref="A1:AN392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,6 +655,11 @@
           <t>20.–26. 12. 2021</t>
         </is>
       </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>17.–23. 1. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -780,6 +785,9 @@
       <c r="AM2" t="n">
         <v>0.79</v>
       </c>
+      <c r="AN2" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -905,6 +913,9 @@
       <c r="AM3" t="n">
         <v>0.33</v>
       </c>
+      <c r="AN3" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1030,6 +1041,9 @@
       <c r="AM4" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN4" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1155,6 +1169,9 @@
       <c r="AM5" t="n">
         <v>0.18</v>
       </c>
+      <c r="AN5" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1280,6 +1297,9 @@
       <c r="AM6" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN6" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1405,6 +1425,9 @@
       <c r="AM7" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN7" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1530,6 +1553,9 @@
       <c r="AM8" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN8" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1643,6 +1669,9 @@
       <c r="AM9" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN9" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1768,6 +1797,9 @@
       <c r="AM10" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN10" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1893,6 +1925,9 @@
       <c r="AM11" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN11" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2018,6 +2053,9 @@
       <c r="AM12" t="n">
         <v>0.73</v>
       </c>
+      <c r="AN12" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2140,6 +2178,9 @@
       <c r="AM13" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN13" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2262,6 +2303,9 @@
       <c r="AM14" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN14" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2387,6 +2431,9 @@
       <c r="AM15" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN15" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2500,6 +2547,9 @@
       <c r="AM16" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN16" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2625,6 +2675,9 @@
       <c r="AM17" t="n">
         <v>0.73</v>
       </c>
+      <c r="AN17" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2690,6 +2743,9 @@
       <c r="AM18" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AN18" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2815,6 +2871,9 @@
       <c r="AM19" t="n">
         <v>0.75</v>
       </c>
+      <c r="AN19" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2880,6 +2939,9 @@
       <c r="AM20" t="n">
         <v>0.82</v>
       </c>
+      <c r="AN20" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3005,6 +3067,9 @@
       <c r="AM21" t="n">
         <v>0.7</v>
       </c>
+      <c r="AN21" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3070,6 +3135,9 @@
       <c r="AM22" t="n">
         <v>0.8</v>
       </c>
+      <c r="AN22" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3195,6 +3263,9 @@
       <c r="AM23" t="n">
         <v>0.75</v>
       </c>
+      <c r="AN23" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3320,6 +3391,9 @@
       <c r="AM24" t="n">
         <v>0.84</v>
       </c>
+      <c r="AN24" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3445,6 +3519,9 @@
       <c r="AM25" t="n">
         <v>0.77</v>
       </c>
+      <c r="AN25" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3570,6 +3647,9 @@
       <c r="AM26" t="n">
         <v>0.85</v>
       </c>
+      <c r="AN26" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3695,6 +3775,9 @@
       <c r="AM27" t="n">
         <v>0.77</v>
       </c>
+      <c r="AN27" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3820,6 +3903,9 @@
       <c r="AM28" t="n">
         <v>0.78</v>
       </c>
+      <c r="AN28" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3945,6 +4031,9 @@
       <c r="AM29" t="n">
         <v>0.79</v>
       </c>
+      <c r="AN29" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4070,6 +4159,9 @@
       <c r="AM30" t="n">
         <v>0.8</v>
       </c>
+      <c r="AN30" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4195,6 +4287,9 @@
       <c r="AM31" t="n">
         <v>0.78</v>
       </c>
+      <c r="AN31" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4320,6 +4415,9 @@
       <c r="AM32" t="n">
         <v>0.79</v>
       </c>
+      <c r="AN32" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4445,6 +4543,9 @@
       <c r="AM33" t="n">
         <v>0.79</v>
       </c>
+      <c r="AN33" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4570,6 +4671,9 @@
       <c r="AM34" t="n">
         <v>0.77</v>
       </c>
+      <c r="AN34" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4695,6 +4799,9 @@
       <c r="AM35" t="n">
         <v>0.84</v>
       </c>
+      <c r="AN35" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4820,6 +4927,9 @@
       <c r="AM36" t="n">
         <v>0.76</v>
       </c>
+      <c r="AN36" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4945,6 +5055,9 @@
       <c r="AM37" t="n">
         <v>0.79</v>
       </c>
+      <c r="AN37" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5067,6 +5180,9 @@
       <c r="AM38" t="n">
         <v>0.86</v>
       </c>
+      <c r="AN38" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5189,6 +5305,9 @@
       <c r="AM39" t="n">
         <v>0.84</v>
       </c>
+      <c r="AN39" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5311,6 +5430,9 @@
       <c r="AM40" t="n">
         <v>0.86</v>
       </c>
+      <c r="AN40" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5433,6 +5555,9 @@
       <c r="AM41" t="n">
         <v>0.68</v>
       </c>
+      <c r="AN41" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5558,6 +5683,9 @@
       <c r="AM42" t="n">
         <v>0.31</v>
       </c>
+      <c r="AN42" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5623,6 +5751,9 @@
       <c r="AM43" t="n">
         <v>0.33</v>
       </c>
+      <c r="AN43" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5748,6 +5879,9 @@
       <c r="AM44" t="n">
         <v>0.35</v>
       </c>
+      <c r="AN44" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5813,6 +5947,9 @@
       <c r="AM45" t="n">
         <v>0.35</v>
       </c>
+      <c r="AN45" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5938,6 +6075,9 @@
       <c r="AM46" t="n">
         <v>0.2</v>
       </c>
+      <c r="AN46" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6003,6 +6143,9 @@
       <c r="AM47" t="n">
         <v>0.3</v>
       </c>
+      <c r="AN47" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6128,6 +6271,9 @@
       <c r="AM48" t="n">
         <v>0.38</v>
       </c>
+      <c r="AN48" t="n">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6253,6 +6399,9 @@
       <c r="AM49" t="n">
         <v>0.32</v>
       </c>
+      <c r="AN49" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6378,6 +6527,9 @@
       <c r="AM50" t="n">
         <v>0.29</v>
       </c>
+      <c r="AN50" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6503,6 +6655,9 @@
       <c r="AM51" t="n">
         <v>0.37</v>
       </c>
+      <c r="AN51" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6628,6 +6783,9 @@
       <c r="AM52" t="n">
         <v>0.31</v>
       </c>
+      <c r="AN52" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6753,6 +6911,9 @@
       <c r="AM53" t="n">
         <v>0.32</v>
       </c>
+      <c r="AN53" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6878,6 +7039,9 @@
       <c r="AM54" t="n">
         <v>0.36</v>
       </c>
+      <c r="AN54" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -7003,6 +7167,9 @@
       <c r="AM55" t="n">
         <v>0.27</v>
       </c>
+      <c r="AN55" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -7128,6 +7295,9 @@
       <c r="AM56" t="n">
         <v>0.33</v>
       </c>
+      <c r="AN56" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7253,6 +7423,9 @@
       <c r="AM57" t="n">
         <v>0.32</v>
       </c>
+      <c r="AN57" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7378,6 +7551,9 @@
       <c r="AM58" t="n">
         <v>0.33</v>
       </c>
+      <c r="AN58" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7503,6 +7679,9 @@
       <c r="AM59" t="n">
         <v>0.2</v>
       </c>
+      <c r="AN59" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7628,6 +7807,9 @@
       <c r="AM60" t="n">
         <v>0.33</v>
       </c>
+      <c r="AN60" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7753,6 +7935,9 @@
       <c r="AM61" t="n">
         <v>0.51</v>
       </c>
+      <c r="AN61" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7878,6 +8063,9 @@
       <c r="AM62" t="n">
         <v>0.63</v>
       </c>
+      <c r="AN62" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8000,6 +8188,9 @@
       <c r="AM63" t="n">
         <v>0.35</v>
       </c>
+      <c r="AN63" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -8122,6 +8313,9 @@
       <c r="AM64" t="n">
         <v>0.43</v>
       </c>
+      <c r="AN64" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8244,6 +8438,9 @@
       <c r="AM65" t="n">
         <v>0.47</v>
       </c>
+      <c r="AN65" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8366,6 +8563,9 @@
       <c r="AM66" t="n">
         <v>0.31</v>
       </c>
+      <c r="AN66" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8491,6 +8691,9 @@
       <c r="AM67" t="n">
         <v>0.18</v>
       </c>
+      <c r="AN67" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8556,6 +8759,9 @@
       <c r="AM68" t="n">
         <v>0.23</v>
       </c>
+      <c r="AN68" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8681,6 +8887,9 @@
       <c r="AM69" t="n">
         <v>0.2</v>
       </c>
+      <c r="AN69" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8746,6 +8955,9 @@
       <c r="AM70" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN70" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8871,6 +9083,9 @@
       <c r="AM71" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN71" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8936,6 +9151,9 @@
       <c r="AM72" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN72" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9061,6 +9279,9 @@
       <c r="AM73" t="n">
         <v>0.18</v>
       </c>
+      <c r="AN73" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9186,6 +9407,9 @@
       <c r="AM74" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN74" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9311,6 +9535,9 @@
       <c r="AM75" t="n">
         <v>0.23</v>
       </c>
+      <c r="AN75" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9436,6 +9663,9 @@
       <c r="AM76" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN76" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9561,6 +9791,9 @@
       <c r="AM77" t="n">
         <v>0.2</v>
       </c>
+      <c r="AN77" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9686,6 +9919,9 @@
       <c r="AM78" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN78" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9811,6 +10047,9 @@
       <c r="AM79" t="n">
         <v>0.26</v>
       </c>
+      <c r="AN79" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9936,6 +10175,9 @@
       <c r="AM80" t="n">
         <v>0.23</v>
       </c>
+      <c r="AN80" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10061,6 +10303,9 @@
       <c r="AM81" t="n">
         <v>0.19</v>
       </c>
+      <c r="AN81" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10186,6 +10431,9 @@
       <c r="AM82" t="n">
         <v>0.2</v>
       </c>
+      <c r="AN82" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10311,6 +10559,9 @@
       <c r="AM83" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN83" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10436,6 +10687,9 @@
       <c r="AM84" t="n">
         <v>0.23</v>
       </c>
+      <c r="AN84" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10561,6 +10815,9 @@
       <c r="AM85" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN85" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10686,6 +10943,9 @@
       <c r="AM86" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN86" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10811,6 +11071,9 @@
       <c r="AM87" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN87" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10933,6 +11196,9 @@
       <c r="AM88" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN88" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -11055,6 +11321,9 @@
       <c r="AM89" t="n">
         <v>0.29</v>
       </c>
+      <c r="AN89" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -11177,6 +11446,9 @@
       <c r="AM90" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN90" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11299,6 +11571,9 @@
       <c r="AM91" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN91" t="n">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11424,6 +11699,9 @@
       <c r="AM92" t="n">
         <v>0.16</v>
       </c>
+      <c r="AN92" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11489,6 +11767,9 @@
       <c r="AM93" t="n">
         <v>0.18</v>
       </c>
+      <c r="AN93" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11614,6 +11895,9 @@
       <c r="AM94" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN94" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11679,6 +11963,9 @@
       <c r="AM95" t="n">
         <v>0.2</v>
       </c>
+      <c r="AN95" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11804,6 +12091,9 @@
       <c r="AM96" t="n">
         <v>0.14</v>
       </c>
+      <c r="AN96" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11869,6 +12159,9 @@
       <c r="AM97" t="n">
         <v>0.16</v>
       </c>
+      <c r="AN97" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11994,6 +12287,9 @@
       <c r="AM98" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN98" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -12119,6 +12415,9 @@
       <c r="AM99" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN99" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -12244,6 +12543,9 @@
       <c r="AM100" t="n">
         <v>0.16</v>
       </c>
+      <c r="AN100" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -12369,6 +12671,9 @@
       <c r="AM101" t="n">
         <v>0.19</v>
       </c>
+      <c r="AN101" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12494,6 +12799,9 @@
       <c r="AM102" t="n">
         <v>0.16</v>
       </c>
+      <c r="AN102" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12619,6 +12927,9 @@
       <c r="AM103" t="n">
         <v>0.19</v>
       </c>
+      <c r="AN103" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12744,6 +13055,9 @@
       <c r="AM104" t="n">
         <v>0.26</v>
       </c>
+      <c r="AN104" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12869,6 +13183,9 @@
       <c r="AM105" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN105" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -12994,6 +13311,9 @@
       <c r="AM106" t="n">
         <v>0.14</v>
       </c>
+      <c r="AN106" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -13119,6 +13439,9 @@
       <c r="AM107" t="n">
         <v>0.19</v>
       </c>
+      <c r="AN107" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -13244,6 +13567,9 @@
       <c r="AM108" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN108" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -13369,6 +13695,9 @@
       <c r="AM109" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN109" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -13494,6 +13823,9 @@
       <c r="AM110" t="n">
         <v>0.16</v>
       </c>
+      <c r="AN110" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -13619,6 +13951,9 @@
       <c r="AM111" t="n">
         <v>0.17</v>
       </c>
+      <c r="AN111" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13744,6 +14079,9 @@
       <c r="AM112" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN112" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -13866,6 +14204,9 @@
       <c r="AM113" t="n">
         <v>0.18</v>
       </c>
+      <c r="AN113" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -13988,6 +14329,9 @@
       <c r="AM114" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN114" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -14110,6 +14454,9 @@
       <c r="AM115" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN115" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -14232,6 +14579,9 @@
       <c r="AM116" t="n">
         <v>0.16</v>
       </c>
+      <c r="AN116" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -14357,6 +14707,9 @@
       <c r="AM117" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN117" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -14422,6 +14775,9 @@
       <c r="AM118" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN118" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -14547,6 +14903,9 @@
       <c r="AM119" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN119" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -14612,6 +14971,9 @@
       <c r="AM120" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN120" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -14737,6 +15099,9 @@
       <c r="AM121" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN121" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -14802,6 +15167,9 @@
       <c r="AM122" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN122" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -14927,6 +15295,9 @@
       <c r="AM123" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN123" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -15052,6 +15423,9 @@
       <c r="AM124" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN124" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -15177,6 +15551,9 @@
       <c r="AM125" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN125" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -15302,6 +15679,9 @@
       <c r="AM126" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN126" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -15427,6 +15807,9 @@
       <c r="AM127" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN127" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -15552,6 +15935,9 @@
       <c r="AM128" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN128" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -15677,6 +16063,9 @@
       <c r="AM129" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN129" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -15802,6 +16191,9 @@
       <c r="AM130" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN130" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -15927,6 +16319,9 @@
       <c r="AM131" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN131" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -16052,6 +16447,9 @@
       <c r="AM132" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN132" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -16177,6 +16575,9 @@
       <c r="AM133" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN133" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -16302,6 +16703,9 @@
       <c r="AM134" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN134" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -16427,6 +16831,9 @@
       <c r="AM135" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN135" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -16552,6 +16959,9 @@
       <c r="AM136" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN136" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -16677,6 +17087,9 @@
       <c r="AM137" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN137" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -16799,6 +17212,9 @@
       <c r="AM138" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN138" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -16921,6 +17337,9 @@
       <c r="AM139" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN139" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -17043,6 +17462,9 @@
       <c r="AM140" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN140" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -17165,6 +17587,9 @@
       <c r="AM141" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN141" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -17290,6 +17715,9 @@
       <c r="AM142" t="n">
         <v>0.18</v>
       </c>
+      <c r="AN142" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -17355,6 +17783,9 @@
       <c r="AM143" t="n">
         <v>0.27</v>
       </c>
+      <c r="AN143" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -17480,6 +17911,9 @@
       <c r="AM144" t="n">
         <v>0.2</v>
       </c>
+      <c r="AN144" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -17545,6 +17979,9 @@
       <c r="AM145" t="n">
         <v>0.33</v>
       </c>
+      <c r="AN145" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -17670,6 +18107,9 @@
       <c r="AM146" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN146" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -17735,6 +18175,9 @@
       <c r="AM147" t="n">
         <v>0.2</v>
       </c>
+      <c r="AN147" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -17860,6 +18303,9 @@
       <c r="AM148" t="n">
         <v>0.36</v>
       </c>
+      <c r="AN148" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -17985,6 +18431,9 @@
       <c r="AM149" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN149" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -18110,6 +18559,9 @@
       <c r="AM150" t="n">
         <v>0.19</v>
       </c>
+      <c r="AN150" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -18235,6 +18687,9 @@
       <c r="AM151" t="n">
         <v>0.35</v>
       </c>
+      <c r="AN151" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -18360,6 +18815,9 @@
       <c r="AM152" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN152" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -18485,6 +18943,9 @@
       <c r="AM153" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN153" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -18610,6 +19071,9 @@
       <c r="AM154" t="n">
         <v>0.32</v>
       </c>
+      <c r="AN154" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -18735,6 +19199,9 @@
       <c r="AM155" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN155" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -18860,6 +19327,9 @@
       <c r="AM156" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN156" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -18985,6 +19455,9 @@
       <c r="AM157" t="n">
         <v>0.32</v>
       </c>
+      <c r="AN157" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -19110,6 +19583,9 @@
       <c r="AM158" t="n">
         <v>0.19</v>
       </c>
+      <c r="AN158" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -19235,6 +19711,9 @@
       <c r="AM159" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN159" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -19360,6 +19839,9 @@
       <c r="AM160" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN160" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -19485,6 +19967,9 @@
       <c r="AM161" t="n">
         <v>0.31</v>
       </c>
+      <c r="AN161" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -19610,6 +20095,9 @@
       <c r="AM162" t="n">
         <v>0.38</v>
       </c>
+      <c r="AN162" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -19732,6 +20220,9 @@
       <c r="AM163" t="n">
         <v>0.3</v>
       </c>
+      <c r="AN163" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -19854,6 +20345,9 @@
       <c r="AM164" t="n">
         <v>0.35</v>
       </c>
+      <c r="AN164" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -19976,6 +20470,9 @@
       <c r="AM165" t="n">
         <v>0.43</v>
       </c>
+      <c r="AN165" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -20098,6 +20595,9 @@
       <c r="AM166" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN166" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -20223,6 +20723,9 @@
       <c r="AM167" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN167" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -20288,6 +20791,9 @@
       <c r="AM168" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN168" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -20413,6 +20919,9 @@
       <c r="AM169" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN169" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -20478,6 +20987,9 @@
       <c r="AM170" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN170" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -20603,6 +21115,9 @@
       <c r="AM171" t="n">
         <v>0.01</v>
       </c>
+      <c r="AN171" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -20668,6 +21183,9 @@
       <c r="AM172" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN172" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -20793,6 +21311,9 @@
       <c r="AM173" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN173" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -20918,6 +21439,9 @@
       <c r="AM174" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN174" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -21043,6 +21567,9 @@
       <c r="AM175" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN175" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -21168,6 +21695,9 @@
       <c r="AM176" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN176" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -21293,6 +21823,9 @@
       <c r="AM177" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN177" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -21418,6 +21951,9 @@
       <c r="AM178" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN178" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -21543,6 +22079,9 @@
       <c r="AM179" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN179" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -21668,6 +22207,9 @@
       <c r="AM180" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN180" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -21793,6 +22335,9 @@
       <c r="AM181" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN181" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -21918,6 +22463,9 @@
       <c r="AM182" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN182" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -22043,6 +22591,9 @@
       <c r="AM183" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN183" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -22168,6 +22719,9 @@
       <c r="AM184" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN184" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -22293,6 +22847,9 @@
       <c r="AM185" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN185" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -22418,6 +22975,9 @@
       <c r="AM186" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN186" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -22543,6 +23103,9 @@
       <c r="AM187" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN187" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -22665,6 +23228,9 @@
       <c r="AM188" t="n">
         <v>0.12</v>
       </c>
+      <c r="AN188" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -22787,6 +23353,9 @@
       <c r="AM189" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN189" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -22909,6 +23478,9 @@
       <c r="AM190" t="n">
         <v>0.14</v>
       </c>
+      <c r="AN190" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -23031,6 +23603,9 @@
       <c r="AM191" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN191" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -23144,6 +23719,9 @@
       <c r="AM192" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN192" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -23209,6 +23787,9 @@
       <c r="AM193" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN193" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -23322,6 +23903,9 @@
       <c r="AM194" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN194" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -23387,6 +23971,9 @@
       <c r="AM195" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN195" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -23500,6 +24087,9 @@
       <c r="AM196" t="n">
         <v>0.12</v>
       </c>
+      <c r="AN196" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -23565,6 +24155,9 @@
       <c r="AM197" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN197" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -23678,6 +24271,9 @@
       <c r="AM198" t="n">
         <v>0.14</v>
       </c>
+      <c r="AN198" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -23791,6 +24387,9 @@
       <c r="AM199" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN199" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -23904,6 +24503,9 @@
       <c r="AM200" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN200" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -24017,6 +24619,9 @@
       <c r="AM201" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN201" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -24130,6 +24735,9 @@
       <c r="AM202" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN202" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -24243,6 +24851,9 @@
       <c r="AM203" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN203" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -24356,6 +24967,9 @@
       <c r="AM204" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN204" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -24469,6 +25083,9 @@
       <c r="AM205" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN205" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -24582,6 +25199,9 @@
       <c r="AM206" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN206" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -24695,6 +25315,9 @@
       <c r="AM207" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN207" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -24808,6 +25431,9 @@
       <c r="AM208" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN208" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -24921,6 +25547,9 @@
       <c r="AM209" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN209" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -25034,6 +25663,9 @@
       <c r="AM210" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN210" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -25147,6 +25779,9 @@
       <c r="AM211" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN211" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -25260,6 +25895,9 @@
       <c r="AM212" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN212" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -25373,6 +26011,9 @@
       <c r="AM213" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN213" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -25486,6 +26127,9 @@
       <c r="AM214" t="n">
         <v>0.12</v>
       </c>
+      <c r="AN214" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -25599,6 +26243,9 @@
       <c r="AM215" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN215" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -25712,6 +26359,9 @@
       <c r="AM216" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -25837,6 +26487,9 @@
       <c r="AM217" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN217" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -25929,6 +26582,9 @@
       <c r="AM218" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN218" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -26054,6 +26710,9 @@
       <c r="AM219" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN219" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -26146,6 +26805,9 @@
       <c r="AM220" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN220" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -26271,6 +26933,9 @@
       <c r="AM221" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN221" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -26363,6 +27028,9 @@
       <c r="AM222" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN222" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -26488,6 +27156,9 @@
       <c r="AM223" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN223" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -26613,6 +27284,9 @@
       <c r="AM224" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN224" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -26738,6 +27412,9 @@
       <c r="AM225" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN225" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -26863,6 +27540,9 @@
       <c r="AM226" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN226" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -26988,6 +27668,9 @@
       <c r="AM227" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN227" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -27113,6 +27796,9 @@
       <c r="AM228" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN228" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -27238,6 +27924,9 @@
       <c r="AM229" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN229" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -27363,6 +28052,9 @@
       <c r="AM230" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN230" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -27488,6 +28180,9 @@
       <c r="AM231" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN231" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -27613,6 +28308,9 @@
       <c r="AM232" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN232" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -27738,6 +28436,9 @@
       <c r="AM233" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN233" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -27863,6 +28564,9 @@
       <c r="AM234" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN234" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -27988,6 +28692,9 @@
       <c r="AM235" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN235" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -28113,6 +28820,9 @@
       <c r="AM236" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN236" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -28238,6 +28948,9 @@
       <c r="AM237" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN237" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -28360,6 +29073,9 @@
       <c r="AM238" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN238" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -28482,6 +29198,9 @@
       <c r="AM239" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN239" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -28604,6 +29323,9 @@
       <c r="AM240" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN240" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -28726,6 +29448,9 @@
       <c r="AM241" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN241" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -28851,6 +29576,9 @@
       <c r="AM242" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN242" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -28952,6 +29680,9 @@
       <c r="AM243" t="n">
         <v>0.015</v>
       </c>
+      <c r="AN243" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -29077,6 +29808,9 @@
       <c r="AM244" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN244" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -29178,6 +29912,9 @@
       <c r="AM245" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN245" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -29303,6 +30040,9 @@
       <c r="AM246" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN246" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -29404,6 +30144,9 @@
       <c r="AM247" t="n">
         <v>0.01</v>
       </c>
+      <c r="AN247" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -29529,6 +30272,9 @@
       <c r="AM248" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN248" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -29654,6 +30400,9 @@
       <c r="AM249" t="n">
         <v>0.015</v>
       </c>
+      <c r="AN249" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -29779,6 +30528,9 @@
       <c r="AM250" t="n">
         <v>0.01</v>
       </c>
+      <c r="AN250" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -29904,6 +30656,9 @@
       <c r="AM251" t="n">
         <v>0.015</v>
       </c>
+      <c r="AN251" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -30029,6 +30784,9 @@
       <c r="AM252" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN252" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -30154,6 +30912,9 @@
       <c r="AM253" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN253" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -30279,6 +31040,9 @@
       <c r="AM254" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN254" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -30404,6 +31168,9 @@
       <c r="AM255" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN255" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -30529,6 +31296,9 @@
       <c r="AM256" t="n">
         <v>0.01</v>
       </c>
+      <c r="AN256" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -30654,6 +31424,9 @@
       <c r="AM257" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN257" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -30779,6 +31552,9 @@
       <c r="AM258" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN258" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -30904,6 +31680,9 @@
       <c r="AM259" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN259" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -31029,6 +31808,9 @@
       <c r="AM260" t="n">
         <v>0.015</v>
       </c>
+      <c r="AN260" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -31154,6 +31936,9 @@
       <c r="AM261" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN261" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -31279,6 +32064,9 @@
       <c r="AM262" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN262" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -31401,6 +32189,9 @@
       <c r="AM263" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN263" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -31523,6 +32314,9 @@
       <c r="AM264" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN264" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -31645,6 +32439,9 @@
       <c r="AM265" t="n">
         <v>0.005</v>
       </c>
+      <c r="AN265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -31767,6 +32564,9 @@
       <c r="AM266" t="n">
         <v>0.01</v>
       </c>
+      <c r="AN266" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -31892,6 +32692,9 @@
       <c r="AM267" t="n">
         <v>0.68</v>
       </c>
+      <c r="AN267" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -31957,6 +32760,9 @@
       <c r="AM268" t="n">
         <v>0.74</v>
       </c>
+      <c r="AN268" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -32082,6 +32888,9 @@
       <c r="AM269" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AN269" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -32147,6 +32956,9 @@
       <c r="AM270" t="n">
         <v>0.76</v>
       </c>
+      <c r="AN270" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -32272,6 +33084,9 @@
       <c r="AM271" t="n">
         <v>0.65</v>
       </c>
+      <c r="AN271" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -32337,6 +33152,9 @@
       <c r="AM272" t="n">
         <v>0.71</v>
       </c>
+      <c r="AN272" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -32462,6 +33280,9 @@
       <c r="AM273" t="n">
         <v>0.78</v>
       </c>
+      <c r="AN273" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -32587,6 +33408,9 @@
       <c r="AM274" t="n">
         <v>0.72</v>
       </c>
+      <c r="AN274" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -32712,6 +33536,9 @@
       <c r="AM275" t="n">
         <v>0.7</v>
       </c>
+      <c r="AN275" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -32837,6 +33664,9 @@
       <c r="AM276" t="n">
         <v>0.77</v>
       </c>
+      <c r="AN276" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -32962,6 +33792,9 @@
       <c r="AM277" t="n">
         <v>0.7</v>
       </c>
+      <c r="AN277" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -33087,6 +33920,9 @@
       <c r="AM278" t="n">
         <v>0.73</v>
       </c>
+      <c r="AN278" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -33212,6 +34048,9 @@
       <c r="AM279" t="n">
         <v>0.77</v>
       </c>
+      <c r="AN279" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -33337,6 +34176,9 @@
       <c r="AM280" t="n">
         <v>0.72</v>
       </c>
+      <c r="AN280" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -33462,6 +34304,9 @@
       <c r="AM281" t="n">
         <v>0.6899999999999999</v>
       </c>
+      <c r="AN281" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -33587,6 +34432,9 @@
       <c r="AM282" t="n">
         <v>0.71</v>
       </c>
+      <c r="AN282" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -33712,6 +34560,9 @@
       <c r="AM283" t="n">
         <v>0.74</v>
       </c>
+      <c r="AN283" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -33837,6 +34688,9 @@
       <c r="AM284" t="n">
         <v>0.7</v>
       </c>
+      <c r="AN284" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -33962,6 +34816,9 @@
       <c r="AM285" t="n">
         <v>0.75</v>
       </c>
+      <c r="AN285" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -34087,6 +34944,9 @@
       <c r="AM286" t="n">
         <v>0.76</v>
       </c>
+      <c r="AN286" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -34212,6 +35072,9 @@
       <c r="AM287" t="n">
         <v>0.74</v>
       </c>
+      <c r="AN287" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -34334,6 +35197,9 @@
       <c r="AM288" t="n">
         <v>0.76</v>
       </c>
+      <c r="AN288" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -34456,6 +35322,9 @@
       <c r="AM289" t="n">
         <v>0.75</v>
       </c>
+      <c r="AN289" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -34578,6 +35447,9 @@
       <c r="AM290" t="n">
         <v>0.82</v>
       </c>
+      <c r="AN290" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -34700,6 +35572,9 @@
       <c r="AM291" t="n">
         <v>0.61</v>
       </c>
+      <c r="AN291" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -34822,6 +35697,9 @@
       <c r="AM292" t="n">
         <v>0.26</v>
       </c>
+      <c r="AN292" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -34887,6 +35765,9 @@
       <c r="AM293" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN293" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -35009,6 +35890,9 @@
       <c r="AM294" t="n">
         <v>0.28</v>
       </c>
+      <c r="AN294" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -35074,6 +35958,9 @@
       <c r="AM295" t="n">
         <v>0.28</v>
       </c>
+      <c r="AN295" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -35196,6 +36083,9 @@
       <c r="AM296" t="n">
         <v>0.19</v>
       </c>
+      <c r="AN296" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -35261,6 +36151,9 @@
       <c r="AM297" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN297" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -35383,6 +36276,9 @@
       <c r="AM298" t="n">
         <v>0.33</v>
       </c>
+      <c r="AN298" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -35505,6 +36401,9 @@
       <c r="AM299" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN299" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -35627,6 +36526,9 @@
       <c r="AM300" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN300" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -35749,6 +36651,9 @@
       <c r="AM301" t="n">
         <v>0.3</v>
       </c>
+      <c r="AN301" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -35871,6 +36776,9 @@
       <c r="AM302" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN302" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -35993,6 +36901,9 @@
       <c r="AM303" t="n">
         <v>0.26</v>
       </c>
+      <c r="AN303" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -36115,6 +37026,9 @@
       <c r="AM304" t="n">
         <v>0.33</v>
       </c>
+      <c r="AN304" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -36237,6 +37151,9 @@
       <c r="AM305" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN305" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -36359,6 +37276,9 @@
       <c r="AM306" t="n">
         <v>0.21</v>
       </c>
+      <c r="AN306" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -36481,6 +37401,9 @@
       <c r="AM307" t="n">
         <v>0.26</v>
       </c>
+      <c r="AN307" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -36603,6 +37526,9 @@
       <c r="AM308" t="n">
         <v>0.24</v>
       </c>
+      <c r="AN308" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -36725,6 +37651,9 @@
       <c r="AM309" t="n">
         <v>0.23</v>
       </c>
+      <c r="AN309" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -36847,6 +37776,9 @@
       <c r="AM310" t="n">
         <v>0.25</v>
       </c>
+      <c r="AN310" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -36969,6 +37901,9 @@
       <c r="AM311" t="n">
         <v>0.31</v>
       </c>
+      <c r="AN311" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -37091,6 +38026,9 @@
       <c r="AM312" t="n">
         <v>0.27</v>
       </c>
+      <c r="AN312" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -37213,6 +38151,9 @@
       <c r="AM313" t="n">
         <v>0.31</v>
       </c>
+      <c r="AN313" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -37335,6 +38276,9 @@
       <c r="AM314" t="n">
         <v>0.33</v>
       </c>
+      <c r="AN314" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -37457,6 +38401,9 @@
       <c r="AM315" t="n">
         <v>0.23</v>
       </c>
+      <c r="AN315" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -37579,6 +38526,9 @@
       <c r="AM316" t="n">
         <v>0.22</v>
       </c>
+      <c r="AN316" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -37701,6 +38651,9 @@
       <c r="AM317" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN317" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -37766,6 +38719,9 @@
       <c r="AM318" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN318" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -37888,6 +38844,9 @@
       <c r="AM319" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN319" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -37953,6 +38912,9 @@
       <c r="AM320" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN320" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -38075,6 +39037,9 @@
       <c r="AM321" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN321" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -38140,6 +39105,9 @@
       <c r="AM322" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN322" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -38262,6 +39230,9 @@
       <c r="AM323" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN323" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -38384,6 +39355,9 @@
       <c r="AM324" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN324" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -38506,6 +39480,9 @@
       <c r="AM325" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN325" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -38628,6 +39605,9 @@
       <c r="AM326" t="n">
         <v>0.12</v>
       </c>
+      <c r="AN326" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -38750,6 +39730,9 @@
       <c r="AM327" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN327" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -38872,6 +39855,9 @@
       <c r="AM328" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN328" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -38994,6 +39980,9 @@
       <c r="AM329" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN329" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -39116,6 +40105,9 @@
       <c r="AM330" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN330" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -39238,6 +40230,9 @@
       <c r="AM331" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN331" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -39360,6 +40355,9 @@
       <c r="AM332" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN332" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -39482,6 +40480,9 @@
       <c r="AM333" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN333" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -39604,6 +40605,9 @@
       <c r="AM334" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN334" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -39726,6 +40730,9 @@
       <c r="AM335" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN335" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -39848,6 +40855,9 @@
       <c r="AM336" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN336" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -39970,6 +40980,9 @@
       <c r="AM337" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN337" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -40092,6 +41105,9 @@
       <c r="AM338" t="n">
         <v>0.12</v>
       </c>
+      <c r="AN338" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -40214,6 +41230,9 @@
       <c r="AM339" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN339" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -40336,6 +41355,9 @@
       <c r="AM340" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN340" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -40458,6 +41480,9 @@
       <c r="AM341" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN341" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -40583,6 +41608,9 @@
       <c r="AM342" t="n">
         <v>0.1</v>
       </c>
+      <c r="AN342" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -40648,6 +41676,9 @@
       <c r="AM343" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN343" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -40773,6 +41804,9 @@
       <c r="AM344" t="n">
         <v>0.12</v>
       </c>
+      <c r="AN344" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -40838,6 +41872,9 @@
       <c r="AM345" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN345" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -40963,6 +42000,9 @@
       <c r="AM346" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN346" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -41028,6 +42068,9 @@
       <c r="AM347" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN347" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -41153,6 +42196,9 @@
       <c r="AM348" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN348" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -41278,6 +42324,9 @@
       <c r="AM349" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN349" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -41403,6 +42452,9 @@
       <c r="AM350" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN350" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -41528,6 +42580,9 @@
       <c r="AM351" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN351" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -41653,6 +42708,9 @@
       <c r="AM352" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN352" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -41778,6 +42836,9 @@
       <c r="AM353" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN353" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -41903,6 +42964,9 @@
       <c r="AM354" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN354" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -42028,6 +43092,9 @@
       <c r="AM355" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN355" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -42153,6 +43220,9 @@
       <c r="AM356" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN356" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -42278,6 +43348,9 @@
       <c r="AM357" t="n">
         <v>0.09</v>
       </c>
+      <c r="AN357" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -42403,6 +43476,9 @@
       <c r="AM358" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN358" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -42528,6 +43604,9 @@
       <c r="AM359" t="n">
         <v>0.08</v>
       </c>
+      <c r="AN359" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -42653,6 +43732,9 @@
       <c r="AM360" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN360" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -42778,6 +43860,9 @@
       <c r="AM361" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN361" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -42903,6 +43988,9 @@
       <c r="AM362" t="n">
         <v>0.13</v>
       </c>
+      <c r="AN362" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -43025,6 +44113,9 @@
       <c r="AM363" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN363" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -43147,6 +44238,9 @@
       <c r="AM364" t="n">
         <v>0.15</v>
       </c>
+      <c r="AN364" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -43269,6 +44363,9 @@
       <c r="AM365" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN365" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -43391,6 +44488,9 @@
       <c r="AM366" t="n">
         <v>0.11</v>
       </c>
+      <c r="AN366" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -43504,6 +44604,9 @@
       <c r="AM367" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN367" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -43569,6 +44672,9 @@
       <c r="AM368" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN368" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -43682,6 +44788,9 @@
       <c r="AM369" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN369" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -43747,6 +44856,9 @@
       <c r="AM370" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN370" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -43860,6 +44972,9 @@
       <c r="AM371" t="n">
         <v>0</v>
       </c>
+      <c r="AN371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -43925,6 +45040,9 @@
       <c r="AM372" t="n">
         <v>0.015</v>
       </c>
+      <c r="AN372" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -44038,6 +45156,9 @@
       <c r="AM373" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AN373" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -44151,6 +45272,9 @@
       <c r="AM374" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN374" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -44264,6 +45388,9 @@
       <c r="AM375" t="n">
         <v>0.01</v>
       </c>
+      <c r="AN375" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -44377,6 +45504,9 @@
       <c r="AM376" t="n">
         <v>0.015</v>
       </c>
+      <c r="AN376" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -44490,6 +45620,9 @@
       <c r="AM377" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN377" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -44603,6 +45736,9 @@
       <c r="AM378" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN378" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -44716,6 +45852,9 @@
       <c r="AM379" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN379" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -44829,6 +45968,9 @@
       <c r="AM380" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN380" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -44942,6 +46084,9 @@
       <c r="AM381" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN381" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -45055,6 +46200,9 @@
       <c r="AM382" t="n">
         <v>0.03</v>
       </c>
+      <c r="AN382" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -45168,6 +46316,9 @@
       <c r="AM383" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN383" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -45281,6 +46432,9 @@
       <c r="AM384" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN384" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -45394,6 +46548,9 @@
       <c r="AM385" t="n">
         <v>0.02</v>
       </c>
+      <c r="AN385" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -45507,6 +46664,9 @@
       <c r="AM386" t="n">
         <v>0.05</v>
       </c>
+      <c r="AN386" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -45620,6 +46780,9 @@
       <c r="AM387" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN387" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -45733,6 +46896,9 @@
       <c r="AM388" t="n">
         <v>0.06</v>
       </c>
+      <c r="AN388" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -45846,6 +47012,9 @@
       <c r="AM389" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN389" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -45959,6 +47128,9 @@
       <c r="AM390" t="n">
         <v>0.015</v>
       </c>
+      <c r="AN390" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -46072,11 +47244,14 @@
       <c r="AM391" t="n">
         <v>0.04</v>
       </c>
+      <c r="AN391" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
     </row>
@@ -46091,7 +47266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL28"/>
+  <dimension ref="A1:AM28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46290,6 +47465,11 @@
           <t>20.–26. 12. 2021</t>
         </is>
       </c>
+      <c r="AM1" s="2" t="inlineStr">
+        <is>
+          <t>17.–23. 1. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -46410,6 +47590,9 @@
       <c r="AL2" t="n">
         <v>1767</v>
       </c>
+      <c r="AM2" t="n">
+        <v>1815</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -46529,6 +47712,9 @@
       </c>
       <c r="AL3" t="n">
         <v>406</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>412</v>
       </c>
     </row>
     <row r="4">
@@ -46610,6 +47796,9 @@
       <c r="AL4" t="n">
         <v>1361</v>
       </c>
+      <c r="AM4" t="n">
+        <v>1403</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -46729,6 +47918,9 @@
       </c>
       <c r="AL5" t="n">
         <v>298</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>304</v>
       </c>
     </row>
     <row r="6">
@@ -46810,6 +48002,9 @@
       <c r="AL6" t="n">
         <v>774</v>
       </c>
+      <c r="AM6" t="n">
+        <v>797</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -46929,6 +48124,9 @@
       </c>
       <c r="AL7" t="n">
         <v>108</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="8">
@@ -47010,6 +48208,9 @@
       <c r="AL8" t="n">
         <v>587</v>
       </c>
+      <c r="AM8" t="n">
+        <v>605</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -47130,6 +48331,9 @@
       <c r="AL9" t="n">
         <v>442</v>
       </c>
+      <c r="AM9" t="n">
+        <v>444</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -47250,6 +48454,9 @@
       <c r="AL10" t="n">
         <v>647</v>
       </c>
+      <c r="AM10" t="n">
+        <v>676</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -47370,6 +48577,9 @@
       <c r="AL11" t="n">
         <v>678</v>
       </c>
+      <c r="AM11" t="n">
+        <v>695</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -47490,6 +48700,9 @@
       <c r="AL12" t="n">
         <v>422</v>
       </c>
+      <c r="AM12" t="n">
+        <v>494</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -47610,6 +48823,9 @@
       <c r="AL13" t="n">
         <v>723</v>
       </c>
+      <c r="AM13" t="n">
+        <v>759</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -47730,6 +48946,9 @@
       <c r="AL14" t="n">
         <v>622</v>
       </c>
+      <c r="AM14" t="n">
+        <v>562</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -47850,6 +49069,9 @@
       <c r="AL15" t="n">
         <v>579</v>
       </c>
+      <c r="AM15" t="n">
+        <v>666</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -47970,6 +49192,9 @@
       <c r="AL16" t="n">
         <v>447</v>
       </c>
+      <c r="AM16" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -48090,6 +49315,9 @@
       <c r="AL17" t="n">
         <v>741</v>
       </c>
+      <c r="AM17" t="n">
+        <v>649</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -48210,6 +49438,9 @@
       <c r="AL18" t="n">
         <v>862</v>
       </c>
+      <c r="AM18" t="n">
+        <v>880</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -48330,6 +49561,9 @@
       <c r="AL19" t="n">
         <v>905</v>
       </c>
+      <c r="AM19" t="n">
+        <v>935</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -48450,6 +49684,9 @@
       <c r="AL20" t="n">
         <v>916</v>
       </c>
+      <c r="AM20" t="n">
+        <v>952</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -48570,6 +49807,9 @@
       <c r="AL21" t="n">
         <v>413</v>
       </c>
+      <c r="AM21" t="n">
+        <v>413</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -48690,6 +49930,9 @@
       <c r="AL22" t="n">
         <v>205</v>
       </c>
+      <c r="AM22" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -48810,6 +50053,9 @@
       <c r="AL23" t="n">
         <v>233</v>
       </c>
+      <c r="AM23" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -48928,6 +50174,9 @@
       <c r="AL24" t="n">
         <v>567</v>
       </c>
+      <c r="AM24" t="n">
+        <v>740</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -49046,6 +50295,9 @@
       <c r="AL25" t="n">
         <v>126</v>
       </c>
+      <c r="AM25" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -49164,6 +50416,9 @@
       <c r="AL26" t="n">
         <v>80</v>
       </c>
+      <c r="AM26" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -49282,11 +50537,14 @@
       <c r="AL27" t="n">
         <v>221</v>
       </c>
+      <c r="AM27" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 6. 1. 2022</t>
+          <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -49326,6 +50584,7 @@
       <c r="AJ28" t="inlineStr"/>
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ZBP_04_socialni_aktivity.xlsx
+++ b/ZBP_04_socialni_aktivity.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN392"/>
+  <dimension ref="A1:AO392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,6 +660,11 @@
           <t>17.–23. 1. 2022</t>
         </is>
       </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>14.–20. 2. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -786,7 +791,10 @@
         <v>0.79</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.78</v>
       </c>
     </row>
     <row r="3">
@@ -916,6 +924,9 @@
       <c r="AN3" t="n">
         <v>0.34</v>
       </c>
+      <c r="AO3" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1042,7 +1053,10 @@
         <v>0.22</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="5">
@@ -1172,6 +1186,9 @@
       <c r="AN5" t="n">
         <v>0.19</v>
       </c>
+      <c r="AO5" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1300,6 +1317,9 @@
       <c r="AN6" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO6" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1428,6 +1448,9 @@
       <c r="AN7" t="n">
         <v>0.28</v>
       </c>
+      <c r="AO7" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1556,6 +1579,9 @@
       <c r="AN8" t="n">
         <v>0.11</v>
       </c>
+      <c r="AO8" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1672,6 +1698,9 @@
       <c r="AN9" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO9" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1800,6 +1829,9 @@
       <c r="AN10" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO10" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1928,6 +1960,9 @@
       <c r="AN11" t="n">
         <v>0.02</v>
       </c>
+      <c r="AO11" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2056,6 +2091,9 @@
       <c r="AN12" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AO12" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2179,7 +2217,10 @@
         <v>0.25</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="14">
@@ -2306,6 +2347,9 @@
       <c r="AN14" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO14" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2434,6 +2478,9 @@
       <c r="AN15" t="n">
         <v>0.09</v>
       </c>
+      <c r="AO15" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2550,6 +2597,9 @@
       <c r="AN16" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO16" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2678,6 +2728,9 @@
       <c r="AN17" t="n">
         <v>0.71</v>
       </c>
+      <c r="AO17" t="n">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2746,6 +2799,9 @@
       <c r="AN18" t="n">
         <v>0.77</v>
       </c>
+      <c r="AO18" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2874,6 +2930,9 @@
       <c r="AN19" t="n">
         <v>0.73</v>
       </c>
+      <c r="AO19" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2942,6 +3001,9 @@
       <c r="AN20" t="n">
         <v>0.76</v>
       </c>
+      <c r="AO20" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3068,7 +3130,10 @@
         <v>0.7</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.68</v>
       </c>
     </row>
     <row r="22">
@@ -3138,6 +3203,9 @@
       <c r="AN22" t="n">
         <v>0.78</v>
       </c>
+      <c r="AO22" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3266,6 +3334,9 @@
       <c r="AN23" t="n">
         <v>0.72</v>
       </c>
+      <c r="AO23" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3394,6 +3465,9 @@
       <c r="AN24" t="n">
         <v>0.78</v>
       </c>
+      <c r="AO24" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3520,7 +3594,10 @@
         <v>0.77</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.78</v>
       </c>
     </row>
     <row r="26">
@@ -3648,7 +3725,10 @@
         <v>0.85</v>
       </c>
       <c r="AN26" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.82</v>
       </c>
     </row>
     <row r="27">
@@ -3778,6 +3858,9 @@
       <c r="AN27" t="n">
         <v>0.73</v>
       </c>
+      <c r="AO27" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3906,6 +3989,9 @@
       <c r="AN28" t="n">
         <v>0.75</v>
       </c>
+      <c r="AO28" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4034,6 +4120,9 @@
       <c r="AN29" t="n">
         <v>0.75</v>
       </c>
+      <c r="AO29" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4160,7 +4249,10 @@
         <v>0.8</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.82</v>
       </c>
     </row>
     <row r="31">
@@ -4290,6 +4382,9 @@
       <c r="AN31" t="n">
         <v>0.73</v>
       </c>
+      <c r="AO31" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4416,7 +4511,10 @@
         <v>0.79</v>
       </c>
       <c r="AN32" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.78</v>
       </c>
     </row>
     <row r="33">
@@ -4546,6 +4644,9 @@
       <c r="AN33" t="n">
         <v>0.75</v>
       </c>
+      <c r="AO33" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4672,7 +4773,10 @@
         <v>0.77</v>
       </c>
       <c r="AN34" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0.76</v>
       </c>
     </row>
     <row r="35">
@@ -4802,6 +4906,9 @@
       <c r="AN35" t="n">
         <v>0.79</v>
       </c>
+      <c r="AO35" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4930,6 +5037,9 @@
       <c r="AN36" t="n">
         <v>0.75</v>
       </c>
+      <c r="AO36" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5058,6 +5168,9 @@
       <c r="AN37" t="n">
         <v>0.73</v>
       </c>
+      <c r="AO37" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5181,7 +5294,10 @@
         <v>0.86</v>
       </c>
       <c r="AN38" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.83</v>
       </c>
     </row>
     <row r="39">
@@ -5308,6 +5424,9 @@
       <c r="AN39" t="n">
         <v>0.83</v>
       </c>
+      <c r="AO39" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5433,6 +5552,9 @@
       <c r="AN40" t="n">
         <v>0.8100000000000001</v>
       </c>
+      <c r="AO40" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5558,6 +5680,9 @@
       <c r="AN41" t="n">
         <v>0.49</v>
       </c>
+      <c r="AO41" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5686,6 +5811,9 @@
       <c r="AN42" t="n">
         <v>0.29</v>
       </c>
+      <c r="AO42" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5754,6 +5882,9 @@
       <c r="AN43" t="n">
         <v>0.35</v>
       </c>
+      <c r="AO43" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5880,6 +6011,9 @@
         <v>0.35</v>
       </c>
       <c r="AN44" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AO44" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -5948,7 +6082,10 @@
         <v>0.35</v>
       </c>
       <c r="AN45" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="46">
@@ -6078,6 +6215,9 @@
       <c r="AN46" t="n">
         <v>0.21</v>
       </c>
+      <c r="AO46" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6146,6 +6286,9 @@
       <c r="AN47" t="n">
         <v>0.33</v>
       </c>
+      <c r="AO47" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6272,7 +6415,10 @@
         <v>0.38</v>
       </c>
       <c r="AN48" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="49">
@@ -6400,7 +6546,10 @@
         <v>0.32</v>
       </c>
       <c r="AN49" t="n">
-        <v>0.33</v>
+        <v>0.32</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="50">
@@ -6528,7 +6677,10 @@
         <v>0.29</v>
       </c>
       <c r="AN50" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="51">
@@ -6658,6 +6810,9 @@
       <c r="AN51" t="n">
         <v>0.37</v>
       </c>
+      <c r="AO51" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6786,6 +6941,9 @@
       <c r="AN52" t="n">
         <v>0.32</v>
       </c>
+      <c r="AO52" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6912,6 +7070,9 @@
         <v>0.32</v>
       </c>
       <c r="AN53" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AO53" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -7040,7 +7201,10 @@
         <v>0.36</v>
       </c>
       <c r="AN54" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="55">
@@ -7168,7 +7332,10 @@
         <v>0.27</v>
       </c>
       <c r="AN55" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="56">
@@ -7298,6 +7465,9 @@
       <c r="AN56" t="n">
         <v>0.28</v>
       </c>
+      <c r="AO56" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7426,6 +7596,9 @@
       <c r="AN57" t="n">
         <v>0.33</v>
       </c>
+      <c r="AO57" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7552,7 +7725,10 @@
         <v>0.33</v>
       </c>
       <c r="AN58" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="59">
@@ -7682,6 +7858,9 @@
       <c r="AN59" t="n">
         <v>0.25</v>
       </c>
+      <c r="AO59" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7808,7 +7987,10 @@
         <v>0.33</v>
       </c>
       <c r="AN60" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="61">
@@ -7936,7 +8118,10 @@
         <v>0.51</v>
       </c>
       <c r="AN61" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="62">
@@ -8066,6 +8251,9 @@
       <c r="AN62" t="n">
         <v>0.58</v>
       </c>
+      <c r="AO62" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -8189,7 +8377,10 @@
         <v>0.35</v>
       </c>
       <c r="AN63" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="64">
@@ -8314,7 +8505,10 @@
         <v>0.43</v>
       </c>
       <c r="AN64" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="65">
@@ -8441,6 +8635,9 @@
       <c r="AN65" t="n">
         <v>0.42</v>
       </c>
+      <c r="AO65" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8566,6 +8763,9 @@
       <c r="AN66" t="n">
         <v>0.17</v>
       </c>
+      <c r="AO66" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8694,6 +8894,9 @@
       <c r="AN67" t="n">
         <v>0.25</v>
       </c>
+      <c r="AO67" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8762,6 +8965,9 @@
       <c r="AN68" t="n">
         <v>0.31</v>
       </c>
+      <c r="AO68" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8890,6 +9096,9 @@
       <c r="AN69" t="n">
         <v>0.25</v>
       </c>
+      <c r="AO69" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8958,6 +9167,9 @@
       <c r="AN70" t="n">
         <v>0.29</v>
       </c>
+      <c r="AO70" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9084,7 +9296,10 @@
         <v>0.11</v>
       </c>
       <c r="AN71" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="72">
@@ -9154,6 +9369,9 @@
       <c r="AN72" t="n">
         <v>0.33</v>
       </c>
+      <c r="AO72" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9280,7 +9498,10 @@
         <v>0.18</v>
       </c>
       <c r="AN73" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="74">
@@ -9408,7 +9629,10 @@
         <v>0.24</v>
       </c>
       <c r="AN74" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="75">
@@ -9538,6 +9762,9 @@
       <c r="AN75" t="n">
         <v>0.32</v>
       </c>
+      <c r="AO75" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9664,7 +9891,10 @@
         <v>0.21</v>
       </c>
       <c r="AN76" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="77">
@@ -9794,6 +10024,9 @@
       <c r="AN77" t="n">
         <v>0.33</v>
       </c>
+      <c r="AO77" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9922,6 +10155,9 @@
       <c r="AN78" t="n">
         <v>0.31</v>
       </c>
+      <c r="AO78" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10048,6 +10284,9 @@
         <v>0.26</v>
       </c>
       <c r="AN79" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AO79" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -10176,7 +10415,10 @@
         <v>0.23</v>
       </c>
       <c r="AN80" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="81">
@@ -10306,6 +10548,9 @@
       <c r="AN81" t="n">
         <v>0.27</v>
       </c>
+      <c r="AO81" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10432,7 +10677,10 @@
         <v>0.2</v>
       </c>
       <c r="AN82" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="83">
@@ -10562,6 +10810,9 @@
       <c r="AN83" t="n">
         <v>0.32</v>
       </c>
+      <c r="AO83" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10688,7 +10939,10 @@
         <v>0.23</v>
       </c>
       <c r="AN84" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="85">
@@ -10816,7 +11070,10 @@
         <v>0.24</v>
       </c>
       <c r="AN85" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="86">
@@ -10946,6 +11203,9 @@
       <c r="AN86" t="n">
         <v>0.25</v>
       </c>
+      <c r="AO86" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -11074,6 +11334,9 @@
       <c r="AN87" t="n">
         <v>0.31</v>
       </c>
+      <c r="AO87" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -11197,7 +11460,10 @@
         <v>0.21</v>
       </c>
       <c r="AN88" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="89">
@@ -11322,7 +11588,10 @@
         <v>0.29</v>
       </c>
       <c r="AN89" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="90">
@@ -11449,6 +11718,9 @@
       <c r="AN90" t="n">
         <v>0.15</v>
       </c>
+      <c r="AO90" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11574,6 +11846,9 @@
       <c r="AN91" t="n">
         <v>0.48</v>
       </c>
+      <c r="AO91" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11702,6 +11977,9 @@
       <c r="AN92" t="n">
         <v>0.17</v>
       </c>
+      <c r="AO92" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11770,6 +12048,9 @@
       <c r="AN93" t="n">
         <v>0.19</v>
       </c>
+      <c r="AO93" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11898,6 +12179,9 @@
       <c r="AN94" t="n">
         <v>0.18</v>
       </c>
+      <c r="AO94" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11966,6 +12250,9 @@
       <c r="AN95" t="n">
         <v>0.2</v>
       </c>
+      <c r="AO95" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -12092,7 +12379,10 @@
         <v>0.14</v>
       </c>
       <c r="AN96" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="97">
@@ -12160,6 +12450,9 @@
         <v>0.16</v>
       </c>
       <c r="AN97" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AO97" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -12288,7 +12581,10 @@
         <v>0.25</v>
       </c>
       <c r="AN98" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="99">
@@ -12418,6 +12714,9 @@
       <c r="AN99" t="n">
         <v>0.17</v>
       </c>
+      <c r="AO99" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -12544,7 +12843,10 @@
         <v>0.16</v>
       </c>
       <c r="AN100" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="101">
@@ -12672,7 +12974,10 @@
         <v>0.19</v>
       </c>
       <c r="AN101" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="102">
@@ -12802,6 +13107,9 @@
       <c r="AN102" t="n">
         <v>0.19</v>
       </c>
+      <c r="AO102" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12930,6 +13238,9 @@
       <c r="AN103" t="n">
         <v>0.18</v>
       </c>
+      <c r="AO103" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -13056,7 +13367,10 @@
         <v>0.26</v>
       </c>
       <c r="AN104" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="105">
@@ -13186,6 +13500,9 @@
       <c r="AN105" t="n">
         <v>0.21</v>
       </c>
+      <c r="AO105" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -13314,6 +13631,9 @@
       <c r="AN106" t="n">
         <v>0.11</v>
       </c>
+      <c r="AO106" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -13442,6 +13762,9 @@
       <c r="AN107" t="n">
         <v>0.22</v>
       </c>
+      <c r="AO107" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -13570,6 +13893,9 @@
       <c r="AN108" t="n">
         <v>0.16</v>
       </c>
+      <c r="AO108" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -13698,6 +14024,9 @@
       <c r="AN109" t="n">
         <v>0.17</v>
       </c>
+      <c r="AO109" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -13824,7 +14153,10 @@
         <v>0.16</v>
       </c>
       <c r="AN110" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="111">
@@ -13954,6 +14286,9 @@
       <c r="AN111" t="n">
         <v>0.23</v>
       </c>
+      <c r="AO111" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -14082,6 +14417,9 @@
       <c r="AN112" t="n">
         <v>0.27</v>
       </c>
+      <c r="AO112" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -14207,6 +14545,9 @@
       <c r="AN113" t="n">
         <v>0.2</v>
       </c>
+      <c r="AO113" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -14330,7 +14671,10 @@
         <v>0.25</v>
       </c>
       <c r="AN114" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="115">
@@ -14457,6 +14801,9 @@
       <c r="AN115" t="n">
         <v>0.24</v>
       </c>
+      <c r="AO115" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -14582,6 +14929,9 @@
       <c r="AN116" t="n">
         <v>0.17</v>
       </c>
+      <c r="AO116" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -14710,6 +15060,9 @@
       <c r="AN117" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO117" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -14776,6 +15129,9 @@
         <v>0.04</v>
       </c>
       <c r="AN118" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AO118" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -14906,6 +15262,9 @@
       <c r="AN119" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO119" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -14974,6 +15333,9 @@
       <c r="AN120" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO120" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -15102,6 +15464,9 @@
       <c r="AN121" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO121" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -15168,6 +15533,9 @@
         <v>0.02</v>
       </c>
       <c r="AN122" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AO122" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -15298,6 +15666,9 @@
       <c r="AN123" t="n">
         <v>0.08</v>
       </c>
+      <c r="AO123" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -15426,6 +15797,9 @@
       <c r="AN124" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO124" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -15554,6 +15928,9 @@
       <c r="AN125" t="n">
         <v>0.02</v>
       </c>
+      <c r="AO125" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -15682,6 +16059,9 @@
       <c r="AN126" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO126" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -15810,6 +16190,9 @@
       <c r="AN127" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO127" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -15938,6 +16321,9 @@
       <c r="AN128" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO128" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -16066,6 +16452,9 @@
       <c r="AN129" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO129" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -16194,6 +16583,9 @@
       <c r="AN130" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO130" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -16322,6 +16714,9 @@
       <c r="AN131" t="n">
         <v>0.015</v>
       </c>
+      <c r="AO131" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -16450,6 +16845,9 @@
       <c r="AN132" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO132" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -16578,6 +16976,9 @@
       <c r="AN133" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO133" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -16706,6 +17107,9 @@
       <c r="AN134" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO134" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -16832,7 +17236,10 @@
         <v>0.05</v>
       </c>
       <c r="AN135" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="136">
@@ -16962,6 +17369,9 @@
       <c r="AN136" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO136" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -17090,6 +17500,9 @@
       <c r="AN137" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO137" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -17215,6 +17628,9 @@
       <c r="AN138" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO138" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -17338,7 +17754,10 @@
         <v>0.04</v>
       </c>
       <c r="AN139" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="140">
@@ -17465,6 +17884,9 @@
       <c r="AN140" t="n">
         <v>0.015</v>
       </c>
+      <c r="AO140" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -17590,6 +18012,9 @@
       <c r="AN141" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO141" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -17718,6 +18143,9 @@
       <c r="AN142" t="n">
         <v>0.21</v>
       </c>
+      <c r="AO142" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -17786,6 +18214,9 @@
       <c r="AN143" t="n">
         <v>0.3</v>
       </c>
+      <c r="AO143" t="n">
+        <v>0.36</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -17914,6 +18345,9 @@
       <c r="AN144" t="n">
         <v>0.21</v>
       </c>
+      <c r="AO144" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -17982,6 +18416,9 @@
       <c r="AN145" t="n">
         <v>0.34</v>
       </c>
+      <c r="AO145" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -18108,7 +18545,10 @@
         <v>0.13</v>
       </c>
       <c r="AN146" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="147">
@@ -18176,7 +18616,10 @@
         <v>0.2</v>
       </c>
       <c r="AN147" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="148">
@@ -18306,6 +18749,9 @@
       <c r="AN148" t="n">
         <v>0.38</v>
       </c>
+      <c r="AO148" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -18434,6 +18880,9 @@
       <c r="AN149" t="n">
         <v>0.26</v>
       </c>
+      <c r="AO149" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -18560,7 +19009,10 @@
         <v>0.19</v>
       </c>
       <c r="AN150" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="151">
@@ -18690,6 +19142,9 @@
       <c r="AN151" t="n">
         <v>0.33</v>
       </c>
+      <c r="AO151" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -18816,7 +19271,10 @@
         <v>0.22</v>
       </c>
       <c r="AN152" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="153">
@@ -18946,6 +19404,9 @@
       <c r="AN153" t="n">
         <v>0.24</v>
       </c>
+      <c r="AO153" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -19072,7 +19533,10 @@
         <v>0.32</v>
       </c>
       <c r="AN154" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="155">
@@ -19202,6 +19666,9 @@
       <c r="AN155" t="n">
         <v>0.29</v>
       </c>
+      <c r="AO155" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -19328,7 +19795,10 @@
         <v>0.21</v>
       </c>
       <c r="AN156" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="157">
@@ -19458,6 +19928,9 @@
       <c r="AN157" t="n">
         <v>0.39</v>
       </c>
+      <c r="AO157" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -19586,6 +20059,9 @@
       <c r="AN158" t="n">
         <v>0.18</v>
       </c>
+      <c r="AO158" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -19714,6 +20190,9 @@
       <c r="AN159" t="n">
         <v>0.23</v>
       </c>
+      <c r="AO159" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -19842,6 +20321,9 @@
       <c r="AN160" t="n">
         <v>0.29</v>
       </c>
+      <c r="AO160" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -19970,6 +20452,9 @@
       <c r="AN161" t="n">
         <v>0.38</v>
       </c>
+      <c r="AO161" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -20096,7 +20581,10 @@
         <v>0.38</v>
       </c>
       <c r="AN162" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="163">
@@ -20223,6 +20711,9 @@
       <c r="AN163" t="n">
         <v>0.31</v>
       </c>
+      <c r="AO163" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -20346,7 +20837,10 @@
         <v>0.35</v>
       </c>
       <c r="AN164" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="165">
@@ -20473,6 +20967,9 @@
       <c r="AN165" t="n">
         <v>0.32</v>
       </c>
+      <c r="AO165" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -20598,6 +21095,9 @@
       <c r="AN166" t="n">
         <v>0.18</v>
       </c>
+      <c r="AO166" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -20726,6 +21226,9 @@
       <c r="AN167" t="n">
         <v>0.13</v>
       </c>
+      <c r="AO167" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -20794,6 +21297,9 @@
       <c r="AN168" t="n">
         <v>0.1</v>
       </c>
+      <c r="AO168" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -20920,7 +21426,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AN169" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="170">
@@ -20990,6 +21499,9 @@
       <c r="AN170" t="n">
         <v>0.14</v>
       </c>
+      <c r="AO170" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -21118,6 +21630,9 @@
       <c r="AN171" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO171" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -21184,6 +21699,9 @@
         <v>0.04</v>
       </c>
       <c r="AN172" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AO172" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -21312,7 +21830,10 @@
         <v>0.15</v>
       </c>
       <c r="AN173" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="174">
@@ -21442,6 +21963,9 @@
       <c r="AN174" t="n">
         <v>0.11</v>
       </c>
+      <c r="AO174" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -21570,6 +22094,9 @@
       <c r="AN175" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO175" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -21698,6 +22225,9 @@
       <c r="AN176" t="n">
         <v>0.15</v>
       </c>
+      <c r="AO176" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -21826,6 +22356,9 @@
       <c r="AN177" t="n">
         <v>0.11</v>
       </c>
+      <c r="AO177" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -21954,6 +22487,9 @@
       <c r="AN178" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO178" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -22082,6 +22618,9 @@
       <c r="AN179" t="n">
         <v>0.16</v>
       </c>
+      <c r="AO179" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -22208,7 +22747,10 @@
         <v>0.05</v>
       </c>
       <c r="AN180" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="181">
@@ -22338,6 +22880,9 @@
       <c r="AN181" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO181" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -22466,6 +23011,9 @@
       <c r="AN182" t="n">
         <v>0.12</v>
       </c>
+      <c r="AO182" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -22594,6 +23142,9 @@
       <c r="AN183" t="n">
         <v>0.1</v>
       </c>
+      <c r="AO183" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -22722,6 +23273,9 @@
       <c r="AN184" t="n">
         <v>0.1</v>
       </c>
+      <c r="AO184" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -22848,7 +23402,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AN185" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="186">
@@ -22976,7 +23533,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AN186" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="187">
@@ -23104,7 +23664,10 @@
         <v>0.13</v>
       </c>
       <c r="AN187" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="188">
@@ -23231,6 +23794,9 @@
       <c r="AN188" t="n">
         <v>0.15</v>
       </c>
+      <c r="AO188" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -23354,7 +23920,10 @@
         <v>0.08</v>
       </c>
       <c r="AN189" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
+      </c>
+      <c r="AO189" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="190">
@@ -23481,6 +24050,9 @@
       <c r="AN190" t="n">
         <v>0.2</v>
       </c>
+      <c r="AO190" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -23606,6 +24178,9 @@
       <c r="AN191" t="n">
         <v>0.08</v>
       </c>
+      <c r="AO191" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -23720,7 +24295,10 @@
         <v>0.11</v>
       </c>
       <c r="AN192" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
+      </c>
+      <c r="AO192" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="193">
@@ -23790,6 +24368,9 @@
       <c r="AN193" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO193" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -23906,6 +24487,9 @@
       <c r="AN194" t="n">
         <v>0.08</v>
       </c>
+      <c r="AO194" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -23974,6 +24558,9 @@
       <c r="AN195" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO195" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -24088,7 +24675,10 @@
         <v>0.12</v>
       </c>
       <c r="AN196" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="197">
@@ -24158,6 +24748,9 @@
       <c r="AN197" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO197" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -24272,7 +24865,10 @@
         <v>0.14</v>
       </c>
       <c r="AN198" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="199">
@@ -24388,6 +24984,9 @@
         <v>0.09</v>
       </c>
       <c r="AN199" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AO199" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -24504,7 +25103,10 @@
         <v>0.1</v>
       </c>
       <c r="AN200" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="201">
@@ -24622,6 +25224,9 @@
       <c r="AN201" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO201" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -24738,6 +25343,9 @@
       <c r="AN202" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO202" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -24854,6 +25462,9 @@
       <c r="AN203" t="n">
         <v>0.08</v>
       </c>
+      <c r="AO203" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -24968,7 +25579,10 @@
         <v>0.15</v>
       </c>
       <c r="AN204" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="205">
@@ -25086,6 +25700,9 @@
       <c r="AN205" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO205" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -25202,6 +25819,9 @@
       <c r="AN206" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO206" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -25318,6 +25938,9 @@
       <c r="AN207" t="n">
         <v>0.08</v>
       </c>
+      <c r="AO207" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -25434,6 +26057,9 @@
       <c r="AN208" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO208" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -25550,6 +26176,9 @@
       <c r="AN209" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO209" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -25666,6 +26295,9 @@
       <c r="AN210" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO210" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -25780,6 +26412,9 @@
         <v>0.13</v>
       </c>
       <c r="AN211" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AO211" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -25898,6 +26533,9 @@
       <c r="AN212" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO212" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -26014,6 +26652,9 @@
       <c r="AN213" t="n">
         <v>0.08</v>
       </c>
+      <c r="AO213" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -26130,6 +26771,9 @@
       <c r="AN214" t="n">
         <v>0.08</v>
       </c>
+      <c r="AO214" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -26246,6 +26890,9 @@
       <c r="AN215" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO215" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -26362,6 +27009,9 @@
       <c r="AN216" t="n">
         <v>0</v>
       </c>
+      <c r="AO216" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -26490,6 +27140,9 @@
       <c r="AN217" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO217" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -26585,6 +27238,9 @@
       <c r="AN218" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO218" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -26713,6 +27369,9 @@
       <c r="AN219" t="n">
         <v>0.08</v>
       </c>
+      <c r="AO219" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -26808,6 +27467,9 @@
       <c r="AN220" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO220" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -26936,6 +27598,9 @@
       <c r="AN221" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO221" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -27031,6 +27696,9 @@
       <c r="AN222" t="n">
         <v>0.02</v>
       </c>
+      <c r="AO222" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -27159,6 +27827,9 @@
       <c r="AN223" t="n">
         <v>0.09</v>
       </c>
+      <c r="AO223" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -27287,6 +27958,9 @@
       <c r="AN224" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO224" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -27415,6 +28089,9 @@
       <c r="AN225" t="n">
         <v>0.02</v>
       </c>
+      <c r="AO225" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -27543,6 +28220,9 @@
       <c r="AN226" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO226" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -27671,6 +28351,9 @@
       <c r="AN227" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO227" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -27799,6 +28482,9 @@
       <c r="AN228" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO228" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -27927,6 +28613,9 @@
       <c r="AN229" t="n">
         <v>0.08</v>
       </c>
+      <c r="AO229" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -28055,6 +28744,9 @@
       <c r="AN230" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO230" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -28183,6 +28875,9 @@
       <c r="AN231" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO231" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -28311,6 +29006,9 @@
       <c r="AN232" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO232" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -28439,6 +29137,9 @@
       <c r="AN233" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO233" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -28567,6 +29268,9 @@
       <c r="AN234" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO234" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -28695,6 +29399,9 @@
       <c r="AN235" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO235" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -28823,6 +29530,9 @@
       <c r="AN236" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO236" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -28951,6 +29661,9 @@
       <c r="AN237" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO237" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -29074,7 +29787,10 @@
         <v>0.08</v>
       </c>
       <c r="AN238" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="239">
@@ -29201,6 +29917,9 @@
       <c r="AN239" t="n">
         <v>0.09</v>
       </c>
+      <c r="AO239" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -29324,7 +30043,10 @@
         <v>0.08</v>
       </c>
       <c r="AN240" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="241">
@@ -29451,6 +30173,9 @@
       <c r="AN241" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO241" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -29579,6 +30304,9 @@
       <c r="AN242" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO242" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -29683,6 +30411,9 @@
       <c r="AN243" t="n">
         <v>0.015</v>
       </c>
+      <c r="AO243" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -29809,7 +30540,10 @@
         <v>0.05</v>
       </c>
       <c r="AN244" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="245">
@@ -29915,6 +30649,9 @@
       <c r="AN245" t="n">
         <v>0.02</v>
       </c>
+      <c r="AO245" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -30043,6 +30780,9 @@
       <c r="AN246" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO246" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -30147,6 +30887,9 @@
       <c r="AN247" t="n">
         <v>0.01</v>
       </c>
+      <c r="AO247" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -30275,6 +31018,9 @@
       <c r="AN248" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO248" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -30403,6 +31149,9 @@
       <c r="AN249" t="n">
         <v>0.02</v>
       </c>
+      <c r="AO249" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -30531,6 +31280,9 @@
       <c r="AN250" t="n">
         <v>0.01</v>
       </c>
+      <c r="AO250" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -30659,6 +31411,9 @@
       <c r="AN251" t="n">
         <v>0.015</v>
       </c>
+      <c r="AO251" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -30787,6 +31542,9 @@
       <c r="AN252" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO252" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -30915,6 +31673,9 @@
       <c r="AN253" t="n">
         <v>0.02</v>
       </c>
+      <c r="AO253" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -31043,6 +31804,9 @@
       <c r="AN254" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO254" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -31171,6 +31935,9 @@
       <c r="AN255" t="n">
         <v>0.015</v>
       </c>
+      <c r="AO255" t="n">
+        <v>0.005</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -31299,6 +32066,9 @@
       <c r="AN256" t="n">
         <v>0.01</v>
       </c>
+      <c r="AO256" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -31427,6 +32197,9 @@
       <c r="AN257" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO257" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -31555,6 +32328,9 @@
       <c r="AN258" t="n">
         <v>0.02</v>
       </c>
+      <c r="AO258" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -31683,6 +32459,9 @@
       <c r="AN259" t="n">
         <v>0.02</v>
       </c>
+      <c r="AO259" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -31809,7 +32588,10 @@
         <v>0.015</v>
       </c>
       <c r="AN260" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="261">
@@ -31939,6 +32721,9 @@
       <c r="AN261" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO261" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -32067,6 +32852,9 @@
       <c r="AN262" t="n">
         <v>0.02</v>
       </c>
+      <c r="AO262" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -32192,6 +32980,9 @@
       <c r="AN263" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO263" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -32317,6 +33108,9 @@
       <c r="AN264" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -32442,6 +33236,9 @@
       <c r="AN265" t="n">
         <v>0</v>
       </c>
+      <c r="AO265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -32567,6 +33364,9 @@
       <c r="AN266" t="n">
         <v>0.005</v>
       </c>
+      <c r="AO266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -32693,7 +33493,10 @@
         <v>0.68</v>
       </c>
       <c r="AN267" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="268">
@@ -32763,6 +33566,9 @@
       <c r="AN268" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AO268" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -32891,6 +33697,9 @@
       <c r="AN269" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AO269" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -32959,6 +33768,9 @@
       <c r="AN270" t="n">
         <v>0.58</v>
       </c>
+      <c r="AO270" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -33085,6 +33897,9 @@
         <v>0.65</v>
       </c>
       <c r="AN271" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AO271" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -33155,6 +33970,9 @@
       <c r="AN272" t="n">
         <v>0.53</v>
       </c>
+      <c r="AO272" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -33281,7 +34099,10 @@
         <v>0.78</v>
       </c>
       <c r="AN273" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="274">
@@ -33409,7 +34230,10 @@
         <v>0.72</v>
       </c>
       <c r="AN274" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="275">
@@ -33539,6 +34363,9 @@
       <c r="AN275" t="n">
         <v>0.54</v>
       </c>
+      <c r="AO275" t="n">
+        <v>0.58</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -33667,6 +34494,9 @@
       <c r="AN276" t="n">
         <v>0.6</v>
       </c>
+      <c r="AO276" t="n">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -33795,6 +34625,9 @@
       <c r="AN277" t="n">
         <v>0.53</v>
       </c>
+      <c r="AO277" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -33923,6 +34756,9 @@
       <c r="AN278" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="AO278" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -34051,6 +34887,9 @@
       <c r="AN279" t="n">
         <v>0.62</v>
       </c>
+      <c r="AO279" t="n">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -34179,6 +35018,9 @@
       <c r="AN280" t="n">
         <v>0.54</v>
       </c>
+      <c r="AO280" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -34307,6 +35149,9 @@
       <c r="AN281" t="n">
         <v>0.51</v>
       </c>
+      <c r="AO281" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -34435,6 +35280,9 @@
       <c r="AN282" t="n">
         <v>0.57</v>
       </c>
+      <c r="AO282" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -34563,6 +35411,9 @@
       <c r="AN283" t="n">
         <v>0.55</v>
       </c>
+      <c r="AO283" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -34691,6 +35542,9 @@
       <c r="AN284" t="n">
         <v>0.6</v>
       </c>
+      <c r="AO284" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -34819,6 +35673,9 @@
       <c r="AN285" t="n">
         <v>0.51</v>
       </c>
+      <c r="AO285" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -34947,6 +35804,9 @@
       <c r="AN286" t="n">
         <v>0.53</v>
       </c>
+      <c r="AO286" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -35073,7 +35933,10 @@
         <v>0.74</v>
       </c>
       <c r="AN287" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
+      </c>
+      <c r="AO287" t="n">
+        <v>0.55</v>
       </c>
     </row>
     <row r="288">
@@ -35200,6 +36063,9 @@
       <c r="AN288" t="n">
         <v>0.59</v>
       </c>
+      <c r="AO288" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -35323,7 +36189,10 @@
         <v>0.75</v>
       </c>
       <c r="AN289" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
+      </c>
+      <c r="AO289" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="290">
@@ -35448,6 +36317,9 @@
         <v>0.82</v>
       </c>
       <c r="AN290" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AO290" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -35575,6 +36447,9 @@
       <c r="AN291" t="n">
         <v>0.35</v>
       </c>
+      <c r="AO291" t="n">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -35700,6 +36575,9 @@
       <c r="AN292" t="n">
         <v>0.26</v>
       </c>
+      <c r="AO292" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -35766,7 +36644,10 @@
         <v>0.25</v>
       </c>
       <c r="AN293" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
+      </c>
+      <c r="AO293" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="294">
@@ -35893,6 +36774,9 @@
       <c r="AN294" t="n">
         <v>0.29</v>
       </c>
+      <c r="AO294" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -35961,6 +36845,9 @@
       <c r="AN295" t="n">
         <v>0.24</v>
       </c>
+      <c r="AO295" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -36084,7 +36971,10 @@
         <v>0.19</v>
       </c>
       <c r="AN296" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
+      </c>
+      <c r="AO296" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="297">
@@ -36152,7 +37042,10 @@
         <v>0.22</v>
       </c>
       <c r="AN297" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
+      </c>
+      <c r="AO297" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="298">
@@ -36277,7 +37170,10 @@
         <v>0.33</v>
       </c>
       <c r="AN298" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
+      </c>
+      <c r="AO298" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="299">
@@ -36404,6 +37300,9 @@
       <c r="AN299" t="n">
         <v>0.2</v>
       </c>
+      <c r="AO299" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -36529,6 +37428,9 @@
       <c r="AN300" t="n">
         <v>0.18</v>
       </c>
+      <c r="AO300" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -36652,7 +37554,10 @@
         <v>0.3</v>
       </c>
       <c r="AN301" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
+      </c>
+      <c r="AO301" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="302">
@@ -36777,7 +37682,10 @@
         <v>0.22</v>
       </c>
       <c r="AN302" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
+      </c>
+      <c r="AO302" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="303">
@@ -36902,6 +37810,9 @@
         <v>0.26</v>
       </c>
       <c r="AN303" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AO303" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -37027,6 +37938,9 @@
         <v>0.33</v>
       </c>
       <c r="AN304" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AO304" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -37154,6 +38068,9 @@
       <c r="AN305" t="n">
         <v>0.17</v>
       </c>
+      <c r="AO305" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -37279,6 +38196,9 @@
       <c r="AN306" t="n">
         <v>0.18</v>
       </c>
+      <c r="AO306" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -37404,6 +38324,9 @@
       <c r="AN307" t="n">
         <v>0.24</v>
       </c>
+      <c r="AO307" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -37529,6 +38452,9 @@
       <c r="AN308" t="n">
         <v>0.21</v>
       </c>
+      <c r="AO308" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -37654,6 +38580,9 @@
       <c r="AN309" t="n">
         <v>0.22</v>
       </c>
+      <c r="AO309" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -37779,6 +38708,9 @@
       <c r="AN310" t="n">
         <v>0.21</v>
       </c>
+      <c r="AO310" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -37904,6 +38836,9 @@
       <c r="AN311" t="n">
         <v>0.2</v>
       </c>
+      <c r="AO311" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -38029,6 +38964,9 @@
       <c r="AN312" t="n">
         <v>0.27</v>
       </c>
+      <c r="AO312" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -38152,7 +39090,10 @@
         <v>0.31</v>
       </c>
       <c r="AN313" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
+      </c>
+      <c r="AO313" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="314">
@@ -38277,7 +39218,10 @@
         <v>0.33</v>
       </c>
       <c r="AN314" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
+      </c>
+      <c r="AO314" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="315">
@@ -38404,6 +39348,9 @@
       <c r="AN315" t="n">
         <v>0.12</v>
       </c>
+      <c r="AO315" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -38529,6 +39476,9 @@
       <c r="AN316" t="n">
         <v>0.19</v>
       </c>
+      <c r="AO316" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -38652,6 +39602,9 @@
         <v>0.09</v>
       </c>
       <c r="AN317" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AO317" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -38722,6 +39675,9 @@
       <c r="AN318" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO318" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -38845,7 +39801,10 @@
         <v>0.1</v>
       </c>
       <c r="AN319" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
+      </c>
+      <c r="AO319" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="320">
@@ -38915,6 +39874,9 @@
       <c r="AN320" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO320" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -39038,7 +40000,10 @@
         <v>0.06</v>
       </c>
       <c r="AN321" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
+      </c>
+      <c r="AO321" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="322">
@@ -39108,6 +40073,9 @@
       <c r="AN322" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO322" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -39233,6 +40201,9 @@
       <c r="AN323" t="n">
         <v>0.09</v>
       </c>
+      <c r="AO323" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -39358,6 +40329,9 @@
       <c r="AN324" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO324" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -39483,6 +40457,9 @@
       <c r="AN325" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO325" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -39608,6 +40585,9 @@
       <c r="AN326" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO326" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -39733,6 +40713,9 @@
       <c r="AN327" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO327" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -39858,6 +40841,9 @@
       <c r="AN328" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO328" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -39983,6 +40969,9 @@
       <c r="AN329" t="n">
         <v>0.08</v>
       </c>
+      <c r="AO329" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -40108,6 +41097,9 @@
       <c r="AN330" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO330" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -40233,6 +41225,9 @@
       <c r="AN331" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO331" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -40358,6 +41353,9 @@
       <c r="AN332" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO332" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -40483,6 +41481,9 @@
       <c r="AN333" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO333" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -40608,6 +41609,9 @@
       <c r="AN334" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO334" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -40733,6 +41737,9 @@
       <c r="AN335" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO335" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -40858,6 +41865,9 @@
       <c r="AN336" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO336" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -40983,6 +41993,9 @@
       <c r="AN337" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO337" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -41108,6 +42121,9 @@
       <c r="AN338" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="AO338" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -41231,7 +42247,10 @@
         <v>0.05</v>
       </c>
       <c r="AN339" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
+      </c>
+      <c r="AO339" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="340">
@@ -41356,7 +42375,10 @@
         <v>0.13</v>
       </c>
       <c r="AN340" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
+      </c>
+      <c r="AO340" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="341">
@@ -41483,6 +42505,9 @@
       <c r="AN341" t="n">
         <v>0.005</v>
       </c>
+      <c r="AO341" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -41611,6 +42636,9 @@
       <c r="AN342" t="n">
         <v>0.12</v>
       </c>
+      <c r="AO342" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -41679,6 +42707,9 @@
       <c r="AN343" t="n">
         <v>0.08</v>
       </c>
+      <c r="AO343" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -41805,7 +42836,10 @@
         <v>0.12</v>
       </c>
       <c r="AN344" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
+      </c>
+      <c r="AO344" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="345">
@@ -41875,6 +42909,9 @@
       <c r="AN345" t="n">
         <v>0.11</v>
       </c>
+      <c r="AO345" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -42003,6 +43040,9 @@
       <c r="AN346" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO346" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -42071,6 +43111,9 @@
       <c r="AN347" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO347" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -42199,6 +43242,9 @@
       <c r="AN348" t="n">
         <v>0.16</v>
       </c>
+      <c r="AO348" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -42325,7 +43371,10 @@
         <v>0.09</v>
       </c>
       <c r="AN349" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
+      </c>
+      <c r="AO349" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="350">
@@ -42455,6 +43504,9 @@
       <c r="AN350" t="n">
         <v>0.05</v>
       </c>
+      <c r="AO350" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -42583,6 +43635,9 @@
       <c r="AN351" t="n">
         <v>0.13</v>
       </c>
+      <c r="AO351" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -42711,6 +43766,9 @@
       <c r="AN352" t="n">
         <v>0.09</v>
       </c>
+      <c r="AO352" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -42839,6 +43897,9 @@
       <c r="AN353" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO353" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -42967,6 +44028,9 @@
       <c r="AN354" t="n">
         <v>0.16</v>
       </c>
+      <c r="AO354" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -43095,6 +44159,9 @@
       <c r="AN355" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO355" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -43221,7 +44288,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AN356" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
+      </c>
+      <c r="AO356" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="357">
@@ -43351,6 +44421,9 @@
       <c r="AN357" t="n">
         <v>0.1</v>
       </c>
+      <c r="AO357" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -43477,7 +44550,10 @@
         <v>0.08</v>
       </c>
       <c r="AN358" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
+      </c>
+      <c r="AO358" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="359">
@@ -43607,6 +44683,9 @@
       <c r="AN359" t="n">
         <v>0.08</v>
       </c>
+      <c r="AO359" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -43733,7 +44812,10 @@
         <v>0.05</v>
       </c>
       <c r="AN360" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
+      </c>
+      <c r="AO360" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="361">
@@ -43863,6 +44945,9 @@
       <c r="AN361" t="n">
         <v>0.14</v>
       </c>
+      <c r="AO361" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -43991,6 +45076,9 @@
       <c r="AN362" t="n">
         <v>0.11</v>
       </c>
+      <c r="AO362" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -44116,6 +45204,9 @@
       <c r="AN363" t="n">
         <v>0.11</v>
       </c>
+      <c r="AO363" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -44239,7 +45330,10 @@
         <v>0.15</v>
       </c>
       <c r="AN364" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
+      </c>
+      <c r="AO364" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="365">
@@ -44364,7 +45458,10 @@
         <v>0.02</v>
       </c>
       <c r="AN365" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
+      </c>
+      <c r="AO365" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="366">
@@ -44489,6 +45586,9 @@
         <v>0.11</v>
       </c>
       <c r="AN366" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AO366" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -44605,7 +45705,10 @@
         <v>0.05</v>
       </c>
       <c r="AN367" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
+      </c>
+      <c r="AO367" t="n">
+        <v>0.015</v>
       </c>
     </row>
     <row r="368">
@@ -44675,6 +45778,9 @@
       <c r="AN368" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO368" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -44789,7 +45895,10 @@
         <v>0.06</v>
       </c>
       <c r="AN369" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
+      </c>
+      <c r="AO369" t="n">
+        <v>0.015</v>
       </c>
     </row>
     <row r="370">
@@ -44859,6 +45968,9 @@
       <c r="AN370" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO370" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -44975,6 +46087,9 @@
       <c r="AN371" t="n">
         <v>0</v>
       </c>
+      <c r="AO371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -45043,6 +46158,9 @@
       <c r="AN372" t="n">
         <v>0.02</v>
       </c>
+      <c r="AO372" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -45157,7 +46275,10 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AN373" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AO373" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="374">
@@ -45275,6 +46396,9 @@
       <c r="AN374" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO374" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -45391,6 +46515,9 @@
       <c r="AN375" t="n">
         <v>0.01</v>
       </c>
+      <c r="AO375" t="n">
+        <v>0.015</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -45507,6 +46634,9 @@
       <c r="AN376" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO376" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -45623,6 +46753,9 @@
       <c r="AN377" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO377" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -45739,6 +46872,9 @@
       <c r="AN378" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO378" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -45855,6 +46991,9 @@
       <c r="AN379" t="n">
         <v>0.06</v>
       </c>
+      <c r="AO379" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -45971,6 +47110,9 @@
       <c r="AN380" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO380" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -46087,6 +47229,9 @@
       <c r="AN381" t="n">
         <v>0.005</v>
       </c>
+      <c r="AO381" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -46201,7 +47346,10 @@
         <v>0.03</v>
       </c>
       <c r="AN382" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
+      </c>
+      <c r="AO382" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="383">
@@ -46319,6 +47467,9 @@
       <c r="AN383" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO383" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -46435,6 +47586,9 @@
       <c r="AN384" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO384" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -46549,7 +47703,10 @@
         <v>0.02</v>
       </c>
       <c r="AN385" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
+      </c>
+      <c r="AO385" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="386">
@@ -46667,6 +47824,9 @@
       <c r="AN386" t="n">
         <v>0.03</v>
       </c>
+      <c r="AO386" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -46783,6 +47943,9 @@
       <c r="AN387" t="n">
         <v>0.02</v>
       </c>
+      <c r="AO387" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -46899,6 +48062,9 @@
       <c r="AN388" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO388" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -47013,7 +48179,10 @@
         <v>0.04</v>
       </c>
       <c r="AN389" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
+      </c>
+      <c r="AO389" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="390">
@@ -47131,6 +48300,9 @@
       <c r="AN390" t="n">
         <v>0.015</v>
       </c>
+      <c r="AO390" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -47247,11 +48419,14 @@
       <c r="AN391" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO391" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Život během pandemie, Sociální aktivity, % respondentů celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
     </row>
@@ -47266,7 +48441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM28"/>
+  <dimension ref="A1:AN28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47470,6 +48645,11 @@
           <t>17.–23. 1. 2022</t>
         </is>
       </c>
+      <c r="AN1" s="2" t="inlineStr">
+        <is>
+          <t>14.–20. 2. 2022</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -47591,7 +48771,10 @@
         <v>1767</v>
       </c>
       <c r="AM2" t="n">
-        <v>1815</v>
+        <v>1848</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1786</v>
       </c>
     </row>
     <row r="3">
@@ -47714,7 +48897,10 @@
         <v>406</v>
       </c>
       <c r="AM3" t="n">
-        <v>412</v>
+        <v>419</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>366</v>
       </c>
     </row>
     <row r="4">
@@ -47797,7 +48983,10 @@
         <v>1361</v>
       </c>
       <c r="AM4" t="n">
-        <v>1403</v>
+        <v>1429</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1420</v>
       </c>
     </row>
     <row r="5">
@@ -47920,7 +49109,10 @@
         <v>298</v>
       </c>
       <c r="AM5" t="n">
-        <v>304</v>
+        <v>305</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>275</v>
       </c>
     </row>
     <row r="6">
@@ -48003,7 +49195,10 @@
         <v>774</v>
       </c>
       <c r="AM6" t="n">
-        <v>797</v>
+        <v>815</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>808</v>
       </c>
     </row>
     <row r="7">
@@ -48126,7 +49321,10 @@
         <v>108</v>
       </c>
       <c r="AM7" t="n">
-        <v>109</v>
+        <v>114</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -48209,7 +49407,10 @@
         <v>587</v>
       </c>
       <c r="AM8" t="n">
-        <v>605</v>
+        <v>614</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>612</v>
       </c>
     </row>
     <row r="9">
@@ -48332,7 +49533,10 @@
         <v>442</v>
       </c>
       <c r="AM9" t="n">
-        <v>444</v>
+        <v>451</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>445</v>
       </c>
     </row>
     <row r="10">
@@ -48455,7 +49659,10 @@
         <v>647</v>
       </c>
       <c r="AM10" t="n">
-        <v>676</v>
+        <v>689</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>663</v>
       </c>
     </row>
     <row r="11">
@@ -48578,7 +49785,10 @@
         <v>678</v>
       </c>
       <c r="AM11" t="n">
-        <v>695</v>
+        <v>708</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>678</v>
       </c>
     </row>
     <row r="12">
@@ -48701,7 +49911,10 @@
         <v>422</v>
       </c>
       <c r="AM12" t="n">
-        <v>494</v>
+        <v>499</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>567</v>
       </c>
     </row>
     <row r="13">
@@ -48824,7 +50037,10 @@
         <v>723</v>
       </c>
       <c r="AM13" t="n">
-        <v>759</v>
+        <v>773</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>778</v>
       </c>
     </row>
     <row r="14">
@@ -48947,7 +50163,10 @@
         <v>622</v>
       </c>
       <c r="AM14" t="n">
-        <v>562</v>
+        <v>576</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>441</v>
       </c>
     </row>
     <row r="15">
@@ -49070,7 +50289,10 @@
         <v>579</v>
       </c>
       <c r="AM15" t="n">
-        <v>666</v>
+        <v>683</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>682</v>
       </c>
     </row>
     <row r="16">
@@ -49193,7 +50415,10 @@
         <v>447</v>
       </c>
       <c r="AM16" t="n">
-        <v>500</v>
+        <v>504</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>421</v>
       </c>
     </row>
     <row r="17">
@@ -49316,7 +50541,10 @@
         <v>741</v>
       </c>
       <c r="AM17" t="n">
-        <v>649</v>
+        <v>661</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>683</v>
       </c>
     </row>
     <row r="18">
@@ -49439,7 +50667,10 @@
         <v>862</v>
       </c>
       <c r="AM18" t="n">
-        <v>880</v>
+        <v>893</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>863</v>
       </c>
     </row>
     <row r="19">
@@ -49562,7 +50793,10 @@
         <v>905</v>
       </c>
       <c r="AM19" t="n">
-        <v>935</v>
+        <v>955</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>923</v>
       </c>
     </row>
     <row r="20">
@@ -49685,7 +50919,10 @@
         <v>916</v>
       </c>
       <c r="AM20" t="n">
-        <v>952</v>
+        <v>973</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>931</v>
       </c>
     </row>
     <row r="21">
@@ -49808,6 +51045,9 @@
         <v>413</v>
       </c>
       <c r="AM21" t="n">
+        <v>416</v>
+      </c>
+      <c r="AN21" t="n">
         <v>413</v>
       </c>
     </row>
@@ -49931,7 +51171,10 @@
         <v>205</v>
       </c>
       <c r="AM22" t="n">
-        <v>211</v>
+        <v>215</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="23">
@@ -50054,7 +51297,10 @@
         <v>233</v>
       </c>
       <c r="AM23" t="n">
-        <v>239</v>
+        <v>244</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="24">
@@ -50175,7 +51421,10 @@
         <v>567</v>
       </c>
       <c r="AM24" t="n">
-        <v>740</v>
+        <v>759</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>714</v>
       </c>
     </row>
     <row r="25">
@@ -50296,7 +51545,10 @@
         <v>126</v>
       </c>
       <c r="AM25" t="n">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="26">
@@ -50417,7 +51669,10 @@
         <v>80</v>
       </c>
       <c r="AM26" t="n">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="27">
@@ -50538,13 +51793,16 @@
         <v>221</v>
       </c>
       <c r="AM27" t="n">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 1. 2. 2022</t>
+          <t>Život během pandemie, Sociální aktivity, velikost dotázaného souboru celkově a ve skupinách, aktualizace 2. 3. 2022</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
@@ -50585,6 +51843,7 @@
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
